--- a/Battlefield5.xlsx
+++ b/Battlefield5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Science\BattlefieldV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290045A6-3D24-4E29-8971-FD67E86FAE32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AAFF1A-6402-43BF-82FE-1D7EBEFFF062}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{F69A186D-8374-47DD-86A7-853B8690958C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -107,13 +107,57 @@
   <si>
     <t>Arras</t>
   </si>
+  <si>
+    <t>Game_Score</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>MG42</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Assault</t>
+  </si>
+  <si>
+    <t>Sturmgeweher 1-5</t>
+  </si>
+  <si>
+    <t>STG 44</t>
+  </si>
+  <si>
+    <t>AVG K/D</t>
+  </si>
+  <si>
+    <t>Total K/D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -141,11 +185,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,2202 +506,5466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5512DE-6917-45D6-9375-2633379DD30B}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43439</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H33" si="0">E2-F2</f>
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K33" si="0">H2-I2</f>
         <v>-1</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>-1</v>
       </c>
-      <c r="J2" s="3">
-        <f>E2/F2</f>
+      <c r="M2" s="3">
+        <f t="shared" ref="M2:M33" si="1">H2/I2</f>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N2" s="3">
+        <f>AVERAGE(M2:M97)</f>
+        <v>0.87081277157225301</v>
+      </c>
+      <c r="O2" s="3">
+        <f>SUM(H1:H91)/SUM(I1:I97)</f>
+        <v>0.71934865900383138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43439</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
+        <f>1+B2</f>
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="K3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3">
-        <f>H3+I2</f>
+      <c r="L3">
+        <f>K3+L2</f>
         <v>-1</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J65" si="1">E3/F3</f>
+      <c r="M3" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43439</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B67" si="2">1+B3</f>
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
       <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I65" si="2">H4+I3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="3">K4+L3</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
         <f t="shared" si="1"/>
         <v>1.125</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43440</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>19</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
+      <c r="L5">
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
-      <c r="J5" s="3">
+      <c r="M5" s="3">
         <f t="shared" si="1"/>
         <v>0.68421052631578949</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43440</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>12</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
+      <c r="L6">
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
-      <c r="J6" s="3">
+      <c r="M6" s="3">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43442</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>13</v>
-      </c>
-      <c r="E7">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
       <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
+      <c r="L7">
+        <f t="shared" si="3"/>
         <v>-11</v>
       </c>
-      <c r="J7" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="1"/>
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43442</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>7</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
       <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
+      <c r="L8">
+        <f t="shared" si="3"/>
         <v>-12</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43442</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>9</v>
-      </c>
-      <c r="E9">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>18</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
       <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>18</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
+      <c r="L9">
+        <f t="shared" si="3"/>
         <v>-11</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <f t="shared" si="1"/>
         <v>1.0555555555555556</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43442</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>10</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
+      <c r="L10">
+        <f t="shared" si="3"/>
         <v>-13</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <f t="shared" si="1"/>
         <v>0.84615384615384615</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43442</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>12</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
       </c>
       <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
+      <c r="L11">
+        <f t="shared" si="3"/>
         <v>-17</v>
       </c>
-      <c r="J11" s="3">
+      <c r="M11" s="3">
         <f t="shared" si="1"/>
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43442</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>12</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
       </c>
       <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
+      <c r="L12">
+        <f t="shared" si="3"/>
         <v>-22</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <f t="shared" si="1"/>
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43442</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C13">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>16</v>
-      </c>
-      <c r="E13">
-        <v>14</v>
-      </c>
-      <c r="F13">
-        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
       </c>
       <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
+      <c r="L13">
+        <f t="shared" si="3"/>
         <v>-21</v>
       </c>
-      <c r="J13" s="3">
+      <c r="M13" s="3">
         <f t="shared" si="1"/>
         <v>1.0769230769230769</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43442</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C14">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>17</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
       <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
+      <c r="L14">
+        <f t="shared" si="3"/>
         <v>-21</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43442</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C15">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>18</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>15</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
       </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>-12</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
+      <c r="L15">
+        <f t="shared" si="3"/>
         <v>-33</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43442</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C16">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>13</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>21</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
       </c>
       <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>21</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
+      <c r="L16">
+        <f t="shared" si="3"/>
         <v>-39</v>
       </c>
-      <c r="J16" s="3">
+      <c r="M16" s="3">
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43442</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C17">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>13</v>
-      </c>
-      <c r="F17">
+      <c r="E17" t="s">
         <v>18</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
       </c>
       <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>18</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
+      <c r="L17">
+        <f t="shared" si="3"/>
         <v>-44</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <f t="shared" si="1"/>
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43443</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>7</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <v>17</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
       </c>
       <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="0"/>
         <v>-9</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
+      <c r="L18">
+        <f t="shared" si="3"/>
         <v>-53</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <f t="shared" si="1"/>
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43443</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>9</v>
-      </c>
-      <c r="E19">
-        <v>16</v>
-      </c>
-      <c r="F19">
-        <v>17</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
       <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
+      <c r="L19">
+        <f t="shared" si="3"/>
         <v>-54</v>
       </c>
-      <c r="J19" s="3">
+      <c r="M19" s="3">
         <f t="shared" si="1"/>
         <v>0.94117647058823528</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43445</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>17</v>
-      </c>
-      <c r="E20">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
       </c>
       <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
+      <c r="L20">
+        <f t="shared" si="3"/>
         <v>-46</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <f t="shared" si="1"/>
         <v>2.1428571428571428</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43445</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>13</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>12</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
       </c>
       <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="2"/>
+      <c r="L21">
+        <f t="shared" si="3"/>
         <v>-48</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43446</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>10</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-      <c r="F22">
-        <v>16</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
       </c>
       <c r="H22">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
+      <c r="L22">
+        <f t="shared" si="3"/>
         <v>-49</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <f t="shared" si="1"/>
         <v>0.9375</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43446</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>12</v>
-      </c>
-      <c r="E23">
-        <v>16</v>
-      </c>
-      <c r="F23">
-        <v>15</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
       </c>
       <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>15</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
+      <c r="L23">
+        <f t="shared" si="3"/>
         <v>-48</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <f t="shared" si="1"/>
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43446</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C24">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24">
-        <v>8</v>
-      </c>
-      <c r="F24">
+      <c r="E24" t="s">
         <v>16</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
       </c>
       <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
+      <c r="L24">
+        <f t="shared" si="3"/>
         <v>-56</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43447</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>7</v>
-      </c>
-      <c r="E25">
-        <v>14</v>
-      </c>
-      <c r="F25">
-        <v>17</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
       </c>
       <c r="H25">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>17</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
+      <c r="L25">
+        <f t="shared" si="3"/>
         <v>-59</v>
       </c>
-      <c r="J25" s="3">
+      <c r="M25" s="3">
         <f t="shared" si="1"/>
         <v>0.82352941176470584</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43447</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>9</v>
-      </c>
-      <c r="E26">
-        <v>15</v>
-      </c>
-      <c r="F26">
-        <v>28</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
       </c>
       <c r="H26">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>28</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="0"/>
         <v>-13</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="2"/>
+      <c r="L26">
+        <f t="shared" si="3"/>
         <v>-72</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <f t="shared" si="1"/>
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43448</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>9</v>
-      </c>
-      <c r="E27">
-        <v>7</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
       </c>
       <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="2"/>
+      <c r="L27">
+        <f t="shared" si="3"/>
         <v>-70</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43448</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>9</v>
-      </c>
-      <c r="E28">
-        <v>15</v>
-      </c>
-      <c r="F28">
-        <v>25</v>
       </c>
       <c r="G28" t="s">
         <v>8</v>
       </c>
       <c r="H28">
+        <v>15</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="2"/>
+      <c r="L28">
+        <f t="shared" si="3"/>
         <v>-80</v>
       </c>
-      <c r="J28" s="3">
+      <c r="M28" s="3">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43454</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" s="3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>9</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>7</v>
       </c>
       <c r="G29" t="s">
         <v>20</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="2"/>
+      <c r="L29">
+        <f t="shared" si="3"/>
         <v>-85</v>
       </c>
-      <c r="J29" s="3">
+      <c r="M29" s="3">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43454</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>9</v>
-      </c>
-      <c r="E30">
-        <v>16</v>
-      </c>
-      <c r="F30">
-        <v>13</v>
       </c>
       <c r="G30" t="s">
         <v>20</v>
       </c>
       <c r="H30">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>13</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="2"/>
+      <c r="L30">
+        <f t="shared" si="3"/>
         <v>-82</v>
       </c>
-      <c r="J30" s="3">
+      <c r="M30" s="3">
         <f t="shared" si="1"/>
         <v>1.2307692307692308</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43454</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>16</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="2"/>
+      <c r="L31">
+        <f t="shared" si="3"/>
         <v>-82</v>
       </c>
-      <c r="J31" s="3">
+      <c r="M31" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43454</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" s="3">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>16</v>
-      </c>
-      <c r="E32">
-        <v>7</v>
-      </c>
-      <c r="F32">
-        <v>13</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
       </c>
       <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>13</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="2"/>
+      <c r="L32">
+        <f t="shared" si="3"/>
         <v>-88</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <f t="shared" si="1"/>
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43454</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B33" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
         <v>21</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>7</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <v>14</v>
       </c>
       <c r="G33" t="s">
         <v>20</v>
       </c>
       <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>14</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="0"/>
         <v>-9</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="2"/>
+      <c r="L33">
+        <f t="shared" si="3"/>
         <v>-97</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <f t="shared" si="1"/>
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43454</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" s="3">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
         <v>19</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>9</v>
-      </c>
-      <c r="E34">
-        <v>8</v>
-      </c>
-      <c r="F34">
-        <v>6</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="3">E34-F34</f>
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34:K65" si="4">H34-I34</f>
         <v>2</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="2"/>
+      <c r="L34">
+        <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="J34" s="3">
-        <f t="shared" si="1"/>
+      <c r="M34" s="3">
+        <f t="shared" ref="M34:M65" si="5">H34/I34</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43454</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" s="3">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>18</v>
-      </c>
-      <c r="E35">
-        <v>6</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="2"/>
+      <c r="L35">
+        <f t="shared" si="3"/>
         <v>-94</v>
       </c>
-      <c r="J35" s="3">
-        <f t="shared" si="1"/>
+      <c r="M35" s="3">
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43454</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B36" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
         <v>11</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>18</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-      <c r="F36">
-        <v>16</v>
       </c>
       <c r="G36" t="s">
         <v>20</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>16</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="2"/>
+      <c r="L36">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="J36" s="3">
-        <f t="shared" si="1"/>
+      <c r="M36" s="3">
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43454</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" s="3">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
         <v>11</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>10</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37">
-        <v>14</v>
       </c>
       <c r="G37" t="s">
         <v>20</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>14</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="2"/>
+      <c r="L37">
+        <f t="shared" si="3"/>
         <v>-110</v>
       </c>
-      <c r="J37" s="3">
-        <f t="shared" si="1"/>
+      <c r="M37" s="3">
+        <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43454</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B38" s="3">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
         <v>19</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>9</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>11</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>11</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="2"/>
+      <c r="L38">
+        <f t="shared" si="3"/>
         <v>-116</v>
       </c>
-      <c r="J38" s="3">
-        <f t="shared" si="1"/>
+      <c r="M38" s="3">
+        <f t="shared" si="5"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43454</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B39" s="3">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
         <v>11</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>9</v>
-      </c>
-      <c r="E39">
-        <v>12</v>
-      </c>
-      <c r="F39">
-        <v>14</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
       </c>
       <c r="H39">
-        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I39">
+        <v>14</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="2"/>
+      <c r="L39">
+        <f t="shared" si="3"/>
         <v>-118</v>
       </c>
-      <c r="J39" s="3">
-        <f t="shared" si="1"/>
+      <c r="M39" s="3">
+        <f t="shared" si="5"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43454</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B40" s="3">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
         <v>19</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>18</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
       </c>
       <c r="G40" t="s">
         <v>22</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="2"/>
+      <c r="L40">
+        <f t="shared" si="3"/>
         <v>-124</v>
       </c>
-      <c r="J40" s="3">
-        <f t="shared" si="1"/>
+      <c r="M40" s="3">
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43454</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B41" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
         <v>19</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>9</v>
-      </c>
-      <c r="E41">
-        <v>6</v>
-      </c>
-      <c r="F41">
-        <v>8</v>
       </c>
       <c r="G41" t="s">
         <v>22</v>
       </c>
       <c r="H41">
-        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="2"/>
+      <c r="L41">
+        <f t="shared" si="3"/>
         <v>-126</v>
       </c>
-      <c r="J41" s="3">
-        <f t="shared" si="1"/>
+      <c r="M41" s="3">
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43454</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B42" s="3">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
         <v>11</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>9</v>
-      </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-      <c r="F42">
-        <v>10</v>
       </c>
       <c r="G42" t="s">
         <v>22</v>
       </c>
       <c r="H42">
-        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="2"/>
+      <c r="L42">
+        <f t="shared" si="3"/>
         <v>-130</v>
       </c>
-      <c r="J42" s="3">
-        <f t="shared" si="1"/>
+      <c r="M42" s="3">
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43454</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B43" s="3">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>16</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>6</v>
       </c>
       <c r="G43" t="s">
         <v>22</v>
       </c>
       <c r="H43">
-        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="2"/>
+      <c r="L43">
+        <f t="shared" si="3"/>
         <v>-131</v>
       </c>
-      <c r="J43" s="3">
-        <f t="shared" si="1"/>
+      <c r="M43" s="3">
+        <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43454</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44" s="3">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>16</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-      <c r="F44">
-        <v>10</v>
       </c>
       <c r="G44" t="s">
         <v>22</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="2"/>
+      <c r="L44">
+        <f t="shared" si="3"/>
         <v>-135</v>
       </c>
-      <c r="J44" s="3">
-        <f t="shared" si="1"/>
+      <c r="M44" s="3">
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43454</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B45" s="3">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
         <v>21</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>7</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="F45">
-        <v>8</v>
       </c>
       <c r="G45" t="s">
         <v>22</v>
       </c>
       <c r="H45">
-        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="2"/>
+      <c r="L45">
+        <f t="shared" si="3"/>
         <v>-139</v>
       </c>
-      <c r="J45" s="3">
-        <f t="shared" si="1"/>
+      <c r="M45" s="3">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43454</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B46" s="3">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>18</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
       </c>
       <c r="G46" t="s">
         <v>22</v>
       </c>
       <c r="H46">
-        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="2"/>
+      <c r="L46">
+        <f t="shared" si="3"/>
         <v>-138</v>
       </c>
-      <c r="J46" s="3">
-        <f t="shared" si="1"/>
+      <c r="M46" s="3">
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43454</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B47" s="3">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>13</v>
-      </c>
-      <c r="E47">
-        <v>11</v>
-      </c>
-      <c r="F47">
-        <v>9</v>
       </c>
       <c r="G47" t="s">
         <v>22</v>
       </c>
       <c r="H47">
-        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>9</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="2"/>
+      <c r="L47">
+        <f t="shared" si="3"/>
         <v>-136</v>
       </c>
-      <c r="J47" s="3">
-        <f t="shared" si="1"/>
+      <c r="M47" s="3">
+        <f t="shared" si="5"/>
         <v>1.2222222222222223</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43454</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B48" s="3">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>16</v>
-      </c>
-      <c r="E48">
-        <v>7</v>
-      </c>
-      <c r="F48">
-        <v>9</v>
       </c>
       <c r="G48" t="s">
         <v>22</v>
       </c>
       <c r="H48">
-        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="2"/>
+      <c r="L48">
+        <f t="shared" si="3"/>
         <v>-138</v>
       </c>
-      <c r="J48" s="3">
-        <f t="shared" si="1"/>
+      <c r="M48" s="3">
+        <f t="shared" si="5"/>
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43454</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B49" s="3">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>16</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>7</v>
       </c>
       <c r="G49" t="s">
         <v>22</v>
       </c>
       <c r="H49">
-        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="2"/>
+      <c r="L49">
+        <f t="shared" si="3"/>
         <v>-143</v>
       </c>
-      <c r="J49" s="3">
-        <f t="shared" si="1"/>
+      <c r="M49" s="3">
+        <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43454</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B50" s="3">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
         <v>11</v>
       </c>
-      <c r="D50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50">
-        <v>16</v>
-      </c>
-      <c r="F50">
+      <c r="E50" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
         <v>22</v>
       </c>
       <c r="H50">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I50">
-        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="3"/>
         <v>-143</v>
       </c>
-      <c r="J50" s="3">
-        <f t="shared" si="1"/>
+      <c r="M50" s="3">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43454</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B51" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
         <v>11</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>17</v>
-      </c>
-      <c r="E51">
-        <v>11</v>
-      </c>
-      <c r="F51">
-        <v>8</v>
       </c>
       <c r="G51" t="s">
         <v>22</v>
       </c>
       <c r="H51">
-        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="2"/>
+      <c r="L51">
+        <f t="shared" si="3"/>
         <v>-140</v>
       </c>
-      <c r="J51" s="3">
-        <f t="shared" si="1"/>
+      <c r="M51" s="3">
+        <f t="shared" si="5"/>
         <v>1.375</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43454</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B52" s="3">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
         <v>19</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>9</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
       </c>
       <c r="G52" t="s">
         <v>22</v>
       </c>
       <c r="H52">
-        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="2"/>
+      <c r="L52">
+        <f t="shared" si="3"/>
         <v>-139</v>
       </c>
-      <c r="J52" s="3">
-        <f t="shared" si="1"/>
+      <c r="M52" s="3">
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43454</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B53" s="3">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
         <v>11</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>9</v>
-      </c>
-      <c r="E53">
-        <v>5</v>
-      </c>
-      <c r="F53">
-        <v>18</v>
       </c>
       <c r="G53" t="s">
         <v>22</v>
       </c>
       <c r="H53">
-        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>18</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="4"/>
         <v>-13</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="2"/>
+      <c r="L53">
+        <f t="shared" si="3"/>
         <v>-152</v>
       </c>
-      <c r="J53" s="3">
-        <f t="shared" si="1"/>
+      <c r="M53" s="3">
+        <f t="shared" si="5"/>
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43454</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B54" s="3">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>13</v>
-      </c>
-      <c r="E54">
-        <v>8</v>
-      </c>
-      <c r="F54">
-        <v>9</v>
       </c>
       <c r="G54" t="s">
         <v>22</v>
       </c>
       <c r="H54">
-        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="2"/>
+      <c r="L54">
+        <f t="shared" si="3"/>
         <v>-153</v>
       </c>
-      <c r="J54" s="3">
-        <f t="shared" si="1"/>
+      <c r="M54" s="3">
+        <f t="shared" si="5"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43454</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B55" s="3">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
         <v>19</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>18</v>
-      </c>
-      <c r="E55">
-        <v>7</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
       </c>
       <c r="G55" t="s">
         <v>22</v>
       </c>
       <c r="H55">
-        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="2"/>
+      <c r="L55">
+        <f t="shared" si="3"/>
         <v>-148</v>
       </c>
-      <c r="J55" s="3">
-        <f t="shared" si="1"/>
+      <c r="M55" s="3">
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43454</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B56" s="3">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>18</v>
-      </c>
-      <c r="E56">
-        <v>9</v>
-      </c>
-      <c r="F56">
-        <v>14</v>
       </c>
       <c r="G56" t="s">
         <v>22</v>
       </c>
       <c r="H56">
-        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="I56">
+        <v>14</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="2"/>
+      <c r="L56">
+        <f t="shared" si="3"/>
         <v>-153</v>
       </c>
-      <c r="J56" s="3">
-        <f t="shared" si="1"/>
+      <c r="M56" s="3">
+        <f t="shared" si="5"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43454</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B57" s="3">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
         <v>11</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>10</v>
-      </c>
-      <c r="E57">
-        <v>14</v>
-      </c>
-      <c r="F57">
-        <v>11</v>
       </c>
       <c r="G57" t="s">
         <v>22</v>
       </c>
       <c r="H57">
-        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I57">
+        <v>11</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="I57">
-        <f t="shared" si="2"/>
+      <c r="L57">
+        <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="J57" s="3">
-        <f t="shared" si="1"/>
+      <c r="M57" s="3">
+        <f t="shared" si="5"/>
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43465</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="C58">
         <v>1</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>11</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>9</v>
-      </c>
-      <c r="E58">
-        <v>8</v>
-      </c>
-      <c r="F58">
-        <v>10</v>
       </c>
       <c r="G58" t="s">
         <v>22</v>
       </c>
       <c r="H58">
-        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="I58">
-        <f t="shared" si="2"/>
+      <c r="L58">
+        <f t="shared" si="3"/>
         <v>-152</v>
       </c>
-      <c r="J58" s="3">
-        <f t="shared" si="1"/>
+      <c r="M58" s="3">
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43465</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="C59">
         <v>2</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>13</v>
-      </c>
-      <c r="E59">
-        <v>8</v>
-      </c>
-      <c r="F59">
-        <v>6</v>
       </c>
       <c r="G59" t="s">
         <v>22</v>
       </c>
       <c r="H59">
-        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I59">
-        <f t="shared" si="2"/>
+      <c r="L59">
+        <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="J59" s="3">
-        <f t="shared" si="1"/>
+      <c r="M59" s="3">
+        <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43465</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="C60">
         <v>3</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>19</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>12</v>
-      </c>
-      <c r="E60">
-        <v>5</v>
-      </c>
-      <c r="F60">
-        <v>6</v>
       </c>
       <c r="G60" t="s">
         <v>22</v>
       </c>
       <c r="H60">
-        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="I60">
-        <f t="shared" si="2"/>
+      <c r="L60">
+        <f t="shared" si="3"/>
         <v>-151</v>
       </c>
-      <c r="J60" s="3">
-        <f t="shared" si="1"/>
+      <c r="M60" s="3">
+        <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43465</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C61">
         <v>4</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>12</v>
-      </c>
-      <c r="E61">
-        <v>8</v>
-      </c>
-      <c r="F61">
-        <v>7</v>
       </c>
       <c r="G61" t="s">
         <v>22</v>
       </c>
       <c r="H61">
-        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>7</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I61">
-        <f t="shared" si="2"/>
+      <c r="L61">
+        <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="J61" s="3">
-        <f t="shared" si="1"/>
+      <c r="M61" s="3">
+        <f t="shared" si="5"/>
         <v>1.1428571428571428</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43465</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="C62">
         <v>5</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>21</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>24</v>
-      </c>
-      <c r="E62">
-        <v>6</v>
-      </c>
-      <c r="F62">
-        <v>6</v>
       </c>
       <c r="G62" t="s">
         <v>22</v>
       </c>
       <c r="H62">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I62">
-        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="J62" s="3">
-        <f t="shared" si="1"/>
+      <c r="M62" s="3">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43465</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>19</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>12</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>5</v>
       </c>
       <c r="G63" t="s">
         <v>22</v>
       </c>
       <c r="H63">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="2"/>
+      <c r="L63">
+        <f t="shared" si="3"/>
         <v>-154</v>
       </c>
-      <c r="J63" s="3">
-        <f t="shared" si="1"/>
+      <c r="M63" s="3">
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43465</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="C64">
         <v>7</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>12</v>
-      </c>
-      <c r="E64">
-        <v>16</v>
-      </c>
-      <c r="F64">
-        <v>19</v>
       </c>
       <c r="G64" t="s">
         <v>8</v>
       </c>
       <c r="H64">
-        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I64">
+        <v>19</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="2"/>
+      <c r="L64">
+        <f t="shared" si="3"/>
         <v>-157</v>
       </c>
-      <c r="J64" s="3">
-        <f t="shared" si="1"/>
+      <c r="M64" s="3">
+        <f t="shared" si="5"/>
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43465</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C65">
         <v>8</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>21</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>24</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
       </c>
       <c r="G65" t="s">
         <v>22</v>
       </c>
       <c r="H65">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="I65">
-        <f t="shared" si="2"/>
+      <c r="L65">
+        <f t="shared" si="3"/>
         <v>-160</v>
       </c>
-      <c r="J65" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="M65" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B66" s="3">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>7</v>
+      </c>
+      <c r="J66">
+        <v>1890</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ref="K66:K97" si="6">H66-I66</f>
+        <v>-3</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="3"/>
+        <v>-163</v>
+      </c>
+      <c r="M66" s="3">
+        <f t="shared" ref="M66:M97" si="7">H66/I66</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>15</v>
+      </c>
+      <c r="J67">
+        <f>9620-J66</f>
+        <v>7730</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="6"/>
+        <v>-9</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="3"/>
+        <v>-172</v>
+      </c>
+      <c r="M67" s="3">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B68" s="3">
+        <f t="shared" ref="B68:B131" si="8">1+B67</f>
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68">
+        <v>12</v>
+      </c>
+      <c r="I68">
+        <v>15</v>
+      </c>
+      <c r="J68">
+        <f>8113</f>
+        <v>8113</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L131" si="9">K68+L67</f>
+        <v>-175</v>
+      </c>
+      <c r="M68" s="3">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69">
+        <v>9</v>
+      </c>
+      <c r="I69">
+        <v>17</v>
+      </c>
+      <c r="J69">
+        <v>8002</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="6"/>
+        <v>-8</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="9"/>
+        <v>-183</v>
+      </c>
+      <c r="M69" s="3">
+        <f t="shared" si="7"/>
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70">
+        <v>12</v>
+      </c>
+      <c r="J70">
+        <v>5596</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="9"/>
+        <v>-187</v>
+      </c>
+      <c r="M70" s="3">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B71" s="3">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71">
+        <v>13</v>
+      </c>
+      <c r="I71">
+        <v>16</v>
+      </c>
+      <c r="J71">
+        <v>7272</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="9"/>
+        <v>-190</v>
+      </c>
+      <c r="M71" s="3">
+        <f t="shared" si="7"/>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B72" s="3">
+        <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>9</v>
+      </c>
+      <c r="J72">
+        <v>2944</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="9"/>
+        <v>-196</v>
+      </c>
+      <c r="M72" s="3">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B73" s="3">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73">
+        <v>6</v>
+      </c>
+      <c r="J73">
+        <f>6019-J72</f>
+        <v>3075</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="9"/>
+        <v>-196</v>
+      </c>
+      <c r="M73" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B74" s="3">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74">
+        <v>1570</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="9"/>
+        <v>-197</v>
+      </c>
+      <c r="M74" s="3">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B75" s="3">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75">
+        <v>8</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <v>5519</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="9"/>
+        <v>-199</v>
+      </c>
+      <c r="M75" s="3">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B76" s="3">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>1888</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="9"/>
+        <v>-200</v>
+      </c>
+      <c r="M76" s="3">
+        <f t="shared" si="7"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>43467</v>
+      </c>
+      <c r="B77" s="3">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77">
+        <v>7</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <v>1819</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="9"/>
+        <v>-201</v>
+      </c>
+      <c r="M77" s="3">
+        <f t="shared" si="7"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>43467</v>
+      </c>
+      <c r="B78" s="3">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>7</v>
+      </c>
+      <c r="J78">
+        <v>1423</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="9"/>
+        <v>-202</v>
+      </c>
+      <c r="M78" s="3">
+        <f t="shared" si="7"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>43467</v>
+      </c>
+      <c r="B79" s="3">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>11</v>
+      </c>
+      <c r="J79">
+        <f>3508-J78</f>
+        <v>2085</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="9"/>
+        <v>-208</v>
+      </c>
+      <c r="M79" s="3">
+        <f t="shared" si="7"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>43467</v>
+      </c>
+      <c r="B80" s="3">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="J80">
+        <f>5138-J79+J78</f>
+        <v>4476</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="9"/>
+        <v>-213</v>
+      </c>
+      <c r="M80" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>43468</v>
+      </c>
+      <c r="B81" s="3">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81">
+        <v>10</v>
+      </c>
+      <c r="I81">
+        <v>8</v>
+      </c>
+      <c r="J81">
+        <v>3521</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="9"/>
+        <v>-211</v>
+      </c>
+      <c r="M81" s="3">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>43468</v>
+      </c>
+      <c r="B82" s="3">
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82">
+        <v>8</v>
+      </c>
+      <c r="I82">
+        <v>9</v>
+      </c>
+      <c r="J82">
+        <f>8297-J81</f>
+        <v>4776</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="9"/>
+        <v>-212</v>
+      </c>
+      <c r="M82" s="3">
+        <f t="shared" si="7"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>43468</v>
+      </c>
+      <c r="B83" s="3">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83">
+        <v>11</v>
+      </c>
+      <c r="I83">
+        <v>15</v>
+      </c>
+      <c r="J83">
+        <v>4958</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="9"/>
+        <v>-216</v>
+      </c>
+      <c r="M83" s="3">
+        <f t="shared" si="7"/>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>43471</v>
+      </c>
+      <c r="B84" s="3">
+        <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>1735</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="9"/>
+        <v>-214</v>
+      </c>
+      <c r="M84" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>43471</v>
+      </c>
+      <c r="B85" s="3">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85">
+        <v>9</v>
+      </c>
+      <c r="I85">
+        <v>14</v>
+      </c>
+      <c r="J85">
+        <f>5196-J84</f>
+        <v>3461</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="9"/>
+        <v>-219</v>
+      </c>
+      <c r="M85" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>43471</v>
+      </c>
+      <c r="B86" s="3">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86">
+        <v>14</v>
+      </c>
+      <c r="I86">
+        <v>14</v>
+      </c>
+      <c r="J86">
+        <v>5521</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="9"/>
+        <v>-219</v>
+      </c>
+      <c r="M86" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>43471</v>
+      </c>
+      <c r="B87" s="3">
+        <f t="shared" si="8"/>
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87">
+        <v>8</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+      <c r="J87">
+        <v>3499</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="9"/>
+        <v>-216</v>
+      </c>
+      <c r="M87" s="3">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>43472</v>
+      </c>
+      <c r="B88" s="3">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
+      </c>
+      <c r="J88">
+        <v>1370</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="9"/>
+        <v>-221</v>
+      </c>
+      <c r="M88" s="3">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>43472</v>
+      </c>
+      <c r="B89" s="3">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <v>1503</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="9"/>
+        <v>-221</v>
+      </c>
+      <c r="M89" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>43472</v>
+      </c>
+      <c r="B90" s="3">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="I90">
+        <v>15</v>
+      </c>
+      <c r="J90">
+        <v>9124</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="9"/>
+        <v>-228</v>
+      </c>
+      <c r="M90" s="3">
+        <f t="shared" si="7"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>43472</v>
+      </c>
+      <c r="B91" s="3">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+      <c r="J91">
+        <v>1725</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="9"/>
+        <v>-230</v>
+      </c>
+      <c r="M91" s="3">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>43473</v>
+      </c>
+      <c r="B92" s="3">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92">
+        <v>7</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>2652</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="9"/>
+        <v>-226</v>
+      </c>
+      <c r="M92" s="3">
+        <f t="shared" si="7"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>43473</v>
+      </c>
+      <c r="B93" s="3">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93">
+        <v>7</v>
+      </c>
+      <c r="I93">
+        <v>11</v>
+      </c>
+      <c r="J93">
+        <f>6778-J92</f>
+        <v>4126</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="9"/>
+        <v>-230</v>
+      </c>
+      <c r="M93" s="3">
+        <f t="shared" si="7"/>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>43473</v>
+      </c>
+      <c r="B94" s="3">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94">
+        <v>7</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>3249</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="9"/>
+        <v>-226</v>
+      </c>
+      <c r="M94" s="3">
+        <f t="shared" si="7"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>43473</v>
+      </c>
+      <c r="B95" s="3">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95">
+        <v>13</v>
+      </c>
+      <c r="I95">
+        <v>19</v>
+      </c>
+      <c r="J95">
+        <f>8076-J94</f>
+        <v>4827</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="9"/>
+        <v>-232</v>
+      </c>
+      <c r="M95" s="3">
+        <f t="shared" si="7"/>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>43474</v>
+      </c>
+      <c r="B96" s="3">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96">
+        <v>11</v>
+      </c>
+      <c r="I96">
+        <v>14</v>
+      </c>
+      <c r="J96">
+        <v>9908</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="9"/>
+        <v>-235</v>
+      </c>
+      <c r="M96" s="3">
+        <f t="shared" si="7"/>
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>43474</v>
+      </c>
+      <c r="B97" s="3">
+        <f t="shared" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97">
+        <v>10</v>
+      </c>
+      <c r="I97">
+        <v>13</v>
+      </c>
+      <c r="J97">
+        <v>6991</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="9"/>
+        <v>-238</v>
+      </c>
+      <c r="M97" s="3">
+        <f t="shared" si="7"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>43476</v>
+      </c>
+      <c r="B98" s="3">
+        <f t="shared" si="8"/>
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98">
+        <v>14</v>
+      </c>
+      <c r="I98">
+        <v>11</v>
+      </c>
+      <c r="J98">
+        <v>7317</v>
+      </c>
+      <c r="K98">
+        <f t="shared" ref="K98:K129" si="10">H98-I98</f>
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="9"/>
+        <v>-235</v>
+      </c>
+      <c r="M98" s="3">
+        <f t="shared" ref="M98:M133" si="11">H98/I98</f>
+        <v>1.2727272727272727</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>43476</v>
+      </c>
+      <c r="B99" s="3">
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99">
+        <v>7</v>
+      </c>
+      <c r="I99">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>8069</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="10"/>
+        <v>-7</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M99" s="3">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B100" s="3">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M100" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B101" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M101" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B102" s="3">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M102" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B103" s="3">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M103" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B104" s="3">
+        <f t="shared" si="8"/>
+        <v>103</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M104" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B105" s="3">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M105" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B106" s="3">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M106" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B107" s="3">
+        <f t="shared" si="8"/>
+        <v>106</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M107" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B108" s="3">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M108" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B109" s="3">
+        <f t="shared" si="8"/>
+        <v>108</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M109" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B110" s="3">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M110" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B111" s="3">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M111" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B112" s="3">
+        <f t="shared" si="8"/>
+        <v>111</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M112" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B113" s="3">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M113" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B114" s="3">
+        <f t="shared" si="8"/>
+        <v>113</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M114" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B115" s="3">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M115" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B116" s="3">
+        <f t="shared" si="8"/>
+        <v>115</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M116" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B117" s="3">
+        <f t="shared" si="8"/>
+        <v>116</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M117" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B118" s="3">
+        <f t="shared" si="8"/>
+        <v>117</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M118" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B119" s="3">
+        <f t="shared" si="8"/>
+        <v>118</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M119" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B120" s="3">
+        <f t="shared" si="8"/>
+        <v>119</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M120" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B121" s="3">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M121" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B122" s="3">
+        <f t="shared" si="8"/>
+        <v>121</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M122" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B123" s="3">
+        <f t="shared" si="8"/>
+        <v>122</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M123" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B124" s="3">
+        <f t="shared" si="8"/>
+        <v>123</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M124" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B125" s="3">
+        <f t="shared" si="8"/>
+        <v>124</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M125" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B126" s="3">
+        <f t="shared" si="8"/>
+        <v>125</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M126" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B127" s="3">
+        <f t="shared" si="8"/>
+        <v>126</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M127" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B128" s="3">
+        <f t="shared" si="8"/>
+        <v>127</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M128" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B129" s="3">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M129" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B130" s="3">
+        <f t="shared" si="8"/>
+        <v>129</v>
+      </c>
+      <c r="K130">
+        <f t="shared" ref="K130:K161" si="12">H130-I130</f>
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M130" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B131" s="3">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="9"/>
+        <v>-242</v>
+      </c>
+      <c r="M131" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B132" s="3">
+        <f t="shared" ref="B132:B179" si="13">1+B131</f>
+        <v>131</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <f t="shared" ref="L132:L179" si="14">K132+L131</f>
+        <v>-242</v>
+      </c>
+      <c r="M132" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B133" s="3">
+        <f t="shared" si="13"/>
+        <v>132</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M133" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B134" s="3">
+        <f t="shared" si="13"/>
+        <v>133</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M134" s="3" t="e">
+        <f t="shared" ref="M134:M179" si="15">H134/I134</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B135" s="3">
+        <f t="shared" si="13"/>
+        <v>134</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M135" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B136" s="3">
+        <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M136" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B137" s="3">
+        <f t="shared" si="13"/>
+        <v>136</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M137" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B138" s="3">
+        <f t="shared" si="13"/>
+        <v>137</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M138" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B139" s="3">
+        <f t="shared" si="13"/>
+        <v>138</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M139" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B140" s="3">
+        <f t="shared" si="13"/>
+        <v>139</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M140" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B141" s="3">
+        <f t="shared" si="13"/>
+        <v>140</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M141" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B142" s="3">
+        <f t="shared" si="13"/>
+        <v>141</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M142" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B143" s="3">
+        <f t="shared" si="13"/>
+        <v>142</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M143" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B144" s="3">
+        <f t="shared" si="13"/>
+        <v>143</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M144" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B145" s="3">
+        <f t="shared" si="13"/>
+        <v>144</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M145" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B146" s="3">
+        <f t="shared" si="13"/>
+        <v>145</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M146" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B147" s="3">
+        <f t="shared" si="13"/>
+        <v>146</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M147" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B148" s="3">
+        <f t="shared" si="13"/>
+        <v>147</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M148" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B149" s="3">
+        <f t="shared" si="13"/>
+        <v>148</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M149" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B150" s="3">
+        <f t="shared" si="13"/>
+        <v>149</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M150" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B151" s="3">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M151" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B152" s="3">
+        <f t="shared" si="13"/>
+        <v>151</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M152" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B153" s="3">
+        <f t="shared" si="13"/>
+        <v>152</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M153" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B154" s="3">
+        <f t="shared" si="13"/>
+        <v>153</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M154" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B155" s="3">
+        <f t="shared" si="13"/>
+        <v>154</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M155" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B156" s="3">
+        <f t="shared" si="13"/>
+        <v>155</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M156" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B157" s="3">
+        <f t="shared" si="13"/>
+        <v>156</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M157" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B158" s="3">
+        <f t="shared" si="13"/>
+        <v>157</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M158" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B159" s="3">
+        <f t="shared" si="13"/>
+        <v>158</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M159" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B160" s="3">
+        <f t="shared" si="13"/>
+        <v>159</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M160" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B161" s="3">
+        <f t="shared" si="13"/>
+        <v>160</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M161" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B162" s="3">
+        <f t="shared" si="13"/>
+        <v>161</v>
+      </c>
+      <c r="K162">
+        <f t="shared" ref="K162:K179" si="16">H162-I162</f>
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M162" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B163" s="3">
+        <f t="shared" si="13"/>
+        <v>162</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M163" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B164" s="3">
+        <f t="shared" si="13"/>
+        <v>163</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M164" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B165" s="3">
+        <f t="shared" si="13"/>
+        <v>164</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M165" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B166" s="3">
+        <f t="shared" si="13"/>
+        <v>165</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M166" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B167" s="3">
+        <f t="shared" si="13"/>
+        <v>166</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M167" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B168" s="3">
+        <f t="shared" si="13"/>
+        <v>167</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M168" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B169" s="3">
+        <f t="shared" si="13"/>
+        <v>168</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M169" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B170" s="3">
+        <f t="shared" si="13"/>
+        <v>169</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M170" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B171" s="3">
+        <f t="shared" si="13"/>
+        <v>170</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M171" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B172" s="3">
+        <f t="shared" si="13"/>
+        <v>171</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M172" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B173" s="3">
+        <f t="shared" si="13"/>
+        <v>172</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M173" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B174" s="3">
+        <f t="shared" si="13"/>
+        <v>173</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M174" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B175" s="3">
+        <f t="shared" si="13"/>
+        <v>174</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M175" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B176" s="3">
+        <f t="shared" si="13"/>
+        <v>175</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M176" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B177" s="3">
+        <f t="shared" si="13"/>
+        <v>176</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M177" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="178" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B178" s="3">
+        <f t="shared" si="13"/>
+        <v>177</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M178" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B179" s="3">
+        <f t="shared" si="13"/>
+        <v>178</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="14"/>
+        <v>-242</v>
+      </c>
+      <c r="M179" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Battlefield5.xlsx
+++ b/Battlefield5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Science\BattlefieldV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AAFF1A-6402-43BF-82FE-1D7EBEFFF062}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1993160F-6B5C-4DFD-9450-6390FA30F1A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{F69A186D-8374-47DD-86A7-853B8690958C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Arras</t>
   </si>
   <si>
-    <t>Game_Score</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -142,6 +139,45 @@
   </si>
   <si>
     <t>Total K/D</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Practice Range</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>FullGame</t>
+  </si>
+  <si>
+    <t>GameScore</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>AssignmentType</t>
   </si>
 </sst>
 </file>
@@ -506,11 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5512DE-6917-45D6-9375-2633379DD30B}">
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A109" sqref="A109:A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,19 +555,22 @@
     <col min="2" max="2" width="10.5546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -540,37 +579,55 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="K1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43439</v>
       </c>
@@ -587,35 +644,38 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6</v>
       </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K33" si="0">H2-I2</f>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q33" si="0">I2-J2</f>
         <v>-1</v>
       </c>
-      <c r="L2">
+      <c r="R2">
         <v>-1</v>
       </c>
-      <c r="M2" s="3">
-        <f t="shared" ref="M2:M33" si="1">H2/I2</f>
+      <c r="S2" s="3">
+        <f t="shared" ref="S2:S33" si="1">I2/J2</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="N2" s="3">
-        <f>AVERAGE(M2:M97)</f>
-        <v>0.87081277157225301</v>
-      </c>
-      <c r="O2" s="3">
-        <f>SUM(H1:H91)/SUM(I1:I97)</f>
-        <v>0.71934865900383138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T2" s="3">
+        <f>AVERAGE(S2:S108)</f>
+        <v>0.89700965376582398</v>
+      </c>
+      <c r="U2" s="3">
+        <f>SUM(I1:I108)/SUM(J1:J108)</f>
+        <v>0.7909407665505227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43439</v>
       </c>
@@ -633,28 +693,31 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
         <v>8</v>
-      </c>
-      <c r="H3">
-        <v>18</v>
       </c>
       <c r="I3">
         <v>18</v>
       </c>
-      <c r="K3">
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="Q3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3">
-        <f>K3+L2</f>
+      <c r="R3">
+        <f>Q3+R2</f>
         <v>-1</v>
       </c>
-      <c r="M3" s="3">
+      <c r="S3" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43439</v>
       </c>
@@ -672,28 +735,31 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>8</v>
       </c>
-      <c r="K4">
+      <c r="Q4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L67" si="3">K4+L3</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="R4">
+        <f t="shared" ref="R4:R67" si="3">Q4+R3</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
         <f t="shared" si="1"/>
         <v>1.125</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43440</v>
       </c>
@@ -711,28 +777,31 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>13</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>19</v>
       </c>
-      <c r="K5">
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="L5">
+      <c r="R5">
         <f t="shared" si="3"/>
         <v>-6</v>
       </c>
-      <c r="M5" s="3">
+      <c r="S5" s="3">
         <f t="shared" si="1"/>
         <v>0.68421052631578949</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43440</v>
       </c>
@@ -750,28 +819,31 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>8</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="L6">
+      <c r="R6">
         <f t="shared" si="3"/>
         <v>-10</v>
       </c>
-      <c r="M6" s="3">
+      <c r="S6" s="3">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43442</v>
       </c>
@@ -789,28 +861,31 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>14</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>15</v>
       </c>
-      <c r="K7">
+      <c r="Q7">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="L7">
+      <c r="R7">
         <f t="shared" si="3"/>
         <v>-11</v>
       </c>
-      <c r="M7" s="3">
+      <c r="S7" s="3">
         <f t="shared" si="1"/>
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43442</v>
       </c>
@@ -828,28 +903,31 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="Q8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <f t="shared" si="3"/>
         <v>-12</v>
       </c>
-      <c r="M8" s="3">
+      <c r="S8" s="3">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43442</v>
       </c>
@@ -867,28 +945,31 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>19</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>18</v>
       </c>
-      <c r="K9">
+      <c r="Q9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="R9">
         <f t="shared" si="3"/>
         <v>-11</v>
       </c>
-      <c r="M9" s="3">
+      <c r="S9" s="3">
         <f t="shared" si="1"/>
         <v>1.0555555555555556</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43442</v>
       </c>
@@ -906,28 +987,31 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
         <v>8</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>11</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>13</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <f t="shared" si="3"/>
         <v>-13</v>
       </c>
-      <c r="M10" s="3">
+      <c r="S10" s="3">
         <f t="shared" si="1"/>
         <v>0.84615384615384615</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43442</v>
       </c>
@@ -945,28 +1029,31 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
         <v>8</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>11</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>15</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <f t="shared" si="3"/>
         <v>-17</v>
       </c>
-      <c r="M11" s="3">
+      <c r="S11" s="3">
         <f t="shared" si="1"/>
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43442</v>
       </c>
@@ -984,28 +1071,31 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
         <v>8</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>6</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>11</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <f t="shared" si="3"/>
         <v>-22</v>
       </c>
-      <c r="M12" s="3">
+      <c r="S12" s="3">
         <f t="shared" si="1"/>
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43442</v>
       </c>
@@ -1023,28 +1113,31 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
         <v>8</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>14</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>13</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <f t="shared" si="3"/>
         <v>-21</v>
       </c>
-      <c r="M13" s="3">
+      <c r="S13" s="3">
         <f t="shared" si="1"/>
         <v>1.0769230769230769</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43442</v>
       </c>
@@ -1062,28 +1155,31 @@
         <v>17</v>
       </c>
       <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
         <v>8</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
       </c>
       <c r="I14">
         <v>10</v>
       </c>
-      <c r="K14">
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <f t="shared" si="3"/>
         <v>-21</v>
       </c>
-      <c r="M14" s="3">
+      <c r="S14" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43442</v>
       </c>
@@ -1101,28 +1197,31 @@
         <v>18</v>
       </c>
       <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
         <v>8</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>3</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>15</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <f t="shared" si="0"/>
         <v>-12</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <f t="shared" si="3"/>
         <v>-33</v>
       </c>
-      <c r="M15" s="3">
+      <c r="S15" s="3">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43442</v>
       </c>
@@ -1140,28 +1239,31 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
         <v>8</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>15</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>21</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <f t="shared" si="3"/>
         <v>-39</v>
       </c>
-      <c r="M16" s="3">
+      <c r="S16" s="3">
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43442</v>
       </c>
@@ -1179,28 +1281,31 @@
         <v>18</v>
       </c>
       <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
         <v>8</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>13</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>18</v>
       </c>
-      <c r="K17">
+      <c r="Q17">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="L17">
+      <c r="R17">
         <f t="shared" si="3"/>
         <v>-44</v>
       </c>
-      <c r="M17" s="3">
+      <c r="S17" s="3">
         <f t="shared" si="1"/>
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43443</v>
       </c>
@@ -1218,28 +1323,31 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
         <v>8</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>8</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>17</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <f t="shared" si="0"/>
         <v>-9</v>
       </c>
-      <c r="L18">
+      <c r="R18">
         <f t="shared" si="3"/>
         <v>-53</v>
       </c>
-      <c r="M18" s="3">
+      <c r="S18" s="3">
         <f t="shared" si="1"/>
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43443</v>
       </c>
@@ -1257,28 +1365,31 @@
         <v>9</v>
       </c>
       <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
         <v>8</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>16</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>17</v>
       </c>
-      <c r="K19">
+      <c r="Q19">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="L19">
+      <c r="R19">
         <f t="shared" si="3"/>
         <v>-54</v>
       </c>
-      <c r="M19" s="3">
+      <c r="S19" s="3">
         <f t="shared" si="1"/>
         <v>0.94117647058823528</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43445</v>
       </c>
@@ -1296,28 +1407,31 @@
         <v>17</v>
       </c>
       <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
         <v>8</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>15</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>7</v>
       </c>
-      <c r="K20">
+      <c r="Q20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L20">
+      <c r="R20">
         <f t="shared" si="3"/>
         <v>-46</v>
       </c>
-      <c r="M20" s="3">
+      <c r="S20" s="3">
         <f t="shared" si="1"/>
         <v>2.1428571428571428</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43445</v>
       </c>
@@ -1335,28 +1449,31 @@
         <v>13</v>
       </c>
       <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
         <v>8</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>10</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>12</v>
       </c>
-      <c r="K21">
+      <c r="Q21">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="L21">
+      <c r="R21">
         <f t="shared" si="3"/>
         <v>-48</v>
       </c>
-      <c r="M21" s="3">
+      <c r="S21" s="3">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43446</v>
       </c>
@@ -1374,28 +1491,31 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
         <v>8</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>15</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>16</v>
       </c>
-      <c r="K22">
+      <c r="Q22">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="L22">
+      <c r="R22">
         <f t="shared" si="3"/>
         <v>-49</v>
       </c>
-      <c r="M22" s="3">
+      <c r="S22" s="3">
         <f t="shared" si="1"/>
         <v>0.9375</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43446</v>
       </c>
@@ -1413,28 +1533,31 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
         <v>8</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>16</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>15</v>
       </c>
-      <c r="K23">
+      <c r="Q23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L23">
+      <c r="R23">
         <f t="shared" si="3"/>
         <v>-48</v>
       </c>
-      <c r="M23" s="3">
+      <c r="S23" s="3">
         <f t="shared" si="1"/>
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43446</v>
       </c>
@@ -1452,28 +1575,31 @@
         <v>16</v>
       </c>
       <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s">
         <v>8</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>8</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>16</v>
       </c>
-      <c r="K24">
+      <c r="Q24">
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
-      <c r="L24">
+      <c r="R24">
         <f t="shared" si="3"/>
         <v>-56</v>
       </c>
-      <c r="M24" s="3">
+      <c r="S24" s="3">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43447</v>
       </c>
@@ -1491,28 +1617,31 @@
         <v>7</v>
       </c>
       <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
         <v>8</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>14</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>17</v>
       </c>
-      <c r="K25">
+      <c r="Q25">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="L25">
+      <c r="R25">
         <f t="shared" si="3"/>
         <v>-59</v>
       </c>
-      <c r="M25" s="3">
+      <c r="S25" s="3">
         <f t="shared" si="1"/>
         <v>0.82352941176470584</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43447</v>
       </c>
@@ -1530,28 +1659,31 @@
         <v>9</v>
       </c>
       <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
         <v>8</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>15</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>28</v>
       </c>
-      <c r="K26">
+      <c r="Q26">
         <f t="shared" si="0"/>
         <v>-13</v>
       </c>
-      <c r="L26">
+      <c r="R26">
         <f t="shared" si="3"/>
         <v>-72</v>
       </c>
-      <c r="M26" s="3">
+      <c r="S26" s="3">
         <f t="shared" si="1"/>
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43448</v>
       </c>
@@ -1569,28 +1701,31 @@
         <v>9</v>
       </c>
       <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
         <v>8</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>7</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5</v>
       </c>
-      <c r="K27">
+      <c r="Q27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L27">
+      <c r="R27">
         <f t="shared" si="3"/>
         <v>-70</v>
       </c>
-      <c r="M27" s="3">
+      <c r="S27" s="3">
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43448</v>
       </c>
@@ -1608,28 +1743,31 @@
         <v>9</v>
       </c>
       <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
         <v>8</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>15</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>25</v>
       </c>
-      <c r="K28">
+      <c r="Q28">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="L28">
+      <c r="R28">
         <f t="shared" si="3"/>
         <v>-80</v>
       </c>
-      <c r="M28" s="3">
+      <c r="S28" s="3">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43454</v>
       </c>
@@ -1644,28 +1782,31 @@
         <v>9</v>
       </c>
       <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
         <v>20</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>7</v>
       </c>
-      <c r="K29">
+      <c r="Q29">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="L29">
+      <c r="R29">
         <f t="shared" si="3"/>
         <v>-85</v>
       </c>
-      <c r="M29" s="3">
+      <c r="S29" s="3">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43454</v>
       </c>
@@ -1680,28 +1821,31 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
         <v>20</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>16</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>13</v>
       </c>
-      <c r="K30">
+      <c r="Q30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L30">
+      <c r="R30">
         <f t="shared" si="3"/>
         <v>-82</v>
       </c>
-      <c r="M30" s="3">
+      <c r="S30" s="3">
         <f t="shared" si="1"/>
         <v>1.2307692307692308</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43454</v>
       </c>
@@ -1716,28 +1860,31 @@
         <v>16</v>
       </c>
       <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
         <v>20</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
-      <c r="K31">
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L31">
+      <c r="R31">
         <f t="shared" si="3"/>
         <v>-82</v>
       </c>
-      <c r="M31" s="3">
+      <c r="S31" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43454</v>
       </c>
@@ -1752,28 +1899,31 @@
         <v>16</v>
       </c>
       <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
         <v>20</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>7</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>13</v>
       </c>
-      <c r="K32">
+      <c r="Q32">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="L32">
+      <c r="R32">
         <f t="shared" si="3"/>
         <v>-88</v>
       </c>
-      <c r="M32" s="3">
+      <c r="S32" s="3">
         <f t="shared" si="1"/>
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43454</v>
       </c>
@@ -1788,28 +1938,31 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
         <v>20</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>5</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>14</v>
       </c>
-      <c r="K33">
+      <c r="Q33">
         <f t="shared" si="0"/>
         <v>-9</v>
       </c>
-      <c r="L33">
+      <c r="R33">
         <f t="shared" si="3"/>
         <v>-97</v>
       </c>
-      <c r="M33" s="3">
+      <c r="S33" s="3">
         <f t="shared" si="1"/>
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43454</v>
       </c>
@@ -1824,28 +1977,31 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
         <v>20</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>8</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>6</v>
       </c>
-      <c r="K34">
-        <f t="shared" ref="K34:K65" si="4">H34-I34</f>
+      <c r="Q34">
+        <f t="shared" ref="Q34:Q65" si="4">I34-J34</f>
         <v>2</v>
       </c>
-      <c r="L34">
+      <c r="R34">
         <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="M34" s="3">
-        <f t="shared" ref="M34:M65" si="5">H34/I34</f>
+      <c r="S34" s="3">
+        <f t="shared" ref="S34:S65" si="5">I34/J34</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43454</v>
       </c>
@@ -1860,28 +2016,31 @@
         <v>18</v>
       </c>
       <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s">
         <v>20</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>6</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>5</v>
       </c>
-      <c r="K35">
+      <c r="Q35">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L35">
+      <c r="R35">
         <f t="shared" si="3"/>
         <v>-94</v>
       </c>
-      <c r="M35" s="3">
+      <c r="S35" s="3">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43454</v>
       </c>
@@ -1896,28 +2055,31 @@
         <v>18</v>
       </c>
       <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s">
         <v>20</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>10</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>16</v>
       </c>
-      <c r="K36">
+      <c r="Q36">
         <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-      <c r="L36">
+      <c r="R36">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="M36" s="3">
+      <c r="S36" s="3">
         <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43454</v>
       </c>
@@ -1932,28 +2094,31 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
         <v>20</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>4</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>14</v>
       </c>
-      <c r="K37">
+      <c r="Q37">
         <f t="shared" si="4"/>
         <v>-10</v>
       </c>
-      <c r="L37">
+      <c r="R37">
         <f t="shared" si="3"/>
         <v>-110</v>
       </c>
-      <c r="M37" s="3">
+      <c r="S37" s="3">
         <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43454</v>
       </c>
@@ -1968,28 +2133,31 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
         <v>20</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>5</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>11</v>
       </c>
-      <c r="K38">
+      <c r="Q38">
         <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-      <c r="L38">
+      <c r="R38">
         <f t="shared" si="3"/>
         <v>-116</v>
       </c>
-      <c r="M38" s="3">
+      <c r="S38" s="3">
         <f t="shared" si="5"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43454</v>
       </c>
@@ -2004,28 +2172,31 @@
         <v>9</v>
       </c>
       <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s">
         <v>20</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>12</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>14</v>
       </c>
-      <c r="K39">
+      <c r="Q39">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="L39">
+      <c r="R39">
         <f t="shared" si="3"/>
         <v>-118</v>
       </c>
-      <c r="M39" s="3">
+      <c r="S39" s="3">
         <f t="shared" si="5"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43454</v>
       </c>
@@ -2040,28 +2211,31 @@
         <v>18</v>
       </c>
       <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
         <v>22</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>4</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>10</v>
       </c>
-      <c r="K40">
+      <c r="Q40">
         <f t="shared" si="4"/>
         <v>-6</v>
       </c>
-      <c r="L40">
+      <c r="R40">
         <f t="shared" si="3"/>
         <v>-124</v>
       </c>
-      <c r="M40" s="3">
+      <c r="S40" s="3">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43454</v>
       </c>
@@ -2076,28 +2250,31 @@
         <v>9</v>
       </c>
       <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s">
         <v>22</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>6</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>8</v>
       </c>
-      <c r="K41">
+      <c r="Q41">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="L41">
+      <c r="R41">
         <f t="shared" si="3"/>
         <v>-126</v>
       </c>
-      <c r="M41" s="3">
+      <c r="S41" s="3">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43454</v>
       </c>
@@ -2112,28 +2289,31 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" t="s">
         <v>22</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>6</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>10</v>
       </c>
-      <c r="K42">
+      <c r="Q42">
         <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="L42">
+      <c r="R42">
         <f t="shared" si="3"/>
         <v>-130</v>
       </c>
-      <c r="M42" s="3">
+      <c r="S42" s="3">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43454</v>
       </c>
@@ -2148,28 +2328,31 @@
         <v>16</v>
       </c>
       <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s">
         <v>22</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>5</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>6</v>
       </c>
-      <c r="K43">
+      <c r="Q43">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="L43">
+      <c r="R43">
         <f t="shared" si="3"/>
         <v>-131</v>
       </c>
-      <c r="M43" s="3">
+      <c r="S43" s="3">
         <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43454</v>
       </c>
@@ -2184,28 +2367,31 @@
         <v>16</v>
       </c>
       <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
         <v>22</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>6</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>10</v>
       </c>
-      <c r="K44">
+      <c r="Q44">
         <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="L44">
+      <c r="R44">
         <f t="shared" si="3"/>
         <v>-135</v>
       </c>
-      <c r="M44" s="3">
+      <c r="S44" s="3">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43454</v>
       </c>
@@ -2220,28 +2406,31 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s">
         <v>22</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>4</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>8</v>
       </c>
-      <c r="K45">
+      <c r="Q45">
         <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="L45">
+      <c r="R45">
         <f t="shared" si="3"/>
         <v>-139</v>
       </c>
-      <c r="M45" s="3">
+      <c r="S45" s="3">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43454</v>
       </c>
@@ -2256,28 +2445,31 @@
         <v>18</v>
       </c>
       <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s">
         <v>22</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>3</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>2</v>
       </c>
-      <c r="K46">
+      <c r="Q46">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L46">
+      <c r="R46">
         <f t="shared" si="3"/>
         <v>-138</v>
       </c>
-      <c r="M46" s="3">
+      <c r="S46" s="3">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43454</v>
       </c>
@@ -2292,28 +2484,31 @@
         <v>13</v>
       </c>
       <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s">
         <v>22</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>11</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>9</v>
       </c>
-      <c r="K47">
+      <c r="Q47">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="L47">
+      <c r="R47">
         <f t="shared" si="3"/>
         <v>-136</v>
       </c>
-      <c r="M47" s="3">
+      <c r="S47" s="3">
         <f t="shared" si="5"/>
         <v>1.2222222222222223</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43454</v>
       </c>
@@ -2328,28 +2523,31 @@
         <v>16</v>
       </c>
       <c r="G48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" t="s">
         <v>22</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>7</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>9</v>
       </c>
-      <c r="K48">
+      <c r="Q48">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="L48">
+      <c r="R48">
         <f t="shared" si="3"/>
         <v>-138</v>
       </c>
-      <c r="M48" s="3">
+      <c r="S48" s="3">
         <f t="shared" si="5"/>
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43454</v>
       </c>
@@ -2364,28 +2562,31 @@
         <v>16</v>
       </c>
       <c r="G49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" t="s">
         <v>22</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>2</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>7</v>
       </c>
-      <c r="K49">
+      <c r="Q49">
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="L49">
+      <c r="R49">
         <f t="shared" si="3"/>
         <v>-143</v>
       </c>
-      <c r="M49" s="3">
+      <c r="S49" s="3">
         <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43454</v>
       </c>
@@ -2400,28 +2601,31 @@
         <v>16</v>
       </c>
       <c r="G50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" t="s">
         <v>22</v>
-      </c>
-      <c r="H50">
-        <v>16</v>
       </c>
       <c r="I50">
         <v>16</v>
       </c>
-      <c r="K50">
+      <c r="J50">
+        <v>16</v>
+      </c>
+      <c r="Q50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L50">
+      <c r="R50">
         <f t="shared" si="3"/>
         <v>-143</v>
       </c>
-      <c r="M50" s="3">
+      <c r="S50" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43454</v>
       </c>
@@ -2436,28 +2640,31 @@
         <v>17</v>
       </c>
       <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" t="s">
         <v>22</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>11</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>8</v>
       </c>
-      <c r="K51">
+      <c r="Q51">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="L51">
+      <c r="R51">
         <f t="shared" si="3"/>
         <v>-140</v>
       </c>
-      <c r="M51" s="3">
+      <c r="S51" s="3">
         <f t="shared" si="5"/>
         <v>1.375</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43454</v>
       </c>
@@ -2472,28 +2679,31 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" t="s">
         <v>22</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>3</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>2</v>
       </c>
-      <c r="K52">
+      <c r="Q52">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L52">
+      <c r="R52">
         <f t="shared" si="3"/>
         <v>-139</v>
       </c>
-      <c r="M52" s="3">
+      <c r="S52" s="3">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43454</v>
       </c>
@@ -2508,28 +2718,31 @@
         <v>9</v>
       </c>
       <c r="G53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" t="s">
         <v>22</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>5</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>18</v>
       </c>
-      <c r="K53">
+      <c r="Q53">
         <f t="shared" si="4"/>
         <v>-13</v>
       </c>
-      <c r="L53">
+      <c r="R53">
         <f t="shared" si="3"/>
         <v>-152</v>
       </c>
-      <c r="M53" s="3">
+      <c r="S53" s="3">
         <f t="shared" si="5"/>
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43454</v>
       </c>
@@ -2544,28 +2757,31 @@
         <v>13</v>
       </c>
       <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" t="s">
         <v>22</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>8</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>9</v>
       </c>
-      <c r="K54">
+      <c r="Q54">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="L54">
+      <c r="R54">
         <f t="shared" si="3"/>
         <v>-153</v>
       </c>
-      <c r="M54" s="3">
+      <c r="S54" s="3">
         <f t="shared" si="5"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43454</v>
       </c>
@@ -2580,28 +2796,31 @@
         <v>18</v>
       </c>
       <c r="G55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" t="s">
         <v>22</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>7</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>2</v>
       </c>
-      <c r="K55">
+      <c r="Q55">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="L55">
+      <c r="R55">
         <f t="shared" si="3"/>
         <v>-148</v>
       </c>
-      <c r="M55" s="3">
+      <c r="S55" s="3">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43454</v>
       </c>
@@ -2616,28 +2835,31 @@
         <v>18</v>
       </c>
       <c r="G56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" t="s">
         <v>22</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>9</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>14</v>
       </c>
-      <c r="K56">
+      <c r="Q56">
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="L56">
+      <c r="R56">
         <f t="shared" si="3"/>
         <v>-153</v>
       </c>
-      <c r="M56" s="3">
+      <c r="S56" s="3">
         <f t="shared" si="5"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43454</v>
       </c>
@@ -2652,28 +2874,31 @@
         <v>10</v>
       </c>
       <c r="G57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" t="s">
         <v>22</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>14</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>11</v>
       </c>
-      <c r="K57">
+      <c r="Q57">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="L57">
+      <c r="R57">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="M57" s="3">
+      <c r="S57" s="3">
         <f t="shared" si="5"/>
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43465</v>
       </c>
@@ -2691,28 +2916,31 @@
         <v>9</v>
       </c>
       <c r="G58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" t="s">
         <v>22</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>8</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>10</v>
       </c>
-      <c r="K58">
+      <c r="Q58">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-      <c r="L58">
+      <c r="R58">
         <f t="shared" si="3"/>
         <v>-152</v>
       </c>
-      <c r="M58" s="3">
+      <c r="S58" s="3">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43465</v>
       </c>
@@ -2730,28 +2958,31 @@
         <v>13</v>
       </c>
       <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s">
         <v>22</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>8</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>6</v>
       </c>
-      <c r="K59">
+      <c r="Q59">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="L59">
+      <c r="R59">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="M59" s="3">
+      <c r="S59" s="3">
         <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43465</v>
       </c>
@@ -2769,28 +3000,31 @@
         <v>12</v>
       </c>
       <c r="G60" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" t="s">
         <v>22</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>5</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>6</v>
       </c>
-      <c r="K60">
+      <c r="Q60">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="L60">
+      <c r="R60">
         <f t="shared" si="3"/>
         <v>-151</v>
       </c>
-      <c r="M60" s="3">
+      <c r="S60" s="3">
         <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43465</v>
       </c>
@@ -2808,28 +3042,31 @@
         <v>12</v>
       </c>
       <c r="G61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" t="s">
         <v>22</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>8</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>7</v>
       </c>
-      <c r="K61">
+      <c r="Q61">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L61">
+      <c r="R61">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="M61" s="3">
+      <c r="S61" s="3">
         <f t="shared" si="5"/>
         <v>1.1428571428571428</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43465</v>
       </c>
@@ -2847,28 +3084,31 @@
         <v>24</v>
       </c>
       <c r="G62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" t="s">
         <v>22</v>
-      </c>
-      <c r="H62">
-        <v>6</v>
       </c>
       <c r="I62">
         <v>6</v>
       </c>
-      <c r="K62">
+      <c r="J62">
+        <v>6</v>
+      </c>
+      <c r="Q62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L62">
+      <c r="R62">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="M62" s="3">
+      <c r="S62" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43465</v>
       </c>
@@ -2886,28 +3126,31 @@
         <v>12</v>
       </c>
       <c r="G63" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" t="s">
         <v>22</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>1</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>5</v>
       </c>
-      <c r="K63">
+      <c r="Q63">
         <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="L63">
+      <c r="R63">
         <f t="shared" si="3"/>
         <v>-154</v>
       </c>
-      <c r="M63" s="3">
+      <c r="S63" s="3">
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43465</v>
       </c>
@@ -2925,28 +3168,31 @@
         <v>12</v>
       </c>
       <c r="G64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" t="s">
         <v>8</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>16</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>19</v>
       </c>
-      <c r="K64">
+      <c r="Q64">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="L64">
+      <c r="R64">
         <f t="shared" si="3"/>
         <v>-157</v>
       </c>
-      <c r="M64" s="3">
+      <c r="S64" s="3">
         <f t="shared" si="5"/>
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43465</v>
       </c>
@@ -2964,28 +3210,31 @@
         <v>24</v>
       </c>
       <c r="G65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" t="s">
         <v>22</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
       <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
         <v>3</v>
       </c>
-      <c r="K65">
+      <c r="Q65">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="L65">
+      <c r="R65">
         <f t="shared" si="3"/>
         <v>-160</v>
       </c>
-      <c r="M65" s="3">
+      <c r="S65" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43466</v>
       </c>
@@ -3002,35 +3251,35 @@
       <c r="E66" t="s">
         <v>18</v>
       </c>
-      <c r="F66" t="s">
-        <v>29</v>
-      </c>
       <c r="G66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" t="s">
         <v>22</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>4</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>7</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>1890</v>
       </c>
-      <c r="K66">
-        <f t="shared" ref="K66:K97" si="6">H66-I66</f>
+      <c r="Q66">
+        <f t="shared" ref="Q66:Q97" si="6">I66-J66</f>
         <v>-3</v>
       </c>
-      <c r="L66">
+      <c r="R66">
         <f t="shared" si="3"/>
         <v>-163</v>
       </c>
-      <c r="M66" s="3">
-        <f t="shared" ref="M66:M97" si="7">H66/I66</f>
+      <c r="S66" s="3">
+        <f t="shared" ref="S66:S97" si="7">I66/J66</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43466</v>
       </c>
@@ -3047,36 +3296,36 @@
       <c r="E67" t="s">
         <v>18</v>
       </c>
-      <c r="F67" t="s">
-        <v>31</v>
-      </c>
       <c r="G67" t="s">
         <v>30</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67">
         <v>6</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>15</v>
       </c>
-      <c r="J67">
-        <f>9620-J66</f>
+      <c r="K67">
+        <f>9620-K66</f>
         <v>7730</v>
       </c>
-      <c r="K67">
+      <c r="Q67">
         <f t="shared" si="6"/>
         <v>-9</v>
       </c>
-      <c r="L67">
+      <c r="R67">
         <f t="shared" si="3"/>
         <v>-172</v>
       </c>
-      <c r="M67" s="3">
+      <c r="S67" s="3">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43466</v>
       </c>
@@ -3093,36 +3342,36 @@
       <c r="E68" t="s">
         <v>10</v>
       </c>
-      <c r="F68" t="s">
-        <v>31</v>
-      </c>
       <c r="G68" t="s">
         <v>30</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68">
         <v>12</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>15</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <f>8113</f>
         <v>8113</v>
       </c>
-      <c r="K68">
+      <c r="Q68">
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="L68">
-        <f t="shared" ref="L68:L131" si="9">K68+L67</f>
+      <c r="R68">
+        <f t="shared" ref="R68:R131" si="9">Q68+R67</f>
         <v>-175</v>
       </c>
-      <c r="M68" s="3">
+      <c r="S68" s="3">
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43466</v>
       </c>
@@ -3139,35 +3388,35 @@
       <c r="E69" t="s">
         <v>12</v>
       </c>
-      <c r="F69" t="s">
-        <v>29</v>
-      </c>
       <c r="G69" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" t="s">
         <v>22</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>9</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>17</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>8002</v>
       </c>
-      <c r="K69">
+      <c r="Q69">
         <f t="shared" si="6"/>
         <v>-8</v>
       </c>
-      <c r="L69">
+      <c r="R69">
         <f t="shared" si="9"/>
         <v>-183</v>
       </c>
-      <c r="M69" s="3">
+      <c r="S69" s="3">
         <f t="shared" si="7"/>
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43466</v>
       </c>
@@ -3184,35 +3433,35 @@
       <c r="E70" t="s">
         <v>9</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" t="s">
         <v>32</v>
       </c>
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70">
+      <c r="I70">
         <v>8</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>12</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>5596</v>
       </c>
-      <c r="K70">
+      <c r="Q70">
         <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-      <c r="L70">
+      <c r="R70">
         <f t="shared" si="9"/>
         <v>-187</v>
       </c>
-      <c r="M70" s="3">
+      <c r="S70" s="3">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43466</v>
       </c>
@@ -3229,35 +3478,35 @@
       <c r="E71" t="s">
         <v>10</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" t="s">
         <v>32</v>
       </c>
-      <c r="G71" t="s">
-        <v>33</v>
-      </c>
-      <c r="H71">
+      <c r="I71">
         <v>13</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>16</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>7272</v>
       </c>
-      <c r="K71">
+      <c r="Q71">
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="L71">
+      <c r="R71">
         <f t="shared" si="9"/>
         <v>-190</v>
       </c>
-      <c r="M71" s="3">
+      <c r="S71" s="3">
         <f t="shared" si="7"/>
         <v>0.8125</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43466</v>
       </c>
@@ -3274,35 +3523,35 @@
       <c r="E72" t="s">
         <v>12</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s">
         <v>32</v>
       </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
-      <c r="H72">
+      <c r="I72">
         <v>3</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>9</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>2944</v>
       </c>
-      <c r="K72">
+      <c r="Q72">
         <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="L72">
+      <c r="R72">
         <f t="shared" si="9"/>
         <v>-196</v>
       </c>
-      <c r="M72" s="3">
+      <c r="S72" s="3">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43466</v>
       </c>
@@ -3319,36 +3568,36 @@
       <c r="E73" t="s">
         <v>24</v>
       </c>
-      <c r="F73" t="s">
-        <v>31</v>
-      </c>
       <c r="G73" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" t="s">
         <v>8</v>
-      </c>
-      <c r="H73">
-        <v>6</v>
       </c>
       <c r="I73">
         <v>6</v>
       </c>
       <c r="J73">
-        <f>6019-J72</f>
+        <v>6</v>
+      </c>
+      <c r="K73">
+        <f>6019-K72</f>
         <v>3075</v>
       </c>
-      <c r="K73">
+      <c r="Q73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L73">
+      <c r="R73">
         <f t="shared" si="9"/>
         <v>-196</v>
       </c>
-      <c r="M73" s="3">
+      <c r="S73" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43466</v>
       </c>
@@ -3365,35 +3614,35 @@
       <c r="E74" t="s">
         <v>18</v>
       </c>
-      <c r="F74" t="s">
-        <v>31</v>
-      </c>
       <c r="G74" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" t="s">
         <v>8</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>3</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>4</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>1570</v>
       </c>
-      <c r="K74">
+      <c r="Q74">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="L74">
+      <c r="R74">
         <f t="shared" si="9"/>
         <v>-197</v>
       </c>
-      <c r="M74" s="3">
+      <c r="S74" s="3">
         <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43466</v>
       </c>
@@ -3410,35 +3659,35 @@
       <c r="E75" t="s">
         <v>10</v>
       </c>
-      <c r="F75" t="s">
-        <v>31</v>
-      </c>
       <c r="G75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" t="s">
         <v>8</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>8</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>10</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>5519</v>
       </c>
-      <c r="K75">
+      <c r="Q75">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="L75">
+      <c r="R75">
         <f t="shared" si="9"/>
         <v>-199</v>
       </c>
-      <c r="M75" s="3">
+      <c r="S75" s="3">
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43466</v>
       </c>
@@ -3455,35 +3704,35 @@
       <c r="E76" t="s">
         <v>18</v>
       </c>
-      <c r="F76" t="s">
-        <v>31</v>
-      </c>
       <c r="G76" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" t="s">
         <v>8</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>6</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>7</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>1888</v>
       </c>
-      <c r="K76">
+      <c r="Q76">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="L76">
+      <c r="R76">
         <f t="shared" si="9"/>
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="S76" s="3">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43467</v>
       </c>
@@ -3500,35 +3749,35 @@
       <c r="E77" t="s">
         <v>13</v>
       </c>
-      <c r="F77" t="s">
-        <v>32</v>
-      </c>
       <c r="G77" t="s">
-        <v>34</v>
-      </c>
-      <c r="H77">
+        <v>31</v>
+      </c>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77">
         <v>7</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>8</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>1819</v>
       </c>
-      <c r="K77">
+      <c r="Q77">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="L77">
+      <c r="R77">
         <f t="shared" si="9"/>
         <v>-201</v>
       </c>
-      <c r="M77" s="3">
+      <c r="S77" s="3">
         <f t="shared" si="7"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43467</v>
       </c>
@@ -3545,35 +3794,35 @@
       <c r="E78" t="s">
         <v>16</v>
       </c>
-      <c r="F78" t="s">
-        <v>32</v>
-      </c>
       <c r="G78" t="s">
-        <v>34</v>
-      </c>
-      <c r="H78">
+        <v>31</v>
+      </c>
+      <c r="H78" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78">
         <v>6</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>7</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>1423</v>
       </c>
-      <c r="K78">
+      <c r="Q78">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="L78">
+      <c r="R78">
         <f t="shared" si="9"/>
         <v>-202</v>
       </c>
-      <c r="M78" s="3">
+      <c r="S78" s="3">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43467</v>
       </c>
@@ -3590,36 +3839,36 @@
       <c r="E79" t="s">
         <v>16</v>
       </c>
-      <c r="F79" t="s">
-        <v>32</v>
-      </c>
       <c r="G79" t="s">
-        <v>34</v>
-      </c>
-      <c r="H79">
+        <v>31</v>
+      </c>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79">
         <v>5</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>11</v>
       </c>
-      <c r="J79">
-        <f>3508-J78</f>
+      <c r="K79">
+        <f>3508-K78</f>
         <v>2085</v>
       </c>
-      <c r="K79">
+      <c r="Q79">
         <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="L79">
+      <c r="R79">
         <f t="shared" si="9"/>
         <v>-208</v>
       </c>
-      <c r="M79" s="3">
+      <c r="S79" s="3">
         <f t="shared" si="7"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43467</v>
       </c>
@@ -3636,36 +3885,36 @@
       <c r="E80" t="s">
         <v>7</v>
       </c>
-      <c r="F80" t="s">
-        <v>32</v>
-      </c>
       <c r="G80" t="s">
-        <v>34</v>
-      </c>
-      <c r="H80">
+        <v>31</v>
+      </c>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80">
         <v>5</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>10</v>
       </c>
-      <c r="J80">
-        <f>5138-J79+J78</f>
+      <c r="K80">
+        <f>5138-K79+K78</f>
         <v>4476</v>
       </c>
-      <c r="K80">
+      <c r="Q80">
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="L80">
+      <c r="R80">
         <f t="shared" si="9"/>
         <v>-213</v>
       </c>
-      <c r="M80" s="3">
+      <c r="S80" s="3">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43468</v>
       </c>
@@ -3682,35 +3931,35 @@
       <c r="E81" t="s">
         <v>18</v>
       </c>
-      <c r="F81" t="s">
-        <v>32</v>
-      </c>
       <c r="G81" t="s">
-        <v>34</v>
-      </c>
-      <c r="H81">
+        <v>31</v>
+      </c>
+      <c r="H81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81">
         <v>10</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>8</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>3521</v>
       </c>
-      <c r="K81">
+      <c r="Q81">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="L81">
+      <c r="R81">
         <f t="shared" si="9"/>
         <v>-211</v>
       </c>
-      <c r="M81" s="3">
+      <c r="S81" s="3">
         <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43468</v>
       </c>
@@ -3727,36 +3976,36 @@
       <c r="E82" t="s">
         <v>18</v>
       </c>
-      <c r="F82" t="s">
-        <v>32</v>
-      </c>
       <c r="G82" t="s">
-        <v>34</v>
-      </c>
-      <c r="H82">
+        <v>31</v>
+      </c>
+      <c r="H82" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82">
         <v>8</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>9</v>
       </c>
-      <c r="J82">
-        <f>8297-J81</f>
+      <c r="K82">
+        <f>8297-K81</f>
         <v>4776</v>
       </c>
-      <c r="K82">
+      <c r="Q82">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="L82">
+      <c r="R82">
         <f t="shared" si="9"/>
         <v>-212</v>
       </c>
-      <c r="M82" s="3">
+      <c r="S82" s="3">
         <f t="shared" si="7"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43468</v>
       </c>
@@ -3773,35 +4022,35 @@
       <c r="E83" t="s">
         <v>10</v>
       </c>
-      <c r="F83" t="s">
-        <v>32</v>
-      </c>
       <c r="G83" t="s">
-        <v>34</v>
-      </c>
-      <c r="H83">
+        <v>31</v>
+      </c>
+      <c r="H83" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83">
         <v>11</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>15</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>4958</v>
       </c>
-      <c r="K83">
+      <c r="Q83">
         <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-      <c r="L83">
+      <c r="R83">
         <f t="shared" si="9"/>
         <v>-216</v>
       </c>
-      <c r="M83" s="3">
+      <c r="S83" s="3">
         <f t="shared" si="7"/>
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43471</v>
       </c>
@@ -3818,35 +4067,35 @@
       <c r="E84" t="s">
         <v>18</v>
       </c>
-      <c r="F84" t="s">
-        <v>32</v>
-      </c>
       <c r="G84" t="s">
-        <v>34</v>
-      </c>
-      <c r="H84">
+        <v>31</v>
+      </c>
+      <c r="H84" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84">
         <v>4</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>2</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>1735</v>
       </c>
-      <c r="K84">
+      <c r="Q84">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="L84">
+      <c r="R84">
         <f t="shared" si="9"/>
         <v>-214</v>
       </c>
-      <c r="M84" s="3">
+      <c r="S84" s="3">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43471</v>
       </c>
@@ -3863,36 +4112,36 @@
       <c r="E85" t="s">
         <v>10</v>
       </c>
-      <c r="F85" t="s">
-        <v>32</v>
-      </c>
       <c r="G85" t="s">
-        <v>34</v>
-      </c>
-      <c r="H85">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85">
         <v>9</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>14</v>
       </c>
-      <c r="J85">
-        <f>5196-J84</f>
+      <c r="K85">
+        <f>5196-K84</f>
         <v>3461</v>
       </c>
-      <c r="K85">
+      <c r="Q85">
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="L85">
+      <c r="R85">
         <f t="shared" si="9"/>
         <v>-219</v>
       </c>
-      <c r="M85" s="3">
+      <c r="S85" s="3">
         <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43471</v>
       </c>
@@ -3909,35 +4158,35 @@
       <c r="E86" t="s">
         <v>16</v>
       </c>
-      <c r="F86" t="s">
-        <v>32</v>
-      </c>
       <c r="G86" t="s">
-        <v>34</v>
-      </c>
-      <c r="H86">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="H86" t="s">
+        <v>33</v>
       </c>
       <c r="I86">
         <v>14</v>
       </c>
       <c r="J86">
+        <v>14</v>
+      </c>
+      <c r="K86">
         <v>5521</v>
       </c>
-      <c r="K86">
+      <c r="Q86">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L86">
+      <c r="R86">
         <f t="shared" si="9"/>
         <v>-219</v>
       </c>
-      <c r="M86" s="3">
+      <c r="S86" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43471</v>
       </c>
@@ -3954,35 +4203,35 @@
       <c r="E87" t="s">
         <v>7</v>
       </c>
-      <c r="F87" t="s">
-        <v>32</v>
-      </c>
       <c r="G87" t="s">
-        <v>34</v>
-      </c>
-      <c r="H87">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87">
         <v>8</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>5</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>3499</v>
       </c>
-      <c r="K87">
+      <c r="Q87">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="L87">
+      <c r="R87">
         <f t="shared" si="9"/>
         <v>-216</v>
       </c>
-      <c r="M87" s="3">
+      <c r="S87" s="3">
         <f t="shared" si="7"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43472</v>
       </c>
@@ -3999,35 +4248,35 @@
       <c r="E88" t="s">
         <v>16</v>
       </c>
-      <c r="F88" t="s">
-        <v>32</v>
-      </c>
       <c r="G88" t="s">
-        <v>34</v>
-      </c>
-      <c r="H88">
+        <v>31</v>
+      </c>
+      <c r="H88" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88">
         <v>1</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>6</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>1370</v>
       </c>
-      <c r="K88">
+      <c r="Q88">
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="L88">
+      <c r="R88">
         <f t="shared" si="9"/>
         <v>-221</v>
       </c>
-      <c r="M88" s="3">
+      <c r="S88" s="3">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43472</v>
       </c>
@@ -4044,35 +4293,35 @@
       <c r="E89" t="s">
         <v>18</v>
       </c>
-      <c r="F89" t="s">
-        <v>32</v>
-      </c>
       <c r="G89" t="s">
-        <v>34</v>
-      </c>
-      <c r="H89">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="H89" t="s">
+        <v>33</v>
       </c>
       <c r="I89">
         <v>4</v>
       </c>
       <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
         <v>1503</v>
       </c>
-      <c r="K89">
+      <c r="Q89">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L89">
+      <c r="R89">
         <f t="shared" si="9"/>
         <v>-221</v>
       </c>
-      <c r="M89" s="3">
+      <c r="S89" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43472</v>
       </c>
@@ -4089,35 +4338,35 @@
       <c r="E90" t="s">
         <v>24</v>
       </c>
-      <c r="F90" t="s">
-        <v>32</v>
-      </c>
       <c r="G90" t="s">
-        <v>34</v>
-      </c>
-      <c r="H90">
+        <v>31</v>
+      </c>
+      <c r="H90" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90">
         <v>8</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>15</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>9124</v>
       </c>
-      <c r="K90">
+      <c r="Q90">
         <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-      <c r="L90">
+      <c r="R90">
         <f t="shared" si="9"/>
         <v>-228</v>
       </c>
-      <c r="M90" s="3">
+      <c r="S90" s="3">
         <f t="shared" si="7"/>
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43472</v>
       </c>
@@ -4134,35 +4383,35 @@
       <c r="E91" t="s">
         <v>18</v>
       </c>
-      <c r="F91" t="s">
-        <v>32</v>
-      </c>
       <c r="G91" t="s">
-        <v>34</v>
-      </c>
-      <c r="H91">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91">
         <v>4</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>6</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>1725</v>
       </c>
-      <c r="K91">
+      <c r="Q91">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="L91">
+      <c r="R91">
         <f t="shared" si="9"/>
         <v>-230</v>
       </c>
-      <c r="M91" s="3">
+      <c r="S91" s="3">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43473</v>
       </c>
@@ -4179,35 +4428,41 @@
       <c r="E92" t="s">
         <v>16</v>
       </c>
-      <c r="F92" t="s">
-        <v>29</v>
-      </c>
       <c r="G92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" t="s">
         <v>20</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>7</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>3</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>2652</v>
       </c>
-      <c r="K92">
+      <c r="O92" t="s">
+        <v>40</v>
+      </c>
+      <c r="P92" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q92">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="L92">
+      <c r="R92">
         <f t="shared" si="9"/>
         <v>-226</v>
       </c>
-      <c r="M92" s="3">
+      <c r="S92" s="3">
         <f t="shared" si="7"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43473</v>
       </c>
@@ -4224,36 +4479,42 @@
       <c r="E93" t="s">
         <v>7</v>
       </c>
-      <c r="F93" t="s">
-        <v>29</v>
-      </c>
       <c r="G93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" t="s">
         <v>20</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>7</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>11</v>
       </c>
-      <c r="J93">
-        <f>6778-J92</f>
+      <c r="K93">
+        <f>6778-K92</f>
         <v>4126</v>
       </c>
-      <c r="K93">
+      <c r="O93" t="s">
+        <v>40</v>
+      </c>
+      <c r="P93" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q93">
         <f t="shared" si="6"/>
         <v>-4</v>
       </c>
-      <c r="L93">
+      <c r="R93">
         <f t="shared" si="9"/>
         <v>-230</v>
       </c>
-      <c r="M93" s="3">
+      <c r="S93" s="3">
         <f t="shared" si="7"/>
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43473</v>
       </c>
@@ -4270,35 +4531,41 @@
       <c r="E94" t="s">
         <v>12</v>
       </c>
-      <c r="F94" t="s">
-        <v>29</v>
-      </c>
       <c r="G94" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" t="s">
         <v>20</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>7</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>3</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>3249</v>
       </c>
-      <c r="K94">
+      <c r="O94" t="s">
+        <v>40</v>
+      </c>
+      <c r="P94" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="L94">
+      <c r="R94">
         <f t="shared" si="9"/>
         <v>-226</v>
       </c>
-      <c r="M94" s="3">
+      <c r="S94" s="3">
         <f t="shared" si="7"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43473</v>
       </c>
@@ -4315,36 +4582,42 @@
       <c r="E95" t="s">
         <v>12</v>
       </c>
-      <c r="F95" t="s">
-        <v>29</v>
-      </c>
       <c r="G95" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" t="s">
         <v>20</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>13</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>19</v>
       </c>
-      <c r="J95">
-        <f>8076-J94</f>
+      <c r="K95">
+        <f>8076-K94</f>
         <v>4827</v>
       </c>
-      <c r="K95">
+      <c r="O95" t="s">
+        <v>40</v>
+      </c>
+      <c r="P95" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q95">
         <f t="shared" si="6"/>
         <v>-6</v>
       </c>
-      <c r="L95">
+      <c r="R95">
         <f t="shared" si="9"/>
         <v>-232</v>
       </c>
-      <c r="M95" s="3">
+      <c r="S95" s="3">
         <f t="shared" si="7"/>
         <v>0.68421052631578949</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43474</v>
       </c>
@@ -4361,35 +4634,41 @@
       <c r="E96" t="s">
         <v>12</v>
       </c>
-      <c r="F96" t="s">
-        <v>29</v>
-      </c>
       <c r="G96" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" t="s">
         <v>20</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>11</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>14</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>9908</v>
       </c>
-      <c r="K96">
+      <c r="O96" t="s">
+        <v>40</v>
+      </c>
+      <c r="P96" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q96">
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="L96">
+      <c r="R96">
         <f t="shared" si="9"/>
         <v>-235</v>
       </c>
-      <c r="M96" s="3">
+      <c r="S96" s="3">
         <f t="shared" si="7"/>
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43474</v>
       </c>
@@ -4406,35 +4685,41 @@
       <c r="E97" t="s">
         <v>16</v>
       </c>
-      <c r="F97" t="s">
-        <v>29</v>
-      </c>
       <c r="G97" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" t="s">
         <v>20</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>10</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>13</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>6991</v>
       </c>
-      <c r="K97">
+      <c r="O97" t="s">
+        <v>40</v>
+      </c>
+      <c r="P97" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q97">
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="L97">
+      <c r="R97">
         <f t="shared" si="9"/>
         <v>-238</v>
       </c>
-      <c r="M97" s="3">
+      <c r="S97" s="3">
         <f t="shared" si="7"/>
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43476</v>
       </c>
@@ -4451,35 +4736,41 @@
       <c r="E98" t="s">
         <v>7</v>
       </c>
-      <c r="F98" t="s">
-        <v>29</v>
-      </c>
       <c r="G98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" t="s">
         <v>20</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>14</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>11</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>7317</v>
       </c>
-      <c r="K98">
-        <f t="shared" ref="K98:K129" si="10">H98-I98</f>
+      <c r="O98" t="s">
+        <v>40</v>
+      </c>
+      <c r="P98" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" ref="Q98:Q129" si="10">I98-J98</f>
         <v>3</v>
       </c>
-      <c r="L98">
+      <c r="R98">
         <f t="shared" si="9"/>
         <v>-235</v>
       </c>
-      <c r="M98" s="3">
-        <f t="shared" ref="M98:M133" si="11">H98/I98</f>
+      <c r="S98" s="3">
+        <f t="shared" ref="S98:S133" si="11">I98/J98</f>
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43476</v>
       </c>
@@ -4496,1470 +4787,1842 @@
       <c r="E99" t="s">
         <v>9</v>
       </c>
-      <c r="F99" t="s">
-        <v>29</v>
-      </c>
       <c r="G99" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" t="s">
         <v>20</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>7</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>14</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>8069</v>
       </c>
-      <c r="K99">
+      <c r="O99" t="s">
+        <v>40</v>
+      </c>
+      <c r="P99" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q99">
         <f t="shared" si="10"/>
         <v>-7</v>
       </c>
-      <c r="L99">
+      <c r="R99">
         <f t="shared" si="9"/>
         <v>-242</v>
       </c>
-      <c r="M99" s="3">
+      <c r="S99" s="3">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>43477</v>
+      </c>
       <c r="B100" s="3">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100">
+        <v>9</v>
+      </c>
+      <c r="J100">
+        <v>7</v>
+      </c>
       <c r="K100">
+        <v>5056</v>
+      </c>
+      <c r="O100" t="s">
+        <v>40</v>
+      </c>
+      <c r="P100" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="R100">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M100" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S100" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>43477</v>
+      </c>
       <c r="B101" s="3">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101">
+        <v>11</v>
+      </c>
+      <c r="J101">
+        <v>7</v>
+      </c>
       <c r="K101">
+        <f>12487-K100</f>
+        <v>7431</v>
+      </c>
+      <c r="O101" t="s">
+        <v>40</v>
+      </c>
+      <c r="P101" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="R101">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M101" s="3" t="e">
+        <v>-236</v>
+      </c>
+      <c r="S101" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>43477</v>
+      </c>
       <c r="B102" s="3">
         <f t="shared" si="8"/>
         <v>101</v>
       </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102">
+        <v>4</v>
+      </c>
+      <c r="J102">
+        <v>8</v>
+      </c>
       <c r="K102">
+        <v>1698</v>
+      </c>
+      <c r="O102" t="s">
+        <v>40</v>
+      </c>
+      <c r="P102" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L102">
+        <v>-4</v>
+      </c>
+      <c r="R102">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M102" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S102" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>43477</v>
+      </c>
       <c r="B103" s="3">
         <f t="shared" si="8"/>
         <v>102</v>
       </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" t="s">
+        <v>28</v>
+      </c>
+      <c r="H103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103">
+        <v>9</v>
+      </c>
+      <c r="J103">
+        <v>13</v>
+      </c>
       <c r="K103">
+        <f>12613-K102</f>
+        <v>10915</v>
+      </c>
+      <c r="O103" t="s">
+        <v>40</v>
+      </c>
+      <c r="P103" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q103">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L103">
+        <v>-4</v>
+      </c>
+      <c r="R103">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M103" s="3" t="e">
+        <v>-244</v>
+      </c>
+      <c r="S103" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>43478</v>
+      </c>
       <c r="B104" s="3">
         <f t="shared" si="8"/>
         <v>103</v>
       </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>42</v>
+      </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104">
+        <v>7</v>
+      </c>
+      <c r="J104">
+        <v>6</v>
+      </c>
       <c r="K104">
+        <v>3231</v>
+      </c>
+      <c r="L104" t="s">
+        <v>43</v>
+      </c>
+      <c r="M104" t="s">
+        <v>40</v>
+      </c>
+      <c r="N104" t="s">
+        <v>38</v>
+      </c>
+      <c r="O104" t="s">
+        <v>40</v>
+      </c>
+      <c r="P104" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q104">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="R104">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M104" s="3" t="e">
+        <v>-243</v>
+      </c>
+      <c r="S104" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>43478</v>
+      </c>
       <c r="B105" s="3">
         <f t="shared" si="8"/>
         <v>104</v>
       </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" t="s">
+        <v>42</v>
+      </c>
+      <c r="G105" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105">
+        <v>10</v>
+      </c>
+      <c r="J105">
+        <v>13</v>
+      </c>
       <c r="K105">
+        <f>7441-3231</f>
+        <v>4210</v>
+      </c>
+      <c r="L105" t="s">
+        <v>43</v>
+      </c>
+      <c r="M105" t="s">
+        <v>40</v>
+      </c>
+      <c r="N105" t="s">
+        <v>38</v>
+      </c>
+      <c r="O105" t="s">
+        <v>40</v>
+      </c>
+      <c r="P105" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q105">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L105">
+        <v>-3</v>
+      </c>
+      <c r="R105">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M105" s="3" t="e">
+        <v>-246</v>
+      </c>
+      <c r="S105" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>43478</v>
+      </c>
       <c r="B106" s="3">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
+        <v>46</v>
+      </c>
+      <c r="G106" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106">
+        <v>11</v>
+      </c>
+      <c r="J106">
+        <v>13</v>
+      </c>
       <c r="K106">
+        <f>11275-K105-K104</f>
+        <v>3834</v>
+      </c>
+      <c r="L106" t="s">
+        <v>47</v>
+      </c>
+      <c r="M106" t="s">
+        <v>40</v>
+      </c>
+      <c r="N106" t="s">
+        <v>38</v>
+      </c>
+      <c r="O106" t="s">
+        <v>40</v>
+      </c>
+      <c r="P106" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q106">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L106">
+        <v>-2</v>
+      </c>
+      <c r="R106">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M106" s="3" t="e">
+        <v>-248</v>
+      </c>
+      <c r="S106" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>43478</v>
+      </c>
       <c r="B107" s="3">
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107">
+        <v>13</v>
+      </c>
+      <c r="J107">
+        <v>9</v>
+      </c>
       <c r="K107">
+        <v>7340</v>
+      </c>
+      <c r="L107" t="s">
+        <v>43</v>
+      </c>
+      <c r="M107" t="s">
+        <v>40</v>
+      </c>
+      <c r="N107" t="s">
+        <v>38</v>
+      </c>
+      <c r="O107" t="s">
+        <v>40</v>
+      </c>
+      <c r="P107" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q107">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="R107">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M107" s="3" t="e">
+        <v>-244</v>
+      </c>
+      <c r="S107" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.4444444444444444</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>43478</v>
+      </c>
       <c r="B108" s="3">
         <f t="shared" si="8"/>
         <v>107</v>
       </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" t="s">
+        <v>46</v>
+      </c>
+      <c r="G108" t="s">
+        <v>28</v>
+      </c>
+      <c r="H108" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108">
+        <v>7</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
       <c r="K108">
+        <v>7741</v>
+      </c>
+      <c r="L108" t="s">
+        <v>43</v>
+      </c>
+      <c r="M108" t="s">
+        <v>40</v>
+      </c>
+      <c r="N108" t="s">
+        <v>38</v>
+      </c>
+      <c r="O108" t="s">
+        <v>40</v>
+      </c>
+      <c r="P108" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q108">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L108">
+        <v>4</v>
+      </c>
+      <c r="R108">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M108" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S108" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
       <c r="B109" s="3">
         <f t="shared" si="8"/>
         <v>108</v>
       </c>
-      <c r="K109">
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="Q109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L109">
+      <c r="R109">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M109" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S109" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
       <c r="B110" s="3">
         <f t="shared" si="8"/>
         <v>109</v>
       </c>
-      <c r="K110">
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="Q110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L110">
+      <c r="R110">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M110" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S110" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B111" s="3">
         <f t="shared" si="8"/>
         <v>110</v>
       </c>
-      <c r="K111">
+      <c r="Q111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L111">
+      <c r="R111">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M111" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S111" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B112" s="3">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="K112">
+      <c r="Q112">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L112">
+      <c r="R112">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M112" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S112" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B113" s="3">
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
-      <c r="K113">
+      <c r="Q113">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L113">
+      <c r="R113">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M113" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S113" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B114" s="3">
         <f t="shared" si="8"/>
         <v>113</v>
       </c>
-      <c r="K114">
+      <c r="Q114">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L114">
+      <c r="R114">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M114" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S114" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B115" s="3">
         <f t="shared" si="8"/>
         <v>114</v>
       </c>
-      <c r="K115">
+      <c r="Q115">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L115">
+      <c r="R115">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M115" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S115" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B116" s="3">
         <f t="shared" si="8"/>
         <v>115</v>
       </c>
-      <c r="K116">
+      <c r="Q116">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L116">
+      <c r="R116">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M116" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S116" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B117" s="3">
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="K117">
+      <c r="Q117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L117">
+      <c r="R117">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M117" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S117" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B118" s="3">
         <f t="shared" si="8"/>
         <v>117</v>
       </c>
-      <c r="K118">
+      <c r="Q118">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L118">
+      <c r="R118">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M118" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S118" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B119" s="3">
         <f t="shared" si="8"/>
         <v>118</v>
       </c>
-      <c r="K119">
+      <c r="Q119">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L119">
+      <c r="R119">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M119" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S119" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B120" s="3">
         <f t="shared" si="8"/>
         <v>119</v>
       </c>
-      <c r="K120">
+      <c r="Q120">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L120">
+      <c r="R120">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M120" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S120" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B121" s="3">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
-      <c r="K121">
+      <c r="Q121">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L121">
+      <c r="R121">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M121" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S121" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B122" s="3">
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
-      <c r="K122">
+      <c r="Q122">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L122">
+      <c r="R122">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M122" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S122" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B123" s="3">
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="K123">
+      <c r="Q123">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L123">
+      <c r="R123">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M123" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S123" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B124" s="3">
         <f t="shared" si="8"/>
         <v>123</v>
       </c>
-      <c r="K124">
+      <c r="Q124">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L124">
+      <c r="R124">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M124" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S124" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B125" s="3">
         <f t="shared" si="8"/>
         <v>124</v>
       </c>
-      <c r="K125">
+      <c r="Q125">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L125">
+      <c r="R125">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M125" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S125" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B126" s="3">
         <f t="shared" si="8"/>
         <v>125</v>
       </c>
-      <c r="K126">
+      <c r="Q126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L126">
+      <c r="R126">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M126" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S126" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B127" s="3">
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
-      <c r="K127">
+      <c r="Q127">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L127">
+      <c r="R127">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M127" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S127" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B128" s="3">
         <f t="shared" si="8"/>
         <v>127</v>
       </c>
-      <c r="K128">
+      <c r="Q128">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L128">
+      <c r="R128">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M128" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S128" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B129" s="3">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="K129">
+      <c r="Q129">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L129">
+      <c r="R129">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M129" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S129" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B130" s="3">
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="K130">
-        <f t="shared" ref="K130:K161" si="12">H130-I130</f>
-        <v>0</v>
-      </c>
-      <c r="L130">
+      <c r="Q130">
+        <f t="shared" ref="Q130:Q161" si="12">I130-J130</f>
+        <v>0</v>
+      </c>
+      <c r="R130">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M130" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S130" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B131" s="3">
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-      <c r="K131">
+      <c r="Q131">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L131">
+      <c r="R131">
         <f t="shared" si="9"/>
-        <v>-242</v>
-      </c>
-      <c r="M131" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S131" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B132" s="3">
         <f t="shared" ref="B132:B179" si="13">1+B131</f>
         <v>131</v>
       </c>
-      <c r="K132">
+      <c r="Q132">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L132">
-        <f t="shared" ref="L132:L179" si="14">K132+L131</f>
-        <v>-242</v>
-      </c>
-      <c r="M132" s="3" t="e">
+      <c r="R132">
+        <f t="shared" ref="R132:R179" si="14">Q132+R131</f>
+        <v>-240</v>
+      </c>
+      <c r="S132" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B133" s="3">
         <f t="shared" si="13"/>
         <v>132</v>
       </c>
-      <c r="K133">
+      <c r="Q133">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L133">
+      <c r="R133">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M133" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S133" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B134" s="3">
         <f t="shared" si="13"/>
         <v>133</v>
       </c>
-      <c r="K134">
+      <c r="Q134">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L134">
+      <c r="R134">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M134" s="3" t="e">
-        <f t="shared" ref="M134:M179" si="15">H134/I134</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-240</v>
+      </c>
+      <c r="S134" s="3" t="e">
+        <f t="shared" ref="S134:S179" si="15">I134/J134</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B135" s="3">
         <f t="shared" si="13"/>
         <v>134</v>
       </c>
-      <c r="K135">
+      <c r="Q135">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L135">
+      <c r="R135">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M135" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S135" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B136" s="3">
         <f t="shared" si="13"/>
         <v>135</v>
       </c>
-      <c r="K136">
+      <c r="Q136">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L136">
+      <c r="R136">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M136" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S136" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B137" s="3">
         <f t="shared" si="13"/>
         <v>136</v>
       </c>
-      <c r="K137">
+      <c r="Q137">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L137">
+      <c r="R137">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M137" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S137" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B138" s="3">
         <f t="shared" si="13"/>
         <v>137</v>
       </c>
-      <c r="K138">
+      <c r="Q138">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L138">
+      <c r="R138">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M138" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S138" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B139" s="3">
         <f t="shared" si="13"/>
         <v>138</v>
       </c>
-      <c r="K139">
+      <c r="Q139">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L139">
+      <c r="R139">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M139" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S139" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B140" s="3">
         <f t="shared" si="13"/>
         <v>139</v>
       </c>
-      <c r="K140">
+      <c r="Q140">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L140">
+      <c r="R140">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M140" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S140" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B141" s="3">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
-      <c r="K141">
+      <c r="Q141">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L141">
+      <c r="R141">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M141" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S141" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B142" s="3">
         <f t="shared" si="13"/>
         <v>141</v>
       </c>
-      <c r="K142">
+      <c r="Q142">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L142">
+      <c r="R142">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M142" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S142" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B143" s="3">
         <f t="shared" si="13"/>
         <v>142</v>
       </c>
-      <c r="K143">
+      <c r="Q143">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L143">
+      <c r="R143">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M143" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S143" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B144" s="3">
         <f t="shared" si="13"/>
         <v>143</v>
       </c>
-      <c r="K144">
+      <c r="Q144">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L144">
+      <c r="R144">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M144" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S144" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B145" s="3">
         <f t="shared" si="13"/>
         <v>144</v>
       </c>
-      <c r="K145">
+      <c r="Q145">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L145">
+      <c r="R145">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M145" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S145" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B146" s="3">
         <f t="shared" si="13"/>
         <v>145</v>
       </c>
-      <c r="K146">
+      <c r="Q146">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L146">
+      <c r="R146">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M146" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S146" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B147" s="3">
         <f t="shared" si="13"/>
         <v>146</v>
       </c>
-      <c r="K147">
+      <c r="Q147">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L147">
+      <c r="R147">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M147" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S147" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B148" s="3">
         <f t="shared" si="13"/>
         <v>147</v>
       </c>
-      <c r="K148">
+      <c r="Q148">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L148">
+      <c r="R148">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M148" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S148" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B149" s="3">
         <f t="shared" si="13"/>
         <v>148</v>
       </c>
-      <c r="K149">
+      <c r="Q149">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L149">
+      <c r="R149">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M149" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S149" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B150" s="3">
         <f t="shared" si="13"/>
         <v>149</v>
       </c>
-      <c r="K150">
+      <c r="Q150">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L150">
+      <c r="R150">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M150" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S150" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B151" s="3">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="K151">
+      <c r="Q151">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L151">
+      <c r="R151">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M151" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S151" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B152" s="3">
         <f t="shared" si="13"/>
         <v>151</v>
       </c>
-      <c r="K152">
+      <c r="Q152">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L152">
+      <c r="R152">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M152" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S152" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B153" s="3">
         <f t="shared" si="13"/>
         <v>152</v>
       </c>
-      <c r="K153">
+      <c r="Q153">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L153">
+      <c r="R153">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M153" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S153" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B154" s="3">
         <f t="shared" si="13"/>
         <v>153</v>
       </c>
-      <c r="K154">
+      <c r="Q154">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L154">
+      <c r="R154">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M154" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S154" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B155" s="3">
         <f t="shared" si="13"/>
         <v>154</v>
       </c>
-      <c r="K155">
+      <c r="Q155">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L155">
+      <c r="R155">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M155" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S155" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B156" s="3">
         <f t="shared" si="13"/>
         <v>155</v>
       </c>
-      <c r="K156">
+      <c r="Q156">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L156">
+      <c r="R156">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M156" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S156" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B157" s="3">
         <f t="shared" si="13"/>
         <v>156</v>
       </c>
-      <c r="K157">
+      <c r="Q157">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L157">
+      <c r="R157">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M157" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S157" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B158" s="3">
         <f t="shared" si="13"/>
         <v>157</v>
       </c>
-      <c r="K158">
+      <c r="Q158">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L158">
+      <c r="R158">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M158" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S158" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B159" s="3">
         <f t="shared" si="13"/>
         <v>158</v>
       </c>
-      <c r="K159">
+      <c r="Q159">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L159">
+      <c r="R159">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M159" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S159" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B160" s="3">
         <f t="shared" si="13"/>
         <v>159</v>
       </c>
-      <c r="K160">
+      <c r="Q160">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L160">
+      <c r="R160">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M160" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S160" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B161" s="3">
         <f t="shared" si="13"/>
         <v>160</v>
       </c>
-      <c r="K161">
+      <c r="Q161">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L161">
+      <c r="R161">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M161" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S161" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B162" s="3">
         <f t="shared" si="13"/>
         <v>161</v>
       </c>
-      <c r="K162">
-        <f t="shared" ref="K162:K179" si="16">H162-I162</f>
-        <v>0</v>
-      </c>
-      <c r="L162">
+      <c r="Q162">
+        <f t="shared" ref="Q162:Q179" si="16">I162-J162</f>
+        <v>0</v>
+      </c>
+      <c r="R162">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M162" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S162" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B163" s="3">
         <f t="shared" si="13"/>
         <v>162</v>
       </c>
-      <c r="K163">
+      <c r="Q163">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L163">
+      <c r="R163">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M163" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S163" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B164" s="3">
         <f t="shared" si="13"/>
         <v>163</v>
       </c>
-      <c r="K164">
+      <c r="Q164">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L164">
+      <c r="R164">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M164" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S164" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B165" s="3">
         <f t="shared" si="13"/>
         <v>164</v>
       </c>
-      <c r="K165">
+      <c r="Q165">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L165">
+      <c r="R165">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M165" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S165" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B166" s="3">
         <f t="shared" si="13"/>
         <v>165</v>
       </c>
-      <c r="K166">
+      <c r="Q166">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L166">
+      <c r="R166">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M166" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S166" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B167" s="3">
         <f t="shared" si="13"/>
         <v>166</v>
       </c>
-      <c r="K167">
+      <c r="Q167">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L167">
+      <c r="R167">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M167" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S167" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B168" s="3">
         <f t="shared" si="13"/>
         <v>167</v>
       </c>
-      <c r="K168">
+      <c r="Q168">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L168">
+      <c r="R168">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M168" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S168" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B169" s="3">
         <f t="shared" si="13"/>
         <v>168</v>
       </c>
-      <c r="K169">
+      <c r="Q169">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L169">
+      <c r="R169">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M169" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S169" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B170" s="3">
         <f t="shared" si="13"/>
         <v>169</v>
       </c>
-      <c r="K170">
+      <c r="Q170">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L170">
+      <c r="R170">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M170" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S170" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B171" s="3">
         <f t="shared" si="13"/>
         <v>170</v>
       </c>
-      <c r="K171">
+      <c r="Q171">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L171">
+      <c r="R171">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M171" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S171" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B172" s="3">
         <f t="shared" si="13"/>
         <v>171</v>
       </c>
-      <c r="K172">
+      <c r="Q172">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L172">
+      <c r="R172">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M172" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S172" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B173" s="3">
         <f t="shared" si="13"/>
         <v>172</v>
       </c>
-      <c r="K173">
+      <c r="Q173">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L173">
+      <c r="R173">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M173" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S173" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B174" s="3">
         <f t="shared" si="13"/>
         <v>173</v>
       </c>
-      <c r="K174">
+      <c r="Q174">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L174">
+      <c r="R174">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M174" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S174" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B175" s="3">
         <f t="shared" si="13"/>
         <v>174</v>
       </c>
-      <c r="K175">
+      <c r="Q175">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L175">
+      <c r="R175">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M175" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S175" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B176" s="3">
         <f t="shared" si="13"/>
         <v>175</v>
       </c>
-      <c r="K176">
+      <c r="Q176">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L176">
+      <c r="R176">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M176" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S176" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B177" s="3">
         <f t="shared" si="13"/>
         <v>176</v>
       </c>
-      <c r="K177">
+      <c r="Q177">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L177">
+      <c r="R177">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M177" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S177" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B178" s="3">
         <f t="shared" si="13"/>
         <v>177</v>
       </c>
-      <c r="K178">
+      <c r="Q178">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L178">
+      <c r="R178">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M178" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S178" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B179" s="3">
         <f t="shared" si="13"/>
         <v>178</v>
       </c>
-      <c r="K179">
+      <c r="Q179">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L179">
+      <c r="R179">
         <f t="shared" si="14"/>
-        <v>-242</v>
-      </c>
-      <c r="M179" s="3" t="e">
+        <v>-240</v>
+      </c>
+      <c r="S179" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>

--- a/Battlefield5.xlsx
+++ b/Battlefield5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Science\BattlefieldV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1993160F-6B5C-4DFD-9450-6390FA30F1A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7794BA6E-60D8-44DA-A5A0-4DB46D2F50FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{F69A186D-8374-47DD-86A7-853B8690958C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>AssignmentType</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -545,8 +548,8 @@
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A109" sqref="A109:A110"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5235,6 +5238,9 @@
       <c r="E107" t="s">
         <v>16</v>
       </c>
+      <c r="F107" t="s">
+        <v>46</v>
+      </c>
       <c r="G107" t="s">
         <v>28</v>
       </c>
@@ -5342,7 +5348,9 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1">
+        <v>43478</v>
+      </c>
       <c r="B109" s="3">
         <f t="shared" si="8"/>
         <v>108</v>
@@ -5350,21 +5358,62 @@
       <c r="C109">
         <v>6</v>
       </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
+        <v>46</v>
+      </c>
+      <c r="G109" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109">
+        <v>12</v>
+      </c>
+      <c r="K109">
+        <v>5276</v>
+      </c>
+      <c r="L109" t="s">
+        <v>43</v>
+      </c>
+      <c r="M109" t="s">
+        <v>40</v>
+      </c>
+      <c r="N109" t="s">
+        <v>38</v>
+      </c>
+      <c r="O109" t="s">
+        <v>40</v>
+      </c>
+      <c r="P109" t="s">
+        <v>4</v>
+      </c>
       <c r="Q109">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="R109">
         <f t="shared" si="9"/>
-        <v>-240</v>
-      </c>
-      <c r="S109" s="3" t="e">
+        <v>-249</v>
+      </c>
+      <c r="S109" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1">
+        <v>43478</v>
+      </c>
       <c r="B110" s="3">
         <f t="shared" si="8"/>
         <v>109</v>
@@ -5372,110 +5421,374 @@
       <c r="C110">
         <v>7</v>
       </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>46</v>
+      </c>
+      <c r="G110" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" t="s">
+        <v>20</v>
+      </c>
+      <c r="I110">
+        <v>12</v>
+      </c>
+      <c r="J110">
+        <v>15</v>
+      </c>
+      <c r="K110">
+        <v>6787</v>
+      </c>
+      <c r="L110" t="s">
+        <v>43</v>
+      </c>
+      <c r="M110" t="s">
+        <v>40</v>
+      </c>
+      <c r="N110" t="s">
+        <v>38</v>
+      </c>
+      <c r="O110" t="s">
+        <v>40</v>
+      </c>
+      <c r="P110" t="s">
+        <v>4</v>
+      </c>
       <c r="Q110">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R110">
         <f t="shared" si="9"/>
-        <v>-240</v>
-      </c>
-      <c r="S110" s="3" t="e">
+        <v>-252</v>
+      </c>
+      <c r="S110" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>43478</v>
+      </c>
       <c r="B111" s="3">
         <f t="shared" si="8"/>
         <v>110</v>
       </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>46</v>
+      </c>
+      <c r="G111" t="s">
+        <v>28</v>
+      </c>
+      <c r="H111" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111">
+        <v>10</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>5953</v>
+      </c>
+      <c r="L111" t="s">
+        <v>43</v>
+      </c>
+      <c r="M111" t="s">
+        <v>40</v>
+      </c>
+      <c r="N111" t="s">
+        <v>38</v>
+      </c>
+      <c r="O111" t="s">
+        <v>40</v>
+      </c>
+      <c r="P111" t="s">
+        <v>4</v>
+      </c>
       <c r="Q111">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R111">
         <f t="shared" si="9"/>
-        <v>-240</v>
-      </c>
-      <c r="S111" s="3" t="e">
+        <v>-243</v>
+      </c>
+      <c r="S111" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>43479</v>
+      </c>
       <c r="B112" s="3">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112">
+        <v>16</v>
+      </c>
+      <c r="J112">
+        <v>19</v>
+      </c>
+      <c r="K112">
+        <v>5569</v>
+      </c>
+      <c r="L112" t="s">
+        <v>43</v>
+      </c>
+      <c r="M112" t="s">
+        <v>40</v>
+      </c>
+      <c r="N112" t="s">
+        <v>38</v>
+      </c>
+      <c r="O112" t="s">
+        <v>40</v>
+      </c>
+      <c r="P112" t="s">
+        <v>4</v>
+      </c>
       <c r="Q112">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R112">
         <f t="shared" si="9"/>
-        <v>-240</v>
-      </c>
-      <c r="S112" s="3" t="e">
+        <v>-246</v>
+      </c>
+      <c r="S112" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.3">
+        <v>0.84210526315789469</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>43479</v>
+      </c>
       <c r="B113" s="3">
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>49</v>
+      </c>
+      <c r="G113" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113">
+        <v>11</v>
+      </c>
+      <c r="J113">
+        <v>16</v>
+      </c>
+      <c r="K113">
+        <v>6199</v>
+      </c>
+      <c r="L113" t="s">
+        <v>47</v>
+      </c>
+      <c r="M113" t="s">
+        <v>40</v>
+      </c>
+      <c r="N113" t="s">
+        <v>38</v>
+      </c>
+      <c r="O113" t="s">
+        <v>40</v>
+      </c>
+      <c r="P113" t="s">
+        <v>4</v>
+      </c>
       <c r="Q113">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="R113">
         <f t="shared" si="9"/>
-        <v>-240</v>
-      </c>
-      <c r="S113" s="3" t="e">
+        <v>-251</v>
+      </c>
+      <c r="S113" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="114" spans="2:19" x14ac:dyDescent="0.3">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>43480</v>
+      </c>
       <c r="B114" s="3">
         <f t="shared" si="8"/>
         <v>113</v>
       </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>46</v>
+      </c>
+      <c r="G114" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114">
+        <v>5</v>
+      </c>
+      <c r="J114">
+        <v>16</v>
+      </c>
+      <c r="K114">
+        <v>7830</v>
+      </c>
+      <c r="L114" t="s">
+        <v>47</v>
+      </c>
+      <c r="M114" t="s">
+        <v>40</v>
+      </c>
+      <c r="N114" t="s">
+        <v>38</v>
+      </c>
+      <c r="O114" t="s">
+        <v>40</v>
+      </c>
+      <c r="P114" t="s">
+        <v>4</v>
+      </c>
       <c r="Q114">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="R114">
         <f t="shared" si="9"/>
-        <v>-240</v>
-      </c>
-      <c r="S114" s="3" t="e">
+        <v>-262</v>
+      </c>
+      <c r="S114" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="115" spans="2:19" x14ac:dyDescent="0.3">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>43480</v>
+      </c>
       <c r="B115" s="3">
         <f t="shared" si="8"/>
         <v>114</v>
       </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s">
+        <v>46</v>
+      </c>
+      <c r="G115" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115">
+        <v>16</v>
+      </c>
+      <c r="J115">
+        <v>18</v>
+      </c>
+      <c r="K115">
+        <v>10850</v>
+      </c>
+      <c r="L115" t="s">
+        <v>47</v>
+      </c>
+      <c r="M115" t="s">
+        <v>40</v>
+      </c>
+      <c r="N115" t="s">
+        <v>38</v>
+      </c>
+      <c r="O115" t="s">
+        <v>40</v>
+      </c>
+      <c r="P115" t="s">
+        <v>4</v>
+      </c>
       <c r="Q115">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R115">
         <f t="shared" si="9"/>
-        <v>-240</v>
-      </c>
-      <c r="S115" s="3" t="e">
+        <v>-264</v>
+      </c>
+      <c r="S115" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="116" spans="2:19" x14ac:dyDescent="0.3">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B116" s="3">
         <f t="shared" si="8"/>
         <v>115</v>
@@ -5486,14 +5799,14 @@
       </c>
       <c r="R116">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S116" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="117" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B117" s="3">
         <f t="shared" si="8"/>
         <v>116</v>
@@ -5504,14 +5817,14 @@
       </c>
       <c r="R117">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S117" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B118" s="3">
         <f t="shared" si="8"/>
         <v>117</v>
@@ -5522,14 +5835,14 @@
       </c>
       <c r="R118">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S118" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="119" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B119" s="3">
         <f t="shared" si="8"/>
         <v>118</v>
@@ -5540,14 +5853,14 @@
       </c>
       <c r="R119">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S119" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B120" s="3">
         <f t="shared" si="8"/>
         <v>119</v>
@@ -5558,14 +5871,14 @@
       </c>
       <c r="R120">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S120" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="121" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B121" s="3">
         <f t="shared" si="8"/>
         <v>120</v>
@@ -5576,14 +5889,14 @@
       </c>
       <c r="R121">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S121" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="122" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B122" s="3">
         <f t="shared" si="8"/>
         <v>121</v>
@@ -5594,14 +5907,14 @@
       </c>
       <c r="R122">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S122" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="123" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B123" s="3">
         <f t="shared" si="8"/>
         <v>122</v>
@@ -5612,14 +5925,14 @@
       </c>
       <c r="R123">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S123" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="124" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B124" s="3">
         <f t="shared" si="8"/>
         <v>123</v>
@@ -5630,14 +5943,14 @@
       </c>
       <c r="R124">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S124" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="125" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B125" s="3">
         <f t="shared" si="8"/>
         <v>124</v>
@@ -5648,14 +5961,14 @@
       </c>
       <c r="R125">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S125" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="126" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B126" s="3">
         <f t="shared" si="8"/>
         <v>125</v>
@@ -5666,14 +5979,14 @@
       </c>
       <c r="R126">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S126" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="127" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B127" s="3">
         <f t="shared" si="8"/>
         <v>126</v>
@@ -5684,14 +5997,14 @@
       </c>
       <c r="R127">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S127" s="3" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="128" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B128" s="3">
         <f t="shared" si="8"/>
         <v>127</v>
@@ -5702,7 +6015,7 @@
       </c>
       <c r="R128">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S128" s="3" t="e">
         <f t="shared" si="11"/>
@@ -5720,7 +6033,7 @@
       </c>
       <c r="R129">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S129" s="3" t="e">
         <f t="shared" si="11"/>
@@ -5738,7 +6051,7 @@
       </c>
       <c r="R130">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S130" s="3" t="e">
         <f t="shared" si="11"/>
@@ -5756,7 +6069,7 @@
       </c>
       <c r="R131">
         <f t="shared" si="9"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S131" s="3" t="e">
         <f t="shared" si="11"/>
@@ -5774,7 +6087,7 @@
       </c>
       <c r="R132">
         <f t="shared" ref="R132:R179" si="14">Q132+R131</f>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S132" s="3" t="e">
         <f t="shared" si="11"/>
@@ -5792,7 +6105,7 @@
       </c>
       <c r="R133">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S133" s="3" t="e">
         <f t="shared" si="11"/>
@@ -5810,7 +6123,7 @@
       </c>
       <c r="R134">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S134" s="3" t="e">
         <f t="shared" ref="S134:S179" si="15">I134/J134</f>
@@ -5828,7 +6141,7 @@
       </c>
       <c r="R135">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S135" s="3" t="e">
         <f t="shared" si="15"/>
@@ -5846,7 +6159,7 @@
       </c>
       <c r="R136">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S136" s="3" t="e">
         <f t="shared" si="15"/>
@@ -5864,7 +6177,7 @@
       </c>
       <c r="R137">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S137" s="3" t="e">
         <f t="shared" si="15"/>
@@ -5882,7 +6195,7 @@
       </c>
       <c r="R138">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S138" s="3" t="e">
         <f t="shared" si="15"/>
@@ -5900,7 +6213,7 @@
       </c>
       <c r="R139">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S139" s="3" t="e">
         <f t="shared" si="15"/>
@@ -5918,7 +6231,7 @@
       </c>
       <c r="R140">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S140" s="3" t="e">
         <f t="shared" si="15"/>
@@ -5936,7 +6249,7 @@
       </c>
       <c r="R141">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S141" s="3" t="e">
         <f t="shared" si="15"/>
@@ -5954,7 +6267,7 @@
       </c>
       <c r="R142">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S142" s="3" t="e">
         <f t="shared" si="15"/>
@@ -5972,7 +6285,7 @@
       </c>
       <c r="R143">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S143" s="3" t="e">
         <f t="shared" si="15"/>
@@ -5990,7 +6303,7 @@
       </c>
       <c r="R144">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S144" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6008,7 +6321,7 @@
       </c>
       <c r="R145">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S145" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6026,7 +6339,7 @@
       </c>
       <c r="R146">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S146" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6044,7 +6357,7 @@
       </c>
       <c r="R147">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S147" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6062,7 +6375,7 @@
       </c>
       <c r="R148">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S148" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6080,7 +6393,7 @@
       </c>
       <c r="R149">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S149" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6098,7 +6411,7 @@
       </c>
       <c r="R150">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S150" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6116,7 +6429,7 @@
       </c>
       <c r="R151">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S151" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6134,7 +6447,7 @@
       </c>
       <c r="R152">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S152" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6152,7 +6465,7 @@
       </c>
       <c r="R153">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S153" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6170,7 +6483,7 @@
       </c>
       <c r="R154">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S154" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6188,7 +6501,7 @@
       </c>
       <c r="R155">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S155" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6206,7 +6519,7 @@
       </c>
       <c r="R156">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S156" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6224,7 +6537,7 @@
       </c>
       <c r="R157">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S157" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6242,7 +6555,7 @@
       </c>
       <c r="R158">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S158" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6260,7 +6573,7 @@
       </c>
       <c r="R159">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S159" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6278,7 +6591,7 @@
       </c>
       <c r="R160">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S160" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6296,7 +6609,7 @@
       </c>
       <c r="R161">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S161" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6314,7 +6627,7 @@
       </c>
       <c r="R162">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S162" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6332,7 +6645,7 @@
       </c>
       <c r="R163">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S163" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6350,7 +6663,7 @@
       </c>
       <c r="R164">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S164" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6368,7 +6681,7 @@
       </c>
       <c r="R165">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S165" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6386,7 +6699,7 @@
       </c>
       <c r="R166">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S166" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6404,7 +6717,7 @@
       </c>
       <c r="R167">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S167" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6422,7 +6735,7 @@
       </c>
       <c r="R168">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S168" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6440,7 +6753,7 @@
       </c>
       <c r="R169">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S169" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6458,7 +6771,7 @@
       </c>
       <c r="R170">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S170" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6476,7 +6789,7 @@
       </c>
       <c r="R171">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S171" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6494,7 +6807,7 @@
       </c>
       <c r="R172">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S172" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6512,7 +6825,7 @@
       </c>
       <c r="R173">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S173" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6530,7 +6843,7 @@
       </c>
       <c r="R174">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S174" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6548,7 +6861,7 @@
       </c>
       <c r="R175">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S175" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6566,7 +6879,7 @@
       </c>
       <c r="R176">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S176" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6584,7 +6897,7 @@
       </c>
       <c r="R177">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S177" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6602,7 +6915,7 @@
       </c>
       <c r="R178">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S178" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6620,7 +6933,7 @@
       </c>
       <c r="R179">
         <f t="shared" si="14"/>
-        <v>-240</v>
+        <v>-264</v>
       </c>
       <c r="S179" s="3" t="e">
         <f t="shared" si="15"/>

--- a/Battlefield5.xlsx
+++ b/Battlefield5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Science\BattlefieldV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7794BA6E-60D8-44DA-A5A0-4DB46D2F50FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8903E3E1-EA07-4981-9355-C08C157BC354}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{F69A186D-8374-47DD-86A7-853B8690958C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>Squad Conquest</t>
   </si>
 </sst>
 </file>
@@ -548,8 +551,8 @@
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5789,111 +5792,381 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43481</v>
+      </c>
       <c r="B116" s="3">
         <f t="shared" si="8"/>
         <v>115</v>
       </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" t="s">
+        <v>49</v>
+      </c>
+      <c r="G116" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>4</v>
+      </c>
+      <c r="K116">
+        <v>6078</v>
+      </c>
+      <c r="L116" t="s">
+        <v>43</v>
+      </c>
+      <c r="M116" t="s">
+        <v>40</v>
+      </c>
+      <c r="N116" t="s">
+        <v>38</v>
+      </c>
+      <c r="O116" t="s">
+        <v>40</v>
+      </c>
+      <c r="P116" t="s">
+        <v>4</v>
+      </c>
       <c r="Q116">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R116">
         <f t="shared" si="9"/>
-        <v>-264</v>
-      </c>
-      <c r="S116" s="3" t="e">
+        <v>-266</v>
+      </c>
+      <c r="S116" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>43481</v>
+      </c>
       <c r="B117" s="3">
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117" t="s">
+        <v>28</v>
+      </c>
+      <c r="H117" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117">
+        <v>11</v>
+      </c>
+      <c r="J117">
+        <v>16</v>
+      </c>
+      <c r="K117">
+        <v>8977</v>
+      </c>
+      <c r="L117" t="s">
+        <v>43</v>
+      </c>
+      <c r="M117" t="s">
+        <v>40</v>
+      </c>
+      <c r="N117" t="s">
+        <v>38</v>
+      </c>
+      <c r="O117" t="s">
+        <v>40</v>
+      </c>
+      <c r="P117" t="s">
+        <v>4</v>
+      </c>
       <c r="Q117">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="R117">
         <f t="shared" si="9"/>
-        <v>-264</v>
-      </c>
-      <c r="S117" s="3" t="e">
+        <v>-271</v>
+      </c>
+      <c r="S117" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43482</v>
+      </c>
       <c r="B118" s="3">
         <f t="shared" si="8"/>
         <v>117</v>
       </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>50</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>46</v>
+      </c>
+      <c r="G118" t="s">
+        <v>28</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118">
+        <v>5</v>
+      </c>
+      <c r="J118">
+        <v>7</v>
+      </c>
+      <c r="K118">
+        <v>5116</v>
+      </c>
+      <c r="L118" t="s">
+        <v>47</v>
+      </c>
+      <c r="M118" t="s">
+        <v>40</v>
+      </c>
+      <c r="N118" t="s">
+        <v>38</v>
+      </c>
+      <c r="O118" t="s">
+        <v>40</v>
+      </c>
+      <c r="P118" t="s">
+        <v>4</v>
+      </c>
       <c r="Q118">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R118">
         <f t="shared" si="9"/>
-        <v>-264</v>
-      </c>
-      <c r="S118" s="3" t="e">
+        <v>-273</v>
+      </c>
+      <c r="S118" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>43482</v>
+      </c>
       <c r="B119" s="3">
         <f t="shared" si="8"/>
         <v>118</v>
       </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>50</v>
+      </c>
+      <c r="E119" t="s">
+        <v>24</v>
+      </c>
+      <c r="F119" t="s">
+        <v>46</v>
+      </c>
+      <c r="G119" t="s">
+        <v>28</v>
+      </c>
+      <c r="H119" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119">
+        <v>5</v>
+      </c>
+      <c r="J119">
+        <v>6</v>
+      </c>
+      <c r="K119">
+        <v>7594</v>
+      </c>
+      <c r="L119" t="s">
+        <v>47</v>
+      </c>
+      <c r="M119" t="s">
+        <v>40</v>
+      </c>
+      <c r="N119" t="s">
+        <v>38</v>
+      </c>
+      <c r="O119" t="s">
+        <v>40</v>
+      </c>
+      <c r="P119" t="s">
+        <v>4</v>
+      </c>
       <c r="Q119">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R119">
         <f t="shared" si="9"/>
-        <v>-264</v>
-      </c>
-      <c r="S119" s="3" t="e">
+        <v>-274</v>
+      </c>
+      <c r="S119" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>43482</v>
+      </c>
       <c r="B120" s="3">
         <f t="shared" si="8"/>
         <v>119</v>
       </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120" t="s">
+        <v>50</v>
+      </c>
+      <c r="E120" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" t="s">
+        <v>46</v>
+      </c>
+      <c r="G120" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" t="s">
+        <v>20</v>
+      </c>
+      <c r="I120">
+        <v>9</v>
+      </c>
+      <c r="J120">
+        <v>6</v>
+      </c>
+      <c r="K120">
+        <v>5197</v>
+      </c>
+      <c r="L120" t="s">
+        <v>43</v>
+      </c>
+      <c r="M120" t="s">
+        <v>40</v>
+      </c>
+      <c r="N120" t="s">
+        <v>38</v>
+      </c>
+      <c r="O120" t="s">
+        <v>40</v>
+      </c>
+      <c r="P120" t="s">
+        <v>4</v>
+      </c>
       <c r="Q120">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R120">
         <f t="shared" si="9"/>
-        <v>-264</v>
-      </c>
-      <c r="S120" s="3" t="e">
+        <v>-271</v>
+      </c>
+      <c r="S120" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>43482</v>
+      </c>
       <c r="B121" s="3">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>49</v>
+      </c>
+      <c r="G121" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>9</v>
+      </c>
+      <c r="K121">
+        <v>1902</v>
+      </c>
+      <c r="L121" t="s">
+        <v>47</v>
+      </c>
+      <c r="M121" t="s">
+        <v>40</v>
+      </c>
+      <c r="N121" t="s">
+        <v>38</v>
+      </c>
+      <c r="O121" t="s">
+        <v>40</v>
+      </c>
+      <c r="P121" t="s">
+        <v>4</v>
+      </c>
       <c r="Q121">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="R121">
         <f t="shared" si="9"/>
-        <v>-264</v>
-      </c>
-      <c r="S121" s="3" t="e">
+        <v>-279</v>
+      </c>
+      <c r="S121" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.3">
@@ -5907,7 +6180,7 @@
       </c>
       <c r="R122">
         <f t="shared" si="9"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S122" s="3" t="e">
         <f t="shared" si="11"/>
@@ -5925,7 +6198,7 @@
       </c>
       <c r="R123">
         <f t="shared" si="9"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S123" s="3" t="e">
         <f t="shared" si="11"/>
@@ -5943,7 +6216,7 @@
       </c>
       <c r="R124">
         <f t="shared" si="9"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S124" s="3" t="e">
         <f t="shared" si="11"/>
@@ -5961,7 +6234,7 @@
       </c>
       <c r="R125">
         <f t="shared" si="9"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S125" s="3" t="e">
         <f t="shared" si="11"/>
@@ -5979,7 +6252,7 @@
       </c>
       <c r="R126">
         <f t="shared" si="9"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S126" s="3" t="e">
         <f t="shared" si="11"/>
@@ -5997,7 +6270,7 @@
       </c>
       <c r="R127">
         <f t="shared" si="9"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S127" s="3" t="e">
         <f t="shared" si="11"/>
@@ -6015,7 +6288,7 @@
       </c>
       <c r="R128">
         <f t="shared" si="9"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S128" s="3" t="e">
         <f t="shared" si="11"/>
@@ -6033,7 +6306,7 @@
       </c>
       <c r="R129">
         <f t="shared" si="9"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S129" s="3" t="e">
         <f t="shared" si="11"/>
@@ -6051,7 +6324,7 @@
       </c>
       <c r="R130">
         <f t="shared" si="9"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S130" s="3" t="e">
         <f t="shared" si="11"/>
@@ -6069,7 +6342,7 @@
       </c>
       <c r="R131">
         <f t="shared" si="9"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S131" s="3" t="e">
         <f t="shared" si="11"/>
@@ -6087,7 +6360,7 @@
       </c>
       <c r="R132">
         <f t="shared" ref="R132:R179" si="14">Q132+R131</f>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S132" s="3" t="e">
         <f t="shared" si="11"/>
@@ -6105,7 +6378,7 @@
       </c>
       <c r="R133">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S133" s="3" t="e">
         <f t="shared" si="11"/>
@@ -6123,7 +6396,7 @@
       </c>
       <c r="R134">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S134" s="3" t="e">
         <f t="shared" ref="S134:S179" si="15">I134/J134</f>
@@ -6141,7 +6414,7 @@
       </c>
       <c r="R135">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S135" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6159,7 +6432,7 @@
       </c>
       <c r="R136">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S136" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6177,7 +6450,7 @@
       </c>
       <c r="R137">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S137" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6195,7 +6468,7 @@
       </c>
       <c r="R138">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S138" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6213,7 +6486,7 @@
       </c>
       <c r="R139">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S139" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6231,7 +6504,7 @@
       </c>
       <c r="R140">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S140" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6249,7 +6522,7 @@
       </c>
       <c r="R141">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S141" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6267,7 +6540,7 @@
       </c>
       <c r="R142">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S142" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6285,7 +6558,7 @@
       </c>
       <c r="R143">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S143" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6303,7 +6576,7 @@
       </c>
       <c r="R144">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S144" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6321,7 +6594,7 @@
       </c>
       <c r="R145">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S145" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6339,7 +6612,7 @@
       </c>
       <c r="R146">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S146" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6357,7 +6630,7 @@
       </c>
       <c r="R147">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S147" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6375,7 +6648,7 @@
       </c>
       <c r="R148">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S148" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6393,7 +6666,7 @@
       </c>
       <c r="R149">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S149" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6411,7 +6684,7 @@
       </c>
       <c r="R150">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S150" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6429,7 +6702,7 @@
       </c>
       <c r="R151">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S151" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6447,7 +6720,7 @@
       </c>
       <c r="R152">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S152" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6465,7 +6738,7 @@
       </c>
       <c r="R153">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S153" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6483,7 +6756,7 @@
       </c>
       <c r="R154">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S154" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6501,7 +6774,7 @@
       </c>
       <c r="R155">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S155" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6519,7 +6792,7 @@
       </c>
       <c r="R156">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S156" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6537,7 +6810,7 @@
       </c>
       <c r="R157">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S157" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6555,7 +6828,7 @@
       </c>
       <c r="R158">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S158" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6573,7 +6846,7 @@
       </c>
       <c r="R159">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S159" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6591,7 +6864,7 @@
       </c>
       <c r="R160">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S160" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6609,7 +6882,7 @@
       </c>
       <c r="R161">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S161" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6627,7 +6900,7 @@
       </c>
       <c r="R162">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S162" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6645,7 +6918,7 @@
       </c>
       <c r="R163">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S163" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6663,7 +6936,7 @@
       </c>
       <c r="R164">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S164" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6681,7 +6954,7 @@
       </c>
       <c r="R165">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S165" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6699,7 +6972,7 @@
       </c>
       <c r="R166">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S166" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6717,7 +6990,7 @@
       </c>
       <c r="R167">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S167" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6735,7 +7008,7 @@
       </c>
       <c r="R168">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S168" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6753,7 +7026,7 @@
       </c>
       <c r="R169">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S169" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6771,7 +7044,7 @@
       </c>
       <c r="R170">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S170" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6789,7 +7062,7 @@
       </c>
       <c r="R171">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S171" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6807,7 +7080,7 @@
       </c>
       <c r="R172">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S172" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6825,7 +7098,7 @@
       </c>
       <c r="R173">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S173" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6843,7 +7116,7 @@
       </c>
       <c r="R174">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S174" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6861,7 +7134,7 @@
       </c>
       <c r="R175">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S175" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6879,7 +7152,7 @@
       </c>
       <c r="R176">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S176" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6897,7 +7170,7 @@
       </c>
       <c r="R177">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S177" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6915,7 +7188,7 @@
       </c>
       <c r="R178">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S178" s="3" t="e">
         <f t="shared" si="15"/>
@@ -6933,7 +7206,7 @@
       </c>
       <c r="R179">
         <f t="shared" si="14"/>
-        <v>-264</v>
+        <v>-279</v>
       </c>
       <c r="S179" s="3" t="e">
         <f t="shared" si="15"/>

--- a/Battlefield5.xlsx
+++ b/Battlefield5.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Science\BattlefieldV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8903E3E1-EA07-4981-9355-C08C157BC354}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A346697-E89A-4C9A-B004-229AC9C89AE4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{F69A186D-8374-47DD-86A7-853B8690958C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -184,6 +185,18 @@
   </si>
   <si>
     <t>Squad Conquest</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>FG-42</t>
+  </si>
+  <si>
+    <t>Final Stand</t>
   </si>
 </sst>
 </file>
@@ -551,29 +564,30 @@
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B144" sqref="B144:O148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>27</v>
@@ -594,28 +608,28 @@
         <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>14</v>
@@ -634,11 +648,11 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>43439</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -655,21 +669,21 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2">
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>6</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q33" si="0">I2-J2</f>
+        <f t="shared" ref="Q2:Q33" si="0">M2-N2</f>
         <v>-1</v>
       </c>
       <c r="R2">
         <v>-1</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" ref="S2:S33" si="1">I2/J2</f>
+        <f t="shared" ref="S2:S33" si="1">M2/N2</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="T2" s="3">
@@ -677,17 +691,17 @@
         <v>0.89700965376582398</v>
       </c>
       <c r="U2" s="3">
-        <f>SUM(I1:I108)/SUM(J1:J108)</f>
+        <f>SUM(M1:M108)/SUM(N1:N108)</f>
         <v>0.7909407665505227</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
+        <f>1+A2</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>43439</v>
-      </c>
-      <c r="B3" s="3">
-        <f>1+B2</f>
-        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -704,10 +718,10 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>18</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>18</v>
       </c>
       <c r="Q3">
@@ -724,12 +738,12 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A67" si="2">1+A3</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>43439</v>
-      </c>
-      <c r="B4" s="3">
-        <f t="shared" ref="B4:B67" si="2">1+B3</f>
-        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -746,10 +760,10 @@
       <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>9</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>8</v>
       </c>
       <c r="Q4">
@@ -766,13 +780,13 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43440</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="B5" s="1">
+        <v>43440</v>
+      </c>
       <c r="C5">
         <v>1</v>
       </c>
@@ -788,10 +802,10 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>13</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>19</v>
       </c>
       <c r="Q5">
@@ -808,13 +822,13 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43440</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="B6" s="1">
+        <v>43440</v>
+      </c>
       <c r="C6">
         <v>2</v>
       </c>
@@ -830,10 +844,10 @@
       <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <v>8</v>
       </c>
       <c r="Q6">
@@ -850,13 +864,13 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43442</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>43442</v>
+      </c>
       <c r="C7">
         <v>1</v>
       </c>
@@ -872,10 +886,10 @@
       <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="I7">
+      <c r="M7">
         <v>14</v>
       </c>
-      <c r="J7">
+      <c r="N7">
         <v>15</v>
       </c>
       <c r="Q7">
@@ -892,13 +906,13 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43442</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <v>43442</v>
+      </c>
       <c r="C8">
         <v>2</v>
       </c>
@@ -914,10 +928,10 @@
       <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="I8">
+      <c r="M8">
         <v>9</v>
       </c>
-      <c r="J8">
+      <c r="N8">
         <v>10</v>
       </c>
       <c r="Q8">
@@ -934,13 +948,13 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43442</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
+      <c r="B9" s="1">
+        <v>43442</v>
+      </c>
       <c r="C9">
         <v>3</v>
       </c>
@@ -956,10 +970,10 @@
       <c r="H9" t="s">
         <v>8</v>
       </c>
-      <c r="I9">
+      <c r="M9">
         <v>19</v>
       </c>
-      <c r="J9">
+      <c r="N9">
         <v>18</v>
       </c>
       <c r="Q9">
@@ -976,13 +990,13 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43442</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
+      <c r="B10" s="1">
+        <v>43442</v>
+      </c>
       <c r="C10">
         <v>4</v>
       </c>
@@ -998,10 +1012,10 @@
       <c r="H10" t="s">
         <v>8</v>
       </c>
-      <c r="I10">
+      <c r="M10">
         <v>11</v>
       </c>
-      <c r="J10">
+      <c r="N10">
         <v>13</v>
       </c>
       <c r="Q10">
@@ -1018,13 +1032,13 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43442</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="B11" s="1">
+        <v>43442</v>
+      </c>
       <c r="C11">
         <v>5</v>
       </c>
@@ -1040,10 +1054,10 @@
       <c r="H11" t="s">
         <v>8</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>11</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <v>15</v>
       </c>
       <c r="Q11">
@@ -1060,13 +1074,13 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43442</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
+      <c r="B12" s="1">
+        <v>43442</v>
+      </c>
       <c r="C12">
         <v>6</v>
       </c>
@@ -1082,10 +1096,10 @@
       <c r="H12" t="s">
         <v>8</v>
       </c>
-      <c r="I12">
+      <c r="M12">
         <v>6</v>
       </c>
-      <c r="J12">
+      <c r="N12">
         <v>11</v>
       </c>
       <c r="Q12">
@@ -1102,13 +1116,13 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43442</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
+      <c r="B13" s="1">
+        <v>43442</v>
+      </c>
       <c r="C13">
         <v>7</v>
       </c>
@@ -1124,10 +1138,10 @@
       <c r="H13" t="s">
         <v>8</v>
       </c>
-      <c r="I13">
+      <c r="M13">
         <v>14</v>
       </c>
-      <c r="J13">
+      <c r="N13">
         <v>13</v>
       </c>
       <c r="Q13">
@@ -1144,13 +1158,13 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43442</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
+      <c r="B14" s="1">
+        <v>43442</v>
+      </c>
       <c r="C14">
         <v>8</v>
       </c>
@@ -1166,10 +1180,10 @@
       <c r="H14" t="s">
         <v>8</v>
       </c>
-      <c r="I14">
+      <c r="M14">
         <v>10</v>
       </c>
-      <c r="J14">
+      <c r="N14">
         <v>10</v>
       </c>
       <c r="Q14">
@@ -1186,13 +1200,13 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43442</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="A15" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
+      <c r="B15" s="1">
+        <v>43442</v>
+      </c>
       <c r="C15">
         <v>9</v>
       </c>
@@ -1208,10 +1222,10 @@
       <c r="H15" t="s">
         <v>8</v>
       </c>
-      <c r="I15">
+      <c r="M15">
         <v>3</v>
       </c>
-      <c r="J15">
+      <c r="N15">
         <v>15</v>
       </c>
       <c r="Q15">
@@ -1228,13 +1242,13 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>43442</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
+      <c r="B16" s="1">
+        <v>43442</v>
+      </c>
       <c r="C16">
         <v>10</v>
       </c>
@@ -1250,10 +1264,10 @@
       <c r="H16" t="s">
         <v>8</v>
       </c>
-      <c r="I16">
+      <c r="M16">
         <v>15</v>
       </c>
-      <c r="J16">
+      <c r="N16">
         <v>21</v>
       </c>
       <c r="Q16">
@@ -1270,13 +1284,13 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>43442</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="A17" s="3">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="B17" s="1">
+        <v>43442</v>
+      </c>
       <c r="C17">
         <v>11</v>
       </c>
@@ -1292,10 +1306,10 @@
       <c r="H17" t="s">
         <v>8</v>
       </c>
-      <c r="I17">
+      <c r="M17">
         <v>13</v>
       </c>
-      <c r="J17">
+      <c r="N17">
         <v>18</v>
       </c>
       <c r="Q17">
@@ -1312,13 +1326,13 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>43443</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="A18" s="3">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
+      <c r="B18" s="1">
+        <v>43443</v>
+      </c>
       <c r="C18">
         <v>1</v>
       </c>
@@ -1334,10 +1348,10 @@
       <c r="H18" t="s">
         <v>8</v>
       </c>
-      <c r="I18">
+      <c r="M18">
         <v>8</v>
       </c>
-      <c r="J18">
+      <c r="N18">
         <v>17</v>
       </c>
       <c r="Q18">
@@ -1354,13 +1368,13 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>43443</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="A19" s="3">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="B19" s="1">
+        <v>43443</v>
+      </c>
       <c r="C19">
         <v>2</v>
       </c>
@@ -1376,10 +1390,10 @@
       <c r="H19" t="s">
         <v>8</v>
       </c>
-      <c r="I19">
+      <c r="M19">
         <v>16</v>
       </c>
-      <c r="J19">
+      <c r="N19">
         <v>17</v>
       </c>
       <c r="Q19">
@@ -1396,13 +1410,13 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>43445</v>
-      </c>
-      <c r="B20" s="3">
+      <c r="A20" s="3">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
+      <c r="B20" s="1">
+        <v>43445</v>
+      </c>
       <c r="C20">
         <v>1</v>
       </c>
@@ -1418,10 +1432,10 @@
       <c r="H20" t="s">
         <v>8</v>
       </c>
-      <c r="I20">
+      <c r="M20">
         <v>15</v>
       </c>
-      <c r="J20">
+      <c r="N20">
         <v>7</v>
       </c>
       <c r="Q20">
@@ -1438,13 +1452,13 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>43445</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="A21" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
+      <c r="B21" s="1">
+        <v>43445</v>
+      </c>
       <c r="C21">
         <v>2</v>
       </c>
@@ -1460,10 +1474,10 @@
       <c r="H21" t="s">
         <v>8</v>
       </c>
-      <c r="I21">
+      <c r="M21">
         <v>10</v>
       </c>
-      <c r="J21">
+      <c r="N21">
         <v>12</v>
       </c>
       <c r="Q21">
@@ -1480,13 +1494,13 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>43446</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="A22" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
+      <c r="B22" s="1">
+        <v>43446</v>
+      </c>
       <c r="C22">
         <v>1</v>
       </c>
@@ -1502,10 +1516,10 @@
       <c r="H22" t="s">
         <v>8</v>
       </c>
-      <c r="I22">
+      <c r="M22">
         <v>15</v>
       </c>
-      <c r="J22">
+      <c r="N22">
         <v>16</v>
       </c>
       <c r="Q22">
@@ -1522,13 +1536,13 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>43446</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="A23" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
+      <c r="B23" s="1">
+        <v>43446</v>
+      </c>
       <c r="C23">
         <v>2</v>
       </c>
@@ -1544,10 +1558,10 @@
       <c r="H23" t="s">
         <v>8</v>
       </c>
-      <c r="I23">
+      <c r="M23">
         <v>16</v>
       </c>
-      <c r="J23">
+      <c r="N23">
         <v>15</v>
       </c>
       <c r="Q23">
@@ -1564,13 +1578,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>43446</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="A24" s="3">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
+      <c r="B24" s="1">
+        <v>43446</v>
+      </c>
       <c r="C24">
         <v>3</v>
       </c>
@@ -1586,10 +1600,10 @@
       <c r="H24" t="s">
         <v>8</v>
       </c>
-      <c r="I24">
+      <c r="M24">
         <v>8</v>
       </c>
-      <c r="J24">
+      <c r="N24">
         <v>16</v>
       </c>
       <c r="Q24">
@@ -1606,13 +1620,13 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>43447</v>
-      </c>
-      <c r="B25" s="3">
+      <c r="A25" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
+      <c r="B25" s="1">
+        <v>43447</v>
+      </c>
       <c r="C25">
         <v>1</v>
       </c>
@@ -1628,10 +1642,10 @@
       <c r="H25" t="s">
         <v>8</v>
       </c>
-      <c r="I25">
+      <c r="M25">
         <v>14</v>
       </c>
-      <c r="J25">
+      <c r="N25">
         <v>17</v>
       </c>
       <c r="Q25">
@@ -1648,13 +1662,13 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>43447</v>
-      </c>
-      <c r="B26" s="3">
+      <c r="A26" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
+      <c r="B26" s="1">
+        <v>43447</v>
+      </c>
       <c r="C26">
         <v>2</v>
       </c>
@@ -1670,10 +1684,10 @@
       <c r="H26" t="s">
         <v>8</v>
       </c>
-      <c r="I26">
+      <c r="M26">
         <v>15</v>
       </c>
-      <c r="J26">
+      <c r="N26">
         <v>28</v>
       </c>
       <c r="Q26">
@@ -1690,13 +1704,13 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>43448</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="A27" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
+      <c r="B27" s="1">
+        <v>43448</v>
+      </c>
       <c r="C27">
         <v>1</v>
       </c>
@@ -1712,10 +1726,10 @@
       <c r="H27" t="s">
         <v>8</v>
       </c>
-      <c r="I27">
+      <c r="M27">
         <v>7</v>
       </c>
-      <c r="J27">
+      <c r="N27">
         <v>5</v>
       </c>
       <c r="Q27">
@@ -1732,13 +1746,13 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>43448</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="A28" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
+      <c r="B28" s="1">
+        <v>43448</v>
+      </c>
       <c r="C28">
         <v>1</v>
       </c>
@@ -1754,10 +1768,10 @@
       <c r="H28" t="s">
         <v>8</v>
       </c>
-      <c r="I28">
+      <c r="M28">
         <v>15</v>
       </c>
-      <c r="J28">
+      <c r="N28">
         <v>25</v>
       </c>
       <c r="Q28">
@@ -1774,13 +1788,13 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B29" s="3">
+      <c r="A29" s="3">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
+      <c r="B29" s="1">
+        <v>43454</v>
+      </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
@@ -1793,10 +1807,10 @@
       <c r="H29" t="s">
         <v>20</v>
       </c>
-      <c r="I29">
+      <c r="M29">
         <v>2</v>
       </c>
-      <c r="J29">
+      <c r="N29">
         <v>7</v>
       </c>
       <c r="Q29">
@@ -1813,13 +1827,13 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B30" s="3">
+      <c r="A30" s="3">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
+      <c r="B30" s="1">
+        <v>43454</v>
+      </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
@@ -1832,10 +1846,10 @@
       <c r="H30" t="s">
         <v>20</v>
       </c>
-      <c r="I30">
+      <c r="M30">
         <v>16</v>
       </c>
-      <c r="J30">
+      <c r="N30">
         <v>13</v>
       </c>
       <c r="Q30">
@@ -1852,13 +1866,13 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B31" s="3">
+      <c r="A31" s="3">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
+      <c r="B31" s="1">
+        <v>43454</v>
+      </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
@@ -1871,10 +1885,10 @@
       <c r="H31" t="s">
         <v>20</v>
       </c>
-      <c r="I31">
+      <c r="M31">
         <v>2</v>
       </c>
-      <c r="J31">
+      <c r="N31">
         <v>2</v>
       </c>
       <c r="Q31">
@@ -1891,13 +1905,13 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B32" s="3">
+      <c r="A32" s="3">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
+      <c r="B32" s="1">
+        <v>43454</v>
+      </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
@@ -1910,10 +1924,10 @@
       <c r="H32" t="s">
         <v>20</v>
       </c>
-      <c r="I32">
+      <c r="M32">
         <v>7</v>
       </c>
-      <c r="J32">
+      <c r="N32">
         <v>13</v>
       </c>
       <c r="Q32">
@@ -1930,13 +1944,13 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B33" s="3">
+      <c r="A33" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
+      <c r="B33" s="1">
+        <v>43454</v>
+      </c>
       <c r="D33" t="s">
         <v>21</v>
       </c>
@@ -1949,10 +1963,10 @@
       <c r="H33" t="s">
         <v>20</v>
       </c>
-      <c r="I33">
+      <c r="M33">
         <v>5</v>
       </c>
-      <c r="J33">
+      <c r="N33">
         <v>14</v>
       </c>
       <c r="Q33">
@@ -1969,13 +1983,13 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B34" s="3">
+      <c r="A34" s="3">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
+      <c r="B34" s="1">
+        <v>43454</v>
+      </c>
       <c r="D34" t="s">
         <v>19</v>
       </c>
@@ -1988,14 +2002,14 @@
       <c r="H34" t="s">
         <v>20</v>
       </c>
-      <c r="I34">
+      <c r="M34">
         <v>8</v>
       </c>
-      <c r="J34">
+      <c r="N34">
         <v>6</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:Q65" si="4">I34-J34</f>
+        <f t="shared" ref="Q34:Q65" si="4">M34-N34</f>
         <v>2</v>
       </c>
       <c r="R34">
@@ -2003,18 +2017,18 @@
         <v>-95</v>
       </c>
       <c r="S34" s="3">
-        <f t="shared" ref="S34:S65" si="5">I34/J34</f>
+        <f t="shared" ref="S34:S65" si="5">M34/N34</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B35" s="3">
+      <c r="A35" s="3">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
+      <c r="B35" s="1">
+        <v>43454</v>
+      </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
@@ -2027,10 +2041,10 @@
       <c r="H35" t="s">
         <v>20</v>
       </c>
-      <c r="I35">
+      <c r="M35">
         <v>6</v>
       </c>
-      <c r="J35">
+      <c r="N35">
         <v>5</v>
       </c>
       <c r="Q35">
@@ -2047,13 +2061,13 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="A36" s="3">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
+      <c r="B36" s="1">
+        <v>43454</v>
+      </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
@@ -2066,10 +2080,10 @@
       <c r="H36" t="s">
         <v>20</v>
       </c>
-      <c r="I36">
+      <c r="M36">
         <v>10</v>
       </c>
-      <c r="J36">
+      <c r="N36">
         <v>16</v>
       </c>
       <c r="Q36">
@@ -2086,13 +2100,13 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B37" s="3">
+      <c r="A37" s="3">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
+      <c r="B37" s="1">
+        <v>43454</v>
+      </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
@@ -2105,10 +2119,10 @@
       <c r="H37" t="s">
         <v>20</v>
       </c>
-      <c r="I37">
+      <c r="M37">
         <v>4</v>
       </c>
-      <c r="J37">
+      <c r="N37">
         <v>14</v>
       </c>
       <c r="Q37">
@@ -2125,13 +2139,13 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B38" s="3">
+      <c r="A38" s="3">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
+      <c r="B38" s="1">
+        <v>43454</v>
+      </c>
       <c r="D38" t="s">
         <v>19</v>
       </c>
@@ -2144,10 +2158,10 @@
       <c r="H38" t="s">
         <v>20</v>
       </c>
-      <c r="I38">
+      <c r="M38">
         <v>5</v>
       </c>
-      <c r="J38">
+      <c r="N38">
         <v>11</v>
       </c>
       <c r="Q38">
@@ -2164,13 +2178,13 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B39" s="3">
+      <c r="A39" s="3">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
+      <c r="B39" s="1">
+        <v>43454</v>
+      </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
@@ -2183,10 +2197,10 @@
       <c r="H39" t="s">
         <v>20</v>
       </c>
-      <c r="I39">
+      <c r="M39">
         <v>12</v>
       </c>
-      <c r="J39">
+      <c r="N39">
         <v>14</v>
       </c>
       <c r="Q39">
@@ -2203,13 +2217,13 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B40" s="3">
+      <c r="A40" s="3">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
+      <c r="B40" s="1">
+        <v>43454</v>
+      </c>
       <c r="D40" t="s">
         <v>19</v>
       </c>
@@ -2222,10 +2236,10 @@
       <c r="H40" t="s">
         <v>22</v>
       </c>
-      <c r="I40">
+      <c r="M40">
         <v>4</v>
       </c>
-      <c r="J40">
+      <c r="N40">
         <v>10</v>
       </c>
       <c r="Q40">
@@ -2242,12 +2256,12 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
         <v>43454</v>
-      </c>
-      <c r="B41" s="3">
-        <f t="shared" si="2"/>
-        <v>40</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -2261,10 +2275,10 @@
       <c r="H41" t="s">
         <v>22</v>
       </c>
-      <c r="I41">
+      <c r="M41">
         <v>6</v>
       </c>
-      <c r="J41">
+      <c r="N41">
         <v>8</v>
       </c>
       <c r="Q41">
@@ -2281,13 +2295,13 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B42" s="3">
+      <c r="A42" s="3">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
+      <c r="B42" s="1">
+        <v>43454</v>
+      </c>
       <c r="D42" t="s">
         <v>11</v>
       </c>
@@ -2300,10 +2314,10 @@
       <c r="H42" t="s">
         <v>22</v>
       </c>
-      <c r="I42">
+      <c r="M42">
         <v>6</v>
       </c>
-      <c r="J42">
+      <c r="N42">
         <v>10</v>
       </c>
       <c r="Q42">
@@ -2320,13 +2334,13 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B43" s="3">
+      <c r="A43" s="3">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
+      <c r="B43" s="1">
+        <v>43454</v>
+      </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
@@ -2339,10 +2353,10 @@
       <c r="H43" t="s">
         <v>22</v>
       </c>
-      <c r="I43">
+      <c r="M43">
         <v>5</v>
       </c>
-      <c r="J43">
+      <c r="N43">
         <v>6</v>
       </c>
       <c r="Q43">
@@ -2359,13 +2373,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B44" s="3">
+      <c r="A44" s="3">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
+      <c r="B44" s="1">
+        <v>43454</v>
+      </c>
       <c r="D44" t="s">
         <v>6</v>
       </c>
@@ -2378,10 +2392,10 @@
       <c r="H44" t="s">
         <v>22</v>
       </c>
-      <c r="I44">
+      <c r="M44">
         <v>6</v>
       </c>
-      <c r="J44">
+      <c r="N44">
         <v>10</v>
       </c>
       <c r="Q44">
@@ -2398,13 +2412,13 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B45" s="3">
+      <c r="A45" s="3">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
+      <c r="B45" s="1">
+        <v>43454</v>
+      </c>
       <c r="D45" t="s">
         <v>21</v>
       </c>
@@ -2417,10 +2431,10 @@
       <c r="H45" t="s">
         <v>22</v>
       </c>
-      <c r="I45">
+      <c r="M45">
         <v>4</v>
       </c>
-      <c r="J45">
+      <c r="N45">
         <v>8</v>
       </c>
       <c r="Q45">
@@ -2437,13 +2451,13 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B46" s="3">
+      <c r="A46" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
+      <c r="B46" s="1">
+        <v>43454</v>
+      </c>
       <c r="D46" t="s">
         <v>6</v>
       </c>
@@ -2456,10 +2470,10 @@
       <c r="H46" t="s">
         <v>22</v>
       </c>
-      <c r="I46">
+      <c r="M46">
         <v>3</v>
       </c>
-      <c r="J46">
+      <c r="N46">
         <v>2</v>
       </c>
       <c r="Q46">
@@ -2476,13 +2490,13 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B47" s="3">
+      <c r="A47" s="3">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
+      <c r="B47" s="1">
+        <v>43454</v>
+      </c>
       <c r="D47" t="s">
         <v>6</v>
       </c>
@@ -2495,10 +2509,10 @@
       <c r="H47" t="s">
         <v>22</v>
       </c>
-      <c r="I47">
+      <c r="M47">
         <v>11</v>
       </c>
-      <c r="J47">
+      <c r="N47">
         <v>9</v>
       </c>
       <c r="Q47">
@@ -2515,13 +2529,13 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B48" s="3">
+      <c r="A48" s="3">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
+      <c r="B48" s="1">
+        <v>43454</v>
+      </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
@@ -2534,10 +2548,10 @@
       <c r="H48" t="s">
         <v>22</v>
       </c>
-      <c r="I48">
+      <c r="M48">
         <v>7</v>
       </c>
-      <c r="J48">
+      <c r="N48">
         <v>9</v>
       </c>
       <c r="Q48">
@@ -2554,13 +2568,13 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B49" s="3">
+      <c r="A49" s="3">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
+      <c r="B49" s="1">
+        <v>43454</v>
+      </c>
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -2573,10 +2587,10 @@
       <c r="H49" t="s">
         <v>22</v>
       </c>
-      <c r="I49">
+      <c r="M49">
         <v>2</v>
       </c>
-      <c r="J49">
+      <c r="N49">
         <v>7</v>
       </c>
       <c r="Q49">
@@ -2593,13 +2607,13 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B50" s="3">
+      <c r="A50" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
+      <c r="B50" s="1">
+        <v>43454</v>
+      </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
@@ -2612,10 +2626,10 @@
       <c r="H50" t="s">
         <v>22</v>
       </c>
-      <c r="I50">
+      <c r="M50">
         <v>16</v>
       </c>
-      <c r="J50">
+      <c r="N50">
         <v>16</v>
       </c>
       <c r="Q50">
@@ -2632,13 +2646,13 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B51" s="3">
+      <c r="A51" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
+      <c r="B51" s="1">
+        <v>43454</v>
+      </c>
       <c r="D51" t="s">
         <v>11</v>
       </c>
@@ -2651,10 +2665,10 @@
       <c r="H51" t="s">
         <v>22</v>
       </c>
-      <c r="I51">
+      <c r="M51">
         <v>11</v>
       </c>
-      <c r="J51">
+      <c r="N51">
         <v>8</v>
       </c>
       <c r="Q51">
@@ -2671,13 +2685,13 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B52" s="3">
+      <c r="A52" s="3">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
+      <c r="B52" s="1">
+        <v>43454</v>
+      </c>
       <c r="D52" t="s">
         <v>19</v>
       </c>
@@ -2690,10 +2704,10 @@
       <c r="H52" t="s">
         <v>22</v>
       </c>
-      <c r="I52">
+      <c r="M52">
         <v>3</v>
       </c>
-      <c r="J52">
+      <c r="N52">
         <v>2</v>
       </c>
       <c r="Q52">
@@ -2710,13 +2724,13 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B53" s="3">
+      <c r="A53" s="3">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
+      <c r="B53" s="1">
+        <v>43454</v>
+      </c>
       <c r="D53" t="s">
         <v>11</v>
       </c>
@@ -2729,10 +2743,10 @@
       <c r="H53" t="s">
         <v>22</v>
       </c>
-      <c r="I53">
+      <c r="M53">
         <v>5</v>
       </c>
-      <c r="J53">
+      <c r="N53">
         <v>18</v>
       </c>
       <c r="Q53">
@@ -2749,13 +2763,13 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B54" s="3">
+      <c r="A54" s="3">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
+      <c r="B54" s="1">
+        <v>43454</v>
+      </c>
       <c r="D54" t="s">
         <v>6</v>
       </c>
@@ -2768,10 +2782,10 @@
       <c r="H54" t="s">
         <v>22</v>
       </c>
-      <c r="I54">
+      <c r="M54">
         <v>8</v>
       </c>
-      <c r="J54">
+      <c r="N54">
         <v>9</v>
       </c>
       <c r="Q54">
@@ -2788,13 +2802,13 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B55" s="3">
+      <c r="A55" s="3">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
+      <c r="B55" s="1">
+        <v>43454</v>
+      </c>
       <c r="D55" t="s">
         <v>19</v>
       </c>
@@ -2807,10 +2821,10 @@
       <c r="H55" t="s">
         <v>22</v>
       </c>
-      <c r="I55">
+      <c r="M55">
         <v>7</v>
       </c>
-      <c r="J55">
+      <c r="N55">
         <v>2</v>
       </c>
       <c r="Q55">
@@ -2827,13 +2841,13 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B56" s="3">
+      <c r="A56" s="3">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
+      <c r="B56" s="1">
+        <v>43454</v>
+      </c>
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -2846,10 +2860,10 @@
       <c r="H56" t="s">
         <v>22</v>
       </c>
-      <c r="I56">
+      <c r="M56">
         <v>9</v>
       </c>
-      <c r="J56">
+      <c r="N56">
         <v>14</v>
       </c>
       <c r="Q56">
@@ -2866,13 +2880,13 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B57" s="3">
+      <c r="A57" s="3">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
+      <c r="B57" s="1">
+        <v>43454</v>
+      </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
@@ -2885,10 +2899,10 @@
       <c r="H57" t="s">
         <v>22</v>
       </c>
-      <c r="I57">
+      <c r="M57">
         <v>14</v>
       </c>
-      <c r="J57">
+      <c r="N57">
         <v>11</v>
       </c>
       <c r="Q57">
@@ -2905,13 +2919,13 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>43465</v>
-      </c>
-      <c r="B58" s="3">
+      <c r="A58" s="3">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
+      <c r="B58" s="1">
+        <v>43465</v>
+      </c>
       <c r="C58">
         <v>1</v>
       </c>
@@ -2927,10 +2941,10 @@
       <c r="H58" t="s">
         <v>22</v>
       </c>
-      <c r="I58">
+      <c r="M58">
         <v>8</v>
       </c>
-      <c r="J58">
+      <c r="N58">
         <v>10</v>
       </c>
       <c r="Q58">
@@ -2947,13 +2961,13 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>43465</v>
-      </c>
-      <c r="B59" s="3">
+      <c r="A59" s="3">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
+      <c r="B59" s="1">
+        <v>43465</v>
+      </c>
       <c r="C59">
         <v>2</v>
       </c>
@@ -2969,10 +2983,10 @@
       <c r="H59" t="s">
         <v>22</v>
       </c>
-      <c r="I59">
+      <c r="M59">
         <v>8</v>
       </c>
-      <c r="J59">
+      <c r="N59">
         <v>6</v>
       </c>
       <c r="Q59">
@@ -2989,13 +3003,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>43465</v>
-      </c>
-      <c r="B60" s="3">
+      <c r="A60" s="3">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
+      <c r="B60" s="1">
+        <v>43465</v>
+      </c>
       <c r="C60">
         <v>3</v>
       </c>
@@ -3011,10 +3025,10 @@
       <c r="H60" t="s">
         <v>22</v>
       </c>
-      <c r="I60">
+      <c r="M60">
         <v>5</v>
       </c>
-      <c r="J60">
+      <c r="N60">
         <v>6</v>
       </c>
       <c r="Q60">
@@ -3031,13 +3045,13 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>43465</v>
-      </c>
-      <c r="B61" s="3">
+      <c r="A61" s="3">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
+      <c r="B61" s="1">
+        <v>43465</v>
+      </c>
       <c r="C61">
         <v>4</v>
       </c>
@@ -3053,10 +3067,10 @@
       <c r="H61" t="s">
         <v>22</v>
       </c>
-      <c r="I61">
+      <c r="M61">
         <v>8</v>
       </c>
-      <c r="J61">
+      <c r="N61">
         <v>7</v>
       </c>
       <c r="Q61">
@@ -3073,13 +3087,13 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>43465</v>
-      </c>
-      <c r="B62" s="3">
+      <c r="A62" s="3">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
+      <c r="B62" s="1">
+        <v>43465</v>
+      </c>
       <c r="C62">
         <v>5</v>
       </c>
@@ -3095,10 +3109,10 @@
       <c r="H62" t="s">
         <v>22</v>
       </c>
-      <c r="I62">
+      <c r="M62">
         <v>6</v>
       </c>
-      <c r="J62">
+      <c r="N62">
         <v>6</v>
       </c>
       <c r="Q62">
@@ -3115,13 +3129,13 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>43465</v>
-      </c>
-      <c r="B63" s="3">
+      <c r="A63" s="3">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
+      <c r="B63" s="1">
+        <v>43465</v>
+      </c>
       <c r="C63">
         <v>6</v>
       </c>
@@ -3137,10 +3151,10 @@
       <c r="H63" t="s">
         <v>22</v>
       </c>
-      <c r="I63">
+      <c r="M63">
         <v>1</v>
       </c>
-      <c r="J63">
+      <c r="N63">
         <v>5</v>
       </c>
       <c r="Q63">
@@ -3157,13 +3171,13 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>43465</v>
-      </c>
-      <c r="B64" s="3">
+      <c r="A64" s="3">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
+      <c r="B64" s="1">
+        <v>43465</v>
+      </c>
       <c r="C64">
         <v>7</v>
       </c>
@@ -3179,10 +3193,10 @@
       <c r="H64" t="s">
         <v>8</v>
       </c>
-      <c r="I64">
+      <c r="M64">
         <v>16</v>
       </c>
-      <c r="J64">
+      <c r="N64">
         <v>19</v>
       </c>
       <c r="Q64">
@@ -3199,13 +3213,13 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>43465</v>
-      </c>
-      <c r="B65" s="3">
+      <c r="A65" s="3">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
+      <c r="B65" s="1">
+        <v>43465</v>
+      </c>
       <c r="C65">
         <v>8</v>
       </c>
@@ -3221,10 +3235,10 @@
       <c r="H65" t="s">
         <v>22</v>
       </c>
-      <c r="I65">
+      <c r="M65">
         <v>0</v>
       </c>
-      <c r="J65">
+      <c r="N65">
         <v>3</v>
       </c>
       <c r="Q65">
@@ -3241,13 +3255,13 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B66" s="3">
+      <c r="A66" s="3">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
+      <c r="B66" s="1">
+        <v>43466</v>
+      </c>
       <c r="C66">
         <v>1</v>
       </c>
@@ -3263,17 +3277,17 @@
       <c r="H66" t="s">
         <v>22</v>
       </c>
-      <c r="I66">
+      <c r="M66">
         <v>4</v>
       </c>
-      <c r="J66">
+      <c r="N66">
         <v>7</v>
       </c>
-      <c r="K66">
+      <c r="O66">
         <v>1890</v>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q97" si="6">I66-J66</f>
+        <f t="shared" ref="Q66:Q97" si="6">M66-N66</f>
         <v>-3</v>
       </c>
       <c r="R66">
@@ -3281,18 +3295,18 @@
         <v>-163</v>
       </c>
       <c r="S66" s="3">
-        <f t="shared" ref="S66:S97" si="7">I66/J66</f>
+        <f t="shared" ref="S66:S97" si="7">M66/N66</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B67" s="3">
+      <c r="A67" s="3">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
+      <c r="B67" s="1">
+        <v>43466</v>
+      </c>
       <c r="C67">
         <v>2</v>
       </c>
@@ -3308,14 +3322,14 @@
       <c r="H67" t="s">
         <v>29</v>
       </c>
-      <c r="I67">
+      <c r="M67">
         <v>6</v>
       </c>
-      <c r="J67">
+      <c r="N67">
         <v>15</v>
       </c>
-      <c r="K67">
-        <f>9620-K66</f>
+      <c r="O67">
+        <f>9620-O66</f>
         <v>7730</v>
       </c>
       <c r="Q67">
@@ -3332,12 +3346,12 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+      <c r="A68" s="3">
+        <f t="shared" ref="A68:A131" si="8">1+A67</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
         <v>43466</v>
-      </c>
-      <c r="B68" s="3">
-        <f t="shared" ref="B68:B131" si="8">1+B67</f>
-        <v>67</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -3354,13 +3368,13 @@
       <c r="H68" t="s">
         <v>29</v>
       </c>
-      <c r="I68">
+      <c r="M68">
         <v>12</v>
       </c>
-      <c r="J68">
+      <c r="N68">
         <v>15</v>
       </c>
-      <c r="K68">
+      <c r="O68">
         <f>8113</f>
         <v>8113</v>
       </c>
@@ -3378,13 +3392,13 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B69" s="3">
+      <c r="A69" s="3">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
+      <c r="B69" s="1">
+        <v>43466</v>
+      </c>
       <c r="C69">
         <v>4</v>
       </c>
@@ -3400,13 +3414,13 @@
       <c r="H69" t="s">
         <v>22</v>
       </c>
-      <c r="I69">
+      <c r="M69">
         <v>9</v>
       </c>
-      <c r="J69">
+      <c r="N69">
         <v>17</v>
       </c>
-      <c r="K69">
+      <c r="O69">
         <v>8002</v>
       </c>
       <c r="Q69">
@@ -3423,13 +3437,13 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B70" s="3">
+      <c r="A70" s="3">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
+      <c r="B70" s="1">
+        <v>43466</v>
+      </c>
       <c r="C70">
         <v>5</v>
       </c>
@@ -3445,13 +3459,13 @@
       <c r="H70" t="s">
         <v>32</v>
       </c>
-      <c r="I70">
+      <c r="M70">
         <v>8</v>
       </c>
-      <c r="J70">
+      <c r="N70">
         <v>12</v>
       </c>
-      <c r="K70">
+      <c r="O70">
         <v>5596</v>
       </c>
       <c r="Q70">
@@ -3468,13 +3482,13 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B71" s="3">
+      <c r="A71" s="3">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
+      <c r="B71" s="1">
+        <v>43466</v>
+      </c>
       <c r="C71">
         <v>6</v>
       </c>
@@ -3490,13 +3504,13 @@
       <c r="H71" t="s">
         <v>32</v>
       </c>
-      <c r="I71">
+      <c r="M71">
         <v>13</v>
       </c>
-      <c r="J71">
+      <c r="N71">
         <v>16</v>
       </c>
-      <c r="K71">
+      <c r="O71">
         <v>7272</v>
       </c>
       <c r="Q71">
@@ -3513,13 +3527,13 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B72" s="3">
+      <c r="A72" s="3">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
+      <c r="B72" s="1">
+        <v>43466</v>
+      </c>
       <c r="C72">
         <v>7</v>
       </c>
@@ -3535,13 +3549,13 @@
       <c r="H72" t="s">
         <v>32</v>
       </c>
-      <c r="I72">
+      <c r="M72">
         <v>3</v>
       </c>
-      <c r="J72">
+      <c r="N72">
         <v>9</v>
       </c>
-      <c r="K72">
+      <c r="O72">
         <v>2944</v>
       </c>
       <c r="Q72">
@@ -3558,13 +3572,13 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B73" s="3">
+      <c r="A73" s="3">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
+      <c r="B73" s="1">
+        <v>43466</v>
+      </c>
       <c r="C73">
         <v>8</v>
       </c>
@@ -3580,14 +3594,14 @@
       <c r="H73" t="s">
         <v>8</v>
       </c>
-      <c r="I73">
+      <c r="M73">
         <v>6</v>
       </c>
-      <c r="J73">
+      <c r="N73">
         <v>6</v>
       </c>
-      <c r="K73">
-        <f>6019-K72</f>
+      <c r="O73">
+        <f>6019-O72</f>
         <v>3075</v>
       </c>
       <c r="Q73">
@@ -3604,13 +3618,13 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B74" s="3">
+      <c r="A74" s="3">
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
+      <c r="B74" s="1">
+        <v>43466</v>
+      </c>
       <c r="C74">
         <v>9</v>
       </c>
@@ -3626,13 +3640,13 @@
       <c r="H74" t="s">
         <v>8</v>
       </c>
-      <c r="I74">
+      <c r="M74">
         <v>3</v>
       </c>
-      <c r="J74">
+      <c r="N74">
         <v>4</v>
       </c>
-      <c r="K74">
+      <c r="O74">
         <v>1570</v>
       </c>
       <c r="Q74">
@@ -3649,13 +3663,13 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B75" s="3">
+      <c r="A75" s="3">
         <f t="shared" si="8"/>
         <v>74</v>
       </c>
+      <c r="B75" s="1">
+        <v>43466</v>
+      </c>
       <c r="C75">
         <v>10</v>
       </c>
@@ -3671,13 +3685,13 @@
       <c r="H75" t="s">
         <v>8</v>
       </c>
-      <c r="I75">
+      <c r="M75">
         <v>8</v>
       </c>
-      <c r="J75">
+      <c r="N75">
         <v>10</v>
       </c>
-      <c r="K75">
+      <c r="O75">
         <v>5519</v>
       </c>
       <c r="Q75">
@@ -3694,13 +3708,13 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B76" s="3">
+      <c r="A76" s="3">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
+      <c r="B76" s="1">
+        <v>43466</v>
+      </c>
       <c r="C76">
         <v>11</v>
       </c>
@@ -3716,13 +3730,13 @@
       <c r="H76" t="s">
         <v>8</v>
       </c>
-      <c r="I76">
+      <c r="M76">
         <v>6</v>
       </c>
-      <c r="J76">
+      <c r="N76">
         <v>7</v>
       </c>
-      <c r="K76">
+      <c r="O76">
         <v>1888</v>
       </c>
       <c r="Q76">
@@ -3739,13 +3753,13 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>43467</v>
-      </c>
-      <c r="B77" s="3">
+      <c r="A77" s="3">
         <f t="shared" si="8"/>
         <v>76</v>
       </c>
+      <c r="B77" s="1">
+        <v>43467</v>
+      </c>
       <c r="C77">
         <v>1</v>
       </c>
@@ -3761,13 +3775,13 @@
       <c r="H77" t="s">
         <v>33</v>
       </c>
-      <c r="I77">
+      <c r="M77">
         <v>7</v>
       </c>
-      <c r="J77">
+      <c r="N77">
         <v>8</v>
       </c>
-      <c r="K77">
+      <c r="O77">
         <v>1819</v>
       </c>
       <c r="Q77">
@@ -3784,13 +3798,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>43467</v>
-      </c>
-      <c r="B78" s="3">
+      <c r="A78" s="3">
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
+      <c r="B78" s="1">
+        <v>43467</v>
+      </c>
       <c r="C78">
         <v>2</v>
       </c>
@@ -3806,13 +3820,13 @@
       <c r="H78" t="s">
         <v>33</v>
       </c>
-      <c r="I78">
+      <c r="M78">
         <v>6</v>
       </c>
-      <c r="J78">
+      <c r="N78">
         <v>7</v>
       </c>
-      <c r="K78">
+      <c r="O78">
         <v>1423</v>
       </c>
       <c r="Q78">
@@ -3829,13 +3843,13 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>43467</v>
-      </c>
-      <c r="B79" s="3">
+      <c r="A79" s="3">
         <f t="shared" si="8"/>
         <v>78</v>
       </c>
+      <c r="B79" s="1">
+        <v>43467</v>
+      </c>
       <c r="C79">
         <v>3</v>
       </c>
@@ -3851,14 +3865,14 @@
       <c r="H79" t="s">
         <v>33</v>
       </c>
-      <c r="I79">
+      <c r="M79">
         <v>5</v>
       </c>
-      <c r="J79">
+      <c r="N79">
         <v>11</v>
       </c>
-      <c r="K79">
-        <f>3508-K78</f>
+      <c r="O79">
+        <f>3508-O78</f>
         <v>2085</v>
       </c>
       <c r="Q79">
@@ -3875,13 +3889,13 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>43467</v>
-      </c>
-      <c r="B80" s="3">
+      <c r="A80" s="3">
         <f t="shared" si="8"/>
         <v>79</v>
       </c>
+      <c r="B80" s="1">
+        <v>43467</v>
+      </c>
       <c r="C80">
         <v>4</v>
       </c>
@@ -3897,14 +3911,14 @@
       <c r="H80" t="s">
         <v>33</v>
       </c>
-      <c r="I80">
+      <c r="M80">
         <v>5</v>
       </c>
-      <c r="J80">
+      <c r="N80">
         <v>10</v>
       </c>
-      <c r="K80">
-        <f>5138-K79+K78</f>
+      <c r="O80">
+        <f>5138-O79+O78</f>
         <v>4476</v>
       </c>
       <c r="Q80">
@@ -3921,13 +3935,13 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>43468</v>
-      </c>
-      <c r="B81" s="3">
+      <c r="A81" s="3">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
+      <c r="B81" s="1">
+        <v>43468</v>
+      </c>
       <c r="C81">
         <v>1</v>
       </c>
@@ -3943,13 +3957,13 @@
       <c r="H81" t="s">
         <v>33</v>
       </c>
-      <c r="I81">
+      <c r="M81">
         <v>10</v>
       </c>
-      <c r="J81">
+      <c r="N81">
         <v>8</v>
       </c>
-      <c r="K81">
+      <c r="O81">
         <v>3521</v>
       </c>
       <c r="Q81">
@@ -3966,13 +3980,13 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>43468</v>
-      </c>
-      <c r="B82" s="3">
+      <c r="A82" s="3">
         <f t="shared" si="8"/>
         <v>81</v>
       </c>
+      <c r="B82" s="1">
+        <v>43468</v>
+      </c>
       <c r="C82">
         <v>2</v>
       </c>
@@ -3988,14 +4002,14 @@
       <c r="H82" t="s">
         <v>33</v>
       </c>
-      <c r="I82">
+      <c r="M82">
         <v>8</v>
       </c>
-      <c r="J82">
+      <c r="N82">
         <v>9</v>
       </c>
-      <c r="K82">
-        <f>8297-K81</f>
+      <c r="O82">
+        <f>8297-O81</f>
         <v>4776</v>
       </c>
       <c r="Q82">
@@ -4012,13 +4026,13 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>43468</v>
-      </c>
-      <c r="B83" s="3">
+      <c r="A83" s="3">
         <f t="shared" si="8"/>
         <v>82</v>
       </c>
+      <c r="B83" s="1">
+        <v>43468</v>
+      </c>
       <c r="C83">
         <v>3</v>
       </c>
@@ -4034,13 +4048,13 @@
       <c r="H83" t="s">
         <v>33</v>
       </c>
-      <c r="I83">
+      <c r="M83">
         <v>11</v>
       </c>
-      <c r="J83">
+      <c r="N83">
         <v>15</v>
       </c>
-      <c r="K83">
+      <c r="O83">
         <v>4958</v>
       </c>
       <c r="Q83">
@@ -4057,13 +4071,13 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>43471</v>
-      </c>
-      <c r="B84" s="3">
+      <c r="A84" s="3">
         <f t="shared" si="8"/>
         <v>83</v>
       </c>
+      <c r="B84" s="1">
+        <v>43471</v>
+      </c>
       <c r="C84">
         <v>1</v>
       </c>
@@ -4079,13 +4093,13 @@
       <c r="H84" t="s">
         <v>33</v>
       </c>
-      <c r="I84">
+      <c r="M84">
         <v>4</v>
       </c>
-      <c r="J84">
+      <c r="N84">
         <v>2</v>
       </c>
-      <c r="K84">
+      <c r="O84">
         <v>1735</v>
       </c>
       <c r="Q84">
@@ -4102,13 +4116,13 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>43471</v>
-      </c>
-      <c r="B85" s="3">
+      <c r="A85" s="3">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
+      <c r="B85" s="1">
+        <v>43471</v>
+      </c>
       <c r="C85">
         <v>2</v>
       </c>
@@ -4124,14 +4138,14 @@
       <c r="H85" t="s">
         <v>33</v>
       </c>
-      <c r="I85">
+      <c r="M85">
         <v>9</v>
       </c>
-      <c r="J85">
+      <c r="N85">
         <v>14</v>
       </c>
-      <c r="K85">
-        <f>5196-K84</f>
+      <c r="O85">
+        <f>5196-O84</f>
         <v>3461</v>
       </c>
       <c r="Q85">
@@ -4148,13 +4162,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>43471</v>
-      </c>
-      <c r="B86" s="3">
+      <c r="A86" s="3">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
+      <c r="B86" s="1">
+        <v>43471</v>
+      </c>
       <c r="C86">
         <v>3</v>
       </c>
@@ -4170,13 +4184,13 @@
       <c r="H86" t="s">
         <v>33</v>
       </c>
-      <c r="I86">
+      <c r="M86">
         <v>14</v>
       </c>
-      <c r="J86">
+      <c r="N86">
         <v>14</v>
       </c>
-      <c r="K86">
+      <c r="O86">
         <v>5521</v>
       </c>
       <c r="Q86">
@@ -4193,13 +4207,13 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>43471</v>
-      </c>
-      <c r="B87" s="3">
+      <c r="A87" s="3">
         <f t="shared" si="8"/>
         <v>86</v>
       </c>
+      <c r="B87" s="1">
+        <v>43471</v>
+      </c>
       <c r="C87">
         <v>4</v>
       </c>
@@ -4215,13 +4229,13 @@
       <c r="H87" t="s">
         <v>33</v>
       </c>
-      <c r="I87">
+      <c r="M87">
         <v>8</v>
       </c>
-      <c r="J87">
+      <c r="N87">
         <v>5</v>
       </c>
-      <c r="K87">
+      <c r="O87">
         <v>3499</v>
       </c>
       <c r="Q87">
@@ -4238,13 +4252,13 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>43472</v>
-      </c>
-      <c r="B88" s="3">
+      <c r="A88" s="3">
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
+      <c r="B88" s="1">
+        <v>43472</v>
+      </c>
       <c r="C88">
         <v>1</v>
       </c>
@@ -4260,13 +4274,13 @@
       <c r="H88" t="s">
         <v>33</v>
       </c>
-      <c r="I88">
+      <c r="M88">
         <v>1</v>
       </c>
-      <c r="J88">
+      <c r="N88">
         <v>6</v>
       </c>
-      <c r="K88">
+      <c r="O88">
         <v>1370</v>
       </c>
       <c r="Q88">
@@ -4283,13 +4297,13 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>43472</v>
-      </c>
-      <c r="B89" s="3">
+      <c r="A89" s="3">
         <f t="shared" si="8"/>
         <v>88</v>
       </c>
+      <c r="B89" s="1">
+        <v>43472</v>
+      </c>
       <c r="C89">
         <v>2</v>
       </c>
@@ -4305,13 +4319,13 @@
       <c r="H89" t="s">
         <v>33</v>
       </c>
-      <c r="I89">
+      <c r="M89">
         <v>4</v>
       </c>
-      <c r="J89">
+      <c r="N89">
         <v>4</v>
       </c>
-      <c r="K89">
+      <c r="O89">
         <v>1503</v>
       </c>
       <c r="Q89">
@@ -4328,13 +4342,13 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>43472</v>
-      </c>
-      <c r="B90" s="3">
+      <c r="A90" s="3">
         <f t="shared" si="8"/>
         <v>89</v>
       </c>
+      <c r="B90" s="1">
+        <v>43472</v>
+      </c>
       <c r="C90">
         <v>3</v>
       </c>
@@ -4350,13 +4364,13 @@
       <c r="H90" t="s">
         <v>33</v>
       </c>
-      <c r="I90">
+      <c r="M90">
         <v>8</v>
       </c>
-      <c r="J90">
+      <c r="N90">
         <v>15</v>
       </c>
-      <c r="K90">
+      <c r="O90">
         <v>9124</v>
       </c>
       <c r="Q90">
@@ -4373,13 +4387,13 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>43472</v>
-      </c>
-      <c r="B91" s="3">
+      <c r="A91" s="3">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
+      <c r="B91" s="1">
+        <v>43472</v>
+      </c>
       <c r="C91">
         <v>4</v>
       </c>
@@ -4395,13 +4409,13 @@
       <c r="H91" t="s">
         <v>33</v>
       </c>
-      <c r="I91">
+      <c r="M91">
         <v>4</v>
       </c>
-      <c r="J91">
+      <c r="N91">
         <v>6</v>
       </c>
-      <c r="K91">
+      <c r="O91">
         <v>1725</v>
       </c>
       <c r="Q91">
@@ -4418,13 +4432,13 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>43473</v>
-      </c>
-      <c r="B92" s="3">
+      <c r="A92" s="3">
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
+      <c r="B92" s="1">
+        <v>43473</v>
+      </c>
       <c r="C92">
         <v>1</v>
       </c>
@@ -4440,20 +4454,20 @@
       <c r="H92" t="s">
         <v>20</v>
       </c>
-      <c r="I92">
+      <c r="K92" t="s">
+        <v>40</v>
+      </c>
+      <c r="L92" t="s">
+        <v>4</v>
+      </c>
+      <c r="M92">
         <v>7</v>
       </c>
-      <c r="J92">
+      <c r="N92">
         <v>3</v>
       </c>
-      <c r="K92">
+      <c r="O92">
         <v>2652</v>
-      </c>
-      <c r="O92" t="s">
-        <v>40</v>
-      </c>
-      <c r="P92" t="s">
-        <v>4</v>
       </c>
       <c r="Q92">
         <f t="shared" si="6"/>
@@ -4469,13 +4483,13 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>43473</v>
-      </c>
-      <c r="B93" s="3">
+      <c r="A93" s="3">
         <f t="shared" si="8"/>
         <v>92</v>
       </c>
+      <c r="B93" s="1">
+        <v>43473</v>
+      </c>
       <c r="C93">
         <v>2</v>
       </c>
@@ -4491,21 +4505,21 @@
       <c r="H93" t="s">
         <v>20</v>
       </c>
-      <c r="I93">
+      <c r="K93" t="s">
+        <v>40</v>
+      </c>
+      <c r="L93" t="s">
+        <v>4</v>
+      </c>
+      <c r="M93">
         <v>7</v>
       </c>
-      <c r="J93">
+      <c r="N93">
         <v>11</v>
       </c>
-      <c r="K93">
-        <f>6778-K92</f>
+      <c r="O93">
+        <f>6778-O92</f>
         <v>4126</v>
-      </c>
-      <c r="O93" t="s">
-        <v>40</v>
-      </c>
-      <c r="P93" t="s">
-        <v>4</v>
       </c>
       <c r="Q93">
         <f t="shared" si="6"/>
@@ -4521,13 +4535,13 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>43473</v>
-      </c>
-      <c r="B94" s="3">
+      <c r="A94" s="3">
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
+      <c r="B94" s="1">
+        <v>43473</v>
+      </c>
       <c r="C94">
         <v>3</v>
       </c>
@@ -4543,20 +4557,20 @@
       <c r="H94" t="s">
         <v>20</v>
       </c>
-      <c r="I94">
+      <c r="K94" t="s">
+        <v>40</v>
+      </c>
+      <c r="L94" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94">
         <v>7</v>
       </c>
-      <c r="J94">
+      <c r="N94">
         <v>3</v>
       </c>
-      <c r="K94">
+      <c r="O94">
         <v>3249</v>
-      </c>
-      <c r="O94" t="s">
-        <v>40</v>
-      </c>
-      <c r="P94" t="s">
-        <v>4</v>
       </c>
       <c r="Q94">
         <f t="shared" si="6"/>
@@ -4572,13 +4586,13 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>43473</v>
-      </c>
-      <c r="B95" s="3">
+      <c r="A95" s="3">
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
+      <c r="B95" s="1">
+        <v>43473</v>
+      </c>
       <c r="C95">
         <v>4</v>
       </c>
@@ -4594,21 +4608,21 @@
       <c r="H95" t="s">
         <v>20</v>
       </c>
-      <c r="I95">
+      <c r="K95" t="s">
+        <v>40</v>
+      </c>
+      <c r="L95" t="s">
+        <v>4</v>
+      </c>
+      <c r="M95">
         <v>13</v>
       </c>
-      <c r="J95">
+      <c r="N95">
         <v>19</v>
       </c>
-      <c r="K95">
-        <f>8076-K94</f>
+      <c r="O95">
+        <f>8076-O94</f>
         <v>4827</v>
-      </c>
-      <c r="O95" t="s">
-        <v>40</v>
-      </c>
-      <c r="P95" t="s">
-        <v>4</v>
       </c>
       <c r="Q95">
         <f t="shared" si="6"/>
@@ -4624,13 +4638,13 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>43474</v>
-      </c>
-      <c r="B96" s="3">
+      <c r="A96" s="3">
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
+      <c r="B96" s="1">
+        <v>43474</v>
+      </c>
       <c r="C96">
         <v>1</v>
       </c>
@@ -4646,20 +4660,20 @@
       <c r="H96" t="s">
         <v>20</v>
       </c>
-      <c r="I96">
+      <c r="K96" t="s">
+        <v>40</v>
+      </c>
+      <c r="L96" t="s">
+        <v>4</v>
+      </c>
+      <c r="M96">
         <v>11</v>
       </c>
-      <c r="J96">
+      <c r="N96">
         <v>14</v>
       </c>
-      <c r="K96">
+      <c r="O96">
         <v>9908</v>
-      </c>
-      <c r="O96" t="s">
-        <v>40</v>
-      </c>
-      <c r="P96" t="s">
-        <v>4</v>
       </c>
       <c r="Q96">
         <f t="shared" si="6"/>
@@ -4675,13 +4689,13 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>43474</v>
-      </c>
-      <c r="B97" s="3">
+      <c r="A97" s="3">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
+      <c r="B97" s="1">
+        <v>43474</v>
+      </c>
       <c r="C97">
         <v>2</v>
       </c>
@@ -4697,20 +4711,20 @@
       <c r="H97" t="s">
         <v>20</v>
       </c>
-      <c r="I97">
+      <c r="K97" t="s">
+        <v>40</v>
+      </c>
+      <c r="L97" t="s">
+        <v>4</v>
+      </c>
+      <c r="M97">
         <v>10</v>
       </c>
-      <c r="J97">
+      <c r="N97">
         <v>13</v>
       </c>
-      <c r="K97">
+      <c r="O97">
         <v>6991</v>
-      </c>
-      <c r="O97" t="s">
-        <v>40</v>
-      </c>
-      <c r="P97" t="s">
-        <v>4</v>
       </c>
       <c r="Q97">
         <f t="shared" si="6"/>
@@ -4726,13 +4740,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>43476</v>
-      </c>
-      <c r="B98" s="3">
+      <c r="A98" s="3">
         <f t="shared" si="8"/>
         <v>97</v>
       </c>
+      <c r="B98" s="1">
+        <v>43476</v>
+      </c>
       <c r="C98">
         <v>1</v>
       </c>
@@ -4748,23 +4762,23 @@
       <c r="H98" t="s">
         <v>20</v>
       </c>
-      <c r="I98">
+      <c r="K98" t="s">
+        <v>40</v>
+      </c>
+      <c r="L98" t="s">
+        <v>4</v>
+      </c>
+      <c r="M98">
         <v>14</v>
       </c>
-      <c r="J98">
+      <c r="N98">
         <v>11</v>
       </c>
-      <c r="K98">
+      <c r="O98">
         <v>7317</v>
       </c>
-      <c r="O98" t="s">
-        <v>40</v>
-      </c>
-      <c r="P98" t="s">
-        <v>4</v>
-      </c>
       <c r="Q98">
-        <f t="shared" ref="Q98:Q129" si="10">I98-J98</f>
+        <f t="shared" ref="Q98:Q129" si="10">M98-N98</f>
         <v>3</v>
       </c>
       <c r="R98">
@@ -4772,18 +4786,18 @@
         <v>-235</v>
       </c>
       <c r="S98" s="3">
-        <f t="shared" ref="S98:S133" si="11">I98/J98</f>
+        <f t="shared" ref="S98:S133" si="11">M98/N98</f>
         <v>1.2727272727272727</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>43476</v>
-      </c>
-      <c r="B99" s="3">
+      <c r="A99" s="3">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
+      <c r="B99" s="1">
+        <v>43476</v>
+      </c>
       <c r="C99">
         <v>2</v>
       </c>
@@ -4799,20 +4813,20 @@
       <c r="H99" t="s">
         <v>20</v>
       </c>
-      <c r="I99">
+      <c r="K99" t="s">
+        <v>40</v>
+      </c>
+      <c r="L99" t="s">
+        <v>4</v>
+      </c>
+      <c r="M99">
         <v>7</v>
       </c>
-      <c r="J99">
+      <c r="N99">
         <v>14</v>
       </c>
-      <c r="K99">
+      <c r="O99">
         <v>8069</v>
-      </c>
-      <c r="O99" t="s">
-        <v>40</v>
-      </c>
-      <c r="P99" t="s">
-        <v>4</v>
       </c>
       <c r="Q99">
         <f t="shared" si="10"/>
@@ -4828,13 +4842,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>43477</v>
-      </c>
-      <c r="B100" s="3">
+      <c r="A100" s="3">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
+      <c r="B100" s="1">
+        <v>43477</v>
+      </c>
       <c r="C100">
         <v>1</v>
       </c>
@@ -4850,20 +4864,20 @@
       <c r="H100" t="s">
         <v>20</v>
       </c>
-      <c r="I100">
+      <c r="K100" t="s">
+        <v>40</v>
+      </c>
+      <c r="L100" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100">
         <v>9</v>
       </c>
-      <c r="J100">
+      <c r="N100">
         <v>7</v>
       </c>
-      <c r="K100">
+      <c r="O100">
         <v>5056</v>
-      </c>
-      <c r="O100" t="s">
-        <v>40</v>
-      </c>
-      <c r="P100" t="s">
-        <v>4</v>
       </c>
       <c r="Q100">
         <f t="shared" si="10"/>
@@ -4879,13 +4893,13 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>43477</v>
-      </c>
-      <c r="B101" s="3">
+      <c r="A101" s="3">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
+      <c r="B101" s="1">
+        <v>43477</v>
+      </c>
       <c r="C101">
         <v>2</v>
       </c>
@@ -4901,21 +4915,21 @@
       <c r="H101" t="s">
         <v>20</v>
       </c>
-      <c r="I101">
+      <c r="K101" t="s">
+        <v>40</v>
+      </c>
+      <c r="L101" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101">
         <v>11</v>
       </c>
-      <c r="J101">
+      <c r="N101">
         <v>7</v>
       </c>
-      <c r="K101">
-        <f>12487-K100</f>
+      <c r="O101">
+        <f>12487-O100</f>
         <v>7431</v>
-      </c>
-      <c r="O101" t="s">
-        <v>40</v>
-      </c>
-      <c r="P101" t="s">
-        <v>4</v>
       </c>
       <c r="Q101">
         <f t="shared" si="10"/>
@@ -4931,13 +4945,13 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>43477</v>
-      </c>
-      <c r="B102" s="3">
+      <c r="A102" s="3">
         <f t="shared" si="8"/>
         <v>101</v>
       </c>
+      <c r="B102" s="1">
+        <v>43477</v>
+      </c>
       <c r="C102">
         <v>3</v>
       </c>
@@ -4953,20 +4967,20 @@
       <c r="H102" t="s">
         <v>20</v>
       </c>
-      <c r="I102">
+      <c r="K102" t="s">
+        <v>40</v>
+      </c>
+      <c r="L102" t="s">
         <v>4</v>
       </c>
-      <c r="J102">
+      <c r="M102">
+        <v>4</v>
+      </c>
+      <c r="N102">
         <v>8</v>
       </c>
-      <c r="K102">
+      <c r="O102">
         <v>1698</v>
-      </c>
-      <c r="O102" t="s">
-        <v>40</v>
-      </c>
-      <c r="P102" t="s">
-        <v>4</v>
       </c>
       <c r="Q102">
         <f t="shared" si="10"/>
@@ -4982,13 +4996,13 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>43477</v>
-      </c>
-      <c r="B103" s="3">
+      <c r="A103" s="3">
         <f t="shared" si="8"/>
         <v>102</v>
       </c>
+      <c r="B103" s="1">
+        <v>43477</v>
+      </c>
       <c r="C103">
         <v>4</v>
       </c>
@@ -5004,21 +5018,21 @@
       <c r="H103" t="s">
         <v>20</v>
       </c>
-      <c r="I103">
+      <c r="K103" t="s">
+        <v>40</v>
+      </c>
+      <c r="L103" t="s">
+        <v>4</v>
+      </c>
+      <c r="M103">
         <v>9</v>
       </c>
-      <c r="J103">
+      <c r="N103">
         <v>13</v>
       </c>
-      <c r="K103">
-        <f>12613-K102</f>
+      <c r="O103">
+        <f>12613-O102</f>
         <v>10915</v>
-      </c>
-      <c r="O103" t="s">
-        <v>40</v>
-      </c>
-      <c r="P103" t="s">
-        <v>4</v>
       </c>
       <c r="Q103">
         <f t="shared" si="10"/>
@@ -5034,13 +5048,13 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>43478</v>
-      </c>
-      <c r="B104" s="3">
+      <c r="A104" s="3">
         <f t="shared" si="8"/>
         <v>103</v>
       </c>
+      <c r="B104" s="1">
+        <v>43478</v>
+      </c>
       <c r="C104">
         <v>1</v>
       </c>
@@ -5059,29 +5073,29 @@
       <c r="H104" t="s">
         <v>20</v>
       </c>
-      <c r="I104">
+      <c r="I104" t="s">
+        <v>40</v>
+      </c>
+      <c r="J104" t="s">
+        <v>38</v>
+      </c>
+      <c r="K104" t="s">
+        <v>40</v>
+      </c>
+      <c r="L104" t="s">
+        <v>4</v>
+      </c>
+      <c r="M104">
         <v>7</v>
       </c>
-      <c r="J104">
+      <c r="N104">
         <v>6</v>
       </c>
-      <c r="K104">
+      <c r="O104">
         <v>3231</v>
       </c>
-      <c r="L104" t="s">
+      <c r="P104" t="s">
         <v>43</v>
-      </c>
-      <c r="M104" t="s">
-        <v>40</v>
-      </c>
-      <c r="N104" t="s">
-        <v>38</v>
-      </c>
-      <c r="O104" t="s">
-        <v>40</v>
-      </c>
-      <c r="P104" t="s">
-        <v>4</v>
       </c>
       <c r="Q104">
         <f t="shared" si="10"/>
@@ -5097,13 +5111,13 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>43478</v>
-      </c>
-      <c r="B105" s="3">
+      <c r="A105" s="3">
         <f t="shared" si="8"/>
         <v>104</v>
       </c>
+      <c r="B105" s="1">
+        <v>43478</v>
+      </c>
       <c r="C105">
         <v>2</v>
       </c>
@@ -5122,30 +5136,30 @@
       <c r="H105" t="s">
         <v>20</v>
       </c>
-      <c r="I105">
+      <c r="I105" t="s">
+        <v>40</v>
+      </c>
+      <c r="J105" t="s">
+        <v>38</v>
+      </c>
+      <c r="K105" t="s">
+        <v>40</v>
+      </c>
+      <c r="L105" t="s">
+        <v>4</v>
+      </c>
+      <c r="M105">
         <v>10</v>
       </c>
-      <c r="J105">
+      <c r="N105">
         <v>13</v>
       </c>
-      <c r="K105">
+      <c r="O105">
         <f>7441-3231</f>
         <v>4210</v>
       </c>
-      <c r="L105" t="s">
+      <c r="P105" t="s">
         <v>43</v>
-      </c>
-      <c r="M105" t="s">
-        <v>40</v>
-      </c>
-      <c r="N105" t="s">
-        <v>38</v>
-      </c>
-      <c r="O105" t="s">
-        <v>40</v>
-      </c>
-      <c r="P105" t="s">
-        <v>4</v>
       </c>
       <c r="Q105">
         <f t="shared" si="10"/>
@@ -5161,13 +5175,13 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>43478</v>
-      </c>
-      <c r="B106" s="3">
+      <c r="A106" s="3">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
+      <c r="B106" s="1">
+        <v>43478</v>
+      </c>
       <c r="C106">
         <v>3</v>
       </c>
@@ -5186,30 +5200,30 @@
       <c r="H106" t="s">
         <v>20</v>
       </c>
-      <c r="I106">
+      <c r="I106" t="s">
+        <v>40</v>
+      </c>
+      <c r="J106" t="s">
+        <v>38</v>
+      </c>
+      <c r="K106" t="s">
+        <v>40</v>
+      </c>
+      <c r="L106" t="s">
+        <v>4</v>
+      </c>
+      <c r="M106">
         <v>11</v>
       </c>
-      <c r="J106">
+      <c r="N106">
         <v>13</v>
       </c>
-      <c r="K106">
-        <f>11275-K105-K104</f>
+      <c r="O106">
+        <f>11275-O105-O104</f>
         <v>3834</v>
       </c>
-      <c r="L106" t="s">
+      <c r="P106" t="s">
         <v>47</v>
-      </c>
-      <c r="M106" t="s">
-        <v>40</v>
-      </c>
-      <c r="N106" t="s">
-        <v>38</v>
-      </c>
-      <c r="O106" t="s">
-        <v>40</v>
-      </c>
-      <c r="P106" t="s">
-        <v>4</v>
       </c>
       <c r="Q106">
         <f t="shared" si="10"/>
@@ -5225,13 +5239,13 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>43478</v>
-      </c>
-      <c r="B107" s="3">
+      <c r="A107" s="3">
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
+      <c r="B107" s="1">
+        <v>43478</v>
+      </c>
       <c r="C107">
         <v>4</v>
       </c>
@@ -5250,29 +5264,29 @@
       <c r="H107" t="s">
         <v>20</v>
       </c>
-      <c r="I107">
+      <c r="I107" t="s">
+        <v>40</v>
+      </c>
+      <c r="J107" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" t="s">
+        <v>40</v>
+      </c>
+      <c r="L107" t="s">
+        <v>4</v>
+      </c>
+      <c r="M107">
         <v>13</v>
       </c>
-      <c r="J107">
+      <c r="N107">
         <v>9</v>
       </c>
-      <c r="K107">
+      <c r="O107">
         <v>7340</v>
       </c>
-      <c r="L107" t="s">
+      <c r="P107" t="s">
         <v>43</v>
-      </c>
-      <c r="M107" t="s">
-        <v>40</v>
-      </c>
-      <c r="N107" t="s">
-        <v>38</v>
-      </c>
-      <c r="O107" t="s">
-        <v>40</v>
-      </c>
-      <c r="P107" t="s">
-        <v>4</v>
       </c>
       <c r="Q107">
         <f t="shared" si="10"/>
@@ -5288,13 +5302,13 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>43478</v>
-      </c>
-      <c r="B108" s="3">
+      <c r="A108" s="3">
         <f t="shared" si="8"/>
         <v>107</v>
       </c>
+      <c r="B108" s="1">
+        <v>43478</v>
+      </c>
       <c r="C108">
         <v>5</v>
       </c>
@@ -5313,29 +5327,29 @@
       <c r="H108" t="s">
         <v>20</v>
       </c>
-      <c r="I108">
+      <c r="I108" t="s">
+        <v>40</v>
+      </c>
+      <c r="J108" t="s">
+        <v>38</v>
+      </c>
+      <c r="K108" t="s">
+        <v>40</v>
+      </c>
+      <c r="L108" t="s">
+        <v>4</v>
+      </c>
+      <c r="M108">
         <v>7</v>
       </c>
-      <c r="J108">
+      <c r="N108">
         <v>3</v>
       </c>
-      <c r="K108">
+      <c r="O108">
         <v>7741</v>
       </c>
-      <c r="L108" t="s">
+      <c r="P108" t="s">
         <v>43</v>
-      </c>
-      <c r="M108" t="s">
-        <v>40</v>
-      </c>
-      <c r="N108" t="s">
-        <v>38</v>
-      </c>
-      <c r="O108" t="s">
-        <v>40</v>
-      </c>
-      <c r="P108" t="s">
-        <v>4</v>
       </c>
       <c r="Q108">
         <f t="shared" si="10"/>
@@ -5351,13 +5365,13 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>43478</v>
-      </c>
-      <c r="B109" s="3">
+      <c r="A109" s="3">
         <f t="shared" si="8"/>
         <v>108</v>
       </c>
+      <c r="B109" s="1">
+        <v>43478</v>
+      </c>
       <c r="C109">
         <v>6</v>
       </c>
@@ -5376,29 +5390,29 @@
       <c r="H109" t="s">
         <v>20</v>
       </c>
-      <c r="I109">
+      <c r="I109" t="s">
+        <v>40</v>
+      </c>
+      <c r="J109" t="s">
+        <v>38</v>
+      </c>
+      <c r="K109" t="s">
+        <v>40</v>
+      </c>
+      <c r="L109" t="s">
+        <v>4</v>
+      </c>
+      <c r="M109">
         <v>3</v>
       </c>
-      <c r="J109">
+      <c r="N109">
         <v>12</v>
       </c>
-      <c r="K109">
+      <c r="O109">
         <v>5276</v>
       </c>
-      <c r="L109" t="s">
+      <c r="P109" t="s">
         <v>43</v>
-      </c>
-      <c r="M109" t="s">
-        <v>40</v>
-      </c>
-      <c r="N109" t="s">
-        <v>38</v>
-      </c>
-      <c r="O109" t="s">
-        <v>40</v>
-      </c>
-      <c r="P109" t="s">
-        <v>4</v>
       </c>
       <c r="Q109">
         <f t="shared" si="10"/>
@@ -5414,13 +5428,13 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>43478</v>
-      </c>
-      <c r="B110" s="3">
+      <c r="A110" s="3">
         <f t="shared" si="8"/>
         <v>109</v>
       </c>
+      <c r="B110" s="1">
+        <v>43478</v>
+      </c>
       <c r="C110">
         <v>7</v>
       </c>
@@ -5439,29 +5453,29 @@
       <c r="H110" t="s">
         <v>20</v>
       </c>
-      <c r="I110">
+      <c r="I110" t="s">
+        <v>40</v>
+      </c>
+      <c r="J110" t="s">
+        <v>38</v>
+      </c>
+      <c r="K110" t="s">
+        <v>40</v>
+      </c>
+      <c r="L110" t="s">
+        <v>4</v>
+      </c>
+      <c r="M110">
         <v>12</v>
       </c>
-      <c r="J110">
+      <c r="N110">
         <v>15</v>
       </c>
-      <c r="K110">
+      <c r="O110">
         <v>6787</v>
       </c>
-      <c r="L110" t="s">
+      <c r="P110" t="s">
         <v>43</v>
-      </c>
-      <c r="M110" t="s">
-        <v>40</v>
-      </c>
-      <c r="N110" t="s">
-        <v>38</v>
-      </c>
-      <c r="O110" t="s">
-        <v>40</v>
-      </c>
-      <c r="P110" t="s">
-        <v>4</v>
       </c>
       <c r="Q110">
         <f t="shared" si="10"/>
@@ -5477,13 +5491,13 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>43478</v>
-      </c>
-      <c r="B111" s="3">
+      <c r="A111" s="3">
         <f t="shared" si="8"/>
         <v>110</v>
       </c>
+      <c r="B111" s="1">
+        <v>43478</v>
+      </c>
       <c r="C111">
         <v>8</v>
       </c>
@@ -5502,29 +5516,29 @@
       <c r="H111" t="s">
         <v>20</v>
       </c>
-      <c r="I111">
+      <c r="I111" t="s">
+        <v>40</v>
+      </c>
+      <c r="J111" t="s">
+        <v>38</v>
+      </c>
+      <c r="K111" t="s">
+        <v>40</v>
+      </c>
+      <c r="L111" t="s">
+        <v>4</v>
+      </c>
+      <c r="M111">
         <v>10</v>
       </c>
-      <c r="J111">
+      <c r="N111">
         <v>1</v>
       </c>
-      <c r="K111">
+      <c r="O111">
         <v>5953</v>
       </c>
-      <c r="L111" t="s">
+      <c r="P111" t="s">
         <v>43</v>
-      </c>
-      <c r="M111" t="s">
-        <v>40</v>
-      </c>
-      <c r="N111" t="s">
-        <v>38</v>
-      </c>
-      <c r="O111" t="s">
-        <v>40</v>
-      </c>
-      <c r="P111" t="s">
-        <v>4</v>
       </c>
       <c r="Q111">
         <f t="shared" si="10"/>
@@ -5540,13 +5554,13 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <v>43479</v>
-      </c>
-      <c r="B112" s="3">
+      <c r="A112" s="3">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
+      <c r="B112" s="1">
+        <v>43479</v>
+      </c>
       <c r="C112">
         <v>1</v>
       </c>
@@ -5565,29 +5579,29 @@
       <c r="H112" t="s">
         <v>20</v>
       </c>
-      <c r="I112">
+      <c r="I112" t="s">
+        <v>40</v>
+      </c>
+      <c r="J112" t="s">
+        <v>38</v>
+      </c>
+      <c r="K112" t="s">
+        <v>40</v>
+      </c>
+      <c r="L112" t="s">
+        <v>4</v>
+      </c>
+      <c r="M112">
         <v>16</v>
       </c>
-      <c r="J112">
+      <c r="N112">
         <v>19</v>
       </c>
-      <c r="K112">
+      <c r="O112">
         <v>5569</v>
       </c>
-      <c r="L112" t="s">
+      <c r="P112" t="s">
         <v>43</v>
-      </c>
-      <c r="M112" t="s">
-        <v>40</v>
-      </c>
-      <c r="N112" t="s">
-        <v>38</v>
-      </c>
-      <c r="O112" t="s">
-        <v>40</v>
-      </c>
-      <c r="P112" t="s">
-        <v>4</v>
       </c>
       <c r="Q112">
         <f t="shared" si="10"/>
@@ -5603,13 +5617,13 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <v>43479</v>
-      </c>
-      <c r="B113" s="3">
+      <c r="A113" s="3">
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
+      <c r="B113" s="1">
+        <v>43479</v>
+      </c>
       <c r="C113">
         <v>2</v>
       </c>
@@ -5628,29 +5642,29 @@
       <c r="H113" t="s">
         <v>20</v>
       </c>
-      <c r="I113">
+      <c r="I113" t="s">
+        <v>40</v>
+      </c>
+      <c r="J113" t="s">
+        <v>38</v>
+      </c>
+      <c r="K113" t="s">
+        <v>40</v>
+      </c>
+      <c r="L113" t="s">
+        <v>4</v>
+      </c>
+      <c r="M113">
         <v>11</v>
       </c>
-      <c r="J113">
+      <c r="N113">
         <v>16</v>
       </c>
-      <c r="K113">
+      <c r="O113">
         <v>6199</v>
       </c>
-      <c r="L113" t="s">
+      <c r="P113" t="s">
         <v>47</v>
-      </c>
-      <c r="M113" t="s">
-        <v>40</v>
-      </c>
-      <c r="N113" t="s">
-        <v>38</v>
-      </c>
-      <c r="O113" t="s">
-        <v>40</v>
-      </c>
-      <c r="P113" t="s">
-        <v>4</v>
       </c>
       <c r="Q113">
         <f t="shared" si="10"/>
@@ -5666,13 +5680,13 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>43480</v>
-      </c>
-      <c r="B114" s="3">
+      <c r="A114" s="3">
         <f t="shared" si="8"/>
         <v>113</v>
       </c>
+      <c r="B114" s="1">
+        <v>43480</v>
+      </c>
       <c r="C114">
         <v>1</v>
       </c>
@@ -5691,29 +5705,29 @@
       <c r="H114" t="s">
         <v>20</v>
       </c>
-      <c r="I114">
+      <c r="I114" t="s">
+        <v>40</v>
+      </c>
+      <c r="J114" t="s">
+        <v>38</v>
+      </c>
+      <c r="K114" t="s">
+        <v>40</v>
+      </c>
+      <c r="L114" t="s">
+        <v>4</v>
+      </c>
+      <c r="M114">
         <v>5</v>
       </c>
-      <c r="J114">
+      <c r="N114">
         <v>16</v>
       </c>
-      <c r="K114">
+      <c r="O114">
         <v>7830</v>
       </c>
-      <c r="L114" t="s">
+      <c r="P114" t="s">
         <v>47</v>
-      </c>
-      <c r="M114" t="s">
-        <v>40</v>
-      </c>
-      <c r="N114" t="s">
-        <v>38</v>
-      </c>
-      <c r="O114" t="s">
-        <v>40</v>
-      </c>
-      <c r="P114" t="s">
-        <v>4</v>
       </c>
       <c r="Q114">
         <f t="shared" si="10"/>
@@ -5729,13 +5743,13 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>43480</v>
-      </c>
-      <c r="B115" s="3">
+      <c r="A115" s="3">
         <f t="shared" si="8"/>
         <v>114</v>
       </c>
+      <c r="B115" s="1">
+        <v>43480</v>
+      </c>
       <c r="C115">
         <v>2</v>
       </c>
@@ -5754,29 +5768,29 @@
       <c r="H115" t="s">
         <v>20</v>
       </c>
-      <c r="I115">
+      <c r="I115" t="s">
+        <v>40</v>
+      </c>
+      <c r="J115" t="s">
+        <v>38</v>
+      </c>
+      <c r="K115" t="s">
+        <v>40</v>
+      </c>
+      <c r="L115" t="s">
+        <v>4</v>
+      </c>
+      <c r="M115">
         <v>16</v>
       </c>
-      <c r="J115">
+      <c r="N115">
         <v>18</v>
       </c>
-      <c r="K115">
+      <c r="O115">
         <v>10850</v>
       </c>
-      <c r="L115" t="s">
+      <c r="P115" t="s">
         <v>47</v>
-      </c>
-      <c r="M115" t="s">
-        <v>40</v>
-      </c>
-      <c r="N115" t="s">
-        <v>38</v>
-      </c>
-      <c r="O115" t="s">
-        <v>40</v>
-      </c>
-      <c r="P115" t="s">
-        <v>4</v>
       </c>
       <c r="Q115">
         <f t="shared" si="10"/>
@@ -5792,13 +5806,13 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>43481</v>
-      </c>
-      <c r="B116" s="3">
+      <c r="A116" s="3">
         <f t="shared" si="8"/>
         <v>115</v>
       </c>
+      <c r="B116" s="1">
+        <v>43481</v>
+      </c>
       <c r="C116">
         <v>1</v>
       </c>
@@ -5817,29 +5831,29 @@
       <c r="H116" t="s">
         <v>20</v>
       </c>
-      <c r="I116">
+      <c r="I116" t="s">
+        <v>40</v>
+      </c>
+      <c r="J116" t="s">
+        <v>38</v>
+      </c>
+      <c r="K116" t="s">
+        <v>40</v>
+      </c>
+      <c r="L116" t="s">
+        <v>4</v>
+      </c>
+      <c r="M116">
         <v>2</v>
       </c>
-      <c r="J116">
+      <c r="N116">
         <v>4</v>
       </c>
-      <c r="K116">
+      <c r="O116">
         <v>6078</v>
       </c>
-      <c r="L116" t="s">
+      <c r="P116" t="s">
         <v>43</v>
-      </c>
-      <c r="M116" t="s">
-        <v>40</v>
-      </c>
-      <c r="N116" t="s">
-        <v>38</v>
-      </c>
-      <c r="O116" t="s">
-        <v>40</v>
-      </c>
-      <c r="P116" t="s">
-        <v>4</v>
       </c>
       <c r="Q116">
         <f t="shared" si="10"/>
@@ -5855,13 +5869,13 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
-        <v>43481</v>
-      </c>
-      <c r="B117" s="3">
+      <c r="A117" s="3">
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
+      <c r="B117" s="1">
+        <v>43481</v>
+      </c>
       <c r="C117">
         <v>2</v>
       </c>
@@ -5880,29 +5894,29 @@
       <c r="H117" t="s">
         <v>20</v>
       </c>
-      <c r="I117">
+      <c r="I117" t="s">
+        <v>40</v>
+      </c>
+      <c r="J117" t="s">
+        <v>38</v>
+      </c>
+      <c r="K117" t="s">
+        <v>40</v>
+      </c>
+      <c r="L117" t="s">
+        <v>4</v>
+      </c>
+      <c r="M117">
         <v>11</v>
       </c>
-      <c r="J117">
+      <c r="N117">
         <v>16</v>
       </c>
-      <c r="K117">
+      <c r="O117">
         <v>8977</v>
       </c>
-      <c r="L117" t="s">
+      <c r="P117" t="s">
         <v>43</v>
-      </c>
-      <c r="M117" t="s">
-        <v>40</v>
-      </c>
-      <c r="N117" t="s">
-        <v>38</v>
-      </c>
-      <c r="O117" t="s">
-        <v>40</v>
-      </c>
-      <c r="P117" t="s">
-        <v>4</v>
       </c>
       <c r="Q117">
         <f t="shared" si="10"/>
@@ -5918,13 +5932,13 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>43482</v>
-      </c>
-      <c r="B118" s="3">
+      <c r="A118" s="3">
         <f t="shared" si="8"/>
         <v>117</v>
       </c>
+      <c r="B118" s="1">
+        <v>43482</v>
+      </c>
       <c r="C118">
         <v>1</v>
       </c>
@@ -5943,29 +5957,29 @@
       <c r="H118" t="s">
         <v>20</v>
       </c>
-      <c r="I118">
+      <c r="I118" t="s">
+        <v>40</v>
+      </c>
+      <c r="J118" t="s">
+        <v>38</v>
+      </c>
+      <c r="K118" t="s">
+        <v>40</v>
+      </c>
+      <c r="L118" t="s">
+        <v>4</v>
+      </c>
+      <c r="M118">
         <v>5</v>
       </c>
-      <c r="J118">
+      <c r="N118">
         <v>7</v>
       </c>
-      <c r="K118">
+      <c r="O118">
         <v>5116</v>
       </c>
-      <c r="L118" t="s">
+      <c r="P118" t="s">
         <v>47</v>
-      </c>
-      <c r="M118" t="s">
-        <v>40</v>
-      </c>
-      <c r="N118" t="s">
-        <v>38</v>
-      </c>
-      <c r="O118" t="s">
-        <v>40</v>
-      </c>
-      <c r="P118" t="s">
-        <v>4</v>
       </c>
       <c r="Q118">
         <f t="shared" si="10"/>
@@ -5981,13 +5995,13 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
-        <v>43482</v>
-      </c>
-      <c r="B119" s="3">
+      <c r="A119" s="3">
         <f t="shared" si="8"/>
         <v>118</v>
       </c>
+      <c r="B119" s="1">
+        <v>43482</v>
+      </c>
       <c r="C119">
         <v>2</v>
       </c>
@@ -6006,29 +6020,29 @@
       <c r="H119" t="s">
         <v>20</v>
       </c>
-      <c r="I119">
+      <c r="I119" t="s">
+        <v>40</v>
+      </c>
+      <c r="J119" t="s">
+        <v>38</v>
+      </c>
+      <c r="K119" t="s">
+        <v>40</v>
+      </c>
+      <c r="L119" t="s">
+        <v>4</v>
+      </c>
+      <c r="M119">
         <v>5</v>
       </c>
-      <c r="J119">
+      <c r="N119">
         <v>6</v>
       </c>
-      <c r="K119">
+      <c r="O119">
         <v>7594</v>
       </c>
-      <c r="L119" t="s">
+      <c r="P119" t="s">
         <v>47</v>
-      </c>
-      <c r="M119" t="s">
-        <v>40</v>
-      </c>
-      <c r="N119" t="s">
-        <v>38</v>
-      </c>
-      <c r="O119" t="s">
-        <v>40</v>
-      </c>
-      <c r="P119" t="s">
-        <v>4</v>
       </c>
       <c r="Q119">
         <f t="shared" si="10"/>
@@ -6044,13 +6058,13 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
-        <v>43482</v>
-      </c>
-      <c r="B120" s="3">
+      <c r="A120" s="3">
         <f t="shared" si="8"/>
         <v>119</v>
       </c>
+      <c r="B120" s="1">
+        <v>43482</v>
+      </c>
       <c r="C120">
         <v>3</v>
       </c>
@@ -6069,29 +6083,29 @@
       <c r="H120" t="s">
         <v>20</v>
       </c>
-      <c r="I120">
+      <c r="I120" t="s">
+        <v>40</v>
+      </c>
+      <c r="J120" t="s">
+        <v>38</v>
+      </c>
+      <c r="K120" t="s">
+        <v>40</v>
+      </c>
+      <c r="L120" t="s">
+        <v>4</v>
+      </c>
+      <c r="M120">
         <v>9</v>
       </c>
-      <c r="J120">
+      <c r="N120">
         <v>6</v>
       </c>
-      <c r="K120">
+      <c r="O120">
         <v>5197</v>
       </c>
-      <c r="L120" t="s">
+      <c r="P120" t="s">
         <v>43</v>
-      </c>
-      <c r="M120" t="s">
-        <v>40</v>
-      </c>
-      <c r="N120" t="s">
-        <v>38</v>
-      </c>
-      <c r="O120" t="s">
-        <v>40</v>
-      </c>
-      <c r="P120" t="s">
-        <v>4</v>
       </c>
       <c r="Q120">
         <f t="shared" si="10"/>
@@ -6107,13 +6121,13 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
-        <v>43482</v>
-      </c>
-      <c r="B121" s="3">
+      <c r="A121" s="3">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
+      <c r="B121" s="1">
+        <v>43482</v>
+      </c>
       <c r="C121">
         <v>4</v>
       </c>
@@ -6132,29 +6146,29 @@
       <c r="H121" t="s">
         <v>20</v>
       </c>
-      <c r="I121">
+      <c r="I121" t="s">
+        <v>40</v>
+      </c>
+      <c r="J121" t="s">
+        <v>38</v>
+      </c>
+      <c r="K121" t="s">
+        <v>40</v>
+      </c>
+      <c r="L121" t="s">
+        <v>4</v>
+      </c>
+      <c r="M121">
         <v>1</v>
       </c>
-      <c r="J121">
+      <c r="N121">
         <v>9</v>
       </c>
-      <c r="K121">
+      <c r="O121">
         <v>1902</v>
       </c>
-      <c r="L121" t="s">
+      <c r="P121" t="s">
         <v>47</v>
-      </c>
-      <c r="M121" t="s">
-        <v>40</v>
-      </c>
-      <c r="N121" t="s">
-        <v>38</v>
-      </c>
-      <c r="O121" t="s">
-        <v>40</v>
-      </c>
-      <c r="P121" t="s">
-        <v>4</v>
       </c>
       <c r="Q121">
         <f t="shared" si="10"/>
@@ -6170,63 +6184,243 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B122" s="3">
+      <c r="A122" s="3">
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
+      <c r="B122" s="1">
+        <v>43484</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>50</v>
+      </c>
+      <c r="E122" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" t="s">
+        <v>46</v>
+      </c>
+      <c r="G122" t="s">
+        <v>28</v>
+      </c>
+      <c r="H122" t="s">
+        <v>52</v>
+      </c>
+      <c r="I122" t="s">
+        <v>40</v>
+      </c>
+      <c r="J122" t="s">
+        <v>40</v>
+      </c>
+      <c r="K122" t="s">
+        <v>38</v>
+      </c>
+      <c r="L122" t="s">
+        <v>51</v>
+      </c>
+      <c r="M122">
+        <v>7</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122">
+        <v>3316</v>
+      </c>
+      <c r="P122" t="s">
+        <v>43</v>
+      </c>
       <c r="Q122">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R122">
         <f t="shared" si="9"/>
-        <v>-279</v>
-      </c>
-      <c r="S122" s="3" t="e">
+        <v>-276</v>
+      </c>
+      <c r="S122" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B123" s="3">
+      <c r="A123" s="3">
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
+      <c r="B123" s="1">
+        <v>43484</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>50</v>
+      </c>
+      <c r="E123" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" t="s">
+        <v>46</v>
+      </c>
+      <c r="G123" t="s">
+        <v>28</v>
+      </c>
+      <c r="H123" t="s">
+        <v>52</v>
+      </c>
+      <c r="I123" t="s">
+        <v>40</v>
+      </c>
+      <c r="J123" t="s">
+        <v>40</v>
+      </c>
+      <c r="K123" t="s">
+        <v>38</v>
+      </c>
+      <c r="L123" t="s">
+        <v>51</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123">
+        <v>4711</v>
+      </c>
+      <c r="P123" t="s">
+        <v>43</v>
+      </c>
       <c r="Q123">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R123">
         <f t="shared" si="9"/>
         <v>-279</v>
       </c>
-      <c r="S123" s="3" t="e">
+      <c r="S123" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B124" s="3">
+      <c r="A124" s="3">
         <f t="shared" si="8"/>
         <v>123</v>
       </c>
+      <c r="B124" s="1">
+        <v>43484</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>50</v>
+      </c>
+      <c r="E124" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" t="s">
+        <v>46</v>
+      </c>
+      <c r="G124" t="s">
+        <v>28</v>
+      </c>
+      <c r="H124" t="s">
+        <v>52</v>
+      </c>
+      <c r="I124" t="s">
+        <v>40</v>
+      </c>
+      <c r="J124" t="s">
+        <v>40</v>
+      </c>
+      <c r="K124" t="s">
+        <v>38</v>
+      </c>
+      <c r="L124" t="s">
+        <v>51</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>6</v>
+      </c>
+      <c r="O124">
+        <v>4765</v>
+      </c>
+      <c r="P124" t="s">
+        <v>43</v>
+      </c>
       <c r="Q124">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="R124">
         <f t="shared" si="9"/>
-        <v>-279</v>
-      </c>
-      <c r="S124" s="3" t="e">
+        <v>-283</v>
+      </c>
+      <c r="S124" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B125" s="3">
+      <c r="A125" s="3">
         <f t="shared" si="8"/>
         <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>43484</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>50</v>
+      </c>
+      <c r="E125" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" t="s">
+        <v>46</v>
+      </c>
+      <c r="G125" t="s">
+        <v>28</v>
+      </c>
+      <c r="H125" t="s">
+        <v>52</v>
+      </c>
+      <c r="I125" t="s">
+        <v>40</v>
+      </c>
+      <c r="J125" t="s">
+        <v>40</v>
+      </c>
+      <c r="K125" t="s">
+        <v>38</v>
+      </c>
+      <c r="L125" t="s">
+        <v>51</v>
+      </c>
+      <c r="M125">
+        <v>8</v>
+      </c>
+      <c r="N125">
+        <v>8</v>
+      </c>
+      <c r="O125">
+        <v>8264</v>
+      </c>
+      <c r="P125" t="s">
+        <v>43</v>
       </c>
       <c r="Q125">
         <f t="shared" si="10"/>
@@ -6234,35 +6428,125 @@
       </c>
       <c r="R125">
         <f t="shared" si="9"/>
-        <v>-279</v>
-      </c>
-      <c r="S125" s="3" t="e">
+        <v>-283</v>
+      </c>
+      <c r="S125" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B126" s="3">
+      <c r="A126" s="3">
         <f t="shared" si="8"/>
         <v>125</v>
       </c>
+      <c r="B126" s="1">
+        <v>43484</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>50</v>
+      </c>
+      <c r="E126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" t="s">
+        <v>46</v>
+      </c>
+      <c r="G126" t="s">
+        <v>28</v>
+      </c>
+      <c r="H126" t="s">
+        <v>52</v>
+      </c>
+      <c r="I126" t="s">
+        <v>40</v>
+      </c>
+      <c r="J126" t="s">
+        <v>40</v>
+      </c>
+      <c r="K126" t="s">
+        <v>38</v>
+      </c>
+      <c r="L126" t="s">
+        <v>51</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
+        <v>7</v>
+      </c>
+      <c r="O126">
+        <v>4839</v>
+      </c>
+      <c r="P126" t="s">
+        <v>47</v>
+      </c>
       <c r="Q126">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="R126">
         <f t="shared" si="9"/>
-        <v>-279</v>
-      </c>
-      <c r="S126" s="3" t="e">
+        <v>-287</v>
+      </c>
+      <c r="S126" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B127" s="3">
+      <c r="A127" s="3">
         <f t="shared" si="8"/>
         <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>43484</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>50</v>
+      </c>
+      <c r="E127" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127" t="s">
+        <v>46</v>
+      </c>
+      <c r="G127" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" t="s">
+        <v>52</v>
+      </c>
+      <c r="I127" t="s">
+        <v>40</v>
+      </c>
+      <c r="J127" t="s">
+        <v>40</v>
+      </c>
+      <c r="K127" t="s">
+        <v>38</v>
+      </c>
+      <c r="L127" t="s">
+        <v>51</v>
+      </c>
+      <c r="M127">
+        <v>6</v>
+      </c>
+      <c r="N127">
+        <v>6</v>
+      </c>
+      <c r="O127">
+        <v>4932</v>
+      </c>
+      <c r="P127" t="s">
+        <v>47</v>
       </c>
       <c r="Q127">
         <f t="shared" si="10"/>
@@ -6270,143 +6554,504 @@
       </c>
       <c r="R127">
         <f t="shared" si="9"/>
-        <v>-279</v>
-      </c>
-      <c r="S127" s="3" t="e">
+        <v>-287</v>
+      </c>
+      <c r="S127" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B128" s="3">
+      <c r="A128" s="3">
         <f t="shared" si="8"/>
         <v>127</v>
       </c>
+      <c r="B128" s="1">
+        <v>43484</v>
+      </c>
+      <c r="C128">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>50</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>46</v>
+      </c>
+      <c r="G128" t="s">
+        <v>28</v>
+      </c>
+      <c r="H128" t="s">
+        <v>52</v>
+      </c>
+      <c r="I128" t="s">
+        <v>40</v>
+      </c>
+      <c r="J128" t="s">
+        <v>40</v>
+      </c>
+      <c r="K128" t="s">
+        <v>38</v>
+      </c>
+      <c r="L128" t="s">
+        <v>51</v>
+      </c>
+      <c r="M128">
+        <v>6</v>
+      </c>
+      <c r="N128">
+        <v>7</v>
+      </c>
+      <c r="O128">
+        <v>4558</v>
+      </c>
+      <c r="P128" t="s">
+        <v>47</v>
+      </c>
       <c r="Q128">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R128">
         <f t="shared" si="9"/>
-        <v>-279</v>
-      </c>
-      <c r="S128" s="3" t="e">
+        <v>-288</v>
+      </c>
+      <c r="S128" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="129" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B129" s="3">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
+      <c r="B129" s="1">
+        <v>43484</v>
+      </c>
+      <c r="C129">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>50</v>
+      </c>
+      <c r="E129" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" t="s">
+        <v>46</v>
+      </c>
+      <c r="G129" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" t="s">
+        <v>52</v>
+      </c>
+      <c r="I129" t="s">
+        <v>40</v>
+      </c>
+      <c r="J129" t="s">
+        <v>40</v>
+      </c>
+      <c r="K129" t="s">
+        <v>38</v>
+      </c>
+      <c r="L129" t="s">
+        <v>51</v>
+      </c>
+      <c r="M129">
+        <v>9</v>
+      </c>
+      <c r="N129">
+        <v>12</v>
+      </c>
+      <c r="O129">
+        <v>10430</v>
+      </c>
+      <c r="P129" t="s">
+        <v>47</v>
+      </c>
       <c r="Q129">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R129">
         <f t="shared" si="9"/>
-        <v>-279</v>
-      </c>
-      <c r="S129" s="3" t="e">
+        <v>-291</v>
+      </c>
+      <c r="S129" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="130" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B130" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
+      <c r="B130" s="1">
+        <v>43484</v>
+      </c>
+      <c r="C130">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>50</v>
+      </c>
+      <c r="E130" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130" t="s">
+        <v>46</v>
+      </c>
+      <c r="G130" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" t="s">
+        <v>52</v>
+      </c>
+      <c r="I130" t="s">
+        <v>40</v>
+      </c>
+      <c r="J130" t="s">
+        <v>40</v>
+      </c>
+      <c r="K130" t="s">
+        <v>38</v>
+      </c>
+      <c r="L130" t="s">
+        <v>51</v>
+      </c>
+      <c r="M130">
+        <v>11</v>
+      </c>
+      <c r="N130">
+        <v>6</v>
+      </c>
+      <c r="O130">
+        <v>6542</v>
+      </c>
+      <c r="P130" t="s">
+        <v>47</v>
+      </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q161" si="12">I130-J130</f>
-        <v>0</v>
+        <f t="shared" ref="Q130:Q161" si="12">M130-N130</f>
+        <v>5</v>
       </c>
       <c r="R130">
         <f t="shared" si="9"/>
-        <v>-279</v>
-      </c>
-      <c r="S130" s="3" t="e">
+        <v>-286</v>
+      </c>
+      <c r="S130" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="131" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B131" s="3">
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
+      <c r="B131" s="1">
+        <v>43485</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>50</v>
+      </c>
+      <c r="E131" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" t="s">
+        <v>46</v>
+      </c>
+      <c r="G131" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I131" t="s">
+        <v>40</v>
+      </c>
+      <c r="J131" t="s">
+        <v>40</v>
+      </c>
+      <c r="K131" t="s">
+        <v>38</v>
+      </c>
+      <c r="L131" t="s">
+        <v>51</v>
+      </c>
+      <c r="M131">
+        <v>9</v>
+      </c>
+      <c r="N131">
+        <v>5</v>
+      </c>
+      <c r="O131">
+        <v>6395</v>
+      </c>
+      <c r="P131" t="s">
+        <v>43</v>
+      </c>
       <c r="Q131">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R131">
         <f t="shared" si="9"/>
-        <v>-279</v>
-      </c>
-      <c r="S131" s="3" t="e">
+        <v>-282</v>
+      </c>
+      <c r="S131" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="132" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B132" s="3">
-        <f t="shared" ref="B132:B179" si="13">1+B131</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <f t="shared" ref="A132:A179" si="13">1+A131</f>
         <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>43485</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>50</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>46</v>
+      </c>
+      <c r="G132" t="s">
+        <v>28</v>
+      </c>
+      <c r="H132" t="s">
+        <v>52</v>
+      </c>
+      <c r="I132" t="s">
+        <v>40</v>
+      </c>
+      <c r="J132" t="s">
+        <v>40</v>
+      </c>
+      <c r="K132" t="s">
+        <v>38</v>
+      </c>
+      <c r="L132" t="s">
+        <v>51</v>
+      </c>
+      <c r="M132">
+        <v>7</v>
+      </c>
+      <c r="N132">
+        <v>14</v>
+      </c>
+      <c r="O132">
+        <v>5744</v>
+      </c>
+      <c r="P132" t="s">
+        <v>47</v>
       </c>
       <c r="Q132">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="R132">
         <f t="shared" ref="R132:R179" si="14">Q132+R131</f>
-        <v>-279</v>
-      </c>
-      <c r="S132" s="3" t="e">
+        <v>-289</v>
+      </c>
+      <c r="S132" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="133" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B133" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
         <f t="shared" si="13"/>
         <v>132</v>
       </c>
+      <c r="B133" s="1">
+        <v>43485</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s">
+        <v>42</v>
+      </c>
+      <c r="G133" t="s">
+        <v>30</v>
+      </c>
+      <c r="H133" t="s">
+        <v>53</v>
+      </c>
+      <c r="I133" t="s">
+        <v>40</v>
+      </c>
+      <c r="J133" t="s">
+        <v>40</v>
+      </c>
+      <c r="K133" t="s">
+        <v>38</v>
+      </c>
+      <c r="L133" t="s">
+        <v>51</v>
+      </c>
+      <c r="M133">
+        <v>5</v>
+      </c>
+      <c r="N133">
+        <v>6</v>
+      </c>
+      <c r="O133">
+        <v>2387</v>
+      </c>
+      <c r="P133" t="s">
+        <v>43</v>
+      </c>
       <c r="Q133">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R133">
         <f t="shared" si="14"/>
-        <v>-279</v>
-      </c>
-      <c r="S133" s="3" t="e">
+        <v>-290</v>
+      </c>
+      <c r="S133" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="134" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B134" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
         <f t="shared" si="13"/>
         <v>133</v>
       </c>
+      <c r="B134" s="1">
+        <v>43485</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134" t="s">
+        <v>53</v>
+      </c>
+      <c r="I134" t="s">
+        <v>40</v>
+      </c>
+      <c r="J134" t="s">
+        <v>40</v>
+      </c>
+      <c r="K134" t="s">
+        <v>38</v>
+      </c>
+      <c r="L134" t="s">
+        <v>51</v>
+      </c>
+      <c r="M134">
+        <v>12</v>
+      </c>
+      <c r="N134">
+        <v>18</v>
+      </c>
+      <c r="O134">
+        <f>10668-O133</f>
+        <v>8281</v>
+      </c>
+      <c r="P134" t="s">
+        <v>47</v>
+      </c>
       <c r="Q134">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="R134">
         <f t="shared" si="14"/>
-        <v>-279</v>
-      </c>
-      <c r="S134" s="3" t="e">
-        <f t="shared" ref="S134:S179" si="15">I134/J134</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="135" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B135" s="3">
+        <v>-296</v>
+      </c>
+      <c r="S134" s="3">
+        <f t="shared" ref="S134:S179" si="15">M134/N134</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
         <f t="shared" si="13"/>
         <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>43485</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>21</v>
+      </c>
+      <c r="E135" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" t="s">
+        <v>46</v>
+      </c>
+      <c r="G135" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" t="s">
+        <v>53</v>
+      </c>
+      <c r="I135" t="s">
+        <v>40</v>
+      </c>
+      <c r="J135" t="s">
+        <v>40</v>
+      </c>
+      <c r="K135" t="s">
+        <v>38</v>
+      </c>
+      <c r="L135" t="s">
+        <v>51</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135">
+        <v>1833</v>
+      </c>
+      <c r="P135" t="s">
+        <v>47</v>
       </c>
       <c r="Q135">
         <f t="shared" si="12"/>
@@ -6414,53 +7059,190 @@
       </c>
       <c r="R135">
         <f t="shared" si="14"/>
-        <v>-279</v>
-      </c>
-      <c r="S135" s="3" t="e">
+        <v>-296</v>
+      </c>
+      <c r="S135" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="136" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
         <f t="shared" si="13"/>
         <v>135</v>
       </c>
+      <c r="B136" s="1">
+        <v>43487</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" t="s">
+        <v>42</v>
+      </c>
+      <c r="G136" t="s">
+        <v>31</v>
+      </c>
+      <c r="H136" t="s">
+        <v>33</v>
+      </c>
+      <c r="I136" t="s">
+        <v>38</v>
+      </c>
+      <c r="J136" t="s">
+        <v>38</v>
+      </c>
+      <c r="K136" t="s">
+        <v>40</v>
+      </c>
+      <c r="L136" t="s">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>4</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136">
+        <v>904</v>
+      </c>
+      <c r="P136" t="s">
+        <v>47</v>
+      </c>
       <c r="Q136">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R136">
         <f t="shared" si="14"/>
-        <v>-279</v>
-      </c>
-      <c r="S136" s="3" t="e">
+        <v>-295</v>
+      </c>
+      <c r="S136" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="137" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B137" s="3">
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
         <f t="shared" si="13"/>
         <v>136</v>
       </c>
+      <c r="B137" s="1">
+        <v>43487</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" t="s">
+        <v>46</v>
+      </c>
+      <c r="G137" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137" t="s">
+        <v>33</v>
+      </c>
+      <c r="I137" t="s">
+        <v>40</v>
+      </c>
+      <c r="J137" t="s">
+        <v>38</v>
+      </c>
+      <c r="K137" t="s">
+        <v>40</v>
+      </c>
+      <c r="L137" t="s">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>6</v>
+      </c>
+      <c r="N137">
+        <v>10</v>
+      </c>
+      <c r="O137">
+        <f>3992-O136</f>
+        <v>3088</v>
+      </c>
+      <c r="P137" t="s">
+        <v>47</v>
+      </c>
       <c r="Q137">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="R137">
         <f t="shared" si="14"/>
-        <v>-279</v>
-      </c>
-      <c r="S137" s="3" t="e">
+        <v>-299</v>
+      </c>
+      <c r="S137" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="138" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B138" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
         <f t="shared" si="13"/>
         <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>43487</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138" t="s">
+        <v>54</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" t="s">
+        <v>46</v>
+      </c>
+      <c r="G138" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" t="s">
+        <v>33</v>
+      </c>
+      <c r="I138" t="s">
+        <v>40</v>
+      </c>
+      <c r="J138" t="s">
+        <v>38</v>
+      </c>
+      <c r="K138" t="s">
+        <v>40</v>
+      </c>
+      <c r="L138" t="s">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <f>4132-O136-O137</f>
+        <v>140</v>
+      </c>
+      <c r="P138" t="s">
+        <v>47</v>
       </c>
       <c r="Q138">
         <f t="shared" si="12"/>
@@ -6468,17 +7250,62 @@
       </c>
       <c r="R138">
         <f t="shared" si="14"/>
-        <v>-279</v>
-      </c>
-      <c r="S138" s="3" t="e">
+        <v>-299</v>
+      </c>
+      <c r="S138" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="139" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
         <f t="shared" si="13"/>
         <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <v>43487</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" t="s">
+        <v>49</v>
+      </c>
+      <c r="G139" t="s">
+        <v>28</v>
+      </c>
+      <c r="H139" t="s">
+        <v>52</v>
+      </c>
+      <c r="I139" t="s">
+        <v>40</v>
+      </c>
+      <c r="J139" t="s">
+        <v>38</v>
+      </c>
+      <c r="K139" t="s">
+        <v>40</v>
+      </c>
+      <c r="L139" t="s">
+        <v>51</v>
+      </c>
+      <c r="M139">
+        <v>5</v>
+      </c>
+      <c r="N139">
+        <v>5</v>
+      </c>
+      <c r="O139">
+        <v>2922</v>
+      </c>
+      <c r="P139" t="s">
+        <v>47</v>
       </c>
       <c r="Q139">
         <f t="shared" si="12"/>
@@ -6486,177 +7313,363 @@
       </c>
       <c r="R139">
         <f t="shared" si="14"/>
-        <v>-279</v>
-      </c>
-      <c r="S139" s="3" t="e">
+        <v>-299</v>
+      </c>
+      <c r="S139" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="140" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
         <f t="shared" si="13"/>
         <v>139</v>
       </c>
+      <c r="B140" s="1">
+        <v>43487</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" t="s">
+        <v>49</v>
+      </c>
+      <c r="G140" t="s">
+        <v>30</v>
+      </c>
+      <c r="H140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" t="s">
+        <v>40</v>
+      </c>
+      <c r="J140" t="s">
+        <v>38</v>
+      </c>
+      <c r="K140" t="s">
+        <v>40</v>
+      </c>
+      <c r="L140" t="s">
+        <v>51</v>
+      </c>
+      <c r="M140">
+        <v>14</v>
+      </c>
+      <c r="N140">
+        <v>10</v>
+      </c>
+      <c r="O140">
+        <f>10855-O139</f>
+        <v>7933</v>
+      </c>
+      <c r="P140" t="s">
+        <v>47</v>
+      </c>
       <c r="Q140">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R140">
         <f t="shared" si="14"/>
-        <v>-279</v>
-      </c>
-      <c r="S140" s="3" t="e">
+        <v>-295</v>
+      </c>
+      <c r="S140" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="141" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B141" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
+      <c r="B141" s="1">
+        <v>43488</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" t="s">
+        <v>17</v>
+      </c>
+      <c r="F141" t="s">
+        <v>46</v>
+      </c>
+      <c r="G141" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141" t="s">
+        <v>33</v>
+      </c>
+      <c r="I141" t="s">
+        <v>40</v>
+      </c>
+      <c r="J141" t="s">
+        <v>38</v>
+      </c>
+      <c r="K141" t="s">
+        <v>40</v>
+      </c>
+      <c r="L141" t="s">
+        <v>4</v>
+      </c>
+      <c r="M141">
+        <v>7</v>
+      </c>
+      <c r="N141">
+        <v>12</v>
+      </c>
+      <c r="O141">
+        <v>9866</v>
+      </c>
+      <c r="P141" t="s">
+        <v>47</v>
+      </c>
       <c r="Q141">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="R141">
         <f t="shared" si="14"/>
-        <v>-279</v>
-      </c>
-      <c r="S141" s="3" t="e">
+        <v>-300</v>
+      </c>
+      <c r="S141" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="142" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B142" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
         <f t="shared" si="13"/>
         <v>141</v>
       </c>
+      <c r="B142" s="1">
+        <v>43488</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>46</v>
+      </c>
+      <c r="G142" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" t="s">
+        <v>33</v>
+      </c>
+      <c r="I142" t="s">
+        <v>40</v>
+      </c>
+      <c r="J142" t="s">
+        <v>38</v>
+      </c>
+      <c r="K142" t="s">
+        <v>40</v>
+      </c>
+      <c r="L142" t="s">
+        <v>4</v>
+      </c>
+      <c r="M142">
+        <v>17</v>
+      </c>
+      <c r="N142">
+        <v>12</v>
+      </c>
+      <c r="O142">
+        <v>9355</v>
+      </c>
+      <c r="P142" t="s">
+        <v>47</v>
+      </c>
       <c r="Q142">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R142">
         <f t="shared" si="14"/>
-        <v>-279</v>
-      </c>
-      <c r="S142" s="3" t="e">
+        <v>-295</v>
+      </c>
+      <c r="S142" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="143" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B143" s="3">
+        <v>1.4166666666666667</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
         <f t="shared" si="13"/>
         <v>142</v>
       </c>
+      <c r="B143" s="1">
+        <v>43489</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>49</v>
+      </c>
+      <c r="G143" t="s">
+        <v>31</v>
+      </c>
+      <c r="H143" t="s">
+        <v>33</v>
+      </c>
+      <c r="I143" t="s">
+        <v>40</v>
+      </c>
+      <c r="J143" t="s">
+        <v>40</v>
+      </c>
+      <c r="K143" t="s">
+        <v>40</v>
+      </c>
+      <c r="L143" t="s">
+        <v>4</v>
+      </c>
+      <c r="M143">
+        <v>12</v>
+      </c>
+      <c r="N143">
+        <v>8</v>
+      </c>
+      <c r="O143">
+        <v>4238</v>
+      </c>
+      <c r="P143" t="s">
+        <v>47</v>
+      </c>
       <c r="Q143">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R143">
         <f t="shared" si="14"/>
-        <v>-279</v>
-      </c>
-      <c r="S143" s="3" t="e">
+        <v>-291</v>
+      </c>
+      <c r="S143" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="144" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B144" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
         <f t="shared" si="13"/>
         <v>143</v>
       </c>
+      <c r="B144" s="1"/>
       <c r="Q144">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R144">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S144" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="145" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B145" s="3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
         <f t="shared" si="13"/>
         <v>144</v>
       </c>
+      <c r="B145" s="1"/>
       <c r="Q145">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R145">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S145" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="146" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B146" s="3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
         <f t="shared" si="13"/>
         <v>145</v>
       </c>
+      <c r="B146" s="1"/>
       <c r="Q146">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R146">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S146" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="147" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B147" s="3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
         <f t="shared" si="13"/>
         <v>146</v>
       </c>
+      <c r="B147" s="1"/>
       <c r="Q147">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R147">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S147" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="148" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B148" s="3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
         <f t="shared" si="13"/>
         <v>147</v>
       </c>
+      <c r="B148" s="1"/>
       <c r="Q148">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R148">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S148" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="149" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B149" s="3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
         <f t="shared" si="13"/>
         <v>148</v>
       </c>
@@ -6666,15 +7679,15 @@
       </c>
       <c r="R149">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S149" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="150" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B150" s="3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
         <f t="shared" si="13"/>
         <v>149</v>
       </c>
@@ -6684,15 +7697,15 @@
       </c>
       <c r="R150">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S150" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="151" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B151" s="3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
@@ -6702,15 +7715,15 @@
       </c>
       <c r="R151">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S151" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="152" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B152" s="3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
         <f t="shared" si="13"/>
         <v>151</v>
       </c>
@@ -6720,15 +7733,15 @@
       </c>
       <c r="R152">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S152" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="153" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B153" s="3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
         <f t="shared" si="13"/>
         <v>152</v>
       </c>
@@ -6738,15 +7751,15 @@
       </c>
       <c r="R153">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S153" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B154" s="3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
         <f t="shared" si="13"/>
         <v>153</v>
       </c>
@@ -6756,15 +7769,15 @@
       </c>
       <c r="R154">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S154" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B155" s="3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
         <f t="shared" si="13"/>
         <v>154</v>
       </c>
@@ -6774,15 +7787,15 @@
       </c>
       <c r="R155">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S155" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="156" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B156" s="3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
         <f t="shared" si="13"/>
         <v>155</v>
       </c>
@@ -6792,15 +7805,15 @@
       </c>
       <c r="R156">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S156" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="157" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B157" s="3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
         <f t="shared" si="13"/>
         <v>156</v>
       </c>
@@ -6810,15 +7823,15 @@
       </c>
       <c r="R157">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S157" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B158" s="3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
         <f t="shared" si="13"/>
         <v>157</v>
       </c>
@@ -6828,15 +7841,15 @@
       </c>
       <c r="R158">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S158" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B159" s="3">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
         <f t="shared" si="13"/>
         <v>158</v>
       </c>
@@ -6846,15 +7859,15 @@
       </c>
       <c r="R159">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S159" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B160" s="3">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
         <f t="shared" si="13"/>
         <v>159</v>
       </c>
@@ -6864,15 +7877,15 @@
       </c>
       <c r="R160">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S160" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="161" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B161" s="3">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
         <f t="shared" si="13"/>
         <v>160</v>
       </c>
@@ -6882,33 +7895,33 @@
       </c>
       <c r="R161">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S161" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="162" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B162" s="3">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
         <f t="shared" si="13"/>
         <v>161</v>
       </c>
       <c r="Q162">
-        <f t="shared" ref="Q162:Q179" si="16">I162-J162</f>
+        <f t="shared" ref="Q162:Q179" si="16">M162-N162</f>
         <v>0</v>
       </c>
       <c r="R162">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S162" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="163" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B163" s="3">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
         <f t="shared" si="13"/>
         <v>162</v>
       </c>
@@ -6918,15 +7931,15 @@
       </c>
       <c r="R163">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S163" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="164" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B164" s="3">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
         <f t="shared" si="13"/>
         <v>163</v>
       </c>
@@ -6936,15 +7949,15 @@
       </c>
       <c r="R164">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S164" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="165" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B165" s="3">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
         <f t="shared" si="13"/>
         <v>164</v>
       </c>
@@ -6954,15 +7967,15 @@
       </c>
       <c r="R165">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S165" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="166" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B166" s="3">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
         <f t="shared" si="13"/>
         <v>165</v>
       </c>
@@ -6972,15 +7985,15 @@
       </c>
       <c r="R166">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S166" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="167" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B167" s="3">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
         <f t="shared" si="13"/>
         <v>166</v>
       </c>
@@ -6990,15 +8003,15 @@
       </c>
       <c r="R167">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S167" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="168" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B168" s="3">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
         <f t="shared" si="13"/>
         <v>167</v>
       </c>
@@ -7008,15 +8021,15 @@
       </c>
       <c r="R168">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S168" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="169" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B169" s="3">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
         <f t="shared" si="13"/>
         <v>168</v>
       </c>
@@ -7026,15 +8039,15 @@
       </c>
       <c r="R169">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S169" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="170" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B170" s="3">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
         <f t="shared" si="13"/>
         <v>169</v>
       </c>
@@ -7044,15 +8057,15 @@
       </c>
       <c r="R170">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S170" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="171" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B171" s="3">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
         <f t="shared" si="13"/>
         <v>170</v>
       </c>
@@ -7062,15 +8075,15 @@
       </c>
       <c r="R171">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S171" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="172" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B172" s="3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
         <f t="shared" si="13"/>
         <v>171</v>
       </c>
@@ -7080,15 +8093,15 @@
       </c>
       <c r="R172">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S172" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="173" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B173" s="3">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
         <f t="shared" si="13"/>
         <v>172</v>
       </c>
@@ -7098,15 +8111,15 @@
       </c>
       <c r="R173">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S173" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="174" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B174" s="3">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
         <f t="shared" si="13"/>
         <v>173</v>
       </c>
@@ -7116,15 +8129,15 @@
       </c>
       <c r="R174">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S174" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="175" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B175" s="3">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
         <f t="shared" si="13"/>
         <v>174</v>
       </c>
@@ -7134,15 +8147,15 @@
       </c>
       <c r="R175">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S175" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="176" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B176" s="3">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
         <f t="shared" si="13"/>
         <v>175</v>
       </c>
@@ -7152,15 +8165,15 @@
       </c>
       <c r="R176">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S176" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="177" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B177" s="3">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
         <f t="shared" si="13"/>
         <v>176</v>
       </c>
@@ -7170,15 +8183,15 @@
       </c>
       <c r="R177">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S177" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="178" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B178" s="3">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
         <f t="shared" si="13"/>
         <v>177</v>
       </c>
@@ -7188,15 +8201,15 @@
       </c>
       <c r="R178">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S178" s="3" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="179" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B179" s="3">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
         <f t="shared" si="13"/>
         <v>178</v>
       </c>
@@ -7206,7 +8219,7 @@
       </c>
       <c r="R179">
         <f t="shared" si="14"/>
-        <v>-279</v>
+        <v>-291</v>
       </c>
       <c r="S179" s="3" t="e">
         <f t="shared" si="15"/>
@@ -7217,4 +8230,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD356A-E907-4D3B-A473-4C3199065706}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Battlefield5.xlsx
+++ b/Battlefield5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Science\BattlefieldV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A346697-E89A-4C9A-B004-229AC9C89AE4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCE7194-867A-4D63-9AA7-9BDF7B9A1824}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{F69A186D-8374-47DD-86A7-853B8690958C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -564,8 +564,8 @@
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B144" sqref="B144:O148"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q155" sqref="Q155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7578,18 +7578,62 @@
         <f t="shared" si="13"/>
         <v>143</v>
       </c>
-      <c r="B144" s="1"/>
+      <c r="B144" s="1">
+        <v>43489</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" t="s">
+        <v>46</v>
+      </c>
+      <c r="G144" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" t="s">
+        <v>33</v>
+      </c>
+      <c r="I144" t="s">
+        <v>38</v>
+      </c>
+      <c r="J144" t="s">
+        <v>40</v>
+      </c>
+      <c r="K144" t="s">
+        <v>40</v>
+      </c>
+      <c r="L144" t="s">
+        <v>4</v>
+      </c>
+      <c r="M144">
+        <v>7</v>
+      </c>
+      <c r="N144">
+        <v>8</v>
+      </c>
+      <c r="O144">
+        <v>5182</v>
+      </c>
+      <c r="P144" t="s">
+        <v>47</v>
+      </c>
       <c r="Q144">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R144">
         <f t="shared" si="14"/>
-        <v>-291</v>
-      </c>
-      <c r="S144" s="3" t="e">
+        <v>-292</v>
+      </c>
+      <c r="S144" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.3">
@@ -7597,18 +7641,62 @@
         <f t="shared" si="13"/>
         <v>144</v>
       </c>
-      <c r="B145" s="1"/>
+      <c r="B145" s="1">
+        <v>43489</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" t="s">
+        <v>46</v>
+      </c>
+      <c r="G145" t="s">
+        <v>31</v>
+      </c>
+      <c r="H145" t="s">
+        <v>33</v>
+      </c>
+      <c r="I145" t="s">
+        <v>40</v>
+      </c>
+      <c r="J145" t="s">
+        <v>40</v>
+      </c>
+      <c r="K145" t="s">
+        <v>40</v>
+      </c>
+      <c r="L145" t="s">
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <v>13</v>
+      </c>
+      <c r="N145">
+        <v>10</v>
+      </c>
+      <c r="O145">
+        <v>6390</v>
+      </c>
+      <c r="P145" t="s">
+        <v>47</v>
+      </c>
       <c r="Q145">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R145">
         <f t="shared" si="14"/>
-        <v>-291</v>
-      </c>
-      <c r="S145" s="3" t="e">
+        <v>-289</v>
+      </c>
+      <c r="S145" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.3">
@@ -7616,18 +7704,62 @@
         <f t="shared" si="13"/>
         <v>145</v>
       </c>
-      <c r="B146" s="1"/>
+      <c r="B146" s="1">
+        <v>43489</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>46</v>
+      </c>
+      <c r="G146" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146" t="s">
+        <v>33</v>
+      </c>
+      <c r="I146" t="s">
+        <v>40</v>
+      </c>
+      <c r="J146" t="s">
+        <v>40</v>
+      </c>
+      <c r="K146" t="s">
+        <v>40</v>
+      </c>
+      <c r="L146" t="s">
+        <v>4</v>
+      </c>
+      <c r="M146">
+        <v>9</v>
+      </c>
+      <c r="N146">
+        <v>11</v>
+      </c>
+      <c r="O146">
+        <v>6782</v>
+      </c>
+      <c r="P146" t="s">
+        <v>47</v>
+      </c>
       <c r="Q146">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R146">
         <f t="shared" si="14"/>
         <v>-291</v>
       </c>
-      <c r="S146" s="3" t="e">
+      <c r="S146" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.3">
@@ -7635,18 +7767,62 @@
         <f t="shared" si="13"/>
         <v>146</v>
       </c>
-      <c r="B147" s="1"/>
+      <c r="B147" s="1">
+        <v>43490</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>50</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>46</v>
+      </c>
+      <c r="G147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H147" t="s">
+        <v>33</v>
+      </c>
+      <c r="I147" t="s">
+        <v>38</v>
+      </c>
+      <c r="J147" t="s">
+        <v>40</v>
+      </c>
+      <c r="K147" t="s">
+        <v>40</v>
+      </c>
+      <c r="L147" t="s">
+        <v>4</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147">
+        <v>1230</v>
+      </c>
+      <c r="P147" t="s">
+        <v>47</v>
+      </c>
       <c r="Q147">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R147">
         <f t="shared" si="14"/>
-        <v>-291</v>
-      </c>
-      <c r="S147" s="3" t="e">
+        <v>-290</v>
+      </c>
+      <c r="S147" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.3">
@@ -7654,18 +7830,62 @@
         <f t="shared" si="13"/>
         <v>147</v>
       </c>
-      <c r="B148" s="1"/>
+      <c r="B148" s="1">
+        <v>43490</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>50</v>
+      </c>
+      <c r="E148" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" t="s">
+        <v>46</v>
+      </c>
+      <c r="G148" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" t="s">
+        <v>33</v>
+      </c>
+      <c r="I148" t="s">
+        <v>40</v>
+      </c>
+      <c r="J148" t="s">
+        <v>40</v>
+      </c>
+      <c r="K148" t="s">
+        <v>40</v>
+      </c>
+      <c r="L148" t="s">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>6</v>
+      </c>
+      <c r="N148">
+        <v>6</v>
+      </c>
+      <c r="O148">
+        <v>4423</v>
+      </c>
+      <c r="P148" t="s">
+        <v>47</v>
+      </c>
       <c r="Q148">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R148">
         <f t="shared" si="14"/>
-        <v>-291</v>
-      </c>
-      <c r="S148" s="3" t="e">
+        <v>-290</v>
+      </c>
+      <c r="S148" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.3">
@@ -7673,17 +7893,62 @@
         <f t="shared" si="13"/>
         <v>148</v>
       </c>
+      <c r="B149" s="1">
+        <v>43490</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>50</v>
+      </c>
+      <c r="E149" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149" t="s">
+        <v>46</v>
+      </c>
+      <c r="G149" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149" t="s">
+        <v>33</v>
+      </c>
+      <c r="I149" t="s">
+        <v>40</v>
+      </c>
+      <c r="J149" t="s">
+        <v>40</v>
+      </c>
+      <c r="K149" t="s">
+        <v>40</v>
+      </c>
+      <c r="L149" t="s">
+        <v>4</v>
+      </c>
+      <c r="M149">
+        <v>5</v>
+      </c>
+      <c r="N149">
+        <v>7</v>
+      </c>
+      <c r="O149">
+        <v>5186</v>
+      </c>
+      <c r="P149" t="s">
+        <v>47</v>
+      </c>
       <c r="Q149">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R149">
         <f t="shared" si="14"/>
-        <v>-291</v>
-      </c>
-      <c r="S149" s="3" t="e">
+        <v>-292</v>
+      </c>
+      <c r="S149" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.3">
@@ -7691,17 +7956,62 @@
         <f t="shared" si="13"/>
         <v>149</v>
       </c>
+      <c r="B150" s="1">
+        <v>43490</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>46</v>
+      </c>
+      <c r="G150" t="s">
+        <v>31</v>
+      </c>
+      <c r="H150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I150" t="s">
+        <v>38</v>
+      </c>
+      <c r="J150" t="s">
+        <v>40</v>
+      </c>
+      <c r="K150" t="s">
+        <v>40</v>
+      </c>
+      <c r="L150" t="s">
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <v>10</v>
+      </c>
+      <c r="N150">
+        <v>7</v>
+      </c>
+      <c r="O150">
+        <v>7427</v>
+      </c>
+      <c r="P150" t="s">
+        <v>43</v>
+      </c>
       <c r="Q150">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R150">
         <f t="shared" si="14"/>
-        <v>-291</v>
-      </c>
-      <c r="S150" s="3" t="e">
+        <v>-289</v>
+      </c>
+      <c r="S150" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.3">
@@ -7709,17 +8019,62 @@
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
+      <c r="B151" s="1">
+        <v>43490</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" t="s">
+        <v>46</v>
+      </c>
+      <c r="G151" t="s">
+        <v>31</v>
+      </c>
+      <c r="H151" t="s">
+        <v>33</v>
+      </c>
+      <c r="I151" t="s">
+        <v>40</v>
+      </c>
+      <c r="J151" t="s">
+        <v>40</v>
+      </c>
+      <c r="K151" t="s">
+        <v>40</v>
+      </c>
+      <c r="L151" t="s">
+        <v>4</v>
+      </c>
+      <c r="M151">
+        <v>23</v>
+      </c>
+      <c r="N151">
+        <v>12</v>
+      </c>
+      <c r="O151">
+        <v>13412</v>
+      </c>
+      <c r="P151" t="s">
+        <v>43</v>
+      </c>
       <c r="Q151">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R151">
         <f t="shared" si="14"/>
-        <v>-291</v>
-      </c>
-      <c r="S151" s="3" t="e">
+        <v>-278</v>
+      </c>
+      <c r="S151" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.9166666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.3">
@@ -7727,17 +8082,62 @@
         <f t="shared" si="13"/>
         <v>151</v>
       </c>
+      <c r="B152" s="1">
+        <v>43490</v>
+      </c>
+      <c r="C152">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>50</v>
+      </c>
+      <c r="E152" t="s">
+        <v>24</v>
+      </c>
+      <c r="F152" t="s">
+        <v>46</v>
+      </c>
+      <c r="G152" t="s">
+        <v>31</v>
+      </c>
+      <c r="H152" t="s">
+        <v>33</v>
+      </c>
+      <c r="I152" t="s">
+        <v>40</v>
+      </c>
+      <c r="J152" t="s">
+        <v>40</v>
+      </c>
+      <c r="K152" t="s">
+        <v>40</v>
+      </c>
+      <c r="L152" t="s">
+        <v>4</v>
+      </c>
+      <c r="M152">
+        <v>6</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152">
+        <v>6803</v>
+      </c>
+      <c r="P152" t="s">
+        <v>43</v>
+      </c>
       <c r="Q152">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R152">
         <f t="shared" si="14"/>
-        <v>-291</v>
-      </c>
-      <c r="S152" s="3" t="e">
+        <v>-274</v>
+      </c>
+      <c r="S152" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.3">
@@ -7745,17 +8145,62 @@
         <f t="shared" si="13"/>
         <v>152</v>
       </c>
+      <c r="B153" s="1">
+        <v>43490</v>
+      </c>
+      <c r="C153">
+        <v>7</v>
+      </c>
+      <c r="D153" t="s">
+        <v>50</v>
+      </c>
+      <c r="E153" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" t="s">
+        <v>46</v>
+      </c>
+      <c r="G153" t="s">
+        <v>31</v>
+      </c>
+      <c r="H153" t="s">
+        <v>33</v>
+      </c>
+      <c r="I153" t="s">
+        <v>40</v>
+      </c>
+      <c r="J153" t="s">
+        <v>40</v>
+      </c>
+      <c r="K153" t="s">
+        <v>40</v>
+      </c>
+      <c r="L153" t="s">
+        <v>4</v>
+      </c>
+      <c r="M153">
+        <v>6</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153">
+        <v>4927</v>
+      </c>
+      <c r="P153" t="s">
+        <v>43</v>
+      </c>
       <c r="Q153">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R153">
         <f t="shared" si="14"/>
-        <v>-291</v>
-      </c>
-      <c r="S153" s="3" t="e">
+        <v>-272</v>
+      </c>
+      <c r="S153" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.3">
@@ -7763,17 +8208,62 @@
         <f t="shared" si="13"/>
         <v>153</v>
       </c>
+      <c r="B154" s="1">
+        <v>43490</v>
+      </c>
+      <c r="C154">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>50</v>
+      </c>
+      <c r="E154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>46</v>
+      </c>
+      <c r="G154" t="s">
+        <v>31</v>
+      </c>
+      <c r="H154" t="s">
+        <v>33</v>
+      </c>
+      <c r="I154" t="s">
+        <v>40</v>
+      </c>
+      <c r="J154" t="s">
+        <v>40</v>
+      </c>
+      <c r="K154" t="s">
+        <v>40</v>
+      </c>
+      <c r="L154" t="s">
+        <v>4</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154">
+        <v>3477</v>
+      </c>
+      <c r="P154" t="s">
+        <v>43</v>
+      </c>
       <c r="Q154">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R154">
         <f t="shared" si="14"/>
-        <v>-291</v>
-      </c>
-      <c r="S154" s="3" t="e">
+        <v>-275</v>
+      </c>
+      <c r="S154" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.3">
@@ -7781,17 +8271,62 @@
         <f t="shared" si="13"/>
         <v>154</v>
       </c>
+      <c r="B155" s="1">
+        <v>43490</v>
+      </c>
+      <c r="C155">
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>46</v>
+      </c>
+      <c r="G155" t="s">
+        <v>31</v>
+      </c>
+      <c r="H155" t="s">
+        <v>33</v>
+      </c>
+      <c r="I155" t="s">
+        <v>40</v>
+      </c>
+      <c r="J155" t="s">
+        <v>40</v>
+      </c>
+      <c r="K155" t="s">
+        <v>40</v>
+      </c>
+      <c r="L155" t="s">
+        <v>4</v>
+      </c>
+      <c r="M155">
+        <v>21</v>
+      </c>
+      <c r="N155">
+        <v>19</v>
+      </c>
+      <c r="O155">
+        <v>15451</v>
+      </c>
+      <c r="P155" t="s">
+        <v>43</v>
+      </c>
       <c r="Q155">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R155">
         <f t="shared" si="14"/>
-        <v>-291</v>
-      </c>
-      <c r="S155" s="3" t="e">
+        <v>-273</v>
+      </c>
+      <c r="S155" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.1052631578947369</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.3">
@@ -7805,7 +8340,7 @@
       </c>
       <c r="R156">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S156" s="3" t="e">
         <f t="shared" si="15"/>
@@ -7823,7 +8358,7 @@
       </c>
       <c r="R157">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S157" s="3" t="e">
         <f t="shared" si="15"/>
@@ -7841,7 +8376,7 @@
       </c>
       <c r="R158">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S158" s="3" t="e">
         <f t="shared" si="15"/>
@@ -7859,7 +8394,7 @@
       </c>
       <c r="R159">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S159" s="3" t="e">
         <f t="shared" si="15"/>
@@ -7877,7 +8412,7 @@
       </c>
       <c r="R160">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S160" s="3" t="e">
         <f t="shared" si="15"/>
@@ -7895,7 +8430,7 @@
       </c>
       <c r="R161">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S161" s="3" t="e">
         <f t="shared" si="15"/>
@@ -7913,7 +8448,7 @@
       </c>
       <c r="R162">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S162" s="3" t="e">
         <f t="shared" si="15"/>
@@ -7931,7 +8466,7 @@
       </c>
       <c r="R163">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S163" s="3" t="e">
         <f t="shared" si="15"/>
@@ -7949,7 +8484,7 @@
       </c>
       <c r="R164">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S164" s="3" t="e">
         <f t="shared" si="15"/>
@@ -7967,7 +8502,7 @@
       </c>
       <c r="R165">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S165" s="3" t="e">
         <f t="shared" si="15"/>
@@ -7985,7 +8520,7 @@
       </c>
       <c r="R166">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S166" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8003,7 +8538,7 @@
       </c>
       <c r="R167">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S167" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8021,7 +8556,7 @@
       </c>
       <c r="R168">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S168" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8039,7 +8574,7 @@
       </c>
       <c r="R169">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S169" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8057,7 +8592,7 @@
       </c>
       <c r="R170">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S170" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8075,7 +8610,7 @@
       </c>
       <c r="R171">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S171" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8093,7 +8628,7 @@
       </c>
       <c r="R172">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S172" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8111,7 +8646,7 @@
       </c>
       <c r="R173">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S173" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8129,7 +8664,7 @@
       </c>
       <c r="R174">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S174" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8147,7 +8682,7 @@
       </c>
       <c r="R175">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S175" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8165,7 +8700,7 @@
       </c>
       <c r="R176">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S176" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8183,7 +8718,7 @@
       </c>
       <c r="R177">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S177" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8201,7 +8736,7 @@
       </c>
       <c r="R178">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S178" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8219,7 +8754,7 @@
       </c>
       <c r="R179">
         <f t="shared" si="14"/>
-        <v>-291</v>
+        <v>-273</v>
       </c>
       <c r="S179" s="3" t="e">
         <f t="shared" si="15"/>

--- a/Battlefield5.xlsx
+++ b/Battlefield5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Science\BattlefieldV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCE7194-867A-4D63-9AA7-9BDF7B9A1824}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE261C-34D4-4A97-9310-49472A5D98B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{F69A186D-8374-47DD-86A7-853B8690958C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Final Stand</t>
+  </si>
+  <si>
+    <t>Tides of War</t>
   </si>
 </sst>
 </file>
@@ -564,8 +567,8 @@
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q155" sqref="Q155"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7579,7 +7582,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>43489</v>
+        <v>43491</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -7642,7 +7645,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>43489</v>
+        <v>43491</v>
       </c>
       <c r="C145">
         <v>2</v>
@@ -7705,7 +7708,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>43489</v>
+        <v>43491</v>
       </c>
       <c r="C146">
         <v>3</v>
@@ -7768,7 +7771,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>43490</v>
+        <v>43492</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -7831,7 +7834,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>43490</v>
+        <v>43492</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -7894,7 +7897,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>43490</v>
+        <v>43492</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -7957,7 +7960,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>43490</v>
+        <v>43492</v>
       </c>
       <c r="C150">
         <v>4</v>
@@ -8020,7 +8023,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>43490</v>
+        <v>43492</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -8083,7 +8086,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>43490</v>
+        <v>43492</v>
       </c>
       <c r="C152">
         <v>6</v>
@@ -8146,7 +8149,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>43490</v>
+        <v>43492</v>
       </c>
       <c r="C153">
         <v>7</v>
@@ -8209,7 +8212,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>43490</v>
+        <v>43492</v>
       </c>
       <c r="C154">
         <v>8</v>
@@ -8272,7 +8275,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>43490</v>
+        <v>43492</v>
       </c>
       <c r="C155">
         <v>9</v>
@@ -8334,17 +8337,62 @@
         <f t="shared" si="13"/>
         <v>155</v>
       </c>
+      <c r="B156" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>50</v>
+      </c>
+      <c r="E156" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" t="s">
+        <v>46</v>
+      </c>
+      <c r="G156" t="s">
+        <v>31</v>
+      </c>
+      <c r="H156" t="s">
+        <v>33</v>
+      </c>
+      <c r="I156" t="s">
+        <v>40</v>
+      </c>
+      <c r="J156" t="s">
+        <v>40</v>
+      </c>
+      <c r="K156" t="s">
+        <v>40</v>
+      </c>
+      <c r="L156" t="s">
+        <v>4</v>
+      </c>
+      <c r="M156">
+        <v>3</v>
+      </c>
+      <c r="N156">
+        <v>4</v>
+      </c>
+      <c r="O156">
+        <v>3162</v>
+      </c>
+      <c r="P156" t="s">
+        <v>43</v>
+      </c>
       <c r="Q156">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R156">
         <f t="shared" si="14"/>
-        <v>-273</v>
-      </c>
-      <c r="S156" s="3" t="e">
+        <v>-274</v>
+      </c>
+      <c r="S156" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.3">
@@ -8352,17 +8400,62 @@
         <f t="shared" si="13"/>
         <v>156</v>
       </c>
+      <c r="B157" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>50</v>
+      </c>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>46</v>
+      </c>
+      <c r="G157" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157" t="s">
+        <v>33</v>
+      </c>
+      <c r="I157" t="s">
+        <v>40</v>
+      </c>
+      <c r="J157" t="s">
+        <v>40</v>
+      </c>
+      <c r="K157" t="s">
+        <v>40</v>
+      </c>
+      <c r="L157" t="s">
+        <v>4</v>
+      </c>
+      <c r="M157">
+        <v>3</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157">
+        <v>3162</v>
+      </c>
+      <c r="P157" t="s">
+        <v>43</v>
+      </c>
       <c r="Q157">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R157">
         <f t="shared" si="14"/>
-        <v>-273</v>
-      </c>
-      <c r="S157" s="3" t="e">
+        <v>-272</v>
+      </c>
+      <c r="S157" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.3">
@@ -8370,17 +8463,62 @@
         <f t="shared" si="13"/>
         <v>157</v>
       </c>
+      <c r="B158" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>50</v>
+      </c>
+      <c r="E158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F158" t="s">
+        <v>46</v>
+      </c>
+      <c r="G158" t="s">
+        <v>31</v>
+      </c>
+      <c r="H158" t="s">
+        <v>33</v>
+      </c>
+      <c r="I158" t="s">
+        <v>40</v>
+      </c>
+      <c r="J158" t="s">
+        <v>40</v>
+      </c>
+      <c r="K158" t="s">
+        <v>40</v>
+      </c>
+      <c r="L158" t="s">
+        <v>55</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158">
+        <v>3459</v>
+      </c>
+      <c r="P158" t="s">
+        <v>43</v>
+      </c>
       <c r="Q158">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R158">
         <f t="shared" si="14"/>
-        <v>-273</v>
-      </c>
-      <c r="S158" s="3" t="e">
+        <v>-272</v>
+      </c>
+      <c r="S158" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.3">
@@ -8388,13 +8526,49 @@
         <f t="shared" si="13"/>
         <v>158</v>
       </c>
+      <c r="B159" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>50</v>
+      </c>
+      <c r="E159" t="s">
+        <v>24</v>
+      </c>
+      <c r="F159" t="s">
+        <v>46</v>
+      </c>
+      <c r="G159" t="s">
+        <v>31</v>
+      </c>
+      <c r="H159" t="s">
+        <v>33</v>
+      </c>
+      <c r="I159" t="s">
+        <v>40</v>
+      </c>
+      <c r="J159" t="s">
+        <v>40</v>
+      </c>
+      <c r="K159" t="s">
+        <v>40</v>
+      </c>
+      <c r="L159" t="s">
+        <v>4</v>
+      </c>
+      <c r="P159" t="s">
+        <v>43</v>
+      </c>
       <c r="Q159">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R159">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S159" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8412,7 +8586,7 @@
       </c>
       <c r="R160">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S160" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8430,7 +8604,7 @@
       </c>
       <c r="R161">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S161" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8448,7 +8622,7 @@
       </c>
       <c r="R162">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S162" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8466,7 +8640,7 @@
       </c>
       <c r="R163">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S163" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8484,7 +8658,7 @@
       </c>
       <c r="R164">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S164" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8502,7 +8676,7 @@
       </c>
       <c r="R165">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S165" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8520,7 +8694,7 @@
       </c>
       <c r="R166">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S166" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8538,7 +8712,7 @@
       </c>
       <c r="R167">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S167" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8556,7 +8730,7 @@
       </c>
       <c r="R168">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S168" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8574,7 +8748,7 @@
       </c>
       <c r="R169">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S169" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8592,7 +8766,7 @@
       </c>
       <c r="R170">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S170" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8610,7 +8784,7 @@
       </c>
       <c r="R171">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S171" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8628,7 +8802,7 @@
       </c>
       <c r="R172">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S172" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8646,7 +8820,7 @@
       </c>
       <c r="R173">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S173" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8664,7 +8838,7 @@
       </c>
       <c r="R174">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S174" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8682,7 +8856,7 @@
       </c>
       <c r="R175">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S175" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8700,7 +8874,7 @@
       </c>
       <c r="R176">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S176" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8718,7 +8892,7 @@
       </c>
       <c r="R177">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S177" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8736,7 +8910,7 @@
       </c>
       <c r="R178">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S178" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8754,7 +8928,7 @@
       </c>
       <c r="R179">
         <f t="shared" si="14"/>
-        <v>-273</v>
+        <v>-272</v>
       </c>
       <c r="S179" s="3" t="e">
         <f t="shared" si="15"/>

--- a/Battlefield5.xlsx
+++ b/Battlefield5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Science\BattlefieldV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE261C-34D4-4A97-9310-49472A5D98B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D45D122-10AE-43C9-BD66-4FF733AD49ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{F69A186D-8374-47DD-86A7-853B8690958C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -568,7 +568,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
+      <selection pane="bottomLeft" activeCell="P162" sqref="P162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8404,7 +8404,7 @@
         <v>43493</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" t="s">
         <v>50</v>
@@ -8467,7 +8467,7 @@
         <v>43493</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D158" t="s">
         <v>50</v>
@@ -8527,16 +8527,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>43493</v>
+        <v>43494</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
         <v>46</v>
@@ -8551,28 +8551,37 @@
         <v>40</v>
       </c>
       <c r="J159" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K159" t="s">
         <v>40</v>
       </c>
       <c r="L159" t="s">
         <v>4</v>
+      </c>
+      <c r="M159">
+        <v>11</v>
+      </c>
+      <c r="N159">
+        <v>6</v>
+      </c>
+      <c r="O159">
+        <v>7964</v>
       </c>
       <c r="P159" t="s">
         <v>43</v>
       </c>
       <c r="Q159">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R159">
         <f t="shared" si="14"/>
-        <v>-272</v>
-      </c>
-      <c r="S159" s="3" t="e">
+        <v>-267</v>
+      </c>
+      <c r="S159" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.3">
@@ -8580,17 +8589,62 @@
         <f t="shared" si="13"/>
         <v>159</v>
       </c>
+      <c r="B160" s="1">
+        <v>43494</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160" t="s">
+        <v>46</v>
+      </c>
+      <c r="G160" t="s">
+        <v>30</v>
+      </c>
+      <c r="H160" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" t="s">
+        <v>40</v>
+      </c>
+      <c r="J160" t="s">
+        <v>38</v>
+      </c>
+      <c r="K160" t="s">
+        <v>40</v>
+      </c>
+      <c r="L160" t="s">
+        <v>51</v>
+      </c>
+      <c r="M160">
+        <v>7</v>
+      </c>
+      <c r="N160">
+        <v>21</v>
+      </c>
+      <c r="O160">
+        <v>6845</v>
+      </c>
+      <c r="P160" t="s">
+        <v>47</v>
+      </c>
       <c r="Q160">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="R160">
         <f t="shared" si="14"/>
-        <v>-272</v>
-      </c>
-      <c r="S160" s="3" t="e">
+        <v>-281</v>
+      </c>
+      <c r="S160" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.3">
@@ -8598,17 +8652,62 @@
         <f t="shared" si="13"/>
         <v>160</v>
       </c>
+      <c r="B161" s="1">
+        <v>43494</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" t="s">
+        <v>46</v>
+      </c>
+      <c r="G161" t="s">
+        <v>30</v>
+      </c>
+      <c r="H161" t="s">
+        <v>8</v>
+      </c>
+      <c r="I161" t="s">
+        <v>40</v>
+      </c>
+      <c r="J161" t="s">
+        <v>38</v>
+      </c>
+      <c r="K161" t="s">
+        <v>40</v>
+      </c>
+      <c r="L161" t="s">
+        <v>51</v>
+      </c>
+      <c r="M161">
+        <v>24</v>
+      </c>
+      <c r="N161">
+        <v>20</v>
+      </c>
+      <c r="O161">
+        <v>10228</v>
+      </c>
+      <c r="P161" t="s">
+        <v>43</v>
+      </c>
       <c r="Q161">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R161">
         <f t="shared" si="14"/>
-        <v>-272</v>
-      </c>
-      <c r="S161" s="3" t="e">
+        <v>-277</v>
+      </c>
+      <c r="S161" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.3">
@@ -8622,7 +8721,7 @@
       </c>
       <c r="R162">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S162" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8640,7 +8739,7 @@
       </c>
       <c r="R163">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S163" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8658,7 +8757,7 @@
       </c>
       <c r="R164">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S164" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8676,7 +8775,7 @@
       </c>
       <c r="R165">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S165" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8694,7 +8793,7 @@
       </c>
       <c r="R166">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S166" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8712,7 +8811,7 @@
       </c>
       <c r="R167">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S167" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8730,7 +8829,7 @@
       </c>
       <c r="R168">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S168" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8748,7 +8847,7 @@
       </c>
       <c r="R169">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S169" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8766,7 +8865,7 @@
       </c>
       <c r="R170">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S170" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8784,7 +8883,7 @@
       </c>
       <c r="R171">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S171" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8802,7 +8901,7 @@
       </c>
       <c r="R172">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S172" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8820,7 +8919,7 @@
       </c>
       <c r="R173">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S173" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8838,7 +8937,7 @@
       </c>
       <c r="R174">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S174" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8856,7 +8955,7 @@
       </c>
       <c r="R175">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S175" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8874,7 +8973,7 @@
       </c>
       <c r="R176">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S176" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8892,7 +8991,7 @@
       </c>
       <c r="R177">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S177" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8910,7 +9009,7 @@
       </c>
       <c r="R178">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S178" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8928,7 +9027,7 @@
       </c>
       <c r="R179">
         <f t="shared" si="14"/>
-        <v>-272</v>
+        <v>-277</v>
       </c>
       <c r="S179" s="3" t="e">
         <f t="shared" si="15"/>

--- a/Battlefield5.xlsx
+++ b/Battlefield5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Science\BattlefieldV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D45D122-10AE-43C9-BD66-4FF733AD49ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5280F038-B69E-4A49-93E8-BAE372BB2E43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{F69A186D-8374-47DD-86A7-853B8690958C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -567,8 +567,8 @@
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P162" sqref="P162"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8715,17 +8715,62 @@
         <f t="shared" si="13"/>
         <v>161</v>
       </c>
+      <c r="B162" s="1">
+        <v>43495</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" t="s">
+        <v>16</v>
+      </c>
+      <c r="F162" t="s">
+        <v>42</v>
+      </c>
+      <c r="G162" t="s">
+        <v>30</v>
+      </c>
+      <c r="H162" t="s">
+        <v>29</v>
+      </c>
+      <c r="I162" t="s">
+        <v>40</v>
+      </c>
+      <c r="J162" t="s">
+        <v>38</v>
+      </c>
+      <c r="K162" t="s">
+        <v>40</v>
+      </c>
+      <c r="L162" t="s">
+        <v>51</v>
+      </c>
+      <c r="M162">
+        <v>3</v>
+      </c>
+      <c r="N162">
+        <v>7</v>
+      </c>
+      <c r="O162">
+        <v>2474</v>
+      </c>
+      <c r="P162" t="s">
+        <v>47</v>
+      </c>
       <c r="Q162">
         <f t="shared" ref="Q162:Q179" si="16">M162-N162</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="R162">
         <f t="shared" si="14"/>
-        <v>-277</v>
-      </c>
-      <c r="S162" s="3" t="e">
+        <v>-281</v>
+      </c>
+      <c r="S162" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.3">
@@ -8733,17 +8778,63 @@
         <f t="shared" si="13"/>
         <v>162</v>
       </c>
+      <c r="B163" s="1">
+        <v>43495</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163" t="s">
+        <v>42</v>
+      </c>
+      <c r="G163" t="s">
+        <v>30</v>
+      </c>
+      <c r="H163" t="s">
+        <v>29</v>
+      </c>
+      <c r="I163" t="s">
+        <v>40</v>
+      </c>
+      <c r="J163" t="s">
+        <v>38</v>
+      </c>
+      <c r="K163" t="s">
+        <v>40</v>
+      </c>
+      <c r="L163" t="s">
+        <v>51</v>
+      </c>
+      <c r="M163">
+        <v>9</v>
+      </c>
+      <c r="N163">
+        <v>14</v>
+      </c>
+      <c r="O163">
+        <f>6567-O162</f>
+        <v>4093</v>
+      </c>
+      <c r="P163" t="s">
+        <v>43</v>
+      </c>
       <c r="Q163">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="R163">
         <f t="shared" si="14"/>
-        <v>-277</v>
-      </c>
-      <c r="S163" s="3" t="e">
+        <v>-286</v>
+      </c>
+      <c r="S163" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.3">
@@ -8751,17 +8842,62 @@
         <f t="shared" si="13"/>
         <v>163</v>
       </c>
+      <c r="B164" s="1">
+        <v>43495</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>21</v>
+      </c>
+      <c r="E164" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164" t="s">
+        <v>46</v>
+      </c>
+      <c r="G164" t="s">
+        <v>30</v>
+      </c>
+      <c r="H164" t="s">
+        <v>52</v>
+      </c>
+      <c r="I164" t="s">
+        <v>40</v>
+      </c>
+      <c r="J164" t="s">
+        <v>38</v>
+      </c>
+      <c r="K164" t="s">
+        <v>40</v>
+      </c>
+      <c r="L164" t="s">
+        <v>51</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164">
+        <v>1628</v>
+      </c>
+      <c r="P164" t="s">
+        <v>43</v>
+      </c>
       <c r="Q164">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R164">
         <f t="shared" si="14"/>
-        <v>-277</v>
-      </c>
-      <c r="S164" s="3" t="e">
+        <v>-287</v>
+      </c>
+      <c r="S164" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.3">
@@ -8769,17 +8905,62 @@
         <f t="shared" si="13"/>
         <v>164</v>
       </c>
+      <c r="B165" s="1">
+        <v>43496</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" t="s">
+        <v>42</v>
+      </c>
+      <c r="G165" t="s">
+        <v>31</v>
+      </c>
+      <c r="H165" t="s">
+        <v>33</v>
+      </c>
+      <c r="I165" t="s">
+        <v>40</v>
+      </c>
+      <c r="J165" t="s">
+        <v>38</v>
+      </c>
+      <c r="K165" t="s">
+        <v>40</v>
+      </c>
+      <c r="L165" t="s">
+        <v>4</v>
+      </c>
+      <c r="M165">
+        <v>20</v>
+      </c>
+      <c r="N165">
+        <v>12</v>
+      </c>
+      <c r="O165">
+        <v>6095</v>
+      </c>
+      <c r="P165" t="s">
+        <v>47</v>
+      </c>
       <c r="Q165">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R165">
         <f t="shared" si="14"/>
-        <v>-277</v>
-      </c>
-      <c r="S165" s="3" t="e">
+        <v>-279</v>
+      </c>
+      <c r="S165" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.3">
@@ -8787,17 +8968,62 @@
         <f t="shared" si="13"/>
         <v>165</v>
       </c>
+      <c r="B166" s="1">
+        <v>43496</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>49</v>
+      </c>
+      <c r="G166" t="s">
+        <v>31</v>
+      </c>
+      <c r="H166" t="s">
+        <v>33</v>
+      </c>
+      <c r="I166" t="s">
+        <v>40</v>
+      </c>
+      <c r="J166" t="s">
+        <v>38</v>
+      </c>
+      <c r="K166" t="s">
+        <v>40</v>
+      </c>
+      <c r="L166" t="s">
+        <v>4</v>
+      </c>
+      <c r="M166">
+        <v>11</v>
+      </c>
+      <c r="N166">
+        <v>12</v>
+      </c>
+      <c r="O166">
+        <v>5816</v>
+      </c>
+      <c r="P166" t="s">
+        <v>47</v>
+      </c>
       <c r="Q166">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R166">
         <f t="shared" si="14"/>
-        <v>-277</v>
-      </c>
-      <c r="S166" s="3" t="e">
+        <v>-280</v>
+      </c>
+      <c r="S166" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.3">
@@ -8805,17 +9031,62 @@
         <f t="shared" si="13"/>
         <v>166</v>
       </c>
+      <c r="B167" s="1">
+        <v>43496</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" t="s">
+        <v>16</v>
+      </c>
+      <c r="F167" t="s">
+        <v>42</v>
+      </c>
+      <c r="G167" t="s">
+        <v>31</v>
+      </c>
+      <c r="H167" t="s">
+        <v>33</v>
+      </c>
+      <c r="I167" t="s">
+        <v>40</v>
+      </c>
+      <c r="J167" t="s">
+        <v>38</v>
+      </c>
+      <c r="K167" t="s">
+        <v>40</v>
+      </c>
+      <c r="L167" t="s">
+        <v>4</v>
+      </c>
+      <c r="M167">
+        <v>5</v>
+      </c>
+      <c r="N167">
+        <v>10</v>
+      </c>
+      <c r="O167">
+        <v>2847</v>
+      </c>
+      <c r="P167" t="s">
+        <v>47</v>
+      </c>
       <c r="Q167">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="R167">
         <f t="shared" si="14"/>
-        <v>-277</v>
-      </c>
-      <c r="S167" s="3" t="e">
+        <v>-285</v>
+      </c>
+      <c r="S167" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.3">
@@ -8823,17 +9094,62 @@
         <f t="shared" si="13"/>
         <v>167</v>
       </c>
+      <c r="B168" s="1">
+        <v>43499</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" t="s">
+        <v>24</v>
+      </c>
+      <c r="F168" t="s">
+        <v>42</v>
+      </c>
+      <c r="G168" t="s">
+        <v>28</v>
+      </c>
+      <c r="H168" t="s">
+        <v>52</v>
+      </c>
+      <c r="I168" t="s">
+        <v>40</v>
+      </c>
+      <c r="J168" t="s">
+        <v>38</v>
+      </c>
+      <c r="K168" t="s">
+        <v>40</v>
+      </c>
+      <c r="L168" t="s">
+        <v>4</v>
+      </c>
+      <c r="M168">
+        <v>13</v>
+      </c>
+      <c r="N168">
+        <v>5</v>
+      </c>
+      <c r="O168">
+        <v>7873</v>
+      </c>
+      <c r="P168" t="s">
+        <v>43</v>
+      </c>
       <c r="Q168">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R168">
         <f t="shared" si="14"/>
         <v>-277</v>
       </c>
-      <c r="S168" s="3" t="e">
+      <c r="S168" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.3">
@@ -8841,17 +9157,62 @@
         <f t="shared" si="13"/>
         <v>168</v>
       </c>
+      <c r="B169" s="1">
+        <v>43499</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169" t="s">
+        <v>49</v>
+      </c>
+      <c r="G169" t="s">
+        <v>28</v>
+      </c>
+      <c r="H169" t="s">
+        <v>52</v>
+      </c>
+      <c r="I169" t="s">
+        <v>40</v>
+      </c>
+      <c r="J169" t="s">
+        <v>38</v>
+      </c>
+      <c r="K169" t="s">
+        <v>40</v>
+      </c>
+      <c r="L169" t="s">
+        <v>4</v>
+      </c>
+      <c r="M169">
+        <v>5</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169">
+        <v>5074</v>
+      </c>
+      <c r="P169" t="s">
+        <v>43</v>
+      </c>
       <c r="Q169">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R169">
         <f t="shared" si="14"/>
-        <v>-277</v>
-      </c>
-      <c r="S169" s="3" t="e">
+        <v>-275</v>
+      </c>
+      <c r="S169" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.3">
@@ -8859,17 +9220,62 @@
         <f t="shared" si="13"/>
         <v>169</v>
       </c>
+      <c r="B170" s="1">
+        <v>43499</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>42</v>
+      </c>
+      <c r="G170" t="s">
+        <v>28</v>
+      </c>
+      <c r="H170" t="s">
+        <v>52</v>
+      </c>
+      <c r="I170" t="s">
+        <v>40</v>
+      </c>
+      <c r="J170" t="s">
+        <v>38</v>
+      </c>
+      <c r="K170" t="s">
+        <v>40</v>
+      </c>
+      <c r="L170" t="s">
+        <v>4</v>
+      </c>
+      <c r="M170">
+        <v>10</v>
+      </c>
+      <c r="N170">
+        <v>10</v>
+      </c>
+      <c r="O170">
+        <v>5891</v>
+      </c>
+      <c r="P170" t="s">
+        <v>43</v>
+      </c>
       <c r="Q170">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R170">
         <f t="shared" si="14"/>
-        <v>-277</v>
-      </c>
-      <c r="S170" s="3" t="e">
+        <v>-275</v>
+      </c>
+      <c r="S170" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.3">
@@ -8877,17 +9283,62 @@
         <f t="shared" si="13"/>
         <v>170</v>
       </c>
+      <c r="B171" s="1">
+        <v>43499</v>
+      </c>
+      <c r="C171">
+        <v>4</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" t="s">
+        <v>16</v>
+      </c>
+      <c r="F171" t="s">
+        <v>49</v>
+      </c>
+      <c r="G171" t="s">
+        <v>28</v>
+      </c>
+      <c r="H171" t="s">
+        <v>52</v>
+      </c>
+      <c r="I171" t="s">
+        <v>40</v>
+      </c>
+      <c r="J171" t="s">
+        <v>38</v>
+      </c>
+      <c r="K171" t="s">
+        <v>40</v>
+      </c>
+      <c r="L171" t="s">
+        <v>4</v>
+      </c>
+      <c r="M171">
+        <v>6</v>
+      </c>
+      <c r="N171">
+        <v>5</v>
+      </c>
+      <c r="O171">
+        <v>3412</v>
+      </c>
+      <c r="P171" t="s">
+        <v>43</v>
+      </c>
       <c r="Q171">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R171">
         <f t="shared" si="14"/>
-        <v>-277</v>
-      </c>
-      <c r="S171" s="3" t="e">
+        <v>-274</v>
+      </c>
+      <c r="S171" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.3">
@@ -8895,17 +9346,59 @@
         <f t="shared" si="13"/>
         <v>171</v>
       </c>
+      <c r="B172" s="1">
+        <v>43499</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172" t="s">
+        <v>33</v>
+      </c>
+      <c r="I172" t="s">
+        <v>40</v>
+      </c>
+      <c r="J172" t="s">
+        <v>38</v>
+      </c>
+      <c r="K172" t="s">
+        <v>40</v>
+      </c>
+      <c r="L172" t="s">
+        <v>4</v>
+      </c>
+      <c r="M172">
+        <v>17</v>
+      </c>
+      <c r="N172">
+        <v>21</v>
+      </c>
+      <c r="O172">
+        <v>9316</v>
+      </c>
+      <c r="P172" t="s">
+        <v>43</v>
+      </c>
       <c r="Q172">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="R172">
         <f t="shared" si="14"/>
-        <v>-277</v>
-      </c>
-      <c r="S172" s="3" t="e">
+        <v>-278</v>
+      </c>
+      <c r="S172" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.80952380952380953</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.3">
@@ -8913,13 +9406,40 @@
         <f t="shared" si="13"/>
         <v>172</v>
       </c>
+      <c r="B173" s="1">
+        <v>43499</v>
+      </c>
+      <c r="C173">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+      <c r="G173" t="s">
+        <v>31</v>
+      </c>
+      <c r="H173" t="s">
+        <v>33</v>
+      </c>
+      <c r="I173" t="s">
+        <v>40</v>
+      </c>
+      <c r="J173" t="s">
+        <v>38</v>
+      </c>
+      <c r="K173" t="s">
+        <v>40</v>
+      </c>
+      <c r="L173" t="s">
+        <v>4</v>
+      </c>
       <c r="Q173">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R173">
         <f t="shared" si="14"/>
-        <v>-277</v>
+        <v>-278</v>
       </c>
       <c r="S173" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8931,13 +9451,40 @@
         <f t="shared" si="13"/>
         <v>173</v>
       </c>
+      <c r="B174" s="1">
+        <v>43499</v>
+      </c>
+      <c r="C174">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" t="s">
+        <v>31</v>
+      </c>
+      <c r="H174" t="s">
+        <v>33</v>
+      </c>
+      <c r="I174" t="s">
+        <v>40</v>
+      </c>
+      <c r="J174" t="s">
+        <v>38</v>
+      </c>
+      <c r="K174" t="s">
+        <v>40</v>
+      </c>
+      <c r="L174" t="s">
+        <v>4</v>
+      </c>
       <c r="Q174">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R174">
         <f t="shared" si="14"/>
-        <v>-277</v>
+        <v>-278</v>
       </c>
       <c r="S174" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8949,13 +9496,40 @@
         <f t="shared" si="13"/>
         <v>174</v>
       </c>
+      <c r="B175" s="1">
+        <v>43499</v>
+      </c>
+      <c r="C175">
+        <v>8</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175" t="s">
+        <v>31</v>
+      </c>
+      <c r="H175" t="s">
+        <v>33</v>
+      </c>
+      <c r="I175" t="s">
+        <v>40</v>
+      </c>
+      <c r="J175" t="s">
+        <v>38</v>
+      </c>
+      <c r="K175" t="s">
+        <v>40</v>
+      </c>
+      <c r="L175" t="s">
+        <v>4</v>
+      </c>
       <c r="Q175">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R175">
         <f t="shared" si="14"/>
-        <v>-277</v>
+        <v>-278</v>
       </c>
       <c r="S175" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8973,7 +9547,7 @@
       </c>
       <c r="R176">
         <f t="shared" si="14"/>
-        <v>-277</v>
+        <v>-278</v>
       </c>
       <c r="S176" s="3" t="e">
         <f t="shared" si="15"/>
@@ -8991,7 +9565,7 @@
       </c>
       <c r="R177">
         <f t="shared" si="14"/>
-        <v>-277</v>
+        <v>-278</v>
       </c>
       <c r="S177" s="3" t="e">
         <f t="shared" si="15"/>
@@ -9009,7 +9583,7 @@
       </c>
       <c r="R178">
         <f t="shared" si="14"/>
-        <v>-277</v>
+        <v>-278</v>
       </c>
       <c r="S178" s="3" t="e">
         <f t="shared" si="15"/>
@@ -9027,7 +9601,7 @@
       </c>
       <c r="R179">
         <f t="shared" si="14"/>
-        <v>-277</v>
+        <v>-278</v>
       </c>
       <c r="S179" s="3" t="e">
         <f t="shared" si="15"/>

--- a/Battlefield5.xlsx
+++ b/Battlefield5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Science\BattlefieldV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5280F038-B69E-4A49-93E8-BAE372BB2E43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C931709-AAF4-4876-BED8-531B50AC3B96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{F69A186D-8374-47DD-86A7-853B8690958C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F69A186D-8374-47DD-86A7-853B8690958C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -201,6 +201,12 @@
   <si>
     <t>Tides of War</t>
   </si>
+  <si>
+    <t>ToW</t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
 </sst>
 </file>
 
@@ -243,10 +249,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -564,16 +569,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5512DE-6917-45D6-9375-2633379DD30B}">
-  <dimension ref="A1:U179"/>
+  <dimension ref="A1:U249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E173" sqref="E173"/>
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -585,79 +590,79 @@
     <col min="16" max="16" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>43439</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -685,21 +690,21 @@
       <c r="R2">
         <v>-1</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="2">
         <f t="shared" ref="S2:S33" si="1">M2/N2</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2">
         <f>AVERAGE(S2:S108)</f>
         <v>0.89700965376582398</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="2">
         <f>SUM(M1:M108)/SUM(N1:N108)</f>
         <v>0.7909407665505227</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <f>1+A2</f>
         <v>2</v>
       </c>
@@ -735,13 +740,13 @@
         <f>Q3+R2</f>
         <v>-1</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <f t="shared" ref="A4:A67" si="2">1+A3</f>
         <v>3</v>
       </c>
@@ -777,13 +782,13 @@
         <f t="shared" ref="R4:R67" si="3">Q4+R3</f>
         <v>0</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <f t="shared" si="1"/>
         <v>1.125</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -819,13 +824,13 @@
         <f t="shared" si="3"/>
         <v>-6</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <f t="shared" si="1"/>
         <v>0.68421052631578949</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -861,13 +866,13 @@
         <f t="shared" si="3"/>
         <v>-10</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -903,13 +908,13 @@
         <f t="shared" si="3"/>
         <v>-11</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="2">
         <f t="shared" si="1"/>
         <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -945,13 +950,13 @@
         <f t="shared" si="3"/>
         <v>-12</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="2">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -987,13 +992,13 @@
         <f t="shared" si="3"/>
         <v>-11</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="2">
         <f t="shared" si="1"/>
         <v>1.0555555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -1029,13 +1034,13 @@
         <f t="shared" si="3"/>
         <v>-13</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="2">
         <f t="shared" si="1"/>
         <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1071,13 +1076,13 @@
         <f t="shared" si="3"/>
         <v>-17</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="2">
         <f t="shared" si="1"/>
         <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -1113,13 +1118,13 @@
         <f t="shared" si="3"/>
         <v>-22</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="2">
         <f t="shared" si="1"/>
         <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -1155,13 +1160,13 @@
         <f t="shared" si="3"/>
         <v>-21</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="2">
         <f t="shared" si="1"/>
         <v>1.0769230769230769</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -1197,13 +1202,13 @@
         <f t="shared" si="3"/>
         <v>-21</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -1239,13 +1244,13 @@
         <f t="shared" si="3"/>
         <v>-33</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="2">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -1281,13 +1286,13 @@
         <f t="shared" si="3"/>
         <v>-39</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="2">
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -1323,13 +1328,13 @@
         <f t="shared" si="3"/>
         <v>-44</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="2">
         <f t="shared" si="1"/>
         <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -1365,13 +1370,13 @@
         <f t="shared" si="3"/>
         <v>-53</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="2">
         <f t="shared" si="1"/>
         <v>0.47058823529411764</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -1407,13 +1412,13 @@
         <f t="shared" si="3"/>
         <v>-54</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="2">
         <f t="shared" si="1"/>
         <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -1449,13 +1454,13 @@
         <f t="shared" si="3"/>
         <v>-46</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="2">
         <f t="shared" si="1"/>
         <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -1491,13 +1496,13 @@
         <f t="shared" si="3"/>
         <v>-48</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="2">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -1533,13 +1538,13 @@
         <f t="shared" si="3"/>
         <v>-49</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="2">
         <f t="shared" si="1"/>
         <v>0.9375</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -1575,13 +1580,13 @@
         <f t="shared" si="3"/>
         <v>-48</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="2">
         <f t="shared" si="1"/>
         <v>1.0666666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -1617,13 +1622,13 @@
         <f t="shared" si="3"/>
         <v>-56</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -1659,13 +1664,13 @@
         <f t="shared" si="3"/>
         <v>-59</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="2">
         <f t="shared" si="1"/>
         <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -1701,13 +1706,13 @@
         <f t="shared" si="3"/>
         <v>-72</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="2">
         <f t="shared" si="1"/>
         <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -1743,13 +1748,13 @@
         <f t="shared" si="3"/>
         <v>-70</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="2">
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -1785,13 +1790,13 @@
         <f t="shared" si="3"/>
         <v>-80</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="2">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
@@ -1824,13 +1829,13 @@
         <f t="shared" si="3"/>
         <v>-85</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="2">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
@@ -1863,13 +1868,13 @@
         <f t="shared" si="3"/>
         <v>-82</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30" s="2">
         <f t="shared" si="1"/>
         <v>1.2307692307692308</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -1902,13 +1907,13 @@
         <f t="shared" si="3"/>
         <v>-82</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
@@ -1941,13 +1946,13 @@
         <f t="shared" si="3"/>
         <v>-88</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="2">
         <f t="shared" si="1"/>
         <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
@@ -1980,13 +1985,13 @@
         <f t="shared" si="3"/>
         <v>-97</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="2">
         <f t="shared" si="1"/>
         <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
@@ -2019,13 +2024,13 @@
         <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S34" s="2">
         <f t="shared" ref="S34:S65" si="5">M34/N34</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
@@ -2058,13 +2063,13 @@
         <f t="shared" si="3"/>
         <v>-94</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="2">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
@@ -2097,13 +2102,13 @@
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="S36" s="3">
+      <c r="S36" s="2">
         <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -2136,13 +2141,13 @@
         <f t="shared" si="3"/>
         <v>-110</v>
       </c>
-      <c r="S37" s="3">
+      <c r="S37" s="2">
         <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
@@ -2175,13 +2180,13 @@
         <f t="shared" si="3"/>
         <v>-116</v>
       </c>
-      <c r="S38" s="3">
+      <c r="S38" s="2">
         <f t="shared" si="5"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
@@ -2214,13 +2219,13 @@
         <f t="shared" si="3"/>
         <v>-118</v>
       </c>
-      <c r="S39" s="3">
+      <c r="S39" s="2">
         <f t="shared" si="5"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
@@ -2253,13 +2258,13 @@
         <f t="shared" si="3"/>
         <v>-124</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S40" s="2">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
@@ -2292,13 +2297,13 @@
         <f t="shared" si="3"/>
         <v>-126</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="2">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
@@ -2331,13 +2336,13 @@
         <f t="shared" si="3"/>
         <v>-130</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="2">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
@@ -2370,13 +2375,13 @@
         <f t="shared" si="3"/>
         <v>-131</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="2">
         <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
@@ -2409,13 +2414,13 @@
         <f t="shared" si="3"/>
         <v>-135</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="2">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
@@ -2448,13 +2453,13 @@
         <f t="shared" si="3"/>
         <v>-139</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="2">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
@@ -2487,13 +2492,13 @@
         <f t="shared" si="3"/>
         <v>-138</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="2">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
@@ -2526,13 +2531,13 @@
         <f t="shared" si="3"/>
         <v>-136</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="2">
         <f t="shared" si="5"/>
         <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
@@ -2565,13 +2570,13 @@
         <f t="shared" si="3"/>
         <v>-138</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="2">
         <f t="shared" si="5"/>
         <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -2604,13 +2609,13 @@
         <f t="shared" si="3"/>
         <v>-143</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="2">
         <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
@@ -2643,13 +2648,13 @@
         <f t="shared" si="3"/>
         <v>-143</v>
       </c>
-      <c r="S50" s="3">
+      <c r="S50" s="2">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
@@ -2682,13 +2687,13 @@
         <f t="shared" si="3"/>
         <v>-140</v>
       </c>
-      <c r="S51" s="3">
+      <c r="S51" s="2">
         <f t="shared" si="5"/>
         <v>1.375</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
@@ -2721,13 +2726,13 @@
         <f t="shared" si="3"/>
         <v>-139</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="2">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
@@ -2760,13 +2765,13 @@
         <f t="shared" si="3"/>
         <v>-152</v>
       </c>
-      <c r="S53" s="3">
+      <c r="S53" s="2">
         <f t="shared" si="5"/>
         <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
@@ -2799,13 +2804,13 @@
         <f t="shared" si="3"/>
         <v>-153</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="2">
         <f t="shared" si="5"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
@@ -2838,13 +2843,13 @@
         <f t="shared" si="3"/>
         <v>-148</v>
       </c>
-      <c r="S55" s="3">
+      <c r="S55" s="2">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
@@ -2877,13 +2882,13 @@
         <f t="shared" si="3"/>
         <v>-153</v>
       </c>
-      <c r="S56" s="3">
+      <c r="S56" s="2">
         <f t="shared" si="5"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
@@ -2916,13 +2921,13 @@
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="2">
         <f t="shared" si="5"/>
         <v>1.2727272727272727</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
@@ -2958,13 +2963,13 @@
         <f t="shared" si="3"/>
         <v>-152</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="2">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
@@ -3000,13 +3005,13 @@
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="2">
         <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
@@ -3042,13 +3047,13 @@
         <f t="shared" si="3"/>
         <v>-151</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="2">
         <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
@@ -3084,13 +3089,13 @@
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="S61" s="3">
+      <c r="S61" s="2">
         <f t="shared" si="5"/>
         <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
@@ -3126,13 +3131,13 @@
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="2">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
@@ -3168,13 +3173,13 @@
         <f t="shared" si="3"/>
         <v>-154</v>
       </c>
-      <c r="S63" s="3">
+      <c r="S63" s="2">
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
@@ -3210,13 +3215,13 @@
         <f t="shared" si="3"/>
         <v>-157</v>
       </c>
-      <c r="S64" s="3">
+      <c r="S64" s="2">
         <f t="shared" si="5"/>
         <v>0.84210526315789469</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -3252,13 +3257,13 @@
         <f t="shared" si="3"/>
         <v>-160</v>
       </c>
-      <c r="S65" s="3">
+      <c r="S65" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
@@ -3297,13 +3302,13 @@
         <f t="shared" si="3"/>
         <v>-163</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="2">
         <f t="shared" ref="S66:S97" si="7">M66/N66</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
@@ -3343,13 +3348,13 @@
         <f t="shared" si="3"/>
         <v>-172</v>
       </c>
-      <c r="S67" s="3">
+      <c r="S67" s="2">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <f t="shared" ref="A68:A131" si="8">1+A67</f>
         <v>67</v>
       </c>
@@ -3389,13 +3394,13 @@
         <f t="shared" ref="R68:R131" si="9">Q68+R67</f>
         <v>-175</v>
       </c>
-      <c r="S68" s="3">
+      <c r="S68" s="2">
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
@@ -3434,13 +3439,13 @@
         <f t="shared" si="9"/>
         <v>-183</v>
       </c>
-      <c r="S69" s="3">
+      <c r="S69" s="2">
         <f t="shared" si="7"/>
         <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
@@ -3479,13 +3484,13 @@
         <f t="shared" si="9"/>
         <v>-187</v>
       </c>
-      <c r="S70" s="3">
+      <c r="S70" s="2">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
@@ -3524,13 +3529,13 @@
         <f t="shared" si="9"/>
         <v>-190</v>
       </c>
-      <c r="S71" s="3">
+      <c r="S71" s="2">
         <f t="shared" si="7"/>
         <v>0.8125</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
@@ -3569,13 +3574,13 @@
         <f t="shared" si="9"/>
         <v>-196</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="2">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
@@ -3615,13 +3620,13 @@
         <f t="shared" si="9"/>
         <v>-196</v>
       </c>
-      <c r="S73" s="3">
+      <c r="S73" s="2">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
@@ -3660,13 +3665,13 @@
         <f t="shared" si="9"/>
         <v>-197</v>
       </c>
-      <c r="S74" s="3">
+      <c r="S74" s="2">
         <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <f t="shared" si="8"/>
         <v>74</v>
       </c>
@@ -3705,13 +3710,13 @@
         <f t="shared" si="9"/>
         <v>-199</v>
       </c>
-      <c r="S75" s="3">
+      <c r="S75" s="2">
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
@@ -3750,13 +3755,13 @@
         <f t="shared" si="9"/>
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="2">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <f t="shared" si="8"/>
         <v>76</v>
       </c>
@@ -3795,13 +3800,13 @@
         <f t="shared" si="9"/>
         <v>-201</v>
       </c>
-      <c r="S77" s="3">
+      <c r="S77" s="2">
         <f t="shared" si="7"/>
         <v>0.875</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <f t="shared" si="8"/>
         <v>77</v>
       </c>
@@ -3840,13 +3845,13 @@
         <f t="shared" si="9"/>
         <v>-202</v>
       </c>
-      <c r="S78" s="3">
+      <c r="S78" s="2">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <f t="shared" si="8"/>
         <v>78</v>
       </c>
@@ -3886,13 +3891,13 @@
         <f t="shared" si="9"/>
         <v>-208</v>
       </c>
-      <c r="S79" s="3">
+      <c r="S79" s="2">
         <f t="shared" si="7"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <f t="shared" si="8"/>
         <v>79</v>
       </c>
@@ -3932,13 +3937,13 @@
         <f t="shared" si="9"/>
         <v>-213</v>
       </c>
-      <c r="S80" s="3">
+      <c r="S80" s="2">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
@@ -3977,13 +3982,13 @@
         <f t="shared" si="9"/>
         <v>-211</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S81" s="2">
         <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <f t="shared" si="8"/>
         <v>81</v>
       </c>
@@ -4023,13 +4028,13 @@
         <f t="shared" si="9"/>
         <v>-212</v>
       </c>
-      <c r="S82" s="3">
+      <c r="S82" s="2">
         <f t="shared" si="7"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <f t="shared" si="8"/>
         <v>82</v>
       </c>
@@ -4068,13 +4073,13 @@
         <f t="shared" si="9"/>
         <v>-216</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="2">
         <f t="shared" si="7"/>
         <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <f t="shared" si="8"/>
         <v>83</v>
       </c>
@@ -4113,13 +4118,13 @@
         <f t="shared" si="9"/>
         <v>-214</v>
       </c>
-      <c r="S84" s="3">
+      <c r="S84" s="2">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
@@ -4159,13 +4164,13 @@
         <f t="shared" si="9"/>
         <v>-219</v>
       </c>
-      <c r="S85" s="3">
+      <c r="S85" s="2">
         <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
@@ -4204,13 +4209,13 @@
         <f t="shared" si="9"/>
         <v>-219</v>
       </c>
-      <c r="S86" s="3">
+      <c r="S86" s="2">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <f t="shared" si="8"/>
         <v>86</v>
       </c>
@@ -4249,13 +4254,13 @@
         <f t="shared" si="9"/>
         <v>-216</v>
       </c>
-      <c r="S87" s="3">
+      <c r="S87" s="2">
         <f t="shared" si="7"/>
         <v>1.6</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
@@ -4294,13 +4299,13 @@
         <f t="shared" si="9"/>
         <v>-221</v>
       </c>
-      <c r="S88" s="3">
+      <c r="S88" s="2">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <f t="shared" si="8"/>
         <v>88</v>
       </c>
@@ -4339,13 +4344,13 @@
         <f t="shared" si="9"/>
         <v>-221</v>
       </c>
-      <c r="S89" s="3">
+      <c r="S89" s="2">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <f t="shared" si="8"/>
         <v>89</v>
       </c>
@@ -4384,13 +4389,13 @@
         <f t="shared" si="9"/>
         <v>-228</v>
       </c>
-      <c r="S90" s="3">
+      <c r="S90" s="2">
         <f t="shared" si="7"/>
         <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
@@ -4429,13 +4434,13 @@
         <f t="shared" si="9"/>
         <v>-230</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="2">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
@@ -4480,13 +4485,13 @@
         <f t="shared" si="9"/>
         <v>-226</v>
       </c>
-      <c r="S92" s="3">
+      <c r="S92" s="2">
         <f t="shared" si="7"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <f t="shared" si="8"/>
         <v>92</v>
       </c>
@@ -4532,13 +4537,13 @@
         <f t="shared" si="9"/>
         <v>-230</v>
       </c>
-      <c r="S93" s="3">
+      <c r="S93" s="2">
         <f t="shared" si="7"/>
         <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
@@ -4583,13 +4588,13 @@
         <f t="shared" si="9"/>
         <v>-226</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="2">
         <f t="shared" si="7"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
@@ -4635,13 +4640,13 @@
         <f t="shared" si="9"/>
         <v>-232</v>
       </c>
-      <c r="S95" s="3">
+      <c r="S95" s="2">
         <f t="shared" si="7"/>
         <v>0.68421052631578949</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
@@ -4686,13 +4691,13 @@
         <f t="shared" si="9"/>
         <v>-235</v>
       </c>
-      <c r="S96" s="3">
+      <c r="S96" s="2">
         <f t="shared" si="7"/>
         <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
@@ -4737,13 +4742,13 @@
         <f t="shared" si="9"/>
         <v>-238</v>
       </c>
-      <c r="S97" s="3">
+      <c r="S97" s="2">
         <f t="shared" si="7"/>
         <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <f t="shared" si="8"/>
         <v>97</v>
       </c>
@@ -4788,13 +4793,13 @@
         <f t="shared" si="9"/>
         <v>-235</v>
       </c>
-      <c r="S98" s="3">
+      <c r="S98" s="2">
         <f t="shared" ref="S98:S133" si="11">M98/N98</f>
         <v>1.2727272727272727</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
@@ -4839,13 +4844,13 @@
         <f t="shared" si="9"/>
         <v>-242</v>
       </c>
-      <c r="S99" s="3">
+      <c r="S99" s="2">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
@@ -4890,13 +4895,13 @@
         <f t="shared" si="9"/>
         <v>-240</v>
       </c>
-      <c r="S100" s="3">
+      <c r="S100" s="2">
         <f t="shared" si="11"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+      <c r="A101" s="2">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -4942,13 +4947,13 @@
         <f t="shared" si="9"/>
         <v>-236</v>
       </c>
-      <c r="S101" s="3">
+      <c r="S101" s="2">
         <f t="shared" si="11"/>
         <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+      <c r="A102" s="2">
         <f t="shared" si="8"/>
         <v>101</v>
       </c>
@@ -4993,13 +4998,13 @@
         <f t="shared" si="9"/>
         <v>-240</v>
       </c>
-      <c r="S102" s="3">
+      <c r="S102" s="2">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+      <c r="A103" s="2">
         <f t="shared" si="8"/>
         <v>102</v>
       </c>
@@ -5045,13 +5050,13 @@
         <f t="shared" si="9"/>
         <v>-244</v>
       </c>
-      <c r="S103" s="3">
+      <c r="S103" s="2">
         <f t="shared" si="11"/>
         <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+      <c r="A104" s="2">
         <f t="shared" si="8"/>
         <v>103</v>
       </c>
@@ -5108,13 +5113,13 @@
         <f t="shared" si="9"/>
         <v>-243</v>
       </c>
-      <c r="S104" s="3">
+      <c r="S104" s="2">
         <f t="shared" si="11"/>
         <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+      <c r="A105" s="2">
         <f t="shared" si="8"/>
         <v>104</v>
       </c>
@@ -5172,13 +5177,13 @@
         <f t="shared" si="9"/>
         <v>-246</v>
       </c>
-      <c r="S105" s="3">
+      <c r="S105" s="2">
         <f t="shared" si="11"/>
         <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="A106" s="2">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
@@ -5236,13 +5241,13 @@
         <f t="shared" si="9"/>
         <v>-248</v>
       </c>
-      <c r="S106" s="3">
+      <c r="S106" s="2">
         <f t="shared" si="11"/>
         <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+      <c r="A107" s="2">
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
@@ -5299,13 +5304,13 @@
         <f t="shared" si="9"/>
         <v>-244</v>
       </c>
-      <c r="S107" s="3">
+      <c r="S107" s="2">
         <f t="shared" si="11"/>
         <v>1.4444444444444444</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+      <c r="A108" s="2">
         <f t="shared" si="8"/>
         <v>107</v>
       </c>
@@ -5362,13 +5367,13 @@
         <f t="shared" si="9"/>
         <v>-240</v>
       </c>
-      <c r="S108" s="3">
+      <c r="S108" s="2">
         <f t="shared" si="11"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+      <c r="A109" s="2">
         <f t="shared" si="8"/>
         <v>108</v>
       </c>
@@ -5425,13 +5430,13 @@
         <f t="shared" si="9"/>
         <v>-249</v>
       </c>
-      <c r="S109" s="3">
+      <c r="S109" s="2">
         <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+      <c r="A110" s="2">
         <f t="shared" si="8"/>
         <v>109</v>
       </c>
@@ -5488,13 +5493,13 @@
         <f t="shared" si="9"/>
         <v>-252</v>
       </c>
-      <c r="S110" s="3">
+      <c r="S110" s="2">
         <f t="shared" si="11"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
+      <c r="A111" s="2">
         <f t="shared" si="8"/>
         <v>110</v>
       </c>
@@ -5551,13 +5556,13 @@
         <f t="shared" si="9"/>
         <v>-243</v>
       </c>
-      <c r="S111" s="3">
+      <c r="S111" s="2">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+      <c r="A112" s="2">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
@@ -5614,13 +5619,13 @@
         <f t="shared" si="9"/>
         <v>-246</v>
       </c>
-      <c r="S112" s="3">
+      <c r="S112" s="2">
         <f t="shared" si="11"/>
         <v>0.84210526315789469</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
+      <c r="A113" s="2">
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
@@ -5677,13 +5682,13 @@
         <f t="shared" si="9"/>
         <v>-251</v>
       </c>
-      <c r="S113" s="3">
+      <c r="S113" s="2">
         <f t="shared" si="11"/>
         <v>0.6875</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+      <c r="A114" s="2">
         <f t="shared" si="8"/>
         <v>113</v>
       </c>
@@ -5740,13 +5745,13 @@
         <f t="shared" si="9"/>
         <v>-262</v>
       </c>
-      <c r="S114" s="3">
+      <c r="S114" s="2">
         <f t="shared" si="11"/>
         <v>0.3125</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+      <c r="A115" s="2">
         <f t="shared" si="8"/>
         <v>114</v>
       </c>
@@ -5803,13 +5808,13 @@
         <f t="shared" si="9"/>
         <v>-264</v>
       </c>
-      <c r="S115" s="3">
+      <c r="S115" s="2">
         <f t="shared" si="11"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="A116" s="2">
         <f t="shared" si="8"/>
         <v>115</v>
       </c>
@@ -5866,13 +5871,13 @@
         <f t="shared" si="9"/>
         <v>-266</v>
       </c>
-      <c r="S116" s="3">
+      <c r="S116" s="2">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+      <c r="A117" s="2">
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
@@ -5929,13 +5934,13 @@
         <f t="shared" si="9"/>
         <v>-271</v>
       </c>
-      <c r="S117" s="3">
+      <c r="S117" s="2">
         <f t="shared" si="11"/>
         <v>0.6875</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="A118" s="2">
         <f t="shared" si="8"/>
         <v>117</v>
       </c>
@@ -5992,13 +5997,13 @@
         <f t="shared" si="9"/>
         <v>-273</v>
       </c>
-      <c r="S118" s="3">
+      <c r="S118" s="2">
         <f t="shared" si="11"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+      <c r="A119" s="2">
         <f t="shared" si="8"/>
         <v>118</v>
       </c>
@@ -6055,13 +6060,13 @@
         <f t="shared" si="9"/>
         <v>-274</v>
       </c>
-      <c r="S119" s="3">
+      <c r="S119" s="2">
         <f t="shared" si="11"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+      <c r="A120" s="2">
         <f t="shared" si="8"/>
         <v>119</v>
       </c>
@@ -6118,13 +6123,13 @@
         <f t="shared" si="9"/>
         <v>-271</v>
       </c>
-      <c r="S120" s="3">
+      <c r="S120" s="2">
         <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="A121" s="2">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
@@ -6181,13 +6186,13 @@
         <f t="shared" si="9"/>
         <v>-279</v>
       </c>
-      <c r="S121" s="3">
+      <c r="S121" s="2">
         <f t="shared" si="11"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="A122" s="2">
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
@@ -6244,13 +6249,13 @@
         <f t="shared" si="9"/>
         <v>-276</v>
       </c>
-      <c r="S122" s="3">
+      <c r="S122" s="2">
         <f t="shared" si="11"/>
         <v>1.75</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+      <c r="A123" s="2">
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
@@ -6307,13 +6312,13 @@
         <f t="shared" si="9"/>
         <v>-279</v>
       </c>
-      <c r="S123" s="3">
+      <c r="S123" s="2">
         <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+      <c r="A124" s="2">
         <f t="shared" si="8"/>
         <v>123</v>
       </c>
@@ -6370,13 +6375,13 @@
         <f t="shared" si="9"/>
         <v>-283</v>
       </c>
-      <c r="S124" s="3">
+      <c r="S124" s="2">
         <f t="shared" si="11"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+      <c r="A125" s="2">
         <f t="shared" si="8"/>
         <v>124</v>
       </c>
@@ -6433,13 +6438,13 @@
         <f t="shared" si="9"/>
         <v>-283</v>
       </c>
-      <c r="S125" s="3">
+      <c r="S125" s="2">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+      <c r="A126" s="2">
         <f t="shared" si="8"/>
         <v>125</v>
       </c>
@@ -6496,13 +6501,13 @@
         <f t="shared" si="9"/>
         <v>-287</v>
       </c>
-      <c r="S126" s="3">
+      <c r="S126" s="2">
         <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+      <c r="A127" s="2">
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
@@ -6559,13 +6564,13 @@
         <f t="shared" si="9"/>
         <v>-287</v>
       </c>
-      <c r="S127" s="3">
+      <c r="S127" s="2">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+      <c r="A128" s="2">
         <f t="shared" si="8"/>
         <v>127</v>
       </c>
@@ -6622,13 +6627,13 @@
         <f t="shared" si="9"/>
         <v>-288</v>
       </c>
-      <c r="S128" s="3">
+      <c r="S128" s="2">
         <f t="shared" si="11"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+      <c r="A129" s="2">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
@@ -6685,13 +6690,13 @@
         <f t="shared" si="9"/>
         <v>-291</v>
       </c>
-      <c r="S129" s="3">
+      <c r="S129" s="2">
         <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+      <c r="A130" s="2">
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
@@ -6748,13 +6753,13 @@
         <f t="shared" si="9"/>
         <v>-286</v>
       </c>
-      <c r="S130" s="3">
+      <c r="S130" s="2">
         <f t="shared" si="11"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+      <c r="A131" s="2">
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
@@ -6811,14 +6816,14 @@
         <f t="shared" si="9"/>
         <v>-282</v>
       </c>
-      <c r="S131" s="3">
+      <c r="S131" s="2">
         <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
-        <f t="shared" ref="A132:A179" si="13">1+A131</f>
+      <c r="A132" s="2">
+        <f t="shared" ref="A132:A201" si="13">1+A131</f>
         <v>131</v>
       </c>
       <c r="B132" s="1">
@@ -6871,16 +6876,16 @@
         <v>-7</v>
       </c>
       <c r="R132">
-        <f t="shared" ref="R132:R179" si="14">Q132+R131</f>
+        <f t="shared" ref="R132:R195" si="14">Q132+R131</f>
         <v>-289</v>
       </c>
-      <c r="S132" s="3">
+      <c r="S132" s="2">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+      <c r="A133" s="2">
         <f t="shared" si="13"/>
         <v>132</v>
       </c>
@@ -6937,13 +6942,13 @@
         <f t="shared" si="14"/>
         <v>-290</v>
       </c>
-      <c r="S133" s="3">
+      <c r="S133" s="2">
         <f t="shared" si="11"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="A134" s="2">
         <f t="shared" si="13"/>
         <v>133</v>
       </c>
@@ -7001,13 +7006,13 @@
         <f t="shared" si="14"/>
         <v>-296</v>
       </c>
-      <c r="S134" s="3">
-        <f t="shared" ref="S134:S179" si="15">M134/N134</f>
+      <c r="S134" s="2">
+        <f t="shared" ref="S134:S197" si="15">M134/N134</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+      <c r="A135" s="2">
         <f t="shared" si="13"/>
         <v>134</v>
       </c>
@@ -7064,13 +7069,13 @@
         <f t="shared" si="14"/>
         <v>-296</v>
       </c>
-      <c r="S135" s="3">
+      <c r="S135" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+      <c r="A136" s="2">
         <f t="shared" si="13"/>
         <v>135</v>
       </c>
@@ -7127,13 +7132,13 @@
         <f t="shared" si="14"/>
         <v>-295</v>
       </c>
-      <c r="S136" s="3">
+      <c r="S136" s="2">
         <f t="shared" si="15"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+      <c r="A137" s="2">
         <f t="shared" si="13"/>
         <v>136</v>
       </c>
@@ -7191,13 +7196,13 @@
         <f t="shared" si="14"/>
         <v>-299</v>
       </c>
-      <c r="S137" s="3">
+      <c r="S137" s="2">
         <f t="shared" si="15"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+      <c r="A138" s="2">
         <f t="shared" si="13"/>
         <v>137</v>
       </c>
@@ -7255,13 +7260,13 @@
         <f t="shared" si="14"/>
         <v>-299</v>
       </c>
-      <c r="S138" s="3">
+      <c r="S138" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+      <c r="A139" s="2">
         <f t="shared" si="13"/>
         <v>138</v>
       </c>
@@ -7318,13 +7323,13 @@
         <f t="shared" si="14"/>
         <v>-299</v>
       </c>
-      <c r="S139" s="3">
+      <c r="S139" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+      <c r="A140" s="2">
         <f t="shared" si="13"/>
         <v>139</v>
       </c>
@@ -7382,13 +7387,13 @@
         <f t="shared" si="14"/>
         <v>-295</v>
       </c>
-      <c r="S140" s="3">
+      <c r="S140" s="2">
         <f t="shared" si="15"/>
         <v>1.4</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+      <c r="A141" s="2">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
@@ -7445,13 +7450,13 @@
         <f t="shared" si="14"/>
         <v>-300</v>
       </c>
-      <c r="S141" s="3">
+      <c r="S141" s="2">
         <f t="shared" si="15"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+      <c r="A142" s="2">
         <f t="shared" si="13"/>
         <v>141</v>
       </c>
@@ -7508,13 +7513,13 @@
         <f t="shared" si="14"/>
         <v>-295</v>
       </c>
-      <c r="S142" s="3">
+      <c r="S142" s="2">
         <f t="shared" si="15"/>
         <v>1.4166666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+      <c r="A143" s="2">
         <f t="shared" si="13"/>
         <v>142</v>
       </c>
@@ -7571,13 +7576,13 @@
         <f t="shared" si="14"/>
         <v>-291</v>
       </c>
-      <c r="S143" s="3">
+      <c r="S143" s="2">
         <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+      <c r="A144" s="2">
         <f t="shared" si="13"/>
         <v>143</v>
       </c>
@@ -7634,13 +7639,13 @@
         <f t="shared" si="14"/>
         <v>-292</v>
       </c>
-      <c r="S144" s="3">
+      <c r="S144" s="2">
         <f t="shared" si="15"/>
         <v>0.875</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+      <c r="A145" s="2">
         <f t="shared" si="13"/>
         <v>144</v>
       </c>
@@ -7697,13 +7702,13 @@
         <f t="shared" si="14"/>
         <v>-289</v>
       </c>
-      <c r="S145" s="3">
+      <c r="S145" s="2">
         <f t="shared" si="15"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+      <c r="A146" s="2">
         <f t="shared" si="13"/>
         <v>145</v>
       </c>
@@ -7760,13 +7765,13 @@
         <f t="shared" si="14"/>
         <v>-291</v>
       </c>
-      <c r="S146" s="3">
+      <c r="S146" s="2">
         <f t="shared" si="15"/>
         <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+      <c r="A147" s="2">
         <f t="shared" si="13"/>
         <v>146</v>
       </c>
@@ -7823,13 +7828,13 @@
         <f t="shared" si="14"/>
         <v>-290</v>
       </c>
-      <c r="S147" s="3">
+      <c r="S147" s="2">
         <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+      <c r="A148" s="2">
         <f t="shared" si="13"/>
         <v>147</v>
       </c>
@@ -7886,13 +7891,13 @@
         <f t="shared" si="14"/>
         <v>-290</v>
       </c>
-      <c r="S148" s="3">
+      <c r="S148" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+      <c r="A149" s="2">
         <f t="shared" si="13"/>
         <v>148</v>
       </c>
@@ -7949,13 +7954,13 @@
         <f t="shared" si="14"/>
         <v>-292</v>
       </c>
-      <c r="S149" s="3">
+      <c r="S149" s="2">
         <f t="shared" si="15"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+      <c r="A150" s="2">
         <f t="shared" si="13"/>
         <v>149</v>
       </c>
@@ -8012,13 +8017,13 @@
         <f t="shared" si="14"/>
         <v>-289</v>
       </c>
-      <c r="S150" s="3">
+      <c r="S150" s="2">
         <f t="shared" si="15"/>
         <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+      <c r="A151" s="2">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
@@ -8075,13 +8080,13 @@
         <f t="shared" si="14"/>
         <v>-278</v>
       </c>
-      <c r="S151" s="3">
+      <c r="S151" s="2">
         <f t="shared" si="15"/>
         <v>1.9166666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+      <c r="A152" s="2">
         <f t="shared" si="13"/>
         <v>151</v>
       </c>
@@ -8138,13 +8143,13 @@
         <f t="shared" si="14"/>
         <v>-274</v>
       </c>
-      <c r="S152" s="3">
+      <c r="S152" s="2">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+      <c r="A153" s="2">
         <f t="shared" si="13"/>
         <v>152</v>
       </c>
@@ -8201,13 +8206,13 @@
         <f t="shared" si="14"/>
         <v>-272</v>
       </c>
-      <c r="S153" s="3">
+      <c r="S153" s="2">
         <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+      <c r="A154" s="2">
         <f t="shared" si="13"/>
         <v>153</v>
       </c>
@@ -8264,13 +8269,13 @@
         <f t="shared" si="14"/>
         <v>-275</v>
       </c>
-      <c r="S154" s="3">
+      <c r="S154" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+      <c r="A155" s="2">
         <f t="shared" si="13"/>
         <v>154</v>
       </c>
@@ -8327,13 +8332,13 @@
         <f t="shared" si="14"/>
         <v>-273</v>
       </c>
-      <c r="S155" s="3">
+      <c r="S155" s="2">
         <f t="shared" si="15"/>
         <v>1.1052631578947369</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+      <c r="A156" s="2">
         <f t="shared" si="13"/>
         <v>155</v>
       </c>
@@ -8390,13 +8395,13 @@
         <f t="shared" si="14"/>
         <v>-274</v>
       </c>
-      <c r="S156" s="3">
+      <c r="S156" s="2">
         <f t="shared" si="15"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+      <c r="A157" s="2">
         <f t="shared" si="13"/>
         <v>156</v>
       </c>
@@ -8453,13 +8458,13 @@
         <f t="shared" si="14"/>
         <v>-272</v>
       </c>
-      <c r="S157" s="3">
+      <c r="S157" s="2">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+      <c r="A158" s="2">
         <f t="shared" si="13"/>
         <v>157</v>
       </c>
@@ -8516,13 +8521,13 @@
         <f t="shared" si="14"/>
         <v>-272</v>
       </c>
-      <c r="S158" s="3">
+      <c r="S158" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
+      <c r="A159" s="2">
         <f t="shared" si="13"/>
         <v>158</v>
       </c>
@@ -8579,13 +8584,13 @@
         <f t="shared" si="14"/>
         <v>-267</v>
       </c>
-      <c r="S159" s="3">
+      <c r="S159" s="2">
         <f t="shared" si="15"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+      <c r="A160" s="2">
         <f t="shared" si="13"/>
         <v>159</v>
       </c>
@@ -8642,13 +8647,13 @@
         <f t="shared" si="14"/>
         <v>-281</v>
       </c>
-      <c r="S160" s="3">
+      <c r="S160" s="2">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
+      <c r="A161" s="2">
         <f t="shared" si="13"/>
         <v>160</v>
       </c>
@@ -8705,13 +8710,13 @@
         <f t="shared" si="14"/>
         <v>-277</v>
       </c>
-      <c r="S161" s="3">
+      <c r="S161" s="2">
         <f t="shared" si="15"/>
         <v>1.2</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="A162" s="2">
         <f t="shared" si="13"/>
         <v>161</v>
       </c>
@@ -8761,20 +8766,20 @@
         <v>47</v>
       </c>
       <c r="Q162">
-        <f t="shared" ref="Q162:Q179" si="16">M162-N162</f>
+        <f t="shared" ref="Q162:Q225" si="16">M162-N162</f>
         <v>-4</v>
       </c>
       <c r="R162">
         <f t="shared" si="14"/>
         <v>-281</v>
       </c>
-      <c r="S162" s="3">
+      <c r="S162" s="2">
         <f t="shared" si="15"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+      <c r="A163" s="2">
         <f t="shared" si="13"/>
         <v>162</v>
       </c>
@@ -8832,13 +8837,13 @@
         <f t="shared" si="14"/>
         <v>-286</v>
       </c>
-      <c r="S163" s="3">
+      <c r="S163" s="2">
         <f t="shared" si="15"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="A164" s="2">
         <f t="shared" si="13"/>
         <v>163</v>
       </c>
@@ -8895,13 +8900,13 @@
         <f t="shared" si="14"/>
         <v>-287</v>
       </c>
-      <c r="S164" s="3">
+      <c r="S164" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
+      <c r="A165" s="2">
         <f t="shared" si="13"/>
         <v>164</v>
       </c>
@@ -8958,13 +8963,13 @@
         <f t="shared" si="14"/>
         <v>-279</v>
       </c>
-      <c r="S165" s="3">
+      <c r="S165" s="2">
         <f t="shared" si="15"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+      <c r="A166" s="2">
         <f t="shared" si="13"/>
         <v>165</v>
       </c>
@@ -9021,13 +9026,13 @@
         <f t="shared" si="14"/>
         <v>-280</v>
       </c>
-      <c r="S166" s="3">
+      <c r="S166" s="2">
         <f t="shared" si="15"/>
         <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
+      <c r="A167" s="2">
         <f t="shared" si="13"/>
         <v>166</v>
       </c>
@@ -9084,13 +9089,13 @@
         <f t="shared" si="14"/>
         <v>-285</v>
       </c>
-      <c r="S167" s="3">
+      <c r="S167" s="2">
         <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+      <c r="A168" s="2">
         <f t="shared" si="13"/>
         <v>167</v>
       </c>
@@ -9147,13 +9152,13 @@
         <f t="shared" si="14"/>
         <v>-277</v>
       </c>
-      <c r="S168" s="3">
+      <c r="S168" s="2">
         <f t="shared" si="15"/>
         <v>2.6</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
+      <c r="A169" s="2">
         <f t="shared" si="13"/>
         <v>168</v>
       </c>
@@ -9210,13 +9215,13 @@
         <f t="shared" si="14"/>
         <v>-275</v>
       </c>
-      <c r="S169" s="3">
+      <c r="S169" s="2">
         <f t="shared" si="15"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+      <c r="A170" s="2">
         <f t="shared" si="13"/>
         <v>169</v>
       </c>
@@ -9273,13 +9278,13 @@
         <f t="shared" si="14"/>
         <v>-275</v>
       </c>
-      <c r="S170" s="3">
+      <c r="S170" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
+      <c r="A171" s="2">
         <f t="shared" si="13"/>
         <v>170</v>
       </c>
@@ -9336,13 +9341,13 @@
         <f t="shared" si="14"/>
         <v>-274</v>
       </c>
-      <c r="S171" s="3">
+      <c r="S171" s="2">
         <f t="shared" si="15"/>
         <v>1.2</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
+      <c r="A172" s="2">
         <f t="shared" si="13"/>
         <v>171</v>
       </c>
@@ -9357,6 +9362,9 @@
       </c>
       <c r="E172" t="s">
         <v>12</v>
+      </c>
+      <c r="F172" t="s">
+        <v>42</v>
       </c>
       <c r="G172" t="s">
         <v>31</v>
@@ -9396,13 +9404,13 @@
         <f t="shared" si="14"/>
         <v>-278</v>
       </c>
-      <c r="S172" s="3">
+      <c r="S172" s="2">
         <f t="shared" si="15"/>
         <v>0.80952380952380953</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
+      <c r="A173" s="2">
         <f t="shared" si="13"/>
         <v>172</v>
       </c>
@@ -9415,6 +9423,12 @@
       <c r="D173" t="s">
         <v>6</v>
       </c>
+      <c r="E173" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" t="s">
+        <v>42</v>
+      </c>
       <c r="G173" t="s">
         <v>31</v>
       </c>
@@ -9433,21 +9447,33 @@
       <c r="L173" t="s">
         <v>4</v>
       </c>
+      <c r="M173">
+        <v>11</v>
+      </c>
+      <c r="N173">
+        <v>21</v>
+      </c>
+      <c r="O173">
+        <v>10205</v>
+      </c>
+      <c r="P173" t="s">
+        <v>43</v>
+      </c>
       <c r="Q173">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="R173">
         <f t="shared" si="14"/>
-        <v>-278</v>
-      </c>
-      <c r="S173" s="3" t="e">
+        <v>-288</v>
+      </c>
+      <c r="S173" s="2">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
+      <c r="A174" s="2">
         <f t="shared" si="13"/>
         <v>173</v>
       </c>
@@ -9460,6 +9486,12 @@
       <c r="D174" t="s">
         <v>6</v>
       </c>
+      <c r="E174" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" t="s">
+        <v>49</v>
+      </c>
       <c r="G174" t="s">
         <v>31</v>
       </c>
@@ -9478,21 +9510,33 @@
       <c r="L174" t="s">
         <v>4</v>
       </c>
+      <c r="M174">
+        <v>15</v>
+      </c>
+      <c r="N174">
+        <v>9</v>
+      </c>
+      <c r="O174">
+        <v>9091</v>
+      </c>
+      <c r="P174" t="s">
+        <v>47</v>
+      </c>
       <c r="Q174">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R174">
         <f t="shared" si="14"/>
-        <v>-278</v>
-      </c>
-      <c r="S174" s="3" t="e">
+        <v>-282</v>
+      </c>
+      <c r="S174" s="2">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
+      <c r="A175" s="2">
         <f t="shared" si="13"/>
         <v>174</v>
       </c>
@@ -9505,6 +9549,12 @@
       <c r="D175" t="s">
         <v>6</v>
       </c>
+      <c r="E175" t="s">
+        <v>24</v>
+      </c>
+      <c r="F175" t="s">
+        <v>42</v>
+      </c>
       <c r="G175" t="s">
         <v>31</v>
       </c>
@@ -9523,88 +9573,4299 @@
       <c r="L175" t="s">
         <v>4</v>
       </c>
+      <c r="M175">
+        <v>11</v>
+      </c>
+      <c r="N175">
+        <v>17</v>
+      </c>
+      <c r="O175">
+        <v>5375</v>
+      </c>
+      <c r="P175" t="s">
+        <v>47</v>
+      </c>
       <c r="Q175">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="R175">
         <f t="shared" si="14"/>
-        <v>-278</v>
-      </c>
-      <c r="S175" s="3" t="e">
+        <v>-288</v>
+      </c>
+      <c r="S175" s="2">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
+      <c r="A176" s="2">
         <f t="shared" si="13"/>
         <v>175</v>
       </c>
+      <c r="B176" s="1">
+        <v>43506</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>21</v>
+      </c>
+      <c r="E176" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" t="s">
+        <v>46</v>
+      </c>
+      <c r="G176" t="s">
+        <v>30</v>
+      </c>
+      <c r="H176" t="s">
+        <v>29</v>
+      </c>
+      <c r="I176" t="s">
+        <v>38</v>
+      </c>
+      <c r="J176" t="s">
+        <v>38</v>
+      </c>
+      <c r="K176" t="s">
+        <v>40</v>
+      </c>
+      <c r="L176" t="s">
+        <v>56</v>
+      </c>
+      <c r="M176">
+        <v>4</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176">
+        <v>1815</v>
+      </c>
+      <c r="P176" t="s">
+        <v>47</v>
+      </c>
       <c r="Q176">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R176">
         <f t="shared" si="14"/>
-        <v>-278</v>
-      </c>
-      <c r="S176" s="3" t="e">
+        <v>-287</v>
+      </c>
+      <c r="S176" s="2">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
+      <c r="A177" s="2">
         <f t="shared" si="13"/>
         <v>176</v>
       </c>
+      <c r="B177" s="1">
+        <v>43506</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>21</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>46</v>
+      </c>
+      <c r="G177" t="s">
+        <v>30</v>
+      </c>
+      <c r="H177" t="s">
+        <v>29</v>
+      </c>
+      <c r="I177" t="s">
+        <v>40</v>
+      </c>
+      <c r="J177" t="s">
+        <v>38</v>
+      </c>
+      <c r="K177" t="s">
+        <v>40</v>
+      </c>
+      <c r="L177" t="s">
+        <v>56</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177">
+        <v>2220</v>
+      </c>
+      <c r="P177" t="s">
+        <v>43</v>
+      </c>
       <c r="Q177">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R177">
         <f t="shared" si="14"/>
-        <v>-278</v>
-      </c>
-      <c r="S177" s="3" t="e">
+        <v>-288</v>
+      </c>
+      <c r="S177" s="2">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
+      <c r="A178" s="2">
         <f t="shared" si="13"/>
         <v>177</v>
       </c>
+      <c r="B178" s="1">
+        <v>43506</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178" t="s">
+        <v>21</v>
+      </c>
+      <c r="E178" t="s">
+        <v>24</v>
+      </c>
+      <c r="F178" t="s">
+        <v>46</v>
+      </c>
+      <c r="G178" t="s">
+        <v>30</v>
+      </c>
+      <c r="H178" t="s">
+        <v>29</v>
+      </c>
+      <c r="I178" t="s">
+        <v>40</v>
+      </c>
+      <c r="J178" t="s">
+        <v>38</v>
+      </c>
+      <c r="K178" t="s">
+        <v>40</v>
+      </c>
+      <c r="L178" t="s">
+        <v>56</v>
+      </c>
+      <c r="M178">
+        <v>11</v>
+      </c>
+      <c r="N178">
+        <v>16</v>
+      </c>
+      <c r="O178">
+        <v>6674</v>
+      </c>
+      <c r="P178" t="s">
+        <v>47</v>
+      </c>
       <c r="Q178">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="R178">
         <f t="shared" si="14"/>
-        <v>-278</v>
-      </c>
-      <c r="S178" s="3" t="e">
+        <v>-293</v>
+      </c>
+      <c r="S178" s="2">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
+      <c r="A179" s="2">
         <f t="shared" si="13"/>
         <v>178</v>
       </c>
+      <c r="B179" s="1">
+        <v>43506</v>
+      </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>21</v>
+      </c>
+      <c r="E179" t="s">
+        <v>24</v>
+      </c>
+      <c r="F179" t="s">
+        <v>46</v>
+      </c>
+      <c r="G179" t="s">
+        <v>30</v>
+      </c>
+      <c r="H179" t="s">
+        <v>29</v>
+      </c>
+      <c r="I179" t="s">
+        <v>38</v>
+      </c>
+      <c r="J179" t="s">
+        <v>38</v>
+      </c>
+      <c r="K179" t="s">
+        <v>40</v>
+      </c>
+      <c r="L179" t="s">
+        <v>56</v>
+      </c>
+      <c r="M179">
+        <v>7</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179">
+        <v>2899</v>
+      </c>
+      <c r="P179" t="s">
+        <v>43</v>
+      </c>
       <c r="Q179">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R179">
         <f t="shared" si="14"/>
-        <v>-278</v>
-      </c>
-      <c r="S179" s="3" t="e">
+        <v>-290</v>
+      </c>
+      <c r="S179" s="2">
         <f t="shared" si="15"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <f t="shared" si="13"/>
+        <v>179</v>
+      </c>
+      <c r="B180" s="1">
+        <v>43506</v>
+      </c>
+      <c r="C180">
+        <v>5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>21</v>
+      </c>
+      <c r="E180" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" t="s">
+        <v>46</v>
+      </c>
+      <c r="G180" t="s">
+        <v>30</v>
+      </c>
+      <c r="H180" t="s">
+        <v>29</v>
+      </c>
+      <c r="I180" t="s">
+        <v>40</v>
+      </c>
+      <c r="J180" t="s">
+        <v>38</v>
+      </c>
+      <c r="K180" t="s">
+        <v>40</v>
+      </c>
+      <c r="L180" t="s">
+        <v>56</v>
+      </c>
+      <c r="M180">
+        <v>11</v>
+      </c>
+      <c r="N180">
+        <v>7</v>
+      </c>
+      <c r="O180">
+        <v>5581</v>
+      </c>
+      <c r="P180" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q180">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="R180">
+        <f t="shared" si="14"/>
+        <v>-286</v>
+      </c>
+      <c r="S180" s="2">
+        <f t="shared" si="15"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="1">
+        <v>43506</v>
+      </c>
+      <c r="C181">
+        <v>6</v>
+      </c>
+      <c r="D181" t="s">
+        <v>21</v>
+      </c>
+      <c r="E181" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" t="s">
+        <v>46</v>
+      </c>
+      <c r="G181" t="s">
+        <v>30</v>
+      </c>
+      <c r="H181" t="s">
+        <v>29</v>
+      </c>
+      <c r="I181" t="s">
+        <v>40</v>
+      </c>
+      <c r="J181" t="s">
+        <v>38</v>
+      </c>
+      <c r="K181" t="s">
+        <v>40</v>
+      </c>
+      <c r="L181" t="s">
+        <v>56</v>
+      </c>
+      <c r="M181">
+        <v>7</v>
+      </c>
+      <c r="N181">
+        <v>7</v>
+      </c>
+      <c r="O181">
+        <v>6183</v>
+      </c>
+      <c r="P181" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q181">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <f t="shared" si="14"/>
+        <v>-286</v>
+      </c>
+      <c r="S181" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <f t="shared" si="13"/>
+        <v>181</v>
+      </c>
+      <c r="B182" s="1">
+        <v>43512</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" t="s">
+        <v>49</v>
+      </c>
+      <c r="G182" t="s">
+        <v>28</v>
+      </c>
+      <c r="H182" t="s">
+        <v>52</v>
+      </c>
+      <c r="I182" t="s">
+        <v>40</v>
+      </c>
+      <c r="J182" t="s">
+        <v>38</v>
+      </c>
+      <c r="K182" t="s">
+        <v>40</v>
+      </c>
+      <c r="L182" t="s">
+        <v>4</v>
+      </c>
+      <c r="M182">
+        <v>5</v>
+      </c>
+      <c r="N182">
+        <v>11</v>
+      </c>
+      <c r="O182">
+        <v>2904</v>
+      </c>
+      <c r="P182" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q182">
+        <f t="shared" si="16"/>
+        <v>-6</v>
+      </c>
+      <c r="R182">
+        <f t="shared" si="14"/>
+        <v>-292</v>
+      </c>
+      <c r="S182" s="2">
+        <f t="shared" si="15"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <f t="shared" si="13"/>
+        <v>182</v>
+      </c>
+      <c r="B183" s="1">
+        <v>43512</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" t="s">
+        <v>49</v>
+      </c>
+      <c r="G183" t="s">
+        <v>28</v>
+      </c>
+      <c r="H183" t="s">
+        <v>52</v>
+      </c>
+      <c r="I183" t="s">
+        <v>40</v>
+      </c>
+      <c r="J183" t="s">
+        <v>38</v>
+      </c>
+      <c r="K183" t="s">
+        <v>40</v>
+      </c>
+      <c r="L183" t="s">
+        <v>4</v>
+      </c>
+      <c r="M183">
+        <v>13</v>
+      </c>
+      <c r="N183">
+        <v>14</v>
+      </c>
+      <c r="O183">
+        <f>13077-O182</f>
+        <v>10173</v>
+      </c>
+      <c r="P183" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q183">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="R183">
+        <f t="shared" si="14"/>
+        <v>-293</v>
+      </c>
+      <c r="S183" s="2">
+        <f t="shared" si="15"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <f t="shared" si="13"/>
+        <v>183</v>
+      </c>
+      <c r="B184" s="1">
+        <v>43512</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s">
+        <v>49</v>
+      </c>
+      <c r="G184" t="s">
+        <v>28</v>
+      </c>
+      <c r="H184" t="s">
+        <v>52</v>
+      </c>
+      <c r="I184" t="s">
+        <v>40</v>
+      </c>
+      <c r="J184" t="s">
+        <v>38</v>
+      </c>
+      <c r="K184" t="s">
+        <v>38</v>
+      </c>
+      <c r="L184" t="s">
+        <v>51</v>
+      </c>
+      <c r="M184">
+        <v>5</v>
+      </c>
+      <c r="N184">
+        <v>17</v>
+      </c>
+      <c r="O184">
+        <v>4942</v>
+      </c>
+      <c r="P184" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q184">
+        <f t="shared" si="16"/>
+        <v>-12</v>
+      </c>
+      <c r="R184">
+        <f t="shared" si="14"/>
+        <v>-305</v>
+      </c>
+      <c r="S184" s="2">
+        <f t="shared" si="15"/>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <f t="shared" si="13"/>
+        <v>184</v>
+      </c>
+      <c r="B185" s="1">
+        <v>43512</v>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" t="s">
+        <v>16</v>
+      </c>
+      <c r="F185" t="s">
+        <v>46</v>
+      </c>
+      <c r="G185" t="s">
+        <v>31</v>
+      </c>
+      <c r="H185" t="s">
+        <v>33</v>
+      </c>
+      <c r="I185" t="s">
+        <v>40</v>
+      </c>
+      <c r="J185" t="s">
+        <v>38</v>
+      </c>
+      <c r="K185" t="s">
+        <v>40</v>
+      </c>
+      <c r="L185" t="s">
+        <v>4</v>
+      </c>
+      <c r="M185">
+        <v>13</v>
+      </c>
+      <c r="N185">
+        <v>10</v>
+      </c>
+      <c r="O185">
+        <v>10749</v>
+      </c>
+      <c r="P185" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q185">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="R185">
+        <f t="shared" si="14"/>
+        <v>-302</v>
+      </c>
+      <c r="S185" s="2">
+        <f t="shared" si="15"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+      <c r="B186" s="1">
+        <v>43512</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="D186" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" t="s">
+        <v>16</v>
+      </c>
+      <c r="F186" t="s">
+        <v>46</v>
+      </c>
+      <c r="G186" t="s">
+        <v>31</v>
+      </c>
+      <c r="H186" t="s">
+        <v>33</v>
+      </c>
+      <c r="I186" t="s">
+        <v>40</v>
+      </c>
+      <c r="J186" t="s">
+        <v>38</v>
+      </c>
+      <c r="K186" t="s">
+        <v>40</v>
+      </c>
+      <c r="L186" t="s">
+        <v>4</v>
+      </c>
+      <c r="M186">
+        <v>9</v>
+      </c>
+      <c r="N186">
+        <v>17</v>
+      </c>
+      <c r="O186">
+        <v>5462</v>
+      </c>
+      <c r="P186" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q186">
+        <f t="shared" si="16"/>
+        <v>-8</v>
+      </c>
+      <c r="R186">
+        <f t="shared" si="14"/>
+        <v>-310</v>
+      </c>
+      <c r="S186" s="2">
+        <f t="shared" si="15"/>
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <f t="shared" si="13"/>
+        <v>186</v>
+      </c>
+      <c r="B187" s="1">
+        <v>43512</v>
+      </c>
+      <c r="C187">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" t="s">
+        <v>17</v>
+      </c>
+      <c r="F187" t="s">
+        <v>46</v>
+      </c>
+      <c r="G187" t="s">
+        <v>31</v>
+      </c>
+      <c r="H187" t="s">
+        <v>33</v>
+      </c>
+      <c r="I187" t="s">
+        <v>40</v>
+      </c>
+      <c r="J187" t="s">
+        <v>38</v>
+      </c>
+      <c r="K187" t="s">
+        <v>40</v>
+      </c>
+      <c r="L187" t="s">
+        <v>4</v>
+      </c>
+      <c r="M187">
+        <v>9</v>
+      </c>
+      <c r="N187">
+        <v>17</v>
+      </c>
+      <c r="O187">
+        <v>9080</v>
+      </c>
+      <c r="P187" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q187">
+        <f t="shared" si="16"/>
+        <v>-8</v>
+      </c>
+      <c r="R187">
+        <f t="shared" si="14"/>
+        <v>-318</v>
+      </c>
+      <c r="S187" s="2">
+        <f t="shared" si="15"/>
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <f t="shared" si="13"/>
+        <v>187</v>
+      </c>
+      <c r="B188" s="1">
+        <v>43512</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" t="s">
+        <v>46</v>
+      </c>
+      <c r="G188" t="s">
+        <v>31</v>
+      </c>
+      <c r="H188" t="s">
+        <v>33</v>
+      </c>
+      <c r="I188" t="s">
+        <v>38</v>
+      </c>
+      <c r="J188" t="s">
+        <v>38</v>
+      </c>
+      <c r="K188" t="s">
+        <v>40</v>
+      </c>
+      <c r="L188" t="s">
+        <v>4</v>
+      </c>
+      <c r="M188">
+        <v>3</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>6083</v>
+      </c>
+      <c r="P188" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q188">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="R188">
+        <f t="shared" si="14"/>
+        <v>-315</v>
+      </c>
+      <c r="S188" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <f t="shared" si="13"/>
+        <v>188</v>
+      </c>
+      <c r="B189" s="1">
+        <v>43512</v>
+      </c>
+      <c r="C189">
+        <v>8</v>
+      </c>
+      <c r="D189" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" t="s">
+        <v>16</v>
+      </c>
+      <c r="F189" t="s">
+        <v>46</v>
+      </c>
+      <c r="G189" t="s">
+        <v>31</v>
+      </c>
+      <c r="H189" t="s">
+        <v>33</v>
+      </c>
+      <c r="I189" t="s">
+        <v>40</v>
+      </c>
+      <c r="J189" t="s">
+        <v>38</v>
+      </c>
+      <c r="K189" t="s">
+        <v>40</v>
+      </c>
+      <c r="L189" t="s">
+        <v>4</v>
+      </c>
+      <c r="M189">
+        <v>7</v>
+      </c>
+      <c r="N189">
+        <v>5</v>
+      </c>
+      <c r="O189">
+        <v>5071</v>
+      </c>
+      <c r="P189" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q189">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="R189">
+        <f t="shared" si="14"/>
+        <v>-313</v>
+      </c>
+      <c r="S189" s="2">
+        <f t="shared" si="15"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <f t="shared" si="13"/>
+        <v>189</v>
+      </c>
+      <c r="B190" s="1">
+        <v>43512</v>
+      </c>
+      <c r="C190">
+        <v>9</v>
+      </c>
+      <c r="D190" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" t="s">
+        <v>46</v>
+      </c>
+      <c r="G190" t="s">
+        <v>31</v>
+      </c>
+      <c r="H190" t="s">
+        <v>33</v>
+      </c>
+      <c r="I190" t="s">
+        <v>40</v>
+      </c>
+      <c r="J190" t="s">
+        <v>38</v>
+      </c>
+      <c r="K190" t="s">
+        <v>40</v>
+      </c>
+      <c r="L190" t="s">
+        <v>4</v>
+      </c>
+      <c r="M190">
+        <v>9</v>
+      </c>
+      <c r="N190">
+        <v>8</v>
+      </c>
+      <c r="O190">
+        <v>9531</v>
+      </c>
+      <c r="P190" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q190">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="R190">
+        <f t="shared" si="14"/>
+        <v>-312</v>
+      </c>
+      <c r="S190" s="2">
+        <f t="shared" si="15"/>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <f t="shared" si="13"/>
+        <v>190</v>
+      </c>
+      <c r="B191" s="1">
+        <v>43512</v>
+      </c>
+      <c r="C191">
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s">
+        <v>46</v>
+      </c>
+      <c r="G191" t="s">
+        <v>31</v>
+      </c>
+      <c r="H191" t="s">
+        <v>33</v>
+      </c>
+      <c r="I191" t="s">
+        <v>40</v>
+      </c>
+      <c r="J191" t="s">
+        <v>38</v>
+      </c>
+      <c r="K191" t="s">
+        <v>40</v>
+      </c>
+      <c r="L191" t="s">
+        <v>4</v>
+      </c>
+      <c r="M191">
+        <v>10</v>
+      </c>
+      <c r="N191">
+        <v>9</v>
+      </c>
+      <c r="O191">
+        <v>6886</v>
+      </c>
+      <c r="P191" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q191">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="R191">
+        <f t="shared" si="14"/>
+        <v>-311</v>
+      </c>
+      <c r="S191" s="2">
+        <f t="shared" si="15"/>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <f t="shared" si="13"/>
+        <v>191</v>
+      </c>
+      <c r="B192" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>21</v>
+      </c>
+      <c r="E192" t="s">
+        <v>24</v>
+      </c>
+      <c r="F192" t="s">
+        <v>46</v>
+      </c>
+      <c r="G192" t="s">
+        <v>31</v>
+      </c>
+      <c r="H192" t="s">
+        <v>33</v>
+      </c>
+      <c r="I192" t="s">
+        <v>40</v>
+      </c>
+      <c r="J192" t="s">
+        <v>38</v>
+      </c>
+      <c r="K192" t="s">
+        <v>40</v>
+      </c>
+      <c r="L192" t="s">
+        <v>4</v>
+      </c>
+      <c r="M192">
+        <v>9</v>
+      </c>
+      <c r="N192">
+        <v>10</v>
+      </c>
+      <c r="O192">
+        <v>2903</v>
+      </c>
+      <c r="P192" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q192">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="R192">
+        <f t="shared" si="14"/>
+        <v>-312</v>
+      </c>
+      <c r="S192" s="2">
+        <f t="shared" si="15"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <f t="shared" si="13"/>
+        <v>192</v>
+      </c>
+      <c r="B193" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193" t="s">
+        <v>54</v>
+      </c>
+      <c r="E193" t="s">
+        <v>24</v>
+      </c>
+      <c r="F193" t="s">
+        <v>46</v>
+      </c>
+      <c r="G193" t="s">
+        <v>31</v>
+      </c>
+      <c r="H193" t="s">
+        <v>33</v>
+      </c>
+      <c r="I193" t="s">
+        <v>40</v>
+      </c>
+      <c r="J193" t="s">
+        <v>38</v>
+      </c>
+      <c r="K193" t="s">
+        <v>40</v>
+      </c>
+      <c r="L193" t="s">
+        <v>4</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>3072</v>
+      </c>
+      <c r="P193" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q193">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <f t="shared" si="14"/>
+        <v>-312</v>
+      </c>
+      <c r="S193" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <f t="shared" si="13"/>
+        <v>193</v>
+      </c>
+      <c r="B194" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194" t="s">
+        <v>18</v>
+      </c>
+      <c r="F194" t="s">
+        <v>49</v>
+      </c>
+      <c r="G194" t="s">
+        <v>31</v>
+      </c>
+      <c r="H194" t="s">
+        <v>33</v>
+      </c>
+      <c r="I194" t="s">
+        <v>40</v>
+      </c>
+      <c r="J194" t="s">
+        <v>38</v>
+      </c>
+      <c r="K194" t="s">
+        <v>40</v>
+      </c>
+      <c r="L194" t="s">
+        <v>4</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>12</v>
+      </c>
+      <c r="O194">
+        <v>1721</v>
+      </c>
+      <c r="P194" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q194">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+      <c r="R194">
+        <f t="shared" si="14"/>
+        <v>-322</v>
+      </c>
+      <c r="S194" s="2">
+        <f t="shared" si="15"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <f t="shared" si="13"/>
+        <v>194</v>
+      </c>
+      <c r="B195" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C195">
+        <v>4</v>
+      </c>
+      <c r="D195" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" t="s">
+        <v>42</v>
+      </c>
+      <c r="G195" t="s">
+        <v>31</v>
+      </c>
+      <c r="H195" t="s">
+        <v>33</v>
+      </c>
+      <c r="I195" t="s">
+        <v>40</v>
+      </c>
+      <c r="J195" t="s">
+        <v>38</v>
+      </c>
+      <c r="K195" t="s">
+        <v>40</v>
+      </c>
+      <c r="L195" t="s">
+        <v>4</v>
+      </c>
+      <c r="M195">
+        <v>6</v>
+      </c>
+      <c r="N195">
+        <v>7</v>
+      </c>
+      <c r="O195">
+        <v>1864</v>
+      </c>
+      <c r="P195" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q195">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="R195">
+        <f t="shared" si="14"/>
+        <v>-323</v>
+      </c>
+      <c r="S195" s="2">
+        <f t="shared" si="15"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <f t="shared" si="13"/>
+        <v>195</v>
+      </c>
+      <c r="B196" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C196">
+        <v>5</v>
+      </c>
+      <c r="D196" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" t="s">
+        <v>42</v>
+      </c>
+      <c r="G196" t="s">
+        <v>31</v>
+      </c>
+      <c r="H196" t="s">
+        <v>33</v>
+      </c>
+      <c r="I196" t="s">
+        <v>40</v>
+      </c>
+      <c r="J196" t="s">
+        <v>38</v>
+      </c>
+      <c r="K196" t="s">
+        <v>40</v>
+      </c>
+      <c r="L196" t="s">
+        <v>4</v>
+      </c>
+      <c r="M196">
+        <v>5</v>
+      </c>
+      <c r="N196">
+        <v>22</v>
+      </c>
+      <c r="O196">
+        <f>9284-O195</f>
+        <v>7420</v>
+      </c>
+      <c r="P196" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q196">
+        <f t="shared" si="16"/>
+        <v>-17</v>
+      </c>
+      <c r="R196">
+        <f t="shared" ref="R196:R249" si="17">Q196+R195</f>
+        <v>-340</v>
+      </c>
+      <c r="S196" s="2">
+        <f t="shared" si="15"/>
+        <v>0.22727272727272727</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <f t="shared" si="13"/>
+        <v>196</v>
+      </c>
+      <c r="B197" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C197">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>19</v>
+      </c>
+      <c r="E197" t="s">
+        <v>18</v>
+      </c>
+      <c r="F197" t="s">
+        <v>42</v>
+      </c>
+      <c r="G197" t="s">
+        <v>31</v>
+      </c>
+      <c r="H197" t="s">
+        <v>33</v>
+      </c>
+      <c r="I197" t="s">
+        <v>38</v>
+      </c>
+      <c r="J197" t="s">
+        <v>38</v>
+      </c>
+      <c r="K197" t="s">
+        <v>40</v>
+      </c>
+      <c r="L197" t="s">
+        <v>4</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197">
+        <v>527</v>
+      </c>
+      <c r="P197" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q197">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="R197">
+        <f t="shared" si="17"/>
+        <v>-341</v>
+      </c>
+      <c r="S197" s="2">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <f t="shared" si="13"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C198">
+        <v>7</v>
+      </c>
+      <c r="D198" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" t="s">
+        <v>18</v>
+      </c>
+      <c r="F198" t="s">
+        <v>42</v>
+      </c>
+      <c r="G198" t="s">
+        <v>31</v>
+      </c>
+      <c r="H198" t="s">
+        <v>33</v>
+      </c>
+      <c r="I198" t="s">
+        <v>40</v>
+      </c>
+      <c r="J198" t="s">
+        <v>38</v>
+      </c>
+      <c r="K198" t="s">
+        <v>40</v>
+      </c>
+      <c r="L198" t="s">
+        <v>4</v>
+      </c>
+      <c r="M198">
+        <v>7</v>
+      </c>
+      <c r="N198">
+        <v>10</v>
+      </c>
+      <c r="O198">
+        <f>4015-O197</f>
+        <v>3488</v>
+      </c>
+      <c r="P198" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q198">
+        <f t="shared" si="16"/>
+        <v>-3</v>
+      </c>
+      <c r="R198">
+        <f t="shared" si="17"/>
+        <v>-344</v>
+      </c>
+      <c r="S198" s="2">
+        <f t="shared" ref="S198:S249" si="18">M198/N198</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <f t="shared" si="13"/>
+        <v>198</v>
+      </c>
+      <c r="B199" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C199">
+        <v>8</v>
+      </c>
+      <c r="D199" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199" t="s">
+        <v>46</v>
+      </c>
+      <c r="G199" t="s">
+        <v>31</v>
+      </c>
+      <c r="H199" t="s">
+        <v>33</v>
+      </c>
+      <c r="I199" t="s">
+        <v>40</v>
+      </c>
+      <c r="J199" t="s">
+        <v>38</v>
+      </c>
+      <c r="K199" t="s">
+        <v>40</v>
+      </c>
+      <c r="L199" t="s">
+        <v>4</v>
+      </c>
+      <c r="M199">
+        <v>13</v>
+      </c>
+      <c r="N199">
+        <v>14</v>
+      </c>
+      <c r="O199">
+        <f>12513-O198+O197</f>
+        <v>9552</v>
+      </c>
+      <c r="P199" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q199">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="R199">
+        <f t="shared" si="17"/>
+        <v>-345</v>
+      </c>
+      <c r="S199" s="2">
+        <f t="shared" si="18"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <f t="shared" si="13"/>
+        <v>199</v>
+      </c>
+      <c r="B200" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C200">
+        <v>9</v>
+      </c>
+      <c r="D200" t="s">
+        <v>21</v>
+      </c>
+      <c r="E200" t="s">
+        <v>7</v>
+      </c>
+      <c r="F200" t="s">
+        <v>46</v>
+      </c>
+      <c r="G200" t="s">
+        <v>31</v>
+      </c>
+      <c r="H200" t="s">
+        <v>33</v>
+      </c>
+      <c r="I200" t="s">
+        <v>38</v>
+      </c>
+      <c r="J200" t="s">
+        <v>38</v>
+      </c>
+      <c r="K200" t="s">
+        <v>40</v>
+      </c>
+      <c r="L200" t="s">
+        <v>4</v>
+      </c>
+      <c r="M200">
+        <v>3</v>
+      </c>
+      <c r="N200">
+        <v>4</v>
+      </c>
+      <c r="O200">
+        <v>18070</v>
+      </c>
+      <c r="P200" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q200">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="R200">
+        <f t="shared" si="17"/>
+        <v>-346</v>
+      </c>
+      <c r="S200" s="2">
+        <f t="shared" si="18"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="B201" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C201">
+        <v>10</v>
+      </c>
+      <c r="D201" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201" t="s">
+        <v>49</v>
+      </c>
+      <c r="G201" t="s">
+        <v>31</v>
+      </c>
+      <c r="H201" t="s">
+        <v>33</v>
+      </c>
+      <c r="I201" t="s">
+        <v>40</v>
+      </c>
+      <c r="J201" t="s">
+        <v>38</v>
+      </c>
+      <c r="K201" t="s">
+        <v>40</v>
+      </c>
+      <c r="L201" t="s">
+        <v>4</v>
+      </c>
+      <c r="M201">
+        <v>3</v>
+      </c>
+      <c r="N201">
+        <v>9</v>
+      </c>
+      <c r="O201">
+        <v>1913</v>
+      </c>
+      <c r="P201" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q201">
+        <f t="shared" si="16"/>
+        <v>-6</v>
+      </c>
+      <c r="R201">
+        <f t="shared" si="17"/>
+        <v>-352</v>
+      </c>
+      <c r="S201" s="2">
+        <f t="shared" si="18"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <f t="shared" ref="A202:A249" si="19">1+A201</f>
+        <v>201</v>
+      </c>
+      <c r="B202" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C202">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" t="s">
+        <v>49</v>
+      </c>
+      <c r="G202" t="s">
+        <v>31</v>
+      </c>
+      <c r="H202" t="s">
+        <v>33</v>
+      </c>
+      <c r="I202" t="s">
+        <v>40</v>
+      </c>
+      <c r="J202" t="s">
+        <v>38</v>
+      </c>
+      <c r="K202" t="s">
+        <v>40</v>
+      </c>
+      <c r="L202" t="s">
+        <v>4</v>
+      </c>
+      <c r="M202">
+        <v>21</v>
+      </c>
+      <c r="N202">
+        <v>17</v>
+      </c>
+      <c r="O202">
+        <f>11593-O201</f>
+        <v>9680</v>
+      </c>
+      <c r="P202" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q202">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="R202">
+        <f t="shared" si="17"/>
+        <v>-348</v>
+      </c>
+      <c r="S202" s="2">
+        <f t="shared" si="18"/>
+        <v>1.2352941176470589</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <f t="shared" si="19"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C203">
+        <v>12</v>
+      </c>
+      <c r="D203" t="s">
+        <v>21</v>
+      </c>
+      <c r="E203" t="s">
+        <v>24</v>
+      </c>
+      <c r="F203" t="s">
+        <v>46</v>
+      </c>
+      <c r="G203" t="s">
+        <v>31</v>
+      </c>
+      <c r="H203" t="s">
+        <v>33</v>
+      </c>
+      <c r="I203" t="s">
+        <v>40</v>
+      </c>
+      <c r="J203" t="s">
+        <v>38</v>
+      </c>
+      <c r="K203" t="s">
+        <v>40</v>
+      </c>
+      <c r="L203" t="s">
+        <v>4</v>
+      </c>
+      <c r="M203">
+        <v>8</v>
+      </c>
+      <c r="N203">
+        <v>7</v>
+      </c>
+      <c r="O203">
+        <v>2692</v>
+      </c>
+      <c r="P203" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q203">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="R203">
+        <f t="shared" si="17"/>
+        <v>-347</v>
+      </c>
+      <c r="S203" s="2">
+        <f t="shared" si="18"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <f t="shared" si="19"/>
+        <v>203</v>
+      </c>
+      <c r="B204" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C204">
+        <v>13</v>
+      </c>
+      <c r="D204" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" t="s">
+        <v>18</v>
+      </c>
+      <c r="F204" t="s">
+        <v>42</v>
+      </c>
+      <c r="G204" t="s">
+        <v>31</v>
+      </c>
+      <c r="H204" t="s">
+        <v>33</v>
+      </c>
+      <c r="I204" t="s">
+        <v>40</v>
+      </c>
+      <c r="J204" t="s">
+        <v>38</v>
+      </c>
+      <c r="K204" t="s">
+        <v>40</v>
+      </c>
+      <c r="L204" t="s">
+        <v>4</v>
+      </c>
+      <c r="M204">
+        <v>15</v>
+      </c>
+      <c r="N204">
+        <v>11</v>
+      </c>
+      <c r="O204">
+        <v>6417</v>
+      </c>
+      <c r="P204" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q204">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="R204">
+        <f t="shared" si="17"/>
+        <v>-343</v>
+      </c>
+      <c r="S204" s="2">
+        <f t="shared" si="18"/>
+        <v>1.3636363636363635</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <f t="shared" si="19"/>
+        <v>204</v>
+      </c>
+      <c r="B205" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C205">
+        <v>14</v>
+      </c>
+      <c r="D205" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205" t="s">
+        <v>18</v>
+      </c>
+      <c r="F205" t="s">
+        <v>42</v>
+      </c>
+      <c r="G205" t="s">
+        <v>31</v>
+      </c>
+      <c r="H205" t="s">
+        <v>33</v>
+      </c>
+      <c r="I205" t="s">
+        <v>40</v>
+      </c>
+      <c r="J205" t="s">
+        <v>38</v>
+      </c>
+      <c r="K205" t="s">
+        <v>40</v>
+      </c>
+      <c r="L205" t="s">
+        <v>4</v>
+      </c>
+      <c r="M205">
+        <f>24-M204</f>
+        <v>9</v>
+      </c>
+      <c r="N205">
+        <f>20-N204</f>
+        <v>9</v>
+      </c>
+      <c r="O205">
+        <f>10734-O204</f>
+        <v>4317</v>
+      </c>
+      <c r="P205" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q205">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <f t="shared" si="17"/>
+        <v>-343</v>
+      </c>
+      <c r="S205" s="2">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <f t="shared" si="19"/>
+        <v>205</v>
+      </c>
+      <c r="B206" s="1">
+        <v>43513</v>
+      </c>
+      <c r="C206">
+        <v>15</v>
+      </c>
+      <c r="D206" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" t="s">
+        <v>46</v>
+      </c>
+      <c r="G206" t="s">
+        <v>31</v>
+      </c>
+      <c r="H206" t="s">
+        <v>33</v>
+      </c>
+      <c r="I206" t="s">
+        <v>40</v>
+      </c>
+      <c r="J206" t="s">
+        <v>38</v>
+      </c>
+      <c r="K206" t="s">
+        <v>40</v>
+      </c>
+      <c r="L206" t="s">
+        <v>4</v>
+      </c>
+      <c r="M206">
+        <f>37-M204-M205</f>
+        <v>13</v>
+      </c>
+      <c r="N206">
+        <f>40-N204-N205</f>
+        <v>20</v>
+      </c>
+      <c r="O206">
+        <v>10182</v>
+      </c>
+      <c r="P206" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q206">
+        <f t="shared" si="16"/>
+        <v>-7</v>
+      </c>
+      <c r="R206">
+        <f t="shared" si="17"/>
+        <v>-350</v>
+      </c>
+      <c r="S206" s="2">
+        <f t="shared" si="18"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <f t="shared" si="19"/>
+        <v>206</v>
+      </c>
+      <c r="B207" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207" t="s">
+        <v>16</v>
+      </c>
+      <c r="F207" t="s">
+        <v>42</v>
+      </c>
+      <c r="G207" t="s">
+        <v>31</v>
+      </c>
+      <c r="H207" t="s">
+        <v>33</v>
+      </c>
+      <c r="I207" t="s">
+        <v>40</v>
+      </c>
+      <c r="J207" t="s">
+        <v>38</v>
+      </c>
+      <c r="K207" t="s">
+        <v>40</v>
+      </c>
+      <c r="L207" t="s">
+        <v>4</v>
+      </c>
+      <c r="M207">
+        <v>9</v>
+      </c>
+      <c r="N207">
+        <v>7</v>
+      </c>
+      <c r="O207">
+        <v>3137</v>
+      </c>
+      <c r="P207" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q207">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="R207">
+        <f t="shared" si="17"/>
+        <v>-348</v>
+      </c>
+      <c r="S207" s="2">
+        <f t="shared" si="18"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <f t="shared" si="19"/>
+        <v>207</v>
+      </c>
+      <c r="B208" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>21</v>
+      </c>
+      <c r="E208" t="s">
+        <v>7</v>
+      </c>
+      <c r="F208" t="s">
+        <v>46</v>
+      </c>
+      <c r="G208" t="s">
+        <v>31</v>
+      </c>
+      <c r="H208" t="s">
+        <v>33</v>
+      </c>
+      <c r="I208" t="s">
+        <v>40</v>
+      </c>
+      <c r="J208" t="s">
+        <v>38</v>
+      </c>
+      <c r="K208" t="s">
+        <v>40</v>
+      </c>
+      <c r="L208" t="s">
+        <v>4</v>
+      </c>
+      <c r="M208">
+        <v>22</v>
+      </c>
+      <c r="N208">
+        <v>13</v>
+      </c>
+      <c r="O208">
+        <v>9159</v>
+      </c>
+      <c r="P208" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q208">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="R208">
+        <f t="shared" si="17"/>
+        <v>-339</v>
+      </c>
+      <c r="S208" s="2">
+        <f t="shared" si="18"/>
+        <v>1.6923076923076923</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <f t="shared" si="19"/>
+        <v>208</v>
+      </c>
+      <c r="B209" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+      <c r="D209" t="s">
+        <v>21</v>
+      </c>
+      <c r="E209" t="s">
+        <v>24</v>
+      </c>
+      <c r="F209" t="s">
+        <v>46</v>
+      </c>
+      <c r="G209" t="s">
+        <v>31</v>
+      </c>
+      <c r="H209" t="s">
+        <v>33</v>
+      </c>
+      <c r="I209" t="s">
+        <v>40</v>
+      </c>
+      <c r="J209" t="s">
+        <v>38</v>
+      </c>
+      <c r="K209" t="s">
+        <v>40</v>
+      </c>
+      <c r="L209" t="s">
+        <v>4</v>
+      </c>
+      <c r="M209">
+        <v>5</v>
+      </c>
+      <c r="N209">
+        <v>8</v>
+      </c>
+      <c r="O209">
+        <v>2086</v>
+      </c>
+      <c r="P209" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q209">
+        <f t="shared" si="16"/>
+        <v>-3</v>
+      </c>
+      <c r="R209">
+        <f t="shared" si="17"/>
+        <v>-342</v>
+      </c>
+      <c r="S209" s="2">
+        <f t="shared" si="18"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <f t="shared" si="19"/>
+        <v>209</v>
+      </c>
+      <c r="B210" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C210">
+        <v>4</v>
+      </c>
+      <c r="D210" t="s">
+        <v>21</v>
+      </c>
+      <c r="E210" t="s">
+        <v>24</v>
+      </c>
+      <c r="F210" t="s">
+        <v>46</v>
+      </c>
+      <c r="G210" t="s">
+        <v>31</v>
+      </c>
+      <c r="H210" t="s">
+        <v>33</v>
+      </c>
+      <c r="I210" t="s">
+        <v>40</v>
+      </c>
+      <c r="J210" t="s">
+        <v>38</v>
+      </c>
+      <c r="K210" t="s">
+        <v>40</v>
+      </c>
+      <c r="L210" t="s">
+        <v>4</v>
+      </c>
+      <c r="M210">
+        <v>2</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210">
+        <v>938</v>
+      </c>
+      <c r="P210" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q210">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <f t="shared" si="17"/>
+        <v>-342</v>
+      </c>
+      <c r="S210" s="2">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <f t="shared" si="19"/>
+        <v>210</v>
+      </c>
+      <c r="B211" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C211">
+        <v>5</v>
+      </c>
+      <c r="D211" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211" t="s">
+        <v>42</v>
+      </c>
+      <c r="G211" t="s">
+        <v>31</v>
+      </c>
+      <c r="H211" t="s">
+        <v>33</v>
+      </c>
+      <c r="I211" t="s">
+        <v>40</v>
+      </c>
+      <c r="J211" t="s">
+        <v>38</v>
+      </c>
+      <c r="K211" t="s">
+        <v>40</v>
+      </c>
+      <c r="L211" t="s">
+        <v>4</v>
+      </c>
+      <c r="M211">
+        <v>8</v>
+      </c>
+      <c r="N211">
+        <v>9</v>
+      </c>
+      <c r="O211">
+        <v>2513</v>
+      </c>
+      <c r="P211" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q211">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="R211">
+        <f t="shared" si="17"/>
+        <v>-343</v>
+      </c>
+      <c r="S211" s="2">
+        <f t="shared" si="18"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <f t="shared" si="19"/>
+        <v>211</v>
+      </c>
+      <c r="B212" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C212">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" t="s">
+        <v>18</v>
+      </c>
+      <c r="F212" t="s">
+        <v>42</v>
+      </c>
+      <c r="G212" t="s">
+        <v>31</v>
+      </c>
+      <c r="H212" t="s">
+        <v>33</v>
+      </c>
+      <c r="I212" t="s">
+        <v>40</v>
+      </c>
+      <c r="J212" t="s">
+        <v>38</v>
+      </c>
+      <c r="K212" t="s">
+        <v>40</v>
+      </c>
+      <c r="L212" t="s">
+        <v>4</v>
+      </c>
+      <c r="M212">
+        <v>10</v>
+      </c>
+      <c r="N212">
+        <v>15</v>
+      </c>
+      <c r="O212">
+        <f>7661-O211</f>
+        <v>5148</v>
+      </c>
+      <c r="P212" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q212">
+        <f t="shared" si="16"/>
+        <v>-5</v>
+      </c>
+      <c r="R212">
+        <f t="shared" si="17"/>
+        <v>-348</v>
+      </c>
+      <c r="S212" s="2">
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <f t="shared" si="19"/>
+        <v>212</v>
+      </c>
+      <c r="B213" s="1">
+        <v>43514</v>
+      </c>
+      <c r="C213">
+        <v>7</v>
+      </c>
+      <c r="D213" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" t="s">
+        <v>10</v>
+      </c>
+      <c r="F213" t="s">
+        <v>46</v>
+      </c>
+      <c r="G213" t="s">
+        <v>31</v>
+      </c>
+      <c r="H213" t="s">
+        <v>33</v>
+      </c>
+      <c r="I213" t="s">
+        <v>40</v>
+      </c>
+      <c r="J213" t="s">
+        <v>38</v>
+      </c>
+      <c r="K213" t="s">
+        <v>40</v>
+      </c>
+      <c r="L213" t="s">
+        <v>4</v>
+      </c>
+      <c r="M213">
+        <v>18</v>
+      </c>
+      <c r="N213">
+        <v>18</v>
+      </c>
+      <c r="O213">
+        <f>17766-O212-O211</f>
+        <v>10105</v>
+      </c>
+      <c r="P213" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q213">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <f t="shared" si="17"/>
+        <v>-348</v>
+      </c>
+      <c r="S213" s="2">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <f t="shared" si="19"/>
+        <v>213</v>
+      </c>
+      <c r="B214" s="1">
+        <v>43516</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>19</v>
+      </c>
+      <c r="E214" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" t="s">
+        <v>42</v>
+      </c>
+      <c r="G214" t="s">
+        <v>31</v>
+      </c>
+      <c r="H214" t="s">
+        <v>33</v>
+      </c>
+      <c r="I214" t="s">
+        <v>38</v>
+      </c>
+      <c r="J214" t="s">
+        <v>38</v>
+      </c>
+      <c r="K214" t="s">
+        <v>40</v>
+      </c>
+      <c r="L214" t="s">
+        <v>4</v>
+      </c>
+      <c r="M214">
+        <v>2</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>774</v>
+      </c>
+      <c r="P214" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q214">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="R214">
+        <f t="shared" si="17"/>
+        <v>-346</v>
+      </c>
+      <c r="S214" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <f t="shared" si="19"/>
+        <v>214</v>
+      </c>
+      <c r="B215" s="1">
+        <v>43516</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" t="s">
+        <v>46</v>
+      </c>
+      <c r="G215" t="s">
+        <v>31</v>
+      </c>
+      <c r="H215" t="s">
+        <v>33</v>
+      </c>
+      <c r="I215" t="s">
+        <v>40</v>
+      </c>
+      <c r="J215" t="s">
+        <v>38</v>
+      </c>
+      <c r="K215" t="s">
+        <v>40</v>
+      </c>
+      <c r="L215" t="s">
+        <v>4</v>
+      </c>
+      <c r="M215">
+        <v>12</v>
+      </c>
+      <c r="N215">
+        <v>13</v>
+      </c>
+      <c r="O215">
+        <f>12296-O214</f>
+        <v>11522</v>
+      </c>
+      <c r="P215" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q215">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="R215">
+        <f t="shared" si="17"/>
+        <v>-347</v>
+      </c>
+      <c r="S215" s="2">
+        <f t="shared" si="18"/>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <f t="shared" si="19"/>
+        <v>215</v>
+      </c>
+      <c r="B216" s="1">
+        <v>43516</v>
+      </c>
+      <c r="C216">
+        <v>3</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+      <c r="E216" t="s">
+        <v>13</v>
+      </c>
+      <c r="F216" t="s">
+        <v>42</v>
+      </c>
+      <c r="G216" t="s">
+        <v>31</v>
+      </c>
+      <c r="H216" t="s">
+        <v>33</v>
+      </c>
+      <c r="I216" t="s">
+        <v>40</v>
+      </c>
+      <c r="J216" t="s">
+        <v>38</v>
+      </c>
+      <c r="K216" t="s">
+        <v>40</v>
+      </c>
+      <c r="L216" t="s">
+        <v>4</v>
+      </c>
+      <c r="M216">
+        <v>8</v>
+      </c>
+      <c r="N216">
+        <v>10</v>
+      </c>
+      <c r="O216">
+        <f>18191-O215-O214</f>
+        <v>5895</v>
+      </c>
+      <c r="P216" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q216">
+        <f t="shared" si="16"/>
+        <v>-2</v>
+      </c>
+      <c r="R216">
+        <f t="shared" si="17"/>
+        <v>-349</v>
+      </c>
+      <c r="S216" s="2">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <f t="shared" si="19"/>
+        <v>216</v>
+      </c>
+      <c r="B217" s="1">
+        <v>43516</v>
+      </c>
+      <c r="C217">
+        <v>4</v>
+      </c>
+      <c r="D217" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217" t="s">
+        <v>16</v>
+      </c>
+      <c r="F217" t="s">
+        <v>46</v>
+      </c>
+      <c r="G217" t="s">
+        <v>31</v>
+      </c>
+      <c r="H217" t="s">
+        <v>33</v>
+      </c>
+      <c r="I217" t="s">
+        <v>40</v>
+      </c>
+      <c r="J217" t="s">
+        <v>38</v>
+      </c>
+      <c r="K217" t="s">
+        <v>40</v>
+      </c>
+      <c r="L217" t="s">
+        <v>4</v>
+      </c>
+      <c r="M217">
+        <v>10</v>
+      </c>
+      <c r="N217">
+        <v>17</v>
+      </c>
+      <c r="O217">
+        <v>7032</v>
+      </c>
+      <c r="P217" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q217">
+        <f t="shared" si="16"/>
+        <v>-7</v>
+      </c>
+      <c r="R217">
+        <f t="shared" si="17"/>
+        <v>-356</v>
+      </c>
+      <c r="S217" s="2">
+        <f t="shared" si="18"/>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <f t="shared" si="19"/>
+        <v>217</v>
+      </c>
+      <c r="B218" s="1">
+        <v>43517</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" t="s">
+        <v>13</v>
+      </c>
+      <c r="F218" t="s">
+        <v>42</v>
+      </c>
+      <c r="G218" t="s">
+        <v>31</v>
+      </c>
+      <c r="H218" t="s">
+        <v>33</v>
+      </c>
+      <c r="I218" t="s">
+        <v>38</v>
+      </c>
+      <c r="J218" t="s">
+        <v>38</v>
+      </c>
+      <c r="K218" t="s">
+        <v>40</v>
+      </c>
+      <c r="L218" t="s">
+        <v>4</v>
+      </c>
+      <c r="M218">
+        <v>10</v>
+      </c>
+      <c r="N218">
+        <v>6</v>
+      </c>
+      <c r="O218">
+        <v>3231</v>
+      </c>
+      <c r="P218" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q218">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="R218">
+        <f t="shared" si="17"/>
+        <v>-352</v>
+      </c>
+      <c r="S218" s="2">
+        <f t="shared" si="18"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <f t="shared" si="19"/>
+        <v>218</v>
+      </c>
+      <c r="B219" s="1">
+        <v>43517</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>19</v>
+      </c>
+      <c r="E219" t="s">
+        <v>16</v>
+      </c>
+      <c r="F219" t="s">
+        <v>42</v>
+      </c>
+      <c r="G219" t="s">
+        <v>31</v>
+      </c>
+      <c r="H219" t="s">
+        <v>33</v>
+      </c>
+      <c r="I219" t="s">
+        <v>40</v>
+      </c>
+      <c r="J219" t="s">
+        <v>38</v>
+      </c>
+      <c r="K219" t="s">
+        <v>40</v>
+      </c>
+      <c r="L219" t="s">
+        <v>4</v>
+      </c>
+      <c r="M219">
+        <v>5</v>
+      </c>
+      <c r="N219">
+        <v>6</v>
+      </c>
+      <c r="O219">
+        <v>1974</v>
+      </c>
+      <c r="P219" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q219">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="R219">
+        <f t="shared" si="17"/>
+        <v>-353</v>
+      </c>
+      <c r="S219" s="2">
+        <f t="shared" si="18"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <f t="shared" si="19"/>
+        <v>219</v>
+      </c>
+      <c r="B220" s="1">
+        <v>43517</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220" t="s">
+        <v>16</v>
+      </c>
+      <c r="F220" t="s">
+        <v>42</v>
+      </c>
+      <c r="G220" t="s">
+        <v>30</v>
+      </c>
+      <c r="H220" t="s">
+        <v>8</v>
+      </c>
+      <c r="I220" t="s">
+        <v>40</v>
+      </c>
+      <c r="J220" t="s">
+        <v>38</v>
+      </c>
+      <c r="K220" t="s">
+        <v>40</v>
+      </c>
+      <c r="L220" t="s">
+        <v>51</v>
+      </c>
+      <c r="M220">
+        <v>7</v>
+      </c>
+      <c r="N220">
+        <v>9</v>
+      </c>
+      <c r="O220">
+        <f>3635-O219</f>
+        <v>1661</v>
+      </c>
+      <c r="P220" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q220">
+        <f t="shared" si="16"/>
+        <v>-2</v>
+      </c>
+      <c r="R220">
+        <f t="shared" si="17"/>
+        <v>-355</v>
+      </c>
+      <c r="S220" s="2">
+        <f t="shared" si="18"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <f t="shared" si="19"/>
+        <v>220</v>
+      </c>
+      <c r="B221" s="1">
+        <v>43517</v>
+      </c>
+      <c r="C221">
+        <v>4</v>
+      </c>
+      <c r="D221" t="s">
+        <v>21</v>
+      </c>
+      <c r="E221" t="s">
+        <v>7</v>
+      </c>
+      <c r="F221" t="s">
+        <v>46</v>
+      </c>
+      <c r="G221" t="s">
+        <v>31</v>
+      </c>
+      <c r="H221" t="s">
+        <v>33</v>
+      </c>
+      <c r="I221" t="s">
+        <v>40</v>
+      </c>
+      <c r="J221" t="s">
+        <v>38</v>
+      </c>
+      <c r="K221" t="s">
+        <v>40</v>
+      </c>
+      <c r="L221" t="s">
+        <v>4</v>
+      </c>
+      <c r="M221">
+        <v>6</v>
+      </c>
+      <c r="N221">
+        <v>6</v>
+      </c>
+      <c r="O221">
+        <v>1973</v>
+      </c>
+      <c r="P221" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q221">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <f t="shared" si="17"/>
+        <v>-355</v>
+      </c>
+      <c r="S221" s="2">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <f t="shared" si="19"/>
+        <v>221</v>
+      </c>
+      <c r="B222" s="1">
+        <v>43520</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222" t="s">
+        <v>19</v>
+      </c>
+      <c r="E222" t="s">
+        <v>17</v>
+      </c>
+      <c r="F222" t="s">
+        <v>42</v>
+      </c>
+      <c r="G222" t="s">
+        <v>31</v>
+      </c>
+      <c r="H222" t="s">
+        <v>33</v>
+      </c>
+      <c r="I222" t="s">
+        <v>40</v>
+      </c>
+      <c r="J222" t="s">
+        <v>38</v>
+      </c>
+      <c r="K222" t="s">
+        <v>40</v>
+      </c>
+      <c r="L222" t="s">
+        <v>4</v>
+      </c>
+      <c r="M222">
+        <v>6</v>
+      </c>
+      <c r="N222">
+        <v>8</v>
+      </c>
+      <c r="O222">
+        <v>2799</v>
+      </c>
+      <c r="P222" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q222">
+        <f t="shared" si="16"/>
+        <v>-2</v>
+      </c>
+      <c r="R222">
+        <f t="shared" si="17"/>
+        <v>-357</v>
+      </c>
+      <c r="S222" s="2">
+        <f t="shared" si="18"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <f t="shared" si="19"/>
+        <v>222</v>
+      </c>
+      <c r="B223" s="1">
+        <v>43520</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>6</v>
+      </c>
+      <c r="E223" t="s">
+        <v>17</v>
+      </c>
+      <c r="F223" t="s">
+        <v>42</v>
+      </c>
+      <c r="G223" t="s">
+        <v>31</v>
+      </c>
+      <c r="H223" t="s">
+        <v>33</v>
+      </c>
+      <c r="I223" t="s">
+        <v>40</v>
+      </c>
+      <c r="J223" t="s">
+        <v>38</v>
+      </c>
+      <c r="K223" t="s">
+        <v>40</v>
+      </c>
+      <c r="L223" t="s">
+        <v>4</v>
+      </c>
+      <c r="M223">
+        <v>11</v>
+      </c>
+      <c r="N223">
+        <v>11</v>
+      </c>
+      <c r="O223">
+        <f>6825-O222</f>
+        <v>4026</v>
+      </c>
+      <c r="P223" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q223">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <f t="shared" si="17"/>
+        <v>-357</v>
+      </c>
+      <c r="S223" s="2">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <f t="shared" si="19"/>
+        <v>223</v>
+      </c>
+      <c r="B224" s="1">
+        <v>43520</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+      <c r="D224" t="s">
+        <v>57</v>
+      </c>
+      <c r="E224" t="s">
+        <v>24</v>
+      </c>
+      <c r="F224" t="s">
+        <v>42</v>
+      </c>
+      <c r="G224" t="s">
+        <v>31</v>
+      </c>
+      <c r="H224" t="s">
+        <v>33</v>
+      </c>
+      <c r="I224" t="s">
+        <v>40</v>
+      </c>
+      <c r="J224" t="s">
+        <v>38</v>
+      </c>
+      <c r="K224" t="s">
+        <v>40</v>
+      </c>
+      <c r="L224" t="s">
+        <v>4</v>
+      </c>
+      <c r="M224">
+        <v>10</v>
+      </c>
+      <c r="N224">
+        <v>8</v>
+      </c>
+      <c r="P224" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q224">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="R224">
+        <f t="shared" si="17"/>
+        <v>-355</v>
+      </c>
+      <c r="S224" s="2">
+        <f t="shared" si="18"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <f t="shared" si="19"/>
+        <v>224</v>
+      </c>
+      <c r="B225" s="1">
+        <v>43520</v>
+      </c>
+      <c r="C225">
+        <v>4</v>
+      </c>
+      <c r="D225" t="s">
+        <v>6</v>
+      </c>
+      <c r="E225" t="s">
+        <v>17</v>
+      </c>
+      <c r="F225" t="s">
+        <v>42</v>
+      </c>
+      <c r="G225" t="s">
+        <v>28</v>
+      </c>
+      <c r="H225" t="s">
+        <v>20</v>
+      </c>
+      <c r="I225" t="s">
+        <v>40</v>
+      </c>
+      <c r="J225" t="s">
+        <v>38</v>
+      </c>
+      <c r="K225" t="s">
+        <v>40</v>
+      </c>
+      <c r="L225" t="s">
+        <v>4</v>
+      </c>
+      <c r="M225">
+        <v>5</v>
+      </c>
+      <c r="N225">
+        <v>11</v>
+      </c>
+      <c r="O225">
+        <f>6447-O226</f>
+        <v>4250</v>
+      </c>
+      <c r="P225" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q225">
+        <f t="shared" si="16"/>
+        <v>-6</v>
+      </c>
+      <c r="R225">
+        <f t="shared" si="17"/>
+        <v>-361</v>
+      </c>
+      <c r="S225" s="2">
+        <f t="shared" si="18"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <f t="shared" si="19"/>
+        <v>225</v>
+      </c>
+      <c r="B226" s="1">
+        <v>43520</v>
+      </c>
+      <c r="C226">
+        <v>5</v>
+      </c>
+      <c r="D226" t="s">
+        <v>57</v>
+      </c>
+      <c r="E226" t="s">
+        <v>24</v>
+      </c>
+      <c r="F226" t="s">
+        <v>42</v>
+      </c>
+      <c r="G226" t="s">
+        <v>28</v>
+      </c>
+      <c r="H226" t="s">
+        <v>20</v>
+      </c>
+      <c r="I226" t="s">
+        <v>40</v>
+      </c>
+      <c r="J226" t="s">
+        <v>38</v>
+      </c>
+      <c r="K226" t="s">
+        <v>40</v>
+      </c>
+      <c r="L226" t="s">
+        <v>4</v>
+      </c>
+      <c r="M226">
+        <v>3</v>
+      </c>
+      <c r="N226">
+        <v>6</v>
+      </c>
+      <c r="O226">
+        <v>2197</v>
+      </c>
+      <c r="P226" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q226">
+        <f t="shared" ref="Q226:Q249" si="20">M226-N226</f>
+        <v>-3</v>
+      </c>
+      <c r="R226">
+        <f t="shared" si="17"/>
+        <v>-364</v>
+      </c>
+      <c r="S226" s="2">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <f t="shared" si="19"/>
+        <v>226</v>
+      </c>
+      <c r="B227" s="1">
+        <v>43520</v>
+      </c>
+      <c r="C227">
+        <v>6</v>
+      </c>
+      <c r="D227" t="s">
+        <v>6</v>
+      </c>
+      <c r="E227" t="s">
+        <v>17</v>
+      </c>
+      <c r="F227" t="s">
+        <v>49</v>
+      </c>
+      <c r="G227" t="s">
+        <v>31</v>
+      </c>
+      <c r="H227" t="s">
+        <v>33</v>
+      </c>
+      <c r="I227" t="s">
+        <v>40</v>
+      </c>
+      <c r="J227" t="s">
+        <v>38</v>
+      </c>
+      <c r="K227" t="s">
+        <v>40</v>
+      </c>
+      <c r="L227" t="s">
+        <v>4</v>
+      </c>
+      <c r="M227">
+        <v>12</v>
+      </c>
+      <c r="N227">
+        <v>4</v>
+      </c>
+      <c r="O227">
+        <v>6113</v>
+      </c>
+      <c r="P227" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q227">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="R227">
+        <f t="shared" si="17"/>
+        <v>-356</v>
+      </c>
+      <c r="S227" s="2">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <f t="shared" si="19"/>
+        <v>227</v>
+      </c>
+      <c r="B228" s="1">
+        <v>43520</v>
+      </c>
+      <c r="C228">
+        <v>7</v>
+      </c>
+      <c r="D228" t="s">
+        <v>57</v>
+      </c>
+      <c r="E228" t="s">
+        <v>24</v>
+      </c>
+      <c r="F228" t="s">
+        <v>49</v>
+      </c>
+      <c r="G228" t="s">
+        <v>31</v>
+      </c>
+      <c r="H228" t="s">
+        <v>33</v>
+      </c>
+      <c r="I228" t="s">
+        <v>40</v>
+      </c>
+      <c r="J228" t="s">
+        <v>38</v>
+      </c>
+      <c r="K228" t="s">
+        <v>40</v>
+      </c>
+      <c r="L228" t="s">
+        <v>4</v>
+      </c>
+      <c r="M228">
+        <v>8</v>
+      </c>
+      <c r="N228">
+        <v>11</v>
+      </c>
+      <c r="O228">
+        <f>9247-O227</f>
+        <v>3134</v>
+      </c>
+      <c r="P228" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q228">
+        <f t="shared" si="20"/>
+        <v>-3</v>
+      </c>
+      <c r="R228">
+        <f t="shared" si="17"/>
+        <v>-359</v>
+      </c>
+      <c r="S228" s="2">
+        <f t="shared" si="18"/>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <f t="shared" si="19"/>
+        <v>228</v>
+      </c>
+      <c r="B229" s="1">
+        <v>43520</v>
+      </c>
+      <c r="C229">
+        <v>8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>19</v>
+      </c>
+      <c r="E229" t="s">
+        <v>17</v>
+      </c>
+      <c r="F229" t="s">
+        <v>42</v>
+      </c>
+      <c r="G229" t="s">
+        <v>30</v>
+      </c>
+      <c r="H229" t="s">
+        <v>8</v>
+      </c>
+      <c r="I229" t="s">
+        <v>40</v>
+      </c>
+      <c r="J229" t="s">
+        <v>38</v>
+      </c>
+      <c r="K229" t="s">
+        <v>40</v>
+      </c>
+      <c r="L229" t="s">
+        <v>51</v>
+      </c>
+      <c r="M229">
+        <v>10</v>
+      </c>
+      <c r="N229">
+        <v>6</v>
+      </c>
+      <c r="O229">
+        <v>3594</v>
+      </c>
+      <c r="P229" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q229">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="R229">
+        <f t="shared" si="17"/>
+        <v>-355</v>
+      </c>
+      <c r="S229" s="2">
+        <f t="shared" si="18"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <f t="shared" si="19"/>
+        <v>229</v>
+      </c>
+      <c r="B230" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230" t="s">
+        <v>17</v>
+      </c>
+      <c r="F230" t="s">
+        <v>49</v>
+      </c>
+      <c r="G230" t="s">
+        <v>31</v>
+      </c>
+      <c r="H230" t="s">
+        <v>33</v>
+      </c>
+      <c r="I230" t="s">
+        <v>40</v>
+      </c>
+      <c r="J230" t="s">
+        <v>38</v>
+      </c>
+      <c r="K230" t="s">
+        <v>40</v>
+      </c>
+      <c r="L230" t="s">
+        <v>51</v>
+      </c>
+      <c r="M230">
+        <v>9</v>
+      </c>
+      <c r="N230">
+        <v>11</v>
+      </c>
+      <c r="O230">
+        <v>3191</v>
+      </c>
+      <c r="P230" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q230">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="R230">
+        <f t="shared" si="17"/>
+        <v>-357</v>
+      </c>
+      <c r="S230" s="2">
+        <f t="shared" si="18"/>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <f t="shared" si="19"/>
+        <v>230</v>
+      </c>
+      <c r="B231" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231" t="s">
+        <v>6</v>
+      </c>
+      <c r="E231" t="s">
+        <v>17</v>
+      </c>
+      <c r="F231" t="s">
+        <v>49</v>
+      </c>
+      <c r="G231" t="s">
+        <v>30</v>
+      </c>
+      <c r="H231" t="s">
+        <v>8</v>
+      </c>
+      <c r="I231" t="s">
+        <v>40</v>
+      </c>
+      <c r="J231" t="s">
+        <v>38</v>
+      </c>
+      <c r="K231" t="s">
+        <v>40</v>
+      </c>
+      <c r="L231" t="s">
+        <v>56</v>
+      </c>
+      <c r="M231">
+        <v>3</v>
+      </c>
+      <c r="N231">
+        <v>10</v>
+      </c>
+      <c r="O231">
+        <f>5547-O230</f>
+        <v>2356</v>
+      </c>
+      <c r="P231" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q231">
+        <f t="shared" si="20"/>
+        <v>-7</v>
+      </c>
+      <c r="R231">
+        <f t="shared" si="17"/>
+        <v>-364</v>
+      </c>
+      <c r="S231" s="2">
+        <f t="shared" si="18"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <f t="shared" si="19"/>
+        <v>231</v>
+      </c>
+      <c r="B232" s="1">
+        <v>43521</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232" t="s">
+        <v>57</v>
+      </c>
+      <c r="E232" t="s">
+        <v>24</v>
+      </c>
+      <c r="F232" t="s">
+        <v>49</v>
+      </c>
+      <c r="G232" t="s">
+        <v>31</v>
+      </c>
+      <c r="H232" t="s">
+        <v>33</v>
+      </c>
+      <c r="I232" t="s">
+        <v>40</v>
+      </c>
+      <c r="J232" t="s">
+        <v>38</v>
+      </c>
+      <c r="K232" t="s">
+        <v>40</v>
+      </c>
+      <c r="L232" t="s">
+        <v>4</v>
+      </c>
+      <c r="M232">
+        <v>3</v>
+      </c>
+      <c r="N232">
+        <v>9</v>
+      </c>
+      <c r="O232">
+        <v>1024</v>
+      </c>
+      <c r="P232" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q232">
+        <f t="shared" si="20"/>
+        <v>-6</v>
+      </c>
+      <c r="R232">
+        <f t="shared" si="17"/>
+        <v>-370</v>
+      </c>
+      <c r="S232" s="2">
+        <f t="shared" si="18"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <f t="shared" si="19"/>
+        <v>232</v>
+      </c>
+      <c r="B233" s="1">
+        <v>43522</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>57</v>
+      </c>
+      <c r="E233" t="s">
+        <v>24</v>
+      </c>
+      <c r="F233" t="s">
+        <v>42</v>
+      </c>
+      <c r="G233" t="s">
+        <v>30</v>
+      </c>
+      <c r="H233" t="s">
+        <v>8</v>
+      </c>
+      <c r="I233" t="s">
+        <v>40</v>
+      </c>
+      <c r="J233" t="s">
+        <v>38</v>
+      </c>
+      <c r="K233" t="s">
+        <v>40</v>
+      </c>
+      <c r="L233" t="s">
+        <v>56</v>
+      </c>
+      <c r="M233">
+        <v>16</v>
+      </c>
+      <c r="N233">
+        <v>18</v>
+      </c>
+      <c r="P233" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q233">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="R233">
+        <f t="shared" si="17"/>
+        <v>-372</v>
+      </c>
+      <c r="S233" s="2">
+        <f t="shared" si="18"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <f t="shared" si="19"/>
+        <v>233</v>
+      </c>
+      <c r="B234" s="1">
+        <v>43527</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>19</v>
+      </c>
+      <c r="E234" t="s">
+        <v>17</v>
+      </c>
+      <c r="F234" t="s">
+        <v>49</v>
+      </c>
+      <c r="G234" t="s">
+        <v>31</v>
+      </c>
+      <c r="H234" t="s">
+        <v>33</v>
+      </c>
+      <c r="I234" t="s">
+        <v>40</v>
+      </c>
+      <c r="J234" t="s">
+        <v>40</v>
+      </c>
+      <c r="K234" t="s">
+        <v>40</v>
+      </c>
+      <c r="L234" t="s">
+        <v>4</v>
+      </c>
+      <c r="M234">
+        <v>11</v>
+      </c>
+      <c r="N234">
+        <v>7</v>
+      </c>
+      <c r="O234">
+        <v>2600</v>
+      </c>
+      <c r="P234" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q234">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="R234">
+        <f t="shared" si="17"/>
+        <v>-368</v>
+      </c>
+      <c r="S234" s="2">
+        <f t="shared" si="18"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <f t="shared" si="19"/>
+        <v>234</v>
+      </c>
+      <c r="B235" s="1">
+        <v>43527</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>6</v>
+      </c>
+      <c r="E235" t="s">
+        <v>17</v>
+      </c>
+      <c r="F235" t="s">
+        <v>49</v>
+      </c>
+      <c r="G235" t="s">
+        <v>31</v>
+      </c>
+      <c r="H235" t="s">
+        <v>33</v>
+      </c>
+      <c r="I235" t="s">
+        <v>40</v>
+      </c>
+      <c r="J235" t="s">
+        <v>40</v>
+      </c>
+      <c r="K235" t="s">
+        <v>40</v>
+      </c>
+      <c r="L235" t="s">
+        <v>4</v>
+      </c>
+      <c r="M235">
+        <v>4</v>
+      </c>
+      <c r="N235">
+        <v>9</v>
+      </c>
+      <c r="O235">
+        <f>4131-O234</f>
+        <v>1531</v>
+      </c>
+      <c r="P235" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q235">
+        <f t="shared" si="20"/>
+        <v>-5</v>
+      </c>
+      <c r="R235">
+        <f t="shared" si="17"/>
+        <v>-373</v>
+      </c>
+      <c r="S235" s="2">
+        <f t="shared" si="18"/>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <f t="shared" si="19"/>
+        <v>235</v>
+      </c>
+      <c r="B236" s="1">
+        <v>43527</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+      <c r="D236" t="s">
+        <v>57</v>
+      </c>
+      <c r="E236" t="s">
+        <v>24</v>
+      </c>
+      <c r="F236" t="s">
+        <v>49</v>
+      </c>
+      <c r="G236" t="s">
+        <v>31</v>
+      </c>
+      <c r="H236" t="s">
+        <v>33</v>
+      </c>
+      <c r="I236" t="s">
+        <v>40</v>
+      </c>
+      <c r="J236" t="s">
+        <v>40</v>
+      </c>
+      <c r="K236" t="s">
+        <v>40</v>
+      </c>
+      <c r="L236" t="s">
+        <v>4</v>
+      </c>
+      <c r="M236">
+        <v>10</v>
+      </c>
+      <c r="N236">
+        <v>8</v>
+      </c>
+      <c r="O236">
+        <f>6239-O235-O234</f>
+        <v>2108</v>
+      </c>
+      <c r="P236" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q236">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R236">
+        <f t="shared" si="17"/>
+        <v>-371</v>
+      </c>
+      <c r="S236" s="2">
+        <f t="shared" si="18"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <f t="shared" si="19"/>
+        <v>236</v>
+      </c>
+      <c r="B237" s="1">
+        <v>43527</v>
+      </c>
+      <c r="C237">
+        <v>4</v>
+      </c>
+      <c r="D237" t="s">
+        <v>6</v>
+      </c>
+      <c r="E237" t="s">
+        <v>12</v>
+      </c>
+      <c r="F237" t="s">
+        <v>49</v>
+      </c>
+      <c r="G237" t="s">
+        <v>31</v>
+      </c>
+      <c r="H237" t="s">
+        <v>33</v>
+      </c>
+      <c r="I237" t="s">
+        <v>38</v>
+      </c>
+      <c r="J237" t="s">
+        <v>40</v>
+      </c>
+      <c r="K237" t="s">
+        <v>40</v>
+      </c>
+      <c r="L237" t="s">
+        <v>4</v>
+      </c>
+      <c r="M237">
+        <v>10</v>
+      </c>
+      <c r="N237">
+        <v>4</v>
+      </c>
+      <c r="O237">
+        <v>2671</v>
+      </c>
+      <c r="P237" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q237">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="R237">
+        <f t="shared" si="17"/>
+        <v>-365</v>
+      </c>
+      <c r="S237" s="2">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <f t="shared" si="19"/>
+        <v>237</v>
+      </c>
+      <c r="B238" s="1">
+        <v>43527</v>
+      </c>
+      <c r="C238">
+        <v>5</v>
+      </c>
+      <c r="D238" t="s">
+        <v>21</v>
+      </c>
+      <c r="E238" t="s">
+        <v>24</v>
+      </c>
+      <c r="F238" t="s">
+        <v>46</v>
+      </c>
+      <c r="G238" t="s">
+        <v>31</v>
+      </c>
+      <c r="H238" t="s">
+        <v>33</v>
+      </c>
+      <c r="I238" t="s">
+        <v>40</v>
+      </c>
+      <c r="J238" t="s">
+        <v>40</v>
+      </c>
+      <c r="K238" t="s">
+        <v>40</v>
+      </c>
+      <c r="L238" t="s">
+        <v>4</v>
+      </c>
+      <c r="M238">
+        <v>5</v>
+      </c>
+      <c r="N238">
+        <v>9</v>
+      </c>
+      <c r="O238">
+        <v>1956</v>
+      </c>
+      <c r="P238" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q238">
+        <f t="shared" si="20"/>
+        <v>-4</v>
+      </c>
+      <c r="R238">
+        <f t="shared" si="17"/>
+        <v>-369</v>
+      </c>
+      <c r="S238" s="2">
+        <f t="shared" si="18"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <f t="shared" si="19"/>
+        <v>238</v>
+      </c>
+      <c r="B239" s="1">
+        <v>43527</v>
+      </c>
+      <c r="C239">
+        <v>6</v>
+      </c>
+      <c r="D239" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239" t="s">
+        <v>18</v>
+      </c>
+      <c r="F239" t="s">
+        <v>49</v>
+      </c>
+      <c r="G239" t="s">
+        <v>31</v>
+      </c>
+      <c r="H239" t="s">
+        <v>33</v>
+      </c>
+      <c r="I239" t="s">
+        <v>38</v>
+      </c>
+      <c r="J239" t="s">
+        <v>40</v>
+      </c>
+      <c r="K239" t="s">
+        <v>40</v>
+      </c>
+      <c r="L239" t="s">
+        <v>4</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>1</v>
+      </c>
+      <c r="O239">
+        <v>582</v>
+      </c>
+      <c r="P239" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q239">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <f t="shared" si="17"/>
+        <v>-369</v>
+      </c>
+      <c r="S239" s="2">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <f t="shared" si="19"/>
+        <v>239</v>
+      </c>
+      <c r="B240" s="1">
+        <v>43527</v>
+      </c>
+      <c r="C240">
+        <v>7</v>
+      </c>
+      <c r="D240" t="s">
+        <v>11</v>
+      </c>
+      <c r="E240" t="s">
+        <v>10</v>
+      </c>
+      <c r="F240" t="s">
+        <v>49</v>
+      </c>
+      <c r="G240" t="s">
+        <v>31</v>
+      </c>
+      <c r="H240" t="s">
+        <v>33</v>
+      </c>
+      <c r="I240" t="s">
+        <v>40</v>
+      </c>
+      <c r="J240" t="s">
+        <v>40</v>
+      </c>
+      <c r="K240" t="s">
+        <v>40</v>
+      </c>
+      <c r="L240" t="s">
+        <v>56</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>6</v>
+      </c>
+      <c r="O240">
+        <f>3817-O239</f>
+        <v>3235</v>
+      </c>
+      <c r="P240" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q240">
+        <f t="shared" si="20"/>
+        <v>-5</v>
+      </c>
+      <c r="R240">
+        <f t="shared" si="17"/>
+        <v>-374</v>
+      </c>
+      <c r="S240" s="2">
+        <f t="shared" si="18"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <f t="shared" si="19"/>
+        <v>240</v>
+      </c>
+      <c r="Q241">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <f t="shared" si="17"/>
+        <v>-374</v>
+      </c>
+      <c r="S241" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <f t="shared" si="19"/>
+        <v>241</v>
+      </c>
+      <c r="Q242">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <f t="shared" si="17"/>
+        <v>-374</v>
+      </c>
+      <c r="S242" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <f t="shared" si="19"/>
+        <v>242</v>
+      </c>
+      <c r="Q243">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <f t="shared" si="17"/>
+        <v>-374</v>
+      </c>
+      <c r="S243" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <f t="shared" si="19"/>
+        <v>243</v>
+      </c>
+      <c r="Q244">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <f t="shared" si="17"/>
+        <v>-374</v>
+      </c>
+      <c r="S244" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <f t="shared" si="19"/>
+        <v>244</v>
+      </c>
+      <c r="Q245">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R245">
+        <f t="shared" si="17"/>
+        <v>-374</v>
+      </c>
+      <c r="S245" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <f t="shared" si="19"/>
+        <v>245</v>
+      </c>
+      <c r="Q246">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <f t="shared" si="17"/>
+        <v>-374</v>
+      </c>
+      <c r="S246" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <f t="shared" si="19"/>
+        <v>246</v>
+      </c>
+      <c r="Q247">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <f t="shared" si="17"/>
+        <v>-374</v>
+      </c>
+      <c r="S247" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <f t="shared" si="19"/>
+        <v>247</v>
+      </c>
+      <c r="Q248">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <f t="shared" si="17"/>
+        <v>-374</v>
+      </c>
+      <c r="S248" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <f t="shared" si="19"/>
+        <v>248</v>
+      </c>
+      <c r="Q249">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <f t="shared" si="17"/>
+        <v>-374</v>
+      </c>
+      <c r="S249" s="2" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Battlefield5.xlsx
+++ b/Battlefield5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Science\BattlefieldV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E7088D-8A76-42CF-AF9A-455011B2F2B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5A5933-03A2-49A8-9F41-DA8E306FC18E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="12012" xr2:uid="{F69A186D-8374-47DD-86A7-853B8690958C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F69A186D-8374-47DD-86A7-853B8690958C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -194,6 +194,48 @@
   </si>
   <si>
     <t>Selbstatler</t>
+  </si>
+  <si>
+    <t>Ribeyrolles</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Hip Fire</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Rate of Fire</t>
+  </si>
+  <si>
+    <t>Ammunition_Rounds</t>
+  </si>
+  <si>
+    <t>Ammunition_Total</t>
+  </si>
+  <si>
+    <t>Multiple_Fire_Mode</t>
+  </si>
+  <si>
+    <t>Assault_Rifle</t>
+  </si>
+  <si>
+    <t>SMG</t>
+  </si>
+  <si>
+    <t>MMG</t>
+  </si>
+  <si>
+    <t>LMG</t>
+  </si>
+  <si>
+    <t>Semi-Auto_Rifle</t>
   </si>
 </sst>
 </file>
@@ -555,11 +597,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5512DE-6917-45D6-9375-2633379DD30B}">
-  <dimension ref="A1:O296"/>
+  <dimension ref="A1:O304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A297" sqref="A297:XFD297"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O304" sqref="O304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12486,6 +12528,382 @@
         <v>41</v>
       </c>
     </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297" t="s">
+        <v>51</v>
+      </c>
+      <c r="D297" t="s">
+        <v>12</v>
+      </c>
+      <c r="E297" t="s">
+        <v>36</v>
+      </c>
+      <c r="F297" t="s">
+        <v>27</v>
+      </c>
+      <c r="G297" t="s">
+        <v>29</v>
+      </c>
+      <c r="H297" t="s">
+        <v>34</v>
+      </c>
+      <c r="I297" t="s">
+        <v>32</v>
+      </c>
+      <c r="J297" t="s">
+        <v>34</v>
+      </c>
+      <c r="K297" t="s">
+        <v>4</v>
+      </c>
+      <c r="L297">
+        <v>11</v>
+      </c>
+      <c r="M297">
+        <v>9</v>
+      </c>
+      <c r="N297">
+        <v>3651</v>
+      </c>
+      <c r="O297" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B298">
+        <v>2</v>
+      </c>
+      <c r="C298" t="s">
+        <v>51</v>
+      </c>
+      <c r="D298" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298" t="s">
+        <v>43</v>
+      </c>
+      <c r="F298" t="s">
+        <v>27</v>
+      </c>
+      <c r="G298" t="s">
+        <v>29</v>
+      </c>
+      <c r="H298" t="s">
+        <v>34</v>
+      </c>
+      <c r="I298" t="s">
+        <v>32</v>
+      </c>
+      <c r="J298" t="s">
+        <v>34</v>
+      </c>
+      <c r="K298" t="s">
+        <v>4</v>
+      </c>
+      <c r="L298">
+        <v>27</v>
+      </c>
+      <c r="M298">
+        <v>17</v>
+      </c>
+      <c r="N298">
+        <v>6934</v>
+      </c>
+      <c r="O298" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B299">
+        <v>3</v>
+      </c>
+      <c r="C299" t="s">
+        <v>17</v>
+      </c>
+      <c r="D299" t="s">
+        <v>16</v>
+      </c>
+      <c r="E299" t="s">
+        <v>43</v>
+      </c>
+      <c r="F299" t="s">
+        <v>52</v>
+      </c>
+      <c r="G299" t="s">
+        <v>53</v>
+      </c>
+      <c r="H299" t="s">
+        <v>34</v>
+      </c>
+      <c r="I299" t="s">
+        <v>32</v>
+      </c>
+      <c r="J299" t="s">
+        <v>34</v>
+      </c>
+      <c r="K299" t="s">
+        <v>4</v>
+      </c>
+      <c r="L299">
+        <v>4</v>
+      </c>
+      <c r="M299">
+        <v>7</v>
+      </c>
+      <c r="N299">
+        <v>1838</v>
+      </c>
+      <c r="O299" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B300">
+        <v>4</v>
+      </c>
+      <c r="C300" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300" t="s">
+        <v>40</v>
+      </c>
+      <c r="F300" t="s">
+        <v>52</v>
+      </c>
+      <c r="G300" t="s">
+        <v>53</v>
+      </c>
+      <c r="H300" t="s">
+        <v>34</v>
+      </c>
+      <c r="I300" t="s">
+        <v>32</v>
+      </c>
+      <c r="J300" t="s">
+        <v>34</v>
+      </c>
+      <c r="K300" t="s">
+        <v>45</v>
+      </c>
+      <c r="L300">
+        <v>17</v>
+      </c>
+      <c r="M300">
+        <v>9</v>
+      </c>
+      <c r="N300">
+        <v>10293</v>
+      </c>
+      <c r="O300" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B301">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="s">
+        <v>14</v>
+      </c>
+      <c r="E301" t="s">
+        <v>40</v>
+      </c>
+      <c r="F301" t="s">
+        <v>52</v>
+      </c>
+      <c r="G301" t="s">
+        <v>53</v>
+      </c>
+      <c r="H301" t="s">
+        <v>34</v>
+      </c>
+      <c r="I301" t="s">
+        <v>32</v>
+      </c>
+      <c r="J301" t="s">
+        <v>34</v>
+      </c>
+      <c r="K301" t="s">
+        <v>45</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="M301">
+        <v>3</v>
+      </c>
+      <c r="N301">
+        <v>385</v>
+      </c>
+      <c r="O301" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B302">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>19</v>
+      </c>
+      <c r="D302" t="s">
+        <v>12</v>
+      </c>
+      <c r="E302" t="s">
+        <v>40</v>
+      </c>
+      <c r="F302" t="s">
+        <v>52</v>
+      </c>
+      <c r="G302" t="s">
+        <v>53</v>
+      </c>
+      <c r="H302" t="s">
+        <v>34</v>
+      </c>
+      <c r="I302" t="s">
+        <v>32</v>
+      </c>
+      <c r="J302" t="s">
+        <v>34</v>
+      </c>
+      <c r="K302" t="s">
+        <v>45</v>
+      </c>
+      <c r="L302">
+        <v>4</v>
+      </c>
+      <c r="M302">
+        <v>6</v>
+      </c>
+      <c r="N302">
+        <v>2684</v>
+      </c>
+      <c r="O302" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B303">
+        <v>7</v>
+      </c>
+      <c r="C303" t="s">
+        <v>19</v>
+      </c>
+      <c r="D303" t="s">
+        <v>10</v>
+      </c>
+      <c r="E303" t="s">
+        <v>40</v>
+      </c>
+      <c r="F303" t="s">
+        <v>52</v>
+      </c>
+      <c r="G303" t="s">
+        <v>53</v>
+      </c>
+      <c r="H303" t="s">
+        <v>34</v>
+      </c>
+      <c r="I303" t="s">
+        <v>32</v>
+      </c>
+      <c r="J303" t="s">
+        <v>34</v>
+      </c>
+      <c r="K303" t="s">
+        <v>45</v>
+      </c>
+      <c r="L303">
+        <v>2</v>
+      </c>
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303">
+        <v>981</v>
+      </c>
+      <c r="O303" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B304">
+        <v>8</v>
+      </c>
+      <c r="C304" t="s">
+        <v>19</v>
+      </c>
+      <c r="D304" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304" t="s">
+        <v>40</v>
+      </c>
+      <c r="F304" t="s">
+        <v>52</v>
+      </c>
+      <c r="G304" t="s">
+        <v>53</v>
+      </c>
+      <c r="H304" t="s">
+        <v>34</v>
+      </c>
+      <c r="I304" t="s">
+        <v>32</v>
+      </c>
+      <c r="J304" t="s">
+        <v>34</v>
+      </c>
+      <c r="K304" t="s">
+        <v>45</v>
+      </c>
+      <c r="L304">
+        <v>9</v>
+      </c>
+      <c r="M304">
+        <v>8</v>
+      </c>
+      <c r="N304">
+        <v>7643</v>
+      </c>
+      <c r="O304" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12494,10 +12912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD356A-E907-4D3B-A473-4C3199065706}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12505,39 +12923,488 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>5.5</v>
+      </c>
+      <c r="D2">
+        <v>2.1</v>
+      </c>
+      <c r="E2">
+        <v>4.5</v>
+      </c>
+      <c r="F2">
+        <v>540</v>
+      </c>
+      <c r="G2">
+        <v>47</v>
+      </c>
+      <c r="H2">
+        <v>141</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4.7</v>
+      </c>
+      <c r="F3">
+        <v>981</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2.7</v>
+      </c>
+      <c r="C4">
+        <v>5.8</v>
+      </c>
+      <c r="D4">
+        <v>6.9</v>
+      </c>
+      <c r="E4">
+        <v>4.5</v>
+      </c>
+      <c r="F4">
+        <v>540</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>128</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2.6</v>
+      </c>
+      <c r="C5">
+        <v>2.6</v>
+      </c>
+      <c r="D5">
+        <v>6.4</v>
+      </c>
+      <c r="E5">
+        <v>2.6</v>
+      </c>
+      <c r="F5">
+        <v>720</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4.8</v>
+      </c>
+      <c r="D6">
+        <v>3.2</v>
+      </c>
+      <c r="E6">
+        <v>2.6</v>
+      </c>
+      <c r="F6">
+        <v>670</v>
+      </c>
+      <c r="G6">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>124</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>6.9</v>
+      </c>
+      <c r="D7">
+        <v>3.2</v>
+      </c>
+      <c r="E7">
+        <v>3.2</v>
+      </c>
+      <c r="F7">
+        <v>600</v>
+      </c>
+      <c r="G7">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>124</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>2.7</v>
+      </c>
+      <c r="C8">
+        <v>5.8</v>
+      </c>
+      <c r="D8">
+        <v>6.9</v>
+      </c>
+      <c r="E8">
+        <v>3.5</v>
+      </c>
+      <c r="F8">
+        <v>568</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>128</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>4.7</v>
+      </c>
+      <c r="C9">
+        <v>7.5</v>
+      </c>
+      <c r="D9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F9">
+        <v>225</v>
+      </c>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>78</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E10">
+        <v>2.7</v>
+      </c>
+      <c r="F10">
+        <v>670</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>3.2</v>
+      </c>
+      <c r="E11">
+        <v>4.5</v>
+      </c>
+      <c r="F11">
+        <v>540</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>125</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
